--- a/外皮計算テストケース表_180309.xlsx
+++ b/外皮計算テストケース表_180309.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC56BA-0894-4A34-B555-DE8EFF543B23}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5653B131-3D73-4EA7-B7AB-B4EA69B16CD6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20520" windowHeight="8333" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモ" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="272">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1977,43 +1977,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1:上面 2:北 3:北東 4:東 5:南東 6:南 7:南西 8:西 9:北西 10:下面 11:外気に通じていない空間 12:外気に通じる床裏 13:住戸及び住戸と同様の熱的環境の空間 14:外気に通じていない床裏 </t>
-    <rPh sb="2" eb="4">
-      <t>ウワツラ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホクトウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナントウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナンセイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ホクセイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>メン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>1～10:温度差係数1 11～12:温度差係数0.7 13～14:温度差係数1～3地域0.05 4～8地域0.15</t>
     <rPh sb="5" eb="7">
       <t>オンド</t>
@@ -2991,6 +2954,69 @@
       <t>ダンネツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温度差係数1～3地域0.05、4～8地域0.15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床等</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:上面 2:北 3:北東 4:東 5:南東 6:南 7:南西 8:西 9:北西 10:下面 11:外気に通じていない空間 12:外気に通じる床裏 13:住戸及び住戸と同様の熱的環境の空間 14:外気に通じていない床裏 15:土間床等</t>
+    <rPh sb="2" eb="4">
+      <t>ウワツラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3149,7 +3175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3365,26 +3391,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3401,10 +3433,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3419,21 +3463,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3443,14 +3472,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3749,10 +3784,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -3798,13 +3833,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W172"/>
+  <dimension ref="A1:W173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4:E11"/>
+      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3882,23 +3917,23 @@
         <v>27</v>
       </c>
       <c r="O2" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P2" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="R2" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="S2" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="S2" s="54" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="85" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3945,36 +3980,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="75" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="86"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="91">
         <v>6</v>
       </c>
-      <c r="I4" s="86">
-        <v>1</v>
-      </c>
-      <c r="J4" s="86">
+      <c r="I4" s="91">
+        <v>1</v>
+      </c>
+      <c r="J4" s="91">
         <v>8</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -3992,7 +4027,7 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
       <c r="D5" s="77"/>
@@ -4017,7 +4052,7 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="84"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="77"/>
@@ -4042,7 +4077,7 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="84"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
       <c r="D7" s="77"/>
@@ -4067,7 +4102,7 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="84"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
       <c r="D8" s="77"/>
@@ -4092,7 +4127,7 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="84"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="92"/>
       <c r="C9" s="92"/>
       <c r="D9" s="77"/>
@@ -4117,7 +4152,7 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="84"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="92"/>
       <c r="C10" s="92"/>
       <c r="D10" s="77"/>
@@ -4142,24 +4177,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="84"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="87"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -4167,7 +4202,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="84"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4214,7 +4249,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="84"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -4261,7 +4296,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -4308,38 +4343,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="84"/>
-      <c r="B15" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="83"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="85"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="76">
         <v>2</v>
       </c>
-      <c r="I15" s="75">
-        <v>1</v>
-      </c>
-      <c r="J15" s="75">
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
+      <c r="J15" s="76">
         <v>2</v>
       </c>
-      <c r="K15" s="75" t="s">
+      <c r="K15" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="86"/>
-      <c r="M15" s="75" t="s">
+      <c r="L15" s="91"/>
+      <c r="M15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="86"/>
+      <c r="N15" s="91"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -4357,24 +4392,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="91"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="87"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="93"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -4382,13 +4417,13 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="43"/>
@@ -4407,7 +4442,7 @@
         <v>64</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N17" s="45"/>
       <c r="O17" s="55" t="s">
@@ -4427,13 +4462,13 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="43"/>
@@ -4452,7 +4487,7 @@
         <v>64</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="55" t="s">
@@ -4476,13 +4511,13 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="63"/>
       <c r="F19" s="62"/>
@@ -4501,7 +4536,7 @@
         <v>64</v>
       </c>
       <c r="M19" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N19" s="63"/>
       <c r="O19" s="55" t="s">
@@ -4521,81 +4556,81 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="80" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="69">
+        <v>1</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="69">
-        <v>1</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75">
-        <v>1</v>
-      </c>
-      <c r="J20" s="75">
+      <c r="H20" s="76"/>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
+      <c r="J20" s="76">
         <v>2</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="75" t="s">
+      <c r="L20" s="79"/>
+      <c r="M20" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="75"/>
-      <c r="O20" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="78" t="s">
+      <c r="N20" s="76"/>
+      <c r="O20" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="103" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="84"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
-      <c r="L21" s="85"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="77"/>
       <c r="N21" s="77"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4635,35 +4670,35 @@
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
       <c r="A23" s="92"/>
-      <c r="B23" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="99"/>
+      <c r="B23" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="85"/>
+      <c r="D23" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="88"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="75">
-        <v>1</v>
-      </c>
-      <c r="J23" s="75">
+        <v>228</v>
+      </c>
+      <c r="H23" s="94"/>
+      <c r="I23" s="76">
+        <v>1</v>
+      </c>
+      <c r="J23" s="76">
         <v>6</v>
       </c>
-      <c r="K23" s="80" t="s">
+      <c r="K23" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="80" t="s">
+      <c r="L23" s="94"/>
+      <c r="M23" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="83"/>
+      <c r="N23" s="85"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -4683,23 +4718,23 @@
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
       <c r="A24" s="92"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="89"/>
+      <c r="H24" s="95"/>
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="84"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="86"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -4709,23 +4744,23 @@
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
       <c r="A25" s="92"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="100"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="89"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="84"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="86"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -4735,23 +4770,23 @@
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
       <c r="A26" s="92"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="100"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="89"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="89"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="84"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="86"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -4763,23 +4798,23 @@
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
       <c r="A27" s="92"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="100"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="89"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="84"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="86"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -4791,23 +4826,23 @@
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
       <c r="A28" s="92"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="101"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="90"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="91"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="87"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -4824,7 +4859,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4864,7 +4899,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4912,7 +4947,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4960,7 +4995,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -5203,7 +5238,7 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -5249,7 +5284,7 @@
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5290,37 +5325,37 @@
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
       <c r="A39" s="92"/>
-      <c r="B39" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75" t="s">
+      <c r="B39" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="76"/>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="76">
+        <v>1</v>
+      </c>
+      <c r="I39" s="76">
+        <v>1</v>
+      </c>
+      <c r="J39" s="76">
+        <v>3</v>
+      </c>
+      <c r="K39" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="75">
-        <v>1</v>
-      </c>
-      <c r="I39" s="75">
-        <v>1</v>
-      </c>
-      <c r="J39" s="75">
-        <v>3</v>
-      </c>
-      <c r="K39" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="L39" s="73"/>
-      <c r="M39" s="75" t="s">
+      <c r="L39" s="79"/>
+      <c r="M39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="75"/>
+      <c r="N39" s="76"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -5347,13 +5382,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H40" s="77"/>
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
       <c r="K40" s="77"/>
-      <c r="L40" s="85"/>
+      <c r="L40" s="80"/>
       <c r="M40" s="77"/>
       <c r="N40" s="77"/>
       <c r="O40" s="52"/>
@@ -5372,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="77"/>
       <c r="I41" s="77"/>
       <c r="J41" s="77"/>
       <c r="K41" s="77"/>
-      <c r="L41" s="85"/>
+      <c r="L41" s="80"/>
       <c r="M41" s="77"/>
       <c r="N41" s="77"/>
       <c r="O41" s="59"/>
@@ -5389,23 +5424,23 @@
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
       <c r="A42" s="92"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
+        <v>238</v>
+      </c>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -5414,39 +5449,39 @@
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
       <c r="A43" s="92"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="75" t="s">
+      <c r="B43" s="76"/>
+      <c r="C43" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="E43" s="75" t="s">
-        <v>216</v>
-      </c>
       <c r="F43" s="10">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" s="75">
-        <v>1</v>
-      </c>
-      <c r="I43" s="75">
-        <v>1</v>
-      </c>
-      <c r="J43" s="75">
+        <v>211</v>
+      </c>
+      <c r="H43" s="76">
+        <v>1</v>
+      </c>
+      <c r="I43" s="76">
+        <v>1</v>
+      </c>
+      <c r="J43" s="76">
         <v>3</v>
       </c>
-      <c r="K43" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="L43" s="73"/>
-      <c r="M43" s="75" t="s">
+      <c r="K43" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="79"/>
+      <c r="M43" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="75"/>
+      <c r="N43" s="76"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -5473,13 +5508,13 @@
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H44" s="77"/>
       <c r="I44" s="77"/>
       <c r="J44" s="77"/>
       <c r="K44" s="77"/>
-      <c r="L44" s="85"/>
+      <c r="L44" s="80"/>
       <c r="M44" s="77"/>
       <c r="N44" s="77"/>
       <c r="O44" s="52"/>
@@ -5490,23 +5525,23 @@
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
       <c r="A45" s="92"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
+        <v>212</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -5520,10 +5555,10 @@
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -5567,10 +5602,10 @@
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -5614,28 +5649,28 @@
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="K48" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>39</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="55" t="s">
@@ -5664,7 +5699,7 @@
         <v>46</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -5682,7 +5717,7 @@
         <v>64</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="55" t="s">
@@ -5708,10 +5743,10 @@
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -5749,7 +5784,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="91" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5797,7 +5832,7 @@
         <v>154</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -5811,13 +5846,13 @@
         <v>1</v>
       </c>
       <c r="K52" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L52" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="L52" s="25" t="s">
+      <c r="M52" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="M52" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="N52" s="25"/>
       <c r="O52" s="55" t="s">
@@ -5850,7 +5885,7 @@
         <v>155</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -5864,13 +5899,13 @@
         <v>1</v>
       </c>
       <c r="K53" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="L53" s="25" t="s">
+      <c r="M53" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="N53" s="25" t="s">
         <v>159</v>
@@ -5905,7 +5940,7 @@
         <v>156</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -5919,13 +5954,13 @@
         <v>1</v>
       </c>
       <c r="K54" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L54" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="L54" s="25" t="s">
+      <c r="M54" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="N54" s="25" t="s">
         <v>159</v>
@@ -5960,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -6009,7 +6044,7 @@
         <v>151</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -6032,7 +6067,7 @@
         <v>38</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O56" s="55" t="s">
         <v>169</v>
@@ -6064,7 +6099,7 @@
         <v>153</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -6119,7 +6154,7 @@
         <v>80</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="1"/>
@@ -6168,7 +6203,7 @@
         <v>163</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
@@ -6191,7 +6226,7 @@
         <v>38</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O59" s="55" t="s">
         <v>169</v>
@@ -6223,7 +6258,7 @@
         <v>164</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
@@ -6410,7 +6445,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="18.75">
-      <c r="A64" s="87"/>
+      <c r="A64" s="93"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -6457,7 +6492,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="91" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -6545,7 +6580,7 @@
         <v>85</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -6594,7 +6629,7 @@
         <v>86</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -6643,7 +6678,7 @@
         <v>87</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -6692,7 +6727,7 @@
         <v>157</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -6745,7 +6780,7 @@
         <v>158</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -6829,7 +6864,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="87"/>
+      <c r="A73" s="93"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -6869,40 +6904,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="96" t="s">
+      <c r="A74" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="75" t="s">
+      <c r="B74" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="91"/>
+      <c r="D74" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="86"/>
+      <c r="E74" s="91"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="86">
-        <v>1</v>
-      </c>
-      <c r="I74" s="75">
-        <v>1</v>
-      </c>
-      <c r="J74" s="75">
+      <c r="H74" s="91">
+        <v>1</v>
+      </c>
+      <c r="I74" s="76">
+        <v>1</v>
+      </c>
+      <c r="J74" s="76">
         <v>4</v>
       </c>
-      <c r="K74" s="86" t="s">
+      <c r="K74" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="86"/>
-      <c r="M74" s="75" t="s">
+      <c r="L74" s="91"/>
+      <c r="M74" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="86"/>
+      <c r="N74" s="91"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -6975,23 +7010,23 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="92"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="87"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="87"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="87"/>
-      <c r="L77" s="87"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="87"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="93"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -7000,14 +7035,14 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="92"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86" t="s">
+      <c r="B78" s="91"/>
+      <c r="C78" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="75" t="s">
+      <c r="D78" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="75" t="s">
+      <c r="E78" s="76" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -7016,23 +7051,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="86">
-        <v>1</v>
-      </c>
-      <c r="I78" s="75">
-        <v>1</v>
-      </c>
-      <c r="J78" s="75">
+      <c r="H78" s="91">
+        <v>1</v>
+      </c>
+      <c r="I78" s="76">
+        <v>1</v>
+      </c>
+      <c r="J78" s="76">
         <v>4</v>
       </c>
-      <c r="K78" s="86" t="s">
+      <c r="K78" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="86"/>
-      <c r="M78" s="75" t="s">
+      <c r="L78" s="91"/>
+      <c r="M78" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="86"/>
+      <c r="N78" s="91"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -7101,23 +7136,23 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="92"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="87"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="87"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="93"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="93"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -7625,37 +7660,37 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="92"/>
-      <c r="B93" s="86" t="s">
+      <c r="B93" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86" t="s">
+      <c r="C93" s="91"/>
+      <c r="D93" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="86"/>
+      <c r="E93" s="91"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="86">
-        <v>1</v>
-      </c>
-      <c r="I93" s="86">
-        <v>1</v>
-      </c>
-      <c r="J93" s="86">
+      <c r="H93" s="91">
+        <v>1</v>
+      </c>
+      <c r="I93" s="91">
+        <v>1</v>
+      </c>
+      <c r="J93" s="91">
         <v>2</v>
       </c>
-      <c r="K93" s="86" t="s">
+      <c r="K93" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="86"/>
-      <c r="M93" s="86" t="s">
+      <c r="L93" s="91"/>
+      <c r="M93" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="86"/>
+      <c r="N93" s="91"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -7666,23 +7701,23 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="92"/>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="87"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="87"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="87"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="93"/>
+      <c r="K94" s="93"/>
+      <c r="L94" s="93"/>
+      <c r="M94" s="93"/>
+      <c r="N94" s="93"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -7691,37 +7726,37 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="92"/>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="86" t="s">
+      <c r="C95" s="91"/>
+      <c r="D95" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="86"/>
+      <c r="E95" s="91"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="86">
+      <c r="H95" s="91">
         <v>2</v>
       </c>
-      <c r="I95" s="86">
-        <v>1</v>
-      </c>
-      <c r="J95" s="86">
+      <c r="I95" s="91">
+        <v>1</v>
+      </c>
+      <c r="J95" s="91">
         <v>2</v>
       </c>
-      <c r="K95" s="86" t="s">
+      <c r="K95" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="86"/>
-      <c r="M95" s="86" t="s">
+      <c r="L95" s="91"/>
+      <c r="M95" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="86"/>
+      <c r="N95" s="91"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -7732,23 +7767,23 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="92"/>
-      <c r="B96" s="87"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="87"/>
-      <c r="I96" s="87"/>
-      <c r="J96" s="87"/>
-      <c r="K96" s="87"/>
-      <c r="L96" s="87"/>
-      <c r="M96" s="87"/>
-      <c r="N96" s="87"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93"/>
+      <c r="J96" s="93"/>
+      <c r="K96" s="93"/>
+      <c r="L96" s="93"/>
+      <c r="M96" s="93"/>
+      <c r="N96" s="93"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -7756,7 +7791,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="87"/>
+      <c r="A97" s="93"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -7805,40 +7840,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="96" t="s">
+      <c r="A98" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="86"/>
-      <c r="D98" s="86" t="s">
+      <c r="C98" s="91"/>
+      <c r="D98" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="86"/>
+      <c r="E98" s="91"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="86">
-        <v>1</v>
-      </c>
-      <c r="I98" s="86">
-        <v>1</v>
-      </c>
-      <c r="J98" s="86">
+      <c r="H98" s="91">
+        <v>1</v>
+      </c>
+      <c r="I98" s="91">
+        <v>1</v>
+      </c>
+      <c r="J98" s="91">
         <v>3</v>
       </c>
-      <c r="K98" s="86" t="s">
+      <c r="K98" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="86"/>
-      <c r="M98" s="86" t="s">
+      <c r="L98" s="91"/>
+      <c r="M98" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="86"/>
+      <c r="N98" s="91"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -7856,7 +7891,7 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="97"/>
+      <c r="A99" s="98"/>
       <c r="B99" s="92"/>
       <c r="C99" s="92"/>
       <c r="D99" s="92"/>
@@ -7881,24 +7916,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="97"/>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="87"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="87"/>
-      <c r="I100" s="87"/>
-      <c r="J100" s="87"/>
-      <c r="K100" s="87"/>
-      <c r="L100" s="87"/>
-      <c r="M100" s="87"/>
-      <c r="N100" s="87"/>
+      <c r="H100" s="93"/>
+      <c r="I100" s="93"/>
+      <c r="J100" s="93"/>
+      <c r="K100" s="93"/>
+      <c r="L100" s="93"/>
+      <c r="M100" s="93"/>
+      <c r="N100" s="93"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -7906,15 +7941,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="97"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86" t="s">
+      <c r="A101" s="98"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="86" t="s">
+      <c r="D101" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="86" t="s">
+      <c r="E101" s="91" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -7923,21 +7958,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="86"/>
-      <c r="I101" s="86">
-        <v>1</v>
-      </c>
-      <c r="J101" s="86">
+      <c r="H101" s="91"/>
+      <c r="I101" s="91">
+        <v>1</v>
+      </c>
+      <c r="J101" s="91">
         <v>4</v>
       </c>
-      <c r="K101" s="86" t="s">
+      <c r="K101" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="86"/>
-      <c r="M101" s="86" t="s">
+      <c r="L101" s="91"/>
+      <c r="M101" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="86"/>
+      <c r="N101" s="91"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -7955,7 +7990,7 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="97"/>
+      <c r="A102" s="98"/>
       <c r="B102" s="92"/>
       <c r="C102" s="92"/>
       <c r="D102" s="92"/>
@@ -7980,7 +8015,7 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="97"/>
+      <c r="A103" s="98"/>
       <c r="B103" s="92"/>
       <c r="C103" s="92"/>
       <c r="D103" s="92"/>
@@ -8005,24 +8040,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="97"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
+      <c r="A104" s="98"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="87"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="87"/>
-      <c r="K104" s="87"/>
-      <c r="L104" s="87"/>
-      <c r="M104" s="87"/>
-      <c r="N104" s="87"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93"/>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="93"/>
+      <c r="M104" s="93"/>
+      <c r="N104" s="93"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -8030,38 +8065,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="97"/>
-      <c r="B105" s="86" t="s">
+      <c r="A105" s="98"/>
+      <c r="B105" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="86"/>
-      <c r="D105" s="86" t="s">
+      <c r="C105" s="91"/>
+      <c r="D105" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="86"/>
+      <c r="E105" s="91"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="86">
+      <c r="H105" s="91">
         <v>3</v>
       </c>
-      <c r="I105" s="86">
-        <v>1</v>
-      </c>
-      <c r="J105" s="86">
+      <c r="I105" s="91">
+        <v>1</v>
+      </c>
+      <c r="J105" s="91">
         <v>3</v>
       </c>
-      <c r="K105" s="86" t="s">
+      <c r="K105" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="86"/>
-      <c r="M105" s="86" t="s">
+      <c r="L105" s="91"/>
+      <c r="M105" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="86"/>
+      <c r="N105" s="91"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -8079,7 +8114,7 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="97"/>
+      <c r="A106" s="98"/>
       <c r="B106" s="92"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
@@ -8104,24 +8139,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="97"/>
-      <c r="B107" s="87"/>
-      <c r="C107" s="87"/>
-      <c r="D107" s="87"/>
-      <c r="E107" s="87"/>
+      <c r="A107" s="98"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="87"/>
-      <c r="I107" s="87"/>
-      <c r="J107" s="87"/>
-      <c r="K107" s="87"/>
-      <c r="L107" s="87"/>
-      <c r="M107" s="87"/>
-      <c r="N107" s="87"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="93"/>
+      <c r="J107" s="93"/>
+      <c r="K107" s="93"/>
+      <c r="L107" s="93"/>
+      <c r="M107" s="93"/>
+      <c r="N107" s="93"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -8129,15 +8164,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="97"/>
-      <c r="B108" s="86"/>
-      <c r="C108" s="86" t="s">
+      <c r="A108" s="98"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="86" t="s">
+      <c r="D108" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="86" t="s">
+      <c r="E108" s="91" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -8146,21 +8181,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="86"/>
-      <c r="I108" s="86">
-        <v>1</v>
-      </c>
-      <c r="J108" s="86">
+      <c r="H108" s="91"/>
+      <c r="I108" s="91">
+        <v>1</v>
+      </c>
+      <c r="J108" s="91">
         <v>4</v>
       </c>
-      <c r="K108" s="86" t="s">
+      <c r="K108" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="86"/>
-      <c r="M108" s="86" t="s">
+      <c r="L108" s="91"/>
+      <c r="M108" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="86"/>
+      <c r="N108" s="91"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -8178,7 +8213,7 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="97"/>
+      <c r="A109" s="98"/>
       <c r="B109" s="92"/>
       <c r="C109" s="92"/>
       <c r="D109" s="92"/>
@@ -8203,7 +8238,7 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="97"/>
+      <c r="A110" s="98"/>
       <c r="B110" s="92"/>
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
@@ -8228,24 +8263,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="97"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="87"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="87"/>
+      <c r="A111" s="98"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="93"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="87"/>
-      <c r="I111" s="87"/>
-      <c r="J111" s="87"/>
-      <c r="K111" s="87"/>
-      <c r="L111" s="87"/>
-      <c r="M111" s="87"/>
-      <c r="N111" s="87"/>
+      <c r="H111" s="93"/>
+      <c r="I111" s="93"/>
+      <c r="J111" s="93"/>
+      <c r="K111" s="93"/>
+      <c r="L111" s="93"/>
+      <c r="M111" s="93"/>
+      <c r="N111" s="93"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -8253,7 +8288,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="18.75">
-      <c r="A112" s="97"/>
+      <c r="A112" s="98"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -8298,7 +8333,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="18.75">
-      <c r="A113" s="97"/>
+      <c r="A113" s="98"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -8343,7 +8378,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="18.75">
-      <c r="A114" s="98"/>
+      <c r="A114" s="99"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -8388,40 +8423,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="96" t="s">
+      <c r="A115" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="86"/>
-      <c r="D115" s="75" t="s">
+      <c r="B115" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="91"/>
+      <c r="D115" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="86"/>
+      <c r="E115" s="91"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="86">
-        <v>1</v>
-      </c>
-      <c r="I115" s="75">
-        <v>1</v>
-      </c>
-      <c r="J115" s="75">
+      <c r="H115" s="91">
+        <v>1</v>
+      </c>
+      <c r="I115" s="76">
+        <v>1</v>
+      </c>
+      <c r="J115" s="76">
         <v>4</v>
       </c>
-      <c r="K115" s="86" t="s">
+      <c r="K115" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="86"/>
-      <c r="M115" s="75" t="s">
+      <c r="L115" s="91"/>
+      <c r="M115" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="86"/>
+      <c r="N115" s="91"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -8494,23 +8529,23 @@
     </row>
     <row r="118" spans="1:23">
       <c r="A118" s="92"/>
-      <c r="B118" s="87"/>
-      <c r="C118" s="87"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="87"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="93"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="93"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="87"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
-      <c r="K118" s="87"/>
-      <c r="L118" s="87"/>
-      <c r="M118" s="76"/>
-      <c r="N118" s="87"/>
+      <c r="H118" s="93"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="78"/>
+      <c r="K118" s="93"/>
+      <c r="L118" s="93"/>
+      <c r="M118" s="78"/>
+      <c r="N118" s="93"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -8519,14 +8554,14 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119" s="92"/>
-      <c r="B119" s="86"/>
-      <c r="C119" s="86" t="s">
+      <c r="B119" s="91"/>
+      <c r="C119" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="75" t="s">
+      <c r="D119" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="75" t="s">
+      <c r="E119" s="76" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -8535,23 +8570,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="86">
-        <v>1</v>
-      </c>
-      <c r="I119" s="75">
-        <v>1</v>
-      </c>
-      <c r="J119" s="75">
+      <c r="H119" s="91">
+        <v>1</v>
+      </c>
+      <c r="I119" s="76">
+        <v>1</v>
+      </c>
+      <c r="J119" s="76">
         <v>4</v>
       </c>
-      <c r="K119" s="86" t="s">
+      <c r="K119" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="86"/>
-      <c r="M119" s="75" t="s">
+      <c r="L119" s="91"/>
+      <c r="M119" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="86"/>
+      <c r="N119" s="91"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -8620,23 +8655,23 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" s="92"/>
-      <c r="B122" s="87"/>
-      <c r="C122" s="87"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="87"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="87"/>
-      <c r="L122" s="87"/>
-      <c r="M122" s="76"/>
-      <c r="N122" s="87"/>
+      <c r="H122" s="93"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="93"/>
+      <c r="L122" s="93"/>
+      <c r="M122" s="78"/>
+      <c r="N122" s="93"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -8645,37 +8680,37 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123" s="92"/>
-      <c r="B123" s="86" t="s">
+      <c r="B123" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86" t="s">
+      <c r="C123" s="91"/>
+      <c r="D123" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="86"/>
+      <c r="E123" s="91"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="86">
-        <v>1</v>
-      </c>
-      <c r="I123" s="86">
-        <v>1</v>
-      </c>
-      <c r="J123" s="86">
+      <c r="H123" s="91">
+        <v>1</v>
+      </c>
+      <c r="I123" s="91">
+        <v>1</v>
+      </c>
+      <c r="J123" s="91">
         <v>2</v>
       </c>
-      <c r="K123" s="86" t="s">
+      <c r="K123" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="86"/>
-      <c r="M123" s="86" t="s">
+      <c r="L123" s="91"/>
+      <c r="M123" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="86"/>
+      <c r="N123" s="91"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -8694,23 +8729,23 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="92"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="87"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="93"/>
+      <c r="E124" s="93"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="87"/>
-      <c r="I124" s="87"/>
-      <c r="J124" s="87"/>
-      <c r="K124" s="87"/>
-      <c r="L124" s="87"/>
-      <c r="M124" s="87"/>
-      <c r="N124" s="87"/>
+      <c r="H124" s="93"/>
+      <c r="I124" s="93"/>
+      <c r="J124" s="93"/>
+      <c r="K124" s="93"/>
+      <c r="L124" s="93"/>
+      <c r="M124" s="93"/>
+      <c r="N124" s="93"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -8719,11 +8754,11 @@
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
       <c r="A125" s="92"/>
-      <c r="B125" s="83" t="s">
+      <c r="B125" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="80" t="s">
+      <c r="D125" s="82" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -8733,20 +8768,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="75">
-        <v>1</v>
-      </c>
-      <c r="I125" s="75">
-        <v>1</v>
-      </c>
-      <c r="J125" s="75">
+      <c r="H125" s="76">
+        <v>1</v>
+      </c>
+      <c r="I125" s="76">
+        <v>1</v>
+      </c>
+      <c r="J125" s="76">
         <v>2</v>
       </c>
-      <c r="K125" s="75" t="s">
+      <c r="K125" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="86"/>
-      <c r="M125" s="86" t="s">
+      <c r="L125" s="91"/>
+      <c r="M125" s="91" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -8772,9 +8807,9 @@
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
       <c r="A126" s="92"/>
-      <c r="B126" s="91"/>
+      <c r="B126" s="87"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="82"/>
+      <c r="D126" s="84"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -8782,12 +8817,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="76"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="76"/>
-      <c r="K126" s="76"/>
-      <c r="L126" s="87"/>
-      <c r="M126" s="87"/>
+      <c r="H126" s="78"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="78"/>
+      <c r="L126" s="93"/>
+      <c r="M126" s="93"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -8801,14 +8836,14 @@
     </row>
     <row r="127" spans="1:23">
       <c r="A127" s="92"/>
-      <c r="B127" s="86" t="s">
+      <c r="B127" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="86"/>
-      <c r="D127" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="E127" s="94" t="s">
+      <c r="C127" s="91"/>
+      <c r="D127" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" s="100" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -8817,20 +8852,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="86">
+      <c r="H127" s="91">
         <v>2</v>
       </c>
-      <c r="I127" s="86">
-        <v>1</v>
-      </c>
-      <c r="J127" s="75">
-        <v>14</v>
-      </c>
-      <c r="K127" s="86" t="s">
+      <c r="I127" s="91">
+        <v>1</v>
+      </c>
+      <c r="J127" s="76">
+        <v>15</v>
+      </c>
+      <c r="K127" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="86"/>
-      <c r="M127" s="86" t="s">
+      <c r="L127" s="91"/>
+      <c r="M127" s="91" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -8856,8 +8891,8 @@
       <c r="A128" s="92"/>
       <c r="B128" s="92"/>
       <c r="C128" s="92"/>
-      <c r="D128" s="95"/>
-      <c r="E128" s="94"/>
+      <c r="D128" s="101"/>
+      <c r="E128" s="100"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
@@ -8893,8 +8928,8 @@
       <c r="A129" s="92"/>
       <c r="B129" s="92"/>
       <c r="C129" s="92"/>
-      <c r="D129" s="95"/>
-      <c r="E129" s="94"/>
+      <c r="D129" s="101"/>
+      <c r="E129" s="100"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
@@ -8930,8 +8965,8 @@
       <c r="A130" s="92"/>
       <c r="B130" s="92"/>
       <c r="C130" s="92"/>
-      <c r="D130" s="95"/>
-      <c r="E130" s="94"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="100"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
@@ -8967,8 +9002,8 @@
       <c r="A131" s="92"/>
       <c r="B131" s="92"/>
       <c r="C131" s="92"/>
-      <c r="D131" s="95"/>
-      <c r="E131" s="94"/>
+      <c r="D131" s="101"/>
+      <c r="E131" s="100"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
@@ -9004,8 +9039,8 @@
       <c r="A132" s="92"/>
       <c r="B132" s="92"/>
       <c r="C132" s="92"/>
-      <c r="D132" s="95"/>
-      <c r="E132" s="94"/>
+      <c r="D132" s="101"/>
+      <c r="E132" s="100"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
@@ -9041,8 +9076,8 @@
       <c r="A133" s="92"/>
       <c r="B133" s="92"/>
       <c r="C133" s="92"/>
-      <c r="D133" s="95"/>
-      <c r="E133" s="94"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="100"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
@@ -9078,8 +9113,8 @@
       <c r="A134" s="92"/>
       <c r="B134" s="92"/>
       <c r="C134" s="92"/>
-      <c r="D134" s="95"/>
-      <c r="E134" s="94"/>
+      <c r="D134" s="101"/>
+      <c r="E134" s="100"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
@@ -9115,8 +9150,8 @@
       <c r="A135" s="92"/>
       <c r="B135" s="92"/>
       <c r="C135" s="92"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="94"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="100"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
@@ -9152,8 +9187,8 @@
       <c r="A136" s="92"/>
       <c r="B136" s="92"/>
       <c r="C136" s="92"/>
-      <c r="D136" s="95"/>
-      <c r="E136" s="94"/>
+      <c r="D136" s="101"/>
+      <c r="E136" s="100"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
@@ -9189,8 +9224,8 @@
       <c r="A137" s="92"/>
       <c r="B137" s="92"/>
       <c r="C137" s="92"/>
-      <c r="D137" s="95"/>
-      <c r="E137" s="94"/>
+      <c r="D137" s="101"/>
+      <c r="E137" s="100"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
@@ -9230,8 +9265,8 @@
       <c r="A138" s="92"/>
       <c r="B138" s="92"/>
       <c r="C138" s="92"/>
-      <c r="D138" s="95"/>
-      <c r="E138" s="94"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="100"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
@@ -9271,8 +9306,8 @@
       <c r="A139" s="92"/>
       <c r="B139" s="92"/>
       <c r="C139" s="92"/>
-      <c r="D139" s="95"/>
-      <c r="E139" s="94"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="100"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
@@ -9308,16 +9343,16 @@
       <c r="V139" s="27"/>
       <c r="W139" s="27"/>
     </row>
-    <row r="140" spans="1:23" s="7" customFormat="1">
+    <row r="140" spans="1:23" s="58" customFormat="1">
       <c r="A140" s="92"/>
       <c r="B140" s="92"/>
       <c r="C140" s="92"/>
-      <c r="D140" s="95"/>
-      <c r="E140" s="94"/>
-      <c r="F140" s="10">
+      <c r="D140" s="101"/>
+      <c r="E140" s="100"/>
+      <c r="F140" s="75">
         <v>14</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
       <c r="H140" s="92"/>
@@ -9326,8 +9361,8 @@
       <c r="K140" s="92"/>
       <c r="L140" s="92"/>
       <c r="M140" s="92"/>
-      <c r="N140" s="9" t="s">
-        <v>144</v>
+      <c r="N140" s="74" t="s">
+        <v>269</v>
       </c>
       <c r="O140" s="55" t="s">
         <v>51</v>
@@ -9344,54 +9379,34 @@
       <c r="S140" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="T140" s="27"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="27"/>
-      <c r="W140" s="27"/>
-    </row>
-    <row r="141" spans="1:23">
+    </row>
+    <row r="141" spans="1:23" s="7" customFormat="1">
       <c r="A141" s="92"/>
-      <c r="B141" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C141" s="86"/>
-      <c r="D141" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="94" t="s">
-        <v>146</v>
-      </c>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="101"/>
+      <c r="E141" s="100"/>
       <c r="F141" s="10">
-        <v>1</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H141" s="93">
-        <v>1</v>
-      </c>
-      <c r="I141" s="93">
-        <v>1</v>
-      </c>
-      <c r="J141" s="94">
-        <v>4</v>
-      </c>
-      <c r="K141" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="L141" s="86"/>
-      <c r="M141" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="N141" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H141" s="92"/>
+      <c r="I141" s="92"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="92"/>
+      <c r="L141" s="92"/>
+      <c r="M141" s="92"/>
+      <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="P141" s="55" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="Q141" s="55" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="R141" s="55" t="s">
         <v>51</v>
@@ -9399,26 +9414,46 @@
       <c r="S141" s="55" t="s">
         <v>51</v>
       </c>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
+      <c r="V141" s="27"/>
+      <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
       <c r="A142" s="92"/>
-      <c r="B142" s="92"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="95"/>
-      <c r="E142" s="94"/>
+      <c r="B142" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="91"/>
+      <c r="D142" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142" s="100" t="s">
+        <v>146</v>
+      </c>
       <c r="F142" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H142" s="93"/>
-      <c r="I142" s="93"/>
-      <c r="J142" s="94"/>
-      <c r="K142" s="92"/>
-      <c r="L142" s="92"/>
-      <c r="M142" s="92"/>
-      <c r="N142" s="32"/>
+        <v>91</v>
+      </c>
+      <c r="H142" s="102">
+        <v>1</v>
+      </c>
+      <c r="I142" s="102">
+        <v>1</v>
+      </c>
+      <c r="J142" s="100">
+        <v>4</v>
+      </c>
+      <c r="K142" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" s="91"/>
+      <c r="M142" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="N142" s="29"/>
       <c r="O142" s="55" t="s">
         <v>169</v>
       </c>
@@ -9435,21 +9470,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="7" customFormat="1">
+    <row r="143" spans="1:23">
       <c r="A143" s="92"/>
       <c r="B143" s="92"/>
       <c r="C143" s="92"/>
-      <c r="D143" s="95"/>
-      <c r="E143" s="94"/>
+      <c r="D143" s="101"/>
+      <c r="E143" s="100"/>
       <c r="F143" s="10">
-        <v>3</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H143" s="93"/>
-      <c r="I143" s="93"/>
-      <c r="J143" s="94"/>
+        <v>2</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H143" s="102"/>
+      <c r="I143" s="102"/>
+      <c r="J143" s="100"/>
       <c r="K143" s="92"/>
       <c r="L143" s="92"/>
       <c r="M143" s="92"/>
@@ -9469,30 +9504,26 @@
       <c r="S143" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="T143" s="27"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="27"/>
-      <c r="W143" s="27"/>
-    </row>
-    <row r="144" spans="1:23">
+    </row>
+    <row r="144" spans="1:23" s="7" customFormat="1">
       <c r="A144" s="92"/>
-      <c r="B144" s="87"/>
-      <c r="C144" s="87"/>
-      <c r="D144" s="95"/>
-      <c r="E144" s="94"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="101"/>
+      <c r="E144" s="100"/>
       <c r="F144" s="10">
-        <v>4</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H144" s="93"/>
-      <c r="I144" s="93"/>
-      <c r="J144" s="94"/>
-      <c r="K144" s="87"/>
-      <c r="L144" s="87"/>
-      <c r="M144" s="87"/>
-      <c r="N144" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H144" s="102"/>
+      <c r="I144" s="102"/>
+      <c r="J144" s="100"/>
+      <c r="K144" s="92"/>
+      <c r="L144" s="92"/>
+      <c r="M144" s="92"/>
+      <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
       </c>
@@ -9500,7 +9531,7 @@
         <v>169</v>
       </c>
       <c r="Q144" s="55" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="R144" s="55" t="s">
         <v>51</v>
@@ -9508,42 +9539,30 @@
       <c r="S144" s="55" t="s">
         <v>51</v>
       </c>
+      <c r="T144" s="27"/>
+      <c r="U144" s="27"/>
+      <c r="V144" s="27"/>
+      <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
       <c r="A145" s="92"/>
-      <c r="B145" s="86"/>
-      <c r="C145" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E145" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H145" s="86">
-        <v>1</v>
-      </c>
-      <c r="I145" s="86">
-        <v>1</v>
-      </c>
-      <c r="J145" s="86">
+      <c r="B145" s="93"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="101"/>
+      <c r="E145" s="100"/>
+      <c r="F145" s="10">
         <v>4</v>
       </c>
-      <c r="K145" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="L145" s="86"/>
-      <c r="M145" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="N145" s="86"/>
+      <c r="G145" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H145" s="102"/>
+      <c r="I145" s="102"/>
+      <c r="J145" s="100"/>
+      <c r="K145" s="93"/>
+      <c r="L145" s="93"/>
+      <c r="M145" s="93"/>
+      <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
       </c>
@@ -9551,10 +9570,10 @@
         <v>169</v>
       </c>
       <c r="Q145" s="55" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="R145" s="55" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="S145" s="55" t="s">
         <v>51</v>
@@ -9562,23 +9581,39 @@
     </row>
     <row r="146" spans="1:19">
       <c r="A146" s="92"/>
-      <c r="B146" s="92"/>
-      <c r="C146" s="92"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E146" s="76" t="s">
+        <v>189</v>
+      </c>
       <c r="F146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H146" s="92"/>
-      <c r="I146" s="92"/>
-      <c r="J146" s="92"/>
-      <c r="K146" s="92"/>
-      <c r="L146" s="92"/>
-      <c r="M146" s="92"/>
-      <c r="N146" s="92"/>
+        <v>94</v>
+      </c>
+      <c r="H146" s="91">
+        <v>1</v>
+      </c>
+      <c r="I146" s="91">
+        <v>1</v>
+      </c>
+      <c r="J146" s="91">
+        <v>4</v>
+      </c>
+      <c r="K146" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="L146" s="91"/>
+      <c r="M146" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N146" s="91"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -9602,10 +9637,10 @@
       <c r="D147" s="77"/>
       <c r="E147" s="77"/>
       <c r="F147" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H147" s="92"/>
       <c r="I147" s="92"/>
@@ -9632,23 +9667,23 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="92"/>
-      <c r="B148" s="87"/>
-      <c r="C148" s="87"/>
-      <c r="D148" s="76"/>
-      <c r="E148" s="76"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
       <c r="F148" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H148" s="87"/>
-      <c r="I148" s="87"/>
-      <c r="J148" s="87"/>
-      <c r="K148" s="87"/>
-      <c r="L148" s="87"/>
-      <c r="M148" s="87"/>
-      <c r="N148" s="87"/>
+        <v>96</v>
+      </c>
+      <c r="H148" s="92"/>
+      <c r="I148" s="92"/>
+      <c r="J148" s="92"/>
+      <c r="K148" s="92"/>
+      <c r="L148" s="92"/>
+      <c r="M148" s="92"/>
+      <c r="N148" s="92"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -9667,197 +9702,195 @@
     </row>
     <row r="149" spans="1:19">
       <c r="A149" s="92"/>
-      <c r="B149" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="E149" s="86"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
       <c r="F149" s="1">
-        <v>1</v>
-      </c>
-      <c r="G149" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="86">
-        <v>1</v>
-      </c>
-      <c r="I149" s="86">
-        <v>1</v>
-      </c>
-      <c r="J149" s="86">
-        <v>2</v>
-      </c>
-      <c r="K149" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="L149" s="86"/>
-      <c r="M149" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="N149" s="86"/>
-      <c r="O149" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="P149" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q149" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="R149" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="S149" s="51" t="s">
-        <v>168</v>
+        <v>4</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H149" s="93"/>
+      <c r="I149" s="93"/>
+      <c r="J149" s="93"/>
+      <c r="K149" s="93"/>
+      <c r="L149" s="93"/>
+      <c r="M149" s="93"/>
+      <c r="N149" s="93"/>
+      <c r="O149" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="P149" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q149" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="R149" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="S149" s="55" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="92"/>
-      <c r="B150" s="87"/>
-      <c r="C150" s="87"/>
-      <c r="D150" s="87"/>
-      <c r="E150" s="87"/>
+      <c r="B150" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="91"/>
+      <c r="D150" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E150" s="91"/>
       <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="91">
+        <v>1</v>
+      </c>
+      <c r="I150" s="91">
+        <v>1</v>
+      </c>
+      <c r="J150" s="91">
         <v>2</v>
       </c>
-      <c r="G150" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" s="87"/>
-      <c r="I150" s="87"/>
-      <c r="J150" s="87"/>
-      <c r="K150" s="87"/>
-      <c r="L150" s="87"/>
-      <c r="M150" s="87"/>
-      <c r="N150" s="87"/>
-      <c r="O150" s="53"/>
-      <c r="P150" s="53"/>
-      <c r="Q150" s="53"/>
-      <c r="R150" s="53"/>
-      <c r="S150" s="53"/>
+      <c r="K150" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="L150" s="91"/>
+      <c r="M150" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N150" s="91"/>
+      <c r="O150" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="P150" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q150" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="R150" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="S150" s="51" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="92"/>
-      <c r="B151" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="P151" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q151" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="R151" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="S151" s="55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" ht="18.75">
+      <c r="B151" s="93"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="1">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" s="93"/>
+      <c r="I151" s="93"/>
+      <c r="J151" s="93"/>
+      <c r="K151" s="93"/>
+      <c r="L151" s="93"/>
+      <c r="M151" s="93"/>
+      <c r="N151" s="93"/>
+      <c r="O151" s="53"/>
+      <c r="P151" s="53"/>
+      <c r="Q151" s="53"/>
+      <c r="R151" s="53"/>
+      <c r="S151" s="53"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="92"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="1">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="I152" s="1">
-        <v>0</v>
-      </c>
-      <c r="J152" s="1">
-        <v>99</v>
-      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
       <c r="K152" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L152" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="55" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="P152" s="55" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="Q152" s="55" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="R152" s="55" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="S152" s="55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="18.75">
       <c r="A153" s="92"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="H153" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>99</v>
+      </c>
       <c r="K153" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N153" s="1"/>
       <c r="O153" s="55" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="P153" s="55" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="Q153" s="55" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="R153" s="55" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="S153" s="55" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -9867,31 +9900,19 @@
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="1">
-        <v>0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>0</v>
-      </c>
-      <c r="J154" s="1">
-        <v>1</v>
-      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
       <c r="K154" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L154" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M154" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="55" t="s">
         <v>168</v>
@@ -9910,19 +9931,21 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="87"/>
+      <c r="A155" s="92"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E155" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
@@ -9957,139 +9980,139 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="80" t="s">
-        <v>250</v>
-      </c>
-      <c r="B156" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C156" s="75"/>
-      <c r="D156" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="E156" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="F156" s="69">
-        <v>1</v>
-      </c>
-      <c r="G156" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="H156" s="75"/>
-      <c r="I156" s="75">
-        <v>1</v>
-      </c>
-      <c r="J156" s="75">
-        <v>2</v>
-      </c>
-      <c r="K156" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L156" s="73"/>
-      <c r="M156" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="N156" s="75"/>
-      <c r="O156" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="P156" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q156" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="R156" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="S156" s="65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" s="58" customFormat="1">
-      <c r="A157" s="81"/>
-      <c r="B157" s="76"/>
+      <c r="A156" s="93"/>
+      <c r="B156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N156" s="1"/>
+      <c r="O156" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="P156" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q156" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="R156" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="S156" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B157" s="76" t="s">
+        <v>51</v>
+      </c>
       <c r="C157" s="76"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
+      <c r="D157" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="E157" s="76" t="s">
+        <v>265</v>
+      </c>
       <c r="F157" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
       <c r="H157" s="76"/>
-      <c r="I157" s="76"/>
-      <c r="J157" s="76"/>
-      <c r="K157" s="76"/>
-      <c r="L157" s="74"/>
-      <c r="M157" s="76"/>
+      <c r="I157" s="76">
+        <v>1</v>
+      </c>
+      <c r="J157" s="76">
+        <v>2</v>
+      </c>
+      <c r="K157" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L157" s="79"/>
+      <c r="M157" s="76" t="s">
+        <v>38</v>
+      </c>
       <c r="N157" s="76"/>
-      <c r="O157" s="66"/>
-      <c r="P157" s="66"/>
-      <c r="Q157" s="66"/>
-      <c r="R157" s="66"/>
-      <c r="S157" s="66"/>
-    </row>
-    <row r="158" spans="1:19" ht="18.75">
-      <c r="A158" s="81"/>
-      <c r="B158" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C158" s="69"/>
-      <c r="D158" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="E158" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="F158" s="69"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="69">
-        <v>0</v>
-      </c>
-      <c r="J158" s="69">
-        <v>10</v>
-      </c>
-      <c r="K158" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="L158" s="18">
+      <c r="O157" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P157" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q157" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R157" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="S157" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" s="58" customFormat="1">
+      <c r="A158" s="83"/>
+      <c r="B158" s="78"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="69">
         <v>2</v>
       </c>
-      <c r="M158" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="N158" s="67"/>
-      <c r="O158" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="P158" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q158" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="R158" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="S158" s="55" t="s">
-        <v>51</v>
-      </c>
+      <c r="G158" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="H158" s="78"/>
+      <c r="I158" s="78"/>
+      <c r="J158" s="78"/>
+      <c r="K158" s="78"/>
+      <c r="L158" s="81"/>
+      <c r="M158" s="78"/>
+      <c r="N158" s="78"/>
+      <c r="O158" s="66"/>
+      <c r="P158" s="66"/>
+      <c r="Q158" s="66"/>
+      <c r="R158" s="66"/>
+      <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="18.75">
-      <c r="A159" s="81"/>
+      <c r="A159" s="83"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E159" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F159" s="69"/>
       <c r="G159" s="69"/>
@@ -10127,16 +10150,16 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="18.75">
-      <c r="A160" s="81"/>
+      <c r="A160" s="83"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C160" s="69"/>
       <c r="D160" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E160" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F160" s="69"/>
       <c r="G160" s="69"/>
@@ -10174,16 +10197,16 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="18.75">
-      <c r="A161" s="81"/>
+      <c r="A161" s="83"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C161" s="69"/>
       <c r="D161" s="64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E161" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F161" s="69"/>
       <c r="G161" s="69"/>
@@ -10221,16 +10244,16 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="18.75">
-      <c r="A162" s="81"/>
+      <c r="A162" s="83"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C162" s="69"/>
       <c r="D162" s="64" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E162" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F162" s="69"/>
       <c r="G162" s="69"/>
@@ -10267,17 +10290,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
-      <c r="A163" s="81"/>
+    <row r="163" spans="1:19" ht="18.75">
+      <c r="A163" s="83"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C163" s="69"/>
       <c r="D163" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E163" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F163" s="69"/>
       <c r="G163" s="69"/>
@@ -10286,20 +10309,18 @@
         <v>0</v>
       </c>
       <c r="J163" s="69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K163" s="69" t="s">
         <v>22</v>
       </c>
       <c r="L163" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M163" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="N163" s="69" t="s">
-        <v>160</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N163" s="67"/>
       <c r="O163" s="55" t="s">
         <v>51</v>
       </c>
@@ -10317,16 +10338,16 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="81"/>
+      <c r="A164" s="83"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C164" s="69"/>
       <c r="D164" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E164" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F164" s="69"/>
       <c r="G164" s="69"/>
@@ -10366,139 +10387,139 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="81"/>
-      <c r="B165" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C165" s="75"/>
-      <c r="D165" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="E165" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="F165" s="69">
-        <v>1</v>
-      </c>
-      <c r="G165" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="75"/>
-      <c r="I165" s="75">
-        <v>1</v>
-      </c>
-      <c r="J165" s="75">
+      <c r="A165" s="83"/>
+      <c r="B165" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="69"/>
+      <c r="D165" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E165" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="F165" s="69"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="69">
+        <v>0</v>
+      </c>
+      <c r="J165" s="69">
+        <v>1</v>
+      </c>
+      <c r="K165" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" s="18">
+        <v>3</v>
+      </c>
+      <c r="M165" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N165" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="O165" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P165" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q165" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R165" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S165" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="83"/>
+      <c r="B166" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="76"/>
+      <c r="D166" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="E166" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="F166" s="69">
+        <v>1</v>
+      </c>
+      <c r="G166" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="76"/>
+      <c r="I166" s="76">
+        <v>1</v>
+      </c>
+      <c r="J166" s="76">
         <v>2</v>
       </c>
-      <c r="K165" s="75" t="s">
+      <c r="K166" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L165" s="73"/>
-      <c r="M165" s="75" t="s">
+      <c r="L166" s="79"/>
+      <c r="M166" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N165" s="75"/>
-      <c r="O165" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="P165" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q165" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="R165" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="S165" s="65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" s="58" customFormat="1">
-      <c r="A166" s="81"/>
-      <c r="B166" s="76"/>
-      <c r="C166" s="76"/>
-      <c r="D166" s="76"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="69">
+      <c r="N166" s="76"/>
+      <c r="O166" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P166" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q166" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R166" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="S166" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" s="58" customFormat="1">
+      <c r="A167" s="83"/>
+      <c r="B167" s="78"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="78"/>
+      <c r="E167" s="78"/>
+      <c r="F167" s="69">
         <v>2</v>
       </c>
-      <c r="G166" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" s="76"/>
-      <c r="I166" s="76"/>
-      <c r="J166" s="76"/>
-      <c r="K166" s="76"/>
-      <c r="L166" s="74"/>
-      <c r="M166" s="76"/>
-      <c r="N166" s="76"/>
-      <c r="O166" s="66"/>
-      <c r="P166" s="66"/>
-      <c r="Q166" s="66"/>
-      <c r="R166" s="66"/>
-      <c r="S166" s="66"/>
-    </row>
-    <row r="167" spans="1:19">
-      <c r="A167" s="81"/>
-      <c r="B167" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C167" s="69"/>
-      <c r="D167" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="E167" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="69">
-        <v>0</v>
-      </c>
-      <c r="J167" s="69">
-        <v>1</v>
-      </c>
-      <c r="K167" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="L167" s="18">
-        <v>3</v>
-      </c>
-      <c r="M167" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="N167" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="O167" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="P167" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q167" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="R167" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="S167" s="55" t="s">
-        <v>51</v>
-      </c>
+      <c r="G167" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" s="78"/>
+      <c r="I167" s="78"/>
+      <c r="J167" s="78"/>
+      <c r="K167" s="78"/>
+      <c r="L167" s="81"/>
+      <c r="M167" s="78"/>
+      <c r="N167" s="78"/>
+      <c r="O167" s="66"/>
+      <c r="P167" s="66"/>
+      <c r="Q167" s="66"/>
+      <c r="R167" s="66"/>
+      <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="81"/>
+      <c r="A168" s="83"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C168" s="69"/>
       <c r="D168" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E168" s="69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F168" s="69"/>
       <c r="G168" s="69"/>
@@ -10519,156 +10540,158 @@
         <v>38</v>
       </c>
       <c r="N168" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="O168" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P168" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q168" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R168" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S168" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="83"/>
+      <c r="B169" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" s="69"/>
+      <c r="D169" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="F169" s="69"/>
+      <c r="G169" s="69"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="69">
+        <v>0</v>
+      </c>
+      <c r="J169" s="69">
+        <v>1</v>
+      </c>
+      <c r="K169" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" s="18">
+        <v>3</v>
+      </c>
+      <c r="M169" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N169" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="O168" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="P168" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q168" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="R168" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="S168" s="55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19">
-      <c r="A169" s="81"/>
-      <c r="B169" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75" t="s">
+      <c r="O169" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P169" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q169" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R169" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S169" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="83"/>
+      <c r="B170" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="76"/>
+      <c r="D170" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="E170" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="F170" s="69">
+        <v>1</v>
+      </c>
+      <c r="G170" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="76"/>
+      <c r="I170" s="76">
+        <v>1</v>
+      </c>
+      <c r="J170" s="76">
+        <v>2</v>
+      </c>
+      <c r="K170" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" s="79"/>
+      <c r="M170" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="N170" s="76"/>
+      <c r="O170" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P170" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q170" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R170" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="S170" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" s="58" customFormat="1">
+      <c r="A171" s="83"/>
+      <c r="B171" s="78"/>
+      <c r="C171" s="78"/>
+      <c r="D171" s="78"/>
+      <c r="E171" s="78"/>
+      <c r="F171" s="69">
+        <v>2</v>
+      </c>
+      <c r="G171" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H171" s="78"/>
+      <c r="I171" s="78"/>
+      <c r="J171" s="78"/>
+      <c r="K171" s="78"/>
+      <c r="L171" s="81"/>
+      <c r="M171" s="78"/>
+      <c r="N171" s="78"/>
+      <c r="O171" s="66"/>
+      <c r="P171" s="66"/>
+      <c r="Q171" s="66"/>
+      <c r="R171" s="66"/>
+      <c r="S171" s="66"/>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="83"/>
+      <c r="B172" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" s="69"/>
+      <c r="D172" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="E169" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="F169" s="69">
-        <v>1</v>
-      </c>
-      <c r="G169" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="75"/>
-      <c r="I169" s="75">
-        <v>1</v>
-      </c>
-      <c r="J169" s="75">
-        <v>2</v>
-      </c>
-      <c r="K169" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L169" s="73"/>
-      <c r="M169" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="N169" s="75"/>
-      <c r="O169" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="P169" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q169" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="R169" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="S169" s="65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" s="58" customFormat="1">
-      <c r="A170" s="81"/>
-      <c r="B170" s="76"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="76"/>
-      <c r="E170" s="76"/>
-      <c r="F170" s="69">
-        <v>2</v>
-      </c>
-      <c r="G170" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" s="76"/>
-      <c r="I170" s="76"/>
-      <c r="J170" s="76"/>
-      <c r="K170" s="76"/>
-      <c r="L170" s="74"/>
-      <c r="M170" s="76"/>
-      <c r="N170" s="76"/>
-      <c r="O170" s="66"/>
-      <c r="P170" s="66"/>
-      <c r="Q170" s="66"/>
-      <c r="R170" s="66"/>
-      <c r="S170" s="66"/>
-    </row>
-    <row r="171" spans="1:19">
-      <c r="A171" s="81"/>
-      <c r="B171" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C171" s="69"/>
-      <c r="D171" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="E171" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="F171" s="69"/>
-      <c r="G171" s="69"/>
-      <c r="H171" s="69"/>
-      <c r="I171" s="69">
-        <v>0</v>
-      </c>
-      <c r="J171" s="69">
-        <v>10</v>
-      </c>
-      <c r="K171" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="L171" s="18">
-        <v>2</v>
-      </c>
-      <c r="M171" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="N171" s="67"/>
-      <c r="O171" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="P171" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q171" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="R171" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="S171" s="55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19">
-      <c r="A172" s="82"/>
-      <c r="B172" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C172" s="69"/>
-      <c r="D172" s="70" t="s">
-        <v>263</v>
-      </c>
       <c r="E172" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F172" s="69"/>
       <c r="G172" s="69"/>
@@ -10686,9 +10709,9 @@
         <v>2</v>
       </c>
       <c r="M172" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="N172" s="69"/>
+        <v>203</v>
+      </c>
+      <c r="N172" s="67"/>
       <c r="O172" s="55" t="s">
         <v>51</v>
       </c>
@@ -10702,51 +10725,277 @@
         <v>51</v>
       </c>
       <c r="S172" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="84"/>
+      <c r="B173" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="69"/>
+      <c r="D173" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E173" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="F173" s="69"/>
+      <c r="G173" s="69"/>
+      <c r="H173" s="69"/>
+      <c r="I173" s="69">
+        <v>0</v>
+      </c>
+      <c r="J173" s="69">
+        <v>10</v>
+      </c>
+      <c r="K173" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" s="18">
+        <v>2</v>
+      </c>
+      <c r="M173" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="N173" s="69"/>
+      <c r="O173" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P173" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q173" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="R173" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S173" s="55" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="A157:A173"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
     <mergeCell ref="L74:L77"/>
     <mergeCell ref="K95:K96"/>
     <mergeCell ref="L95:L96"/>
@@ -10771,225 +11020,46 @@
     <mergeCell ref="I23:I28"/>
     <mergeCell ref="H23:H28"/>
     <mergeCell ref="D23:D28"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A155"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E140"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B140"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="C127:C140"/>
-    <mergeCell ref="D127:D140"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="H127:H140"/>
-    <mergeCell ref="I127:I140"/>
-    <mergeCell ref="H141:H144"/>
-    <mergeCell ref="I141:I144"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="I145:I148"/>
-    <mergeCell ref="K127:K140"/>
-    <mergeCell ref="M127:M140"/>
-    <mergeCell ref="M141:M144"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="L127:L140"/>
-    <mergeCell ref="L141:L144"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="J127:J140"/>
-    <mergeCell ref="J141:J144"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N149:N150"/>
-    <mergeCell ref="J145:J148"/>
-    <mergeCell ref="K145:K148"/>
-    <mergeCell ref="L145:L148"/>
-    <mergeCell ref="M145:M148"/>
-    <mergeCell ref="N145:N148"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="A156:A172"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="H156:H157"/>
-    <mergeCell ref="I156:I157"/>
-    <mergeCell ref="J156:J157"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="L156:L157"/>
-    <mergeCell ref="M156:M157"/>
-    <mergeCell ref="N156:N157"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11003,10 +11073,10 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26:E26"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -11074,19 +11144,19 @@
         <v>27</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O2" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="Q2" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="R2" s="54" t="s">
         <v>234</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -11334,7 +11404,7 @@
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="35" t="s">
@@ -11382,7 +11452,7 @@
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="35"/>
@@ -11428,7 +11498,7 @@
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
@@ -11474,7 +11544,7 @@
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="35"/>
@@ -11520,13 +11590,13 @@
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="62">
@@ -11606,11 +11676,11 @@
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="43">
@@ -12020,7 +12090,7 @@
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -12066,7 +12136,7 @@
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -12112,11 +12182,11 @@
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G25" s="36">
         <v>1</v>
@@ -12128,7 +12198,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K25" s="42"/>
       <c r="L25" s="36" t="s">
@@ -12160,13 +12230,13 @@
         <v>51</v>
       </c>
       <c r="D26" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="F26" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="36">
         <v>1</v>
@@ -12178,7 +12248,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K26" s="42"/>
       <c r="L26" s="36" t="s">
@@ -12210,10 +12280,10 @@
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="40"/>
@@ -12258,10 +12328,10 @@
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -12306,27 +12376,27 @@
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I29" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="J29" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K29" s="37">
         <v>3</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="55" t="s">
@@ -12357,7 +12427,7 @@
         <v>46</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -12374,7 +12444,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="55" t="s">
@@ -12402,10 +12472,10 @@
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -12491,7 +12561,7 @@
         <v>154</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35">
@@ -12541,7 +12611,7 @@
         <v>155</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35">
@@ -12593,7 +12663,7 @@
         <v>156</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35">
@@ -12645,7 +12715,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
@@ -12695,7 +12765,7 @@
         <v>151</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35">
@@ -12747,7 +12817,7 @@
         <v>153</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35">
@@ -12799,7 +12869,7 @@
         <v>80</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35">
@@ -12849,7 +12919,7 @@
         <v>163</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35">
@@ -12901,7 +12971,7 @@
         <v>164</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35">
@@ -13183,7 +13253,7 @@
         <v>85</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -13231,7 +13301,7 @@
         <v>86</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -13279,7 +13349,7 @@
         <v>87</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -13327,7 +13397,7 @@
         <v>157</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -13377,7 +13447,7 @@
         <v>158</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -14698,13 +14768,13 @@
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E79" s="35" t="s">
         <v>145</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G79" s="35">
         <v>2</v>
@@ -14723,7 +14793,7 @@
         <v>38</v>
       </c>
       <c r="M79" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N79" s="55" t="s">
         <v>176</v>
@@ -14748,7 +14818,7 @@
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80" s="35" t="s">
         <v>146</v>
@@ -14783,10 +14853,10 @@
         <v>4</v>
       </c>
       <c r="Q80" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R80" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -14801,7 +14871,7 @@
         <v>149</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" s="35" t="s">
         <v>179</v>
@@ -15107,20 +15177,20 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B88" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C88" s="62"/>
       <c r="D88" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="62">
@@ -15155,17 +15225,17 @@
     </row>
     <row r="89" spans="1:18" ht="18.75">
       <c r="A89" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C89" s="62"/>
       <c r="D89" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -15203,17 +15273,17 @@
     </row>
     <row r="90" spans="1:18" ht="18.75">
       <c r="A90" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B90" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="62"/>
       <c r="D90" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -15251,17 +15321,17 @@
     </row>
     <row r="91" spans="1:18" ht="18.75">
       <c r="A91" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B91" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C91" s="62"/>
       <c r="D91" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -15299,17 +15369,17 @@
     </row>
     <row r="92" spans="1:18" ht="18.75">
       <c r="A92" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B92" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C92" s="62"/>
       <c r="D92" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -15347,17 +15417,17 @@
     </row>
     <row r="93" spans="1:18" ht="18.75">
       <c r="A93" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B93" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C93" s="62"/>
       <c r="D93" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -15395,17 +15465,17 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B94" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C94" s="62"/>
       <c r="D94" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -15445,17 +15515,17 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B95" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C95" s="62"/>
       <c r="D95" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -15495,17 +15565,17 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B96" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="62"/>
       <c r="D96" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F96" s="35" t="s">
         <v>167</v>
@@ -15543,17 +15613,17 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B97" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="62"/>
       <c r="D97" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -15593,17 +15663,17 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B98" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="62"/>
       <c r="D98" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -15643,17 +15713,17 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B99" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="62"/>
       <c r="D99" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F99" s="35" t="s">
         <v>167</v>
@@ -15691,17 +15761,17 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B100" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="62"/>
       <c r="D100" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -15718,7 +15788,7 @@
         <v>2</v>
       </c>
       <c r="L100" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M100" s="36"/>
       <c r="N100" s="55" t="s">
@@ -15739,17 +15809,17 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B101" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C101" s="62"/>
       <c r="D101" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -15766,7 +15836,7 @@
         <v>2</v>
       </c>
       <c r="L101" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M101" s="35"/>
       <c r="N101" s="55" t="s">
@@ -15798,7 +15868,7 @@
   <dimension ref="A2:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
@@ -15904,7 +15974,7 @@
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35"/>
@@ -15936,7 +16006,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -15968,7 +16038,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -15993,18 +16063,18 @@
     </row>
     <row r="7" spans="1:15" s="19" customFormat="1">
       <c r="A7" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="62">
@@ -16025,14 +16095,14 @@
     </row>
     <row r="8" spans="1:15" s="19" customFormat="1" ht="18.75">
       <c r="A8" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -16057,14 +16127,14 @@
     </row>
     <row r="9" spans="1:15" s="19" customFormat="1" ht="18.75">
       <c r="A9" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -16089,14 +16159,14 @@
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" ht="18.75">
       <c r="A10" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -16121,14 +16191,14 @@
     </row>
     <row r="11" spans="1:15" s="19" customFormat="1" ht="18.75">
       <c r="A11" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -16153,14 +16223,14 @@
     </row>
     <row r="12" spans="1:15" s="19" customFormat="1" ht="18.75">
       <c r="A12" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -16185,14 +16255,14 @@
     </row>
     <row r="13" spans="1:15" s="19" customFormat="1">
       <c r="A13" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="62"/>
       <c r="D13" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -16219,14 +16289,14 @@
     </row>
     <row r="14" spans="1:15" s="19" customFormat="1">
       <c r="A14" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -16253,14 +16323,14 @@
     </row>
     <row r="15" spans="1:15" s="19" customFormat="1">
       <c r="A15" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
@@ -16285,17 +16355,17 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1">
       <c r="A16" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
@@ -16321,17 +16391,17 @@
     </row>
     <row r="17" spans="1:15" s="19" customFormat="1">
       <c r="A17" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -16357,14 +16427,14 @@
     </row>
     <row r="18" spans="1:15" s="19" customFormat="1">
       <c r="A18" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
@@ -16389,17 +16459,17 @@
     </row>
     <row r="19" spans="1:15" s="19" customFormat="1">
       <c r="A19" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -16416,24 +16486,24 @@
         <v>2</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M19" s="36"/>
       <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" s="19" customFormat="1">
       <c r="A20" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -16450,7 +16520,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M20" s="35"/>
       <c r="O20" s="38"/>
@@ -16468,11 +16538,11 @@
   <dimension ref="A2:S54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -16573,7 +16643,7 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35" t="s">
@@ -16606,7 +16676,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -16637,7 +16707,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -16668,7 +16738,7 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
@@ -16722,11 +16792,11 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48">
@@ -16872,7 +16942,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -16903,7 +16973,7 @@
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -16934,11 +17004,11 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="36">
         <v>1</v>
@@ -16950,7 +17020,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="36" t="s">
@@ -16967,13 +17037,13 @@
         <v>51</v>
       </c>
       <c r="D17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="36">
         <v>1</v>
@@ -16985,7 +17055,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="36" t="s">
@@ -17002,10 +17072,10 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="40"/>
@@ -17035,10 +17105,10 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -17068,27 +17138,27 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="J20" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" s="37">
         <v>3</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -17104,7 +17174,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -17121,7 +17191,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="35"/>
     </row>
@@ -17134,10 +17204,10 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -17193,7 +17263,7 @@
         <v>154</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
@@ -17228,7 +17298,7 @@
         <v>155</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
@@ -17265,7 +17335,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
@@ -17358,7 +17428,7 @@
         <v>85</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -17391,7 +17461,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -17424,7 +17494,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -17457,7 +17527,7 @@
         <v>157</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -17492,7 +17562,7 @@
         <v>158</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -17582,7 +17652,7 @@
       <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="73" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -17590,13 +17660,13 @@
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>145</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G36" s="35">
         <v>2</v>
@@ -17615,7 +17685,7 @@
         <v>38</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -17730,20 +17800,20 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="62"/>
       <c r="D41" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="62">
@@ -17763,17 +17833,17 @@
     </row>
     <row r="42" spans="1:13" ht="18.75">
       <c r="A42" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -17796,17 +17866,17 @@
     </row>
     <row r="43" spans="1:13" ht="18.75">
       <c r="A43" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -17829,17 +17899,17 @@
     </row>
     <row r="44" spans="1:13" ht="18.75">
       <c r="A44" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -17862,17 +17932,17 @@
     </row>
     <row r="45" spans="1:13" ht="18.75">
       <c r="A45" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -17895,17 +17965,17 @@
     </row>
     <row r="46" spans="1:13" ht="18.75">
       <c r="A46" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -17928,17 +17998,17 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="62"/>
       <c r="D47" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -17963,17 +18033,17 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="62"/>
       <c r="D48" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -17998,17 +18068,17 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" s="35" t="s">
         <v>167</v>
@@ -18031,17 +18101,17 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="62"/>
       <c r="D50" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -18066,17 +18136,17 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -18101,17 +18171,17 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="62"/>
       <c r="D52" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>167</v>
@@ -18134,17 +18204,17 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62"/>
       <c r="D53" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -18161,23 +18231,23 @@
         <v>2</v>
       </c>
       <c r="L53" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M53" s="36"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="62"/>
       <c r="D54" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -18194,7 +18264,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M54" s="35"/>
     </row>
@@ -18211,10 +18281,10 @@
   <dimension ref="A2:S57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44:E57"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -18315,7 +18385,7 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35" t="s">
@@ -18348,7 +18418,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -18379,7 +18449,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -18410,7 +18480,7 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
@@ -18464,11 +18534,11 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48">
@@ -18614,7 +18684,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -18645,7 +18715,7 @@
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -18676,11 +18746,11 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="36">
         <v>1</v>
@@ -18692,7 +18762,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="36" t="s">
@@ -18709,13 +18779,13 @@
         <v>51</v>
       </c>
       <c r="D17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="36">
         <v>1</v>
@@ -18727,7 +18797,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="36" t="s">
@@ -18744,10 +18814,10 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="40"/>
@@ -18777,10 +18847,10 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -18810,27 +18880,27 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="J20" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" s="37">
         <v>3</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -18846,7 +18916,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -18863,7 +18933,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="35"/>
     </row>
@@ -18876,10 +18946,10 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -18935,7 +19005,7 @@
         <v>154</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
@@ -18970,7 +19040,7 @@
         <v>155</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
@@ -19007,7 +19077,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
@@ -19100,7 +19170,7 @@
         <v>85</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -19133,7 +19203,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -19166,7 +19236,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -19199,7 +19269,7 @@
         <v>157</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -19234,7 +19304,7 @@
         <v>158</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -19390,7 +19460,7 @@
       <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="73" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="35" t="s">
@@ -19398,13 +19468,13 @@
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>145</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G38" s="35">
         <v>2</v>
@@ -19423,7 +19493,7 @@
         <v>38</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -19433,13 +19503,13 @@
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>146</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G39" s="35">
         <v>4</v>
@@ -19571,20 +19641,20 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="62">
@@ -19604,17 +19674,17 @@
     </row>
     <row r="45" spans="1:13" ht="18.75">
       <c r="A45" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -19637,17 +19707,17 @@
     </row>
     <row r="46" spans="1:13" ht="18.75">
       <c r="A46" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -19670,17 +19740,17 @@
     </row>
     <row r="47" spans="1:13" ht="18.75">
       <c r="A47" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="62"/>
       <c r="D47" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -19703,17 +19773,17 @@
     </row>
     <row r="48" spans="1:13" ht="18.75">
       <c r="A48" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="62"/>
       <c r="D48" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -19736,17 +19806,17 @@
     </row>
     <row r="49" spans="1:13" ht="18.75">
       <c r="A49" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -19769,17 +19839,17 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="62"/>
       <c r="D50" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -19804,17 +19874,17 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -19839,17 +19909,17 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="62"/>
       <c r="D52" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>167</v>
@@ -19872,17 +19942,17 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62"/>
       <c r="D53" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -19907,17 +19977,17 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="62"/>
       <c r="D54" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -19942,17 +20012,17 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="62"/>
       <c r="D55" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F55" s="35" t="s">
         <v>167</v>
@@ -19975,17 +20045,17 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="62"/>
       <c r="D56" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -20002,23 +20072,23 @@
         <v>2</v>
       </c>
       <c r="L56" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M56" s="36"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="62"/>
       <c r="D57" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -20035,7 +20105,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M57" s="35"/>
     </row>
@@ -20052,10 +20122,10 @@
   <dimension ref="A2:S56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43:E56"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -20156,7 +20226,7 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35" t="s">
@@ -20189,7 +20259,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -20220,7 +20290,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -20251,7 +20321,7 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
@@ -20305,11 +20375,11 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48">
@@ -20455,7 +20525,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -20486,7 +20556,7 @@
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -20517,11 +20587,11 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="36">
         <v>1</v>
@@ -20533,7 +20603,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="36" t="s">
@@ -20550,13 +20620,13 @@
         <v>51</v>
       </c>
       <c r="D17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="36">
         <v>1</v>
@@ -20568,7 +20638,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="36" t="s">
@@ -20585,10 +20655,10 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="40"/>
@@ -20618,10 +20688,10 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -20651,27 +20721,27 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="J20" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" s="37">
         <v>3</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -20687,7 +20757,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -20704,7 +20774,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="35"/>
     </row>
@@ -20717,10 +20787,10 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -20776,7 +20846,7 @@
         <v>154</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
@@ -20811,7 +20881,7 @@
         <v>155</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
@@ -20848,7 +20918,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
@@ -20918,7 +20988,7 @@
         <v>85</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -20951,7 +21021,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -20984,7 +21054,7 @@
         <v>87</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -21017,7 +21087,7 @@
         <v>157</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -21052,7 +21122,7 @@
         <v>158</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -21208,7 +21278,7 @@
       <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="73" t="s">
         <v>135</v>
       </c>
       <c r="B37" s="35" t="s">
@@ -21216,13 +21286,13 @@
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>145</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G37" s="35">
         <v>2</v>
@@ -21241,7 +21311,7 @@
         <v>38</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -21251,7 +21321,7 @@
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>146</v>
@@ -21389,20 +21459,20 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="62">
@@ -21422,17 +21492,17 @@
     </row>
     <row r="44" spans="1:13" ht="18.75">
       <c r="A44" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -21455,17 +21525,17 @@
     </row>
     <row r="45" spans="1:13" ht="18.75">
       <c r="A45" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -21488,17 +21558,17 @@
     </row>
     <row r="46" spans="1:13" ht="18.75">
       <c r="A46" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -21521,17 +21591,17 @@
     </row>
     <row r="47" spans="1:13" ht="18.75">
       <c r="A47" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="62"/>
       <c r="D47" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -21554,17 +21624,17 @@
     </row>
     <row r="48" spans="1:13" ht="18.75">
       <c r="A48" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="62"/>
       <c r="D48" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -21587,17 +21657,17 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -21622,17 +21692,17 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="62"/>
       <c r="D50" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -21657,17 +21727,17 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>167</v>
@@ -21690,17 +21760,17 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="62"/>
       <c r="D52" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -21725,17 +21795,17 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62"/>
       <c r="D53" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -21760,17 +21830,17 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="62"/>
       <c r="D54" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F54" s="35" t="s">
         <v>167</v>
@@ -21793,17 +21863,17 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="62"/>
       <c r="D55" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -21820,23 +21890,23 @@
         <v>2</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M55" s="36"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="62"/>
       <c r="D56" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -21853,7 +21923,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M56" s="35"/>
     </row>
@@ -21870,10 +21940,10 @@
   <dimension ref="A2:S71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E58" sqref="E58:E71"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -21974,7 +22044,7 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35" t="s">
@@ -22007,7 +22077,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -22038,7 +22108,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -22069,7 +22139,7 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
@@ -22123,11 +22193,11 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48">
@@ -22273,7 +22343,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -22304,7 +22374,7 @@
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -22335,11 +22405,11 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="36">
         <v>1</v>
@@ -22351,7 +22421,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="36" t="s">
@@ -22368,13 +22438,13 @@
         <v>51</v>
       </c>
       <c r="D17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="36">
         <v>1</v>
@@ -22386,7 +22456,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="36" t="s">
@@ -22403,10 +22473,10 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="40"/>
@@ -22436,10 +22506,10 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -22469,27 +22539,27 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="J20" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" s="37">
         <v>3</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -22505,7 +22575,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -22522,7 +22592,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="35"/>
     </row>
@@ -22535,10 +22605,10 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -22594,7 +22664,7 @@
         <v>79</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
@@ -22629,7 +22699,7 @@
         <v>151</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
@@ -22666,7 +22736,7 @@
         <v>153</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
@@ -22703,7 +22773,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35">
@@ -22738,7 +22808,7 @@
         <v>163</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35">
@@ -22775,7 +22845,7 @@
         <v>164</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35">
@@ -22868,7 +22938,7 @@
         <v>85</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -22901,7 +22971,7 @@
         <v>86</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -22934,7 +23004,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -22967,7 +23037,7 @@
         <v>157</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -23002,7 +23072,7 @@
         <v>158</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -23482,7 +23552,7 @@
       <c r="M50" s="26"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="73" t="s">
         <v>135</v>
       </c>
       <c r="B51" s="35" t="s">
@@ -23490,13 +23560,13 @@
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>145</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="G51" s="35">
         <v>2</v>
@@ -23515,7 +23585,7 @@
         <v>38</v>
       </c>
       <c r="M51" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -23525,7 +23595,7 @@
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
       <c r="D52" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>146</v>
@@ -23563,7 +23633,7 @@
         <v>149</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F53" s="35" t="s">
         <v>179</v>
@@ -23698,20 +23768,20 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="62"/>
       <c r="D58" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F58" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="62">
@@ -23731,17 +23801,17 @@
     </row>
     <row r="59" spans="1:13" ht="18.75">
       <c r="A59" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="62"/>
       <c r="D59" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -23764,17 +23834,17 @@
     </row>
     <row r="60" spans="1:13" ht="18.75">
       <c r="A60" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B60" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="62"/>
       <c r="D60" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -23797,17 +23867,17 @@
     </row>
     <row r="61" spans="1:13" ht="18.75">
       <c r="A61" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="62"/>
       <c r="D61" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -23830,17 +23900,17 @@
     </row>
     <row r="62" spans="1:13" ht="18.75">
       <c r="A62" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="62"/>
       <c r="D62" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -23863,17 +23933,17 @@
     </row>
     <row r="63" spans="1:13" ht="18.75">
       <c r="A63" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C63" s="62"/>
       <c r="D63" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -23896,17 +23966,17 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C64" s="62"/>
       <c r="D64" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -23931,17 +24001,17 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C65" s="62"/>
       <c r="D65" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -23966,17 +24036,17 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C66" s="62"/>
       <c r="D66" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F66" s="35" t="s">
         <v>167</v>
@@ -23999,17 +24069,17 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="62"/>
       <c r="D67" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -24034,17 +24104,17 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="62"/>
       <c r="D68" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -24069,17 +24139,17 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C69" s="62"/>
       <c r="D69" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F69" s="35" t="s">
         <v>167</v>
@@ -24102,17 +24172,17 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="62"/>
       <c r="D70" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -24129,23 +24199,23 @@
         <v>2</v>
       </c>
       <c r="L70" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M70" s="36"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="62"/>
       <c r="D71" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -24162,7 +24232,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M71" s="35"/>
     </row>

--- a/外皮計算テストケース表_180309.xlsx
+++ b/外皮計算テストケース表_180309.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5653B131-3D73-4EA7-B7AB-B4EA69B16CD6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07086F6A-6FBD-4A5F-81D6-F3BE14615DDE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモ" sheetId="9" r:id="rId1"/>
     <sheet name="熱負荷計算" sheetId="2" r:id="rId2"/>
     <sheet name="熱負荷計算csv" sheetId="3" r:id="rId3"/>
     <sheet name="熱負荷計算LV1csv" sheetId="4" r:id="rId4"/>
-    <sheet name="熱負荷計算LV2csv" sheetId="5" r:id="rId5"/>
-    <sheet name="熱負荷計算LV3csv" sheetId="6" r:id="rId6"/>
-    <sheet name="熱負荷計算V4csv" sheetId="7" r:id="rId7"/>
-    <sheet name="熱負荷計算V5csv" sheetId="8" r:id="rId8"/>
+    <sheet name="熱負荷計算LV2csv" sheetId="10" r:id="rId5"/>
+    <sheet name="熱負荷計算LV2csv_old" sheetId="5" r:id="rId6"/>
+    <sheet name="熱負荷計算LV3csv" sheetId="6" r:id="rId7"/>
+    <sheet name="熱負荷計算V4csv" sheetId="7" r:id="rId8"/>
+    <sheet name="熱負荷計算V5csv" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="362">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3017,6 +3018,361 @@
       <t>トウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>見出し</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部識別子</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択要素</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8地域</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>屋根・天井</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外壁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>界壁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>界床</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井（界床）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>層構成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>flag_simplified_envelope_input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>main_occupant_room_floor_area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>other_occupant_room_floor_area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>total_floor_area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他/不明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木造</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉄筋コンクリート造等</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉄骨造</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>average_thermal_transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>general_thermal_transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>general_structure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>heat_bridge_calculation_method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熱貫流率補正法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面積比率法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細計算方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>heat_bridge_area_rate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>heat_bridge_thermal_transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>heat_bridge_length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>linear_thermal_transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>corrected_thermal_transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window_thermal_transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window_solar_heat_gain_coefficient</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window_solar_heat_gain_coefficient_cooling</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window_solar_heat_gain_coefficient_heating</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_layer_matrial_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_layer_matrial_width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_layer_matrial_heat_conductivity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall_layer_matrial_volume_specific_heat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sunshade_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sunshade_window_height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sunshade_eave_width </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sunshade_distance_from_window_top</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>solar_heat_gain_correction_coefficient_cooling</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>solar_heat_gain_correction_coefficient_heating</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_flag_solar_radiation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_direction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外気に通じていない床裏</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床等</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北西</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南西</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南東</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北東</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_flag_unsteady</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_wall_or_window_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_sunshade_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>element_flag_envelope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>simple_input_insulation_structure</t>
+  </si>
+  <si>
+    <t>simple_input_thermal_transmittance_ceiling</t>
+  </si>
+  <si>
+    <t>simple_input_thermal_transmittance_wall</t>
+  </si>
+  <si>
+    <t>simple_input_thermal_transmittance_floor</t>
+  </si>
+  <si>
+    <t>simple_input_thermal_transmittance_door</t>
+  </si>
+  <si>
+    <t>simple_input_thermal_transmittance_window</t>
+  </si>
+  <si>
+    <t>simple_input_solar_heat_gain_coefficient_cooling</t>
+  </si>
+  <si>
+    <t>simple_input_solar_heat_gain_coefficient_heating</t>
+  </si>
+  <si>
+    <t>simple_input_flag_input_solar_heat_gain_correction_coefficient</t>
+  </si>
+  <si>
+    <t>simple_input_solar_heat_gain_correction_coefficient_cooling</t>
+  </si>
+  <si>
+    <t>simple_input_solar_heat_gain_correction_coefficient_heating</t>
+  </si>
+  <si>
+    <t>simple_input_flag_earthfloor_perimeter_input</t>
+  </si>
+  <si>
+    <t>simple_input_general_linear_thermal_transmittance</t>
+  </si>
+  <si>
+    <t>simple_input_entrance_linear_thermal_transmittance</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -3171,11 +3527,419 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3400,6 +4164,282 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="1" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="1" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="1" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="1" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3486,6 +4526,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3835,11 +4881,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E127" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomRight" activeCell="D127" sqref="D127:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3933,7 +4979,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="177" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3980,36 +5026,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="86"/>
-      <c r="B4" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="76" t="s">
+      <c r="A4" s="178"/>
+      <c r="B4" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="183"/>
+      <c r="D4" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="183"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="183">
         <v>6</v>
       </c>
-      <c r="I4" s="91">
-        <v>1</v>
-      </c>
-      <c r="J4" s="91">
+      <c r="I4" s="183">
+        <v>1</v>
+      </c>
+      <c r="J4" s="183">
         <v>8</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -4027,24 +5073,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="86"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="92"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -4052,24 +5098,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="86"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="184"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -4077,24 +5123,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="86"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="92"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="184"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -4102,24 +5148,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="86"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="92"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="184"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -4127,24 +5173,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="86"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="184"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -4152,24 +5198,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="86"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="92"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="184"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -4177,24 +5223,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="86"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="93"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -4202,7 +5248,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="86"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4249,7 +5295,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="86"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -4296,7 +5342,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="86"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -4343,38 +5389,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="82" t="s">
+      <c r="A15" s="178"/>
+      <c r="B15" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="177"/>
+      <c r="D15" s="174" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="177"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="168">
         <v>2</v>
       </c>
-      <c r="I15" s="76">
-        <v>1</v>
-      </c>
-      <c r="J15" s="76">
+      <c r="I15" s="168">
+        <v>1</v>
+      </c>
+      <c r="J15" s="168">
         <v>2</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="91"/>
-      <c r="M15" s="76" t="s">
+      <c r="L15" s="183"/>
+      <c r="M15" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="91"/>
+      <c r="N15" s="183"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -4392,24 +5438,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="87"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="179"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="93"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="185"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -4417,7 +5463,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -4462,7 +5508,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="86"/>
+      <c r="A18" s="178"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -4511,7 +5557,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="86"/>
+      <c r="A19" s="178"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -4556,15 +5602,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="82" t="s">
+      <c r="A20" s="178"/>
+      <c r="B20" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="177"/>
+      <c r="D20" s="174" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="174" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -4573,64 +5619,64 @@
       <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76">
-        <v>1</v>
-      </c>
-      <c r="J20" s="76">
+      <c r="H20" s="168"/>
+      <c r="I20" s="168">
+        <v>1</v>
+      </c>
+      <c r="J20" s="168">
         <v>2</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="76" t="s">
+      <c r="L20" s="171"/>
+      <c r="M20" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="76"/>
-      <c r="O20" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="103" t="s">
+      <c r="N20" s="168"/>
+      <c r="O20" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="195" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="196"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="196"/>
+      <c r="S21" s="196"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="183" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4669,36 +5715,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="82" t="s">
+      <c r="A23" s="184"/>
+      <c r="B23" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="177"/>
+      <c r="D23" s="174" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="180"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="94"/>
-      <c r="I23" s="76">
-        <v>1</v>
-      </c>
-      <c r="J23" s="76">
+      <c r="H23" s="186"/>
+      <c r="I23" s="168">
+        <v>1</v>
+      </c>
+      <c r="J23" s="168">
         <v>6</v>
       </c>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="94"/>
-      <c r="M23" s="82" t="s">
+      <c r="L23" s="186"/>
+      <c r="M23" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="85"/>
+      <c r="N23" s="177"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -4717,24 +5763,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="89"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="181"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="95"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="86"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="178"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -4743,24 +5789,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="89"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="181"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="86"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="178"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -4769,24 +5815,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="89"/>
+      <c r="A26" s="184"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="181"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="86"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="178"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -4797,24 +5843,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="89"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="181"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="86"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="178"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -4825,24 +5871,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="90"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="182"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="87"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="179"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -4853,7 +5899,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="92"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4893,7 +5939,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="92"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -4941,7 +5987,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="92"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -4989,7 +6035,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="92"/>
+      <c r="A32" s="184"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -5035,7 +6081,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="92"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -5085,7 +6131,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="92"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -5135,7 +6181,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="92"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -5184,7 +6230,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A36" s="92"/>
+      <c r="A36" s="184"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -5232,7 +6278,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A37" s="92"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -5278,7 +6324,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A38" s="92"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -5324,38 +6370,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76" t="s">
+      <c r="A39" s="184"/>
+      <c r="B39" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="76"/>
+      <c r="E39" s="168"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="76">
-        <v>1</v>
-      </c>
-      <c r="I39" s="76">
-        <v>1</v>
-      </c>
-      <c r="J39" s="76">
+      <c r="H39" s="168">
+        <v>1</v>
+      </c>
+      <c r="I39" s="168">
+        <v>1</v>
+      </c>
+      <c r="J39" s="168">
         <v>3</v>
       </c>
-      <c r="K39" s="76" t="s">
+      <c r="K39" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="79"/>
-      <c r="M39" s="76" t="s">
+      <c r="L39" s="171"/>
+      <c r="M39" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="76"/>
+      <c r="N39" s="168"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -5373,24 +6419,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="169"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="169"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="169"/>
+      <c r="N40" s="169"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -5398,24 +6444,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="169"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="169"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -5423,24 +6469,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
+      <c r="A42" s="184"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="170"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -5448,15 +6494,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="76" t="s">
+      <c r="A43" s="184"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="168" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="168" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -5465,23 +6511,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="76">
-        <v>1</v>
-      </c>
-      <c r="I43" s="76">
-        <v>1</v>
-      </c>
-      <c r="J43" s="76">
+      <c r="H43" s="168">
+        <v>1</v>
+      </c>
+      <c r="I43" s="168">
+        <v>1</v>
+      </c>
+      <c r="J43" s="168">
         <v>3</v>
       </c>
-      <c r="K43" s="76" t="s">
+      <c r="K43" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="79"/>
-      <c r="M43" s="76" t="s">
+      <c r="L43" s="171"/>
+      <c r="M43" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="76"/>
+      <c r="N43" s="168"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -5499,24 +6545,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
+      <c r="A44" s="184"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="169"/>
+      <c r="N44" s="169"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -5524,24 +6570,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
+      <c r="A45" s="184"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="173"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="170"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -5549,7 +6595,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="92"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -5596,7 +6642,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A47" s="92"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -5643,7 +6689,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="92"/>
+      <c r="A48" s="184"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -5690,7 +6736,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="92"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -5737,7 +6783,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="18.75">
-      <c r="A50" s="92"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -5784,7 +6830,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="183" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5823,7 +6869,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="92"/>
+      <c r="A52" s="184"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -5876,7 +6922,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="92"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -5931,7 +6977,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="92"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -5986,7 +7032,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="92"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -6035,7 +7081,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="92"/>
+      <c r="A56" s="184"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -6090,7 +7136,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="92"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -6145,7 +7191,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="92"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -6194,7 +7240,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="92"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -6249,7 +7295,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="92"/>
+      <c r="A60" s="184"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -6304,7 +7350,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="18.75">
-      <c r="A61" s="92"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -6351,7 +7397,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="92"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -6398,7 +7444,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="92"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -6445,7 +7491,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="18.75">
-      <c r="A64" s="93"/>
+      <c r="A64" s="185"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -6492,7 +7538,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="183" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -6531,7 +7577,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="92"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -6571,7 +7617,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="92"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -6620,7 +7666,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="92"/>
+      <c r="A68" s="184"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -6669,7 +7715,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="92"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -6718,7 +7764,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="92"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -6771,7 +7817,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="92"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -6824,7 +7870,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="92"/>
+      <c r="A72" s="184"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -6864,7 +7910,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="93"/>
+      <c r="A73" s="185"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -6904,40 +7950,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="97" t="s">
+      <c r="A74" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="76" t="s">
+      <c r="B74" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="183"/>
+      <c r="D74" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="91"/>
+      <c r="E74" s="183"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="91">
-        <v>1</v>
-      </c>
-      <c r="I74" s="76">
-        <v>1</v>
-      </c>
-      <c r="J74" s="76">
+      <c r="H74" s="183">
+        <v>1</v>
+      </c>
+      <c r="I74" s="168">
+        <v>1</v>
+      </c>
+      <c r="J74" s="168">
         <v>4</v>
       </c>
-      <c r="K74" s="91" t="s">
+      <c r="K74" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="91"/>
-      <c r="M74" s="76" t="s">
+      <c r="L74" s="183"/>
+      <c r="M74" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="91"/>
+      <c r="N74" s="183"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -6955,24 +8001,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="92"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="92"/>
+      <c r="A75" s="184"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="184"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="184"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="92"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="92"/>
+      <c r="H75" s="184"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="184"/>
+      <c r="L75" s="184"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="184"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -6980,24 +8026,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="92"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="92"/>
+      <c r="A76" s="184"/>
+      <c r="B76" s="184"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="184"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="92"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="77"/>
-      <c r="N76" s="92"/>
+      <c r="H76" s="184"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="184"/>
+      <c r="L76" s="184"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="184"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -7009,24 +8055,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="92"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="93"/>
+      <c r="A77" s="184"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="185"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="93"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="93"/>
+      <c r="H77" s="185"/>
+      <c r="I77" s="170"/>
+      <c r="J77" s="170"/>
+      <c r="K77" s="185"/>
+      <c r="L77" s="185"/>
+      <c r="M77" s="170"/>
+      <c r="N77" s="185"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -7034,15 +8080,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="92"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91" t="s">
+      <c r="A78" s="184"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="D78" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="168" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -7051,23 +8097,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="91">
-        <v>1</v>
-      </c>
-      <c r="I78" s="76">
-        <v>1</v>
-      </c>
-      <c r="J78" s="76">
+      <c r="H78" s="183">
+        <v>1</v>
+      </c>
+      <c r="I78" s="168">
+        <v>1</v>
+      </c>
+      <c r="J78" s="168">
         <v>4</v>
       </c>
-      <c r="K78" s="91" t="s">
+      <c r="K78" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="91"/>
-      <c r="M78" s="76" t="s">
+      <c r="L78" s="183"/>
+      <c r="M78" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="91"/>
+      <c r="N78" s="183"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -7085,24 +8131,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
+      <c r="A79" s="184"/>
+      <c r="B79" s="184"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="92"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="92"/>
+      <c r="H79" s="184"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="184"/>
+      <c r="L79" s="184"/>
+      <c r="M79" s="169"/>
+      <c r="N79" s="184"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -7110,24 +8156,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
+      <c r="A80" s="184"/>
+      <c r="B80" s="184"/>
+      <c r="C80" s="184"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="92"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="92"/>
+      <c r="H80" s="184"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="184"/>
+      <c r="L80" s="184"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="184"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -7135,24 +8181,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="92"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
+      <c r="A81" s="184"/>
+      <c r="B81" s="185"/>
+      <c r="C81" s="185"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="170"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="93"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="78"/>
-      <c r="K81" s="93"/>
-      <c r="L81" s="93"/>
-      <c r="M81" s="78"/>
-      <c r="N81" s="93"/>
+      <c r="H81" s="185"/>
+      <c r="I81" s="170"/>
+      <c r="J81" s="170"/>
+      <c r="K81" s="185"/>
+      <c r="L81" s="185"/>
+      <c r="M81" s="170"/>
+      <c r="N81" s="185"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -7160,7 +8206,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="92"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -7205,7 +8251,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="92"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -7250,7 +8296,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="92"/>
+      <c r="A84" s="184"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -7295,7 +8341,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="18.75">
-      <c r="A85" s="92"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -7342,7 +8388,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="18.75">
-      <c r="A86" s="92"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -7389,7 +8435,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="18.75">
-      <c r="A87" s="92"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -7434,7 +8480,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="18.75">
-      <c r="A88" s="92"/>
+      <c r="A88" s="184"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -7479,7 +8525,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="18.75">
-      <c r="A89" s="92"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -7524,7 +8570,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="18.75">
-      <c r="A90" s="92"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -7569,7 +8615,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="18.75">
-      <c r="A91" s="92"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -7614,7 +8660,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="18.75">
-      <c r="A92" s="92"/>
+      <c r="A92" s="184"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -7659,38 +8705,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="92"/>
-      <c r="B93" s="91" t="s">
+      <c r="A93" s="184"/>
+      <c r="B93" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91" t="s">
+      <c r="C93" s="183"/>
+      <c r="D93" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="91"/>
+      <c r="E93" s="183"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="91">
-        <v>1</v>
-      </c>
-      <c r="I93" s="91">
-        <v>1</v>
-      </c>
-      <c r="J93" s="91">
+      <c r="H93" s="183">
+        <v>1</v>
+      </c>
+      <c r="I93" s="183">
+        <v>1</v>
+      </c>
+      <c r="J93" s="183">
         <v>2</v>
       </c>
-      <c r="K93" s="91" t="s">
+      <c r="K93" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="91"/>
-      <c r="M93" s="91" t="s">
+      <c r="L93" s="183"/>
+      <c r="M93" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="91"/>
+      <c r="N93" s="183"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -7700,24 +8746,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="92"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
+      <c r="A94" s="184"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="185"/>
+      <c r="D94" s="185"/>
+      <c r="E94" s="185"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="J94" s="93"/>
-      <c r="K94" s="93"/>
-      <c r="L94" s="93"/>
-      <c r="M94" s="93"/>
-      <c r="N94" s="93"/>
+      <c r="H94" s="185"/>
+      <c r="I94" s="185"/>
+      <c r="J94" s="185"/>
+      <c r="K94" s="185"/>
+      <c r="L94" s="185"/>
+      <c r="M94" s="185"/>
+      <c r="N94" s="185"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -7725,38 +8771,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="92"/>
-      <c r="B95" s="91" t="s">
+      <c r="A95" s="184"/>
+      <c r="B95" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91" t="s">
+      <c r="C95" s="183"/>
+      <c r="D95" s="183" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="91"/>
+      <c r="E95" s="183"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="91">
+      <c r="H95" s="183">
         <v>2</v>
       </c>
-      <c r="I95" s="91">
-        <v>1</v>
-      </c>
-      <c r="J95" s="91">
+      <c r="I95" s="183">
+        <v>1</v>
+      </c>
+      <c r="J95" s="183">
         <v>2</v>
       </c>
-      <c r="K95" s="91" t="s">
+      <c r="K95" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="91"/>
-      <c r="M95" s="91" t="s">
+      <c r="L95" s="183"/>
+      <c r="M95" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="91"/>
+      <c r="N95" s="183"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -7766,24 +8812,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="92"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="93"/>
+      <c r="A96" s="184"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="185"/>
+      <c r="D96" s="185"/>
+      <c r="E96" s="185"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="93"/>
-      <c r="I96" s="93"/>
-      <c r="J96" s="93"/>
-      <c r="K96" s="93"/>
-      <c r="L96" s="93"/>
-      <c r="M96" s="93"/>
-      <c r="N96" s="93"/>
+      <c r="H96" s="185"/>
+      <c r="I96" s="185"/>
+      <c r="J96" s="185"/>
+      <c r="K96" s="185"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="185"/>
+      <c r="N96" s="185"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -7791,7 +8837,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="93"/>
+      <c r="A97" s="185"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -7840,40 +8886,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="97" t="s">
+      <c r="A98" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="91" t="s">
+      <c r="B98" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91" t="s">
+      <c r="C98" s="183"/>
+      <c r="D98" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="91"/>
+      <c r="E98" s="183"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="91">
-        <v>1</v>
-      </c>
-      <c r="I98" s="91">
-        <v>1</v>
-      </c>
-      <c r="J98" s="91">
+      <c r="H98" s="183">
+        <v>1</v>
+      </c>
+      <c r="I98" s="183">
+        <v>1</v>
+      </c>
+      <c r="J98" s="183">
         <v>3</v>
       </c>
-      <c r="K98" s="91" t="s">
+      <c r="K98" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="91"/>
-      <c r="M98" s="91" t="s">
+      <c r="L98" s="183"/>
+      <c r="M98" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="91"/>
+      <c r="N98" s="183"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -7891,24 +8937,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="98"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
+      <c r="A99" s="190"/>
+      <c r="B99" s="184"/>
+      <c r="C99" s="184"/>
+      <c r="D99" s="184"/>
+      <c r="E99" s="184"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="92"/>
-      <c r="K99" s="92"/>
-      <c r="L99" s="92"/>
-      <c r="M99" s="92"/>
-      <c r="N99" s="92"/>
+      <c r="H99" s="184"/>
+      <c r="I99" s="184"/>
+      <c r="J99" s="184"/>
+      <c r="K99" s="184"/>
+      <c r="L99" s="184"/>
+      <c r="M99" s="184"/>
+      <c r="N99" s="184"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -7916,24 +8962,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="98"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
+      <c r="A100" s="190"/>
+      <c r="B100" s="185"/>
+      <c r="C100" s="185"/>
+      <c r="D100" s="185"/>
+      <c r="E100" s="185"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="93"/>
-      <c r="I100" s="93"/>
-      <c r="J100" s="93"/>
-      <c r="K100" s="93"/>
-      <c r="L100" s="93"/>
-      <c r="M100" s="93"/>
-      <c r="N100" s="93"/>
+      <c r="H100" s="185"/>
+      <c r="I100" s="185"/>
+      <c r="J100" s="185"/>
+      <c r="K100" s="185"/>
+      <c r="L100" s="185"/>
+      <c r="M100" s="185"/>
+      <c r="N100" s="185"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -7941,15 +8987,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="98"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="91" t="s">
+      <c r="A101" s="190"/>
+      <c r="B101" s="183"/>
+      <c r="C101" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="91" t="s">
+      <c r="D101" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="91" t="s">
+      <c r="E101" s="183" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -7958,21 +9004,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91">
-        <v>1</v>
-      </c>
-      <c r="J101" s="91">
+      <c r="H101" s="183"/>
+      <c r="I101" s="183">
+        <v>1</v>
+      </c>
+      <c r="J101" s="183">
         <v>4</v>
       </c>
-      <c r="K101" s="91" t="s">
+      <c r="K101" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="91"/>
-      <c r="M101" s="91" t="s">
+      <c r="L101" s="183"/>
+      <c r="M101" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="91"/>
+      <c r="N101" s="183"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -7990,24 +9036,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="98"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
+      <c r="A102" s="190"/>
+      <c r="B102" s="184"/>
+      <c r="C102" s="184"/>
+      <c r="D102" s="184"/>
+      <c r="E102" s="184"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="92"/>
-      <c r="K102" s="92"/>
-      <c r="L102" s="92"/>
-      <c r="M102" s="92"/>
-      <c r="N102" s="92"/>
+      <c r="H102" s="184"/>
+      <c r="I102" s="184"/>
+      <c r="J102" s="184"/>
+      <c r="K102" s="184"/>
+      <c r="L102" s="184"/>
+      <c r="M102" s="184"/>
+      <c r="N102" s="184"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -8015,24 +9061,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="98"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
+      <c r="A103" s="190"/>
+      <c r="B103" s="184"/>
+      <c r="C103" s="184"/>
+      <c r="D103" s="184"/>
+      <c r="E103" s="184"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="92"/>
-      <c r="L103" s="92"/>
-      <c r="M103" s="92"/>
-      <c r="N103" s="92"/>
+      <c r="H103" s="184"/>
+      <c r="I103" s="184"/>
+      <c r="J103" s="184"/>
+      <c r="K103" s="184"/>
+      <c r="L103" s="184"/>
+      <c r="M103" s="184"/>
+      <c r="N103" s="184"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -8040,24 +9086,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="98"/>
-      <c r="B104" s="93"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
+      <c r="A104" s="190"/>
+      <c r="B104" s="185"/>
+      <c r="C104" s="185"/>
+      <c r="D104" s="185"/>
+      <c r="E104" s="185"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="93"/>
-      <c r="I104" s="93"/>
-      <c r="J104" s="93"/>
-      <c r="K104" s="93"/>
-      <c r="L104" s="93"/>
-      <c r="M104" s="93"/>
-      <c r="N104" s="93"/>
+      <c r="H104" s="185"/>
+      <c r="I104" s="185"/>
+      <c r="J104" s="185"/>
+      <c r="K104" s="185"/>
+      <c r="L104" s="185"/>
+      <c r="M104" s="185"/>
+      <c r="N104" s="185"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -8065,38 +9111,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="98"/>
-      <c r="B105" s="91" t="s">
+      <c r="A105" s="190"/>
+      <c r="B105" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="91"/>
-      <c r="D105" s="91" t="s">
+      <c r="C105" s="183"/>
+      <c r="D105" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="91"/>
+      <c r="E105" s="183"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="91">
+      <c r="H105" s="183">
         <v>3</v>
       </c>
-      <c r="I105" s="91">
-        <v>1</v>
-      </c>
-      <c r="J105" s="91">
+      <c r="I105" s="183">
+        <v>1</v>
+      </c>
+      <c r="J105" s="183">
         <v>3</v>
       </c>
-      <c r="K105" s="91" t="s">
+      <c r="K105" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="91"/>
-      <c r="M105" s="91" t="s">
+      <c r="L105" s="183"/>
+      <c r="M105" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="91"/>
+      <c r="N105" s="183"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -8114,24 +9160,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="98"/>
-      <c r="B106" s="92"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
+      <c r="A106" s="190"/>
+      <c r="B106" s="184"/>
+      <c r="C106" s="184"/>
+      <c r="D106" s="184"/>
+      <c r="E106" s="184"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92"/>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="92"/>
+      <c r="H106" s="184"/>
+      <c r="I106" s="184"/>
+      <c r="J106" s="184"/>
+      <c r="K106" s="184"/>
+      <c r="L106" s="184"/>
+      <c r="M106" s="184"/>
+      <c r="N106" s="184"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -8139,24 +9185,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="98"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="93"/>
-      <c r="D107" s="93"/>
-      <c r="E107" s="93"/>
+      <c r="A107" s="190"/>
+      <c r="B107" s="185"/>
+      <c r="C107" s="185"/>
+      <c r="D107" s="185"/>
+      <c r="E107" s="185"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="93"/>
-      <c r="I107" s="93"/>
-      <c r="J107" s="93"/>
-      <c r="K107" s="93"/>
-      <c r="L107" s="93"/>
-      <c r="M107" s="93"/>
-      <c r="N107" s="93"/>
+      <c r="H107" s="185"/>
+      <c r="I107" s="185"/>
+      <c r="J107" s="185"/>
+      <c r="K107" s="185"/>
+      <c r="L107" s="185"/>
+      <c r="M107" s="185"/>
+      <c r="N107" s="185"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -8164,15 +9210,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="98"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="91" t="s">
+      <c r="A108" s="190"/>
+      <c r="B108" s="183"/>
+      <c r="C108" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="91" t="s">
+      <c r="D108" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="91" t="s">
+      <c r="E108" s="183" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -8181,21 +9227,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="91"/>
-      <c r="I108" s="91">
-        <v>1</v>
-      </c>
-      <c r="J108" s="91">
+      <c r="H108" s="183"/>
+      <c r="I108" s="183">
+        <v>1</v>
+      </c>
+      <c r="J108" s="183">
         <v>4</v>
       </c>
-      <c r="K108" s="91" t="s">
+      <c r="K108" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="91"/>
-      <c r="M108" s="91" t="s">
+      <c r="L108" s="183"/>
+      <c r="M108" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="91"/>
+      <c r="N108" s="183"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -8213,24 +9259,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="98"/>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
+      <c r="A109" s="190"/>
+      <c r="B109" s="184"/>
+      <c r="C109" s="184"/>
+      <c r="D109" s="184"/>
+      <c r="E109" s="184"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="92"/>
-      <c r="I109" s="92"/>
-      <c r="J109" s="92"/>
-      <c r="K109" s="92"/>
-      <c r="L109" s="92"/>
-      <c r="M109" s="92"/>
-      <c r="N109" s="92"/>
+      <c r="H109" s="184"/>
+      <c r="I109" s="184"/>
+      <c r="J109" s="184"/>
+      <c r="K109" s="184"/>
+      <c r="L109" s="184"/>
+      <c r="M109" s="184"/>
+      <c r="N109" s="184"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -8238,24 +9284,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="98"/>
-      <c r="B110" s="92"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="92"/>
+      <c r="A110" s="190"/>
+      <c r="B110" s="184"/>
+      <c r="C110" s="184"/>
+      <c r="D110" s="184"/>
+      <c r="E110" s="184"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="92"/>
-      <c r="I110" s="92"/>
-      <c r="J110" s="92"/>
-      <c r="K110" s="92"/>
-      <c r="L110" s="92"/>
-      <c r="M110" s="92"/>
-      <c r="N110" s="92"/>
+      <c r="H110" s="184"/>
+      <c r="I110" s="184"/>
+      <c r="J110" s="184"/>
+      <c r="K110" s="184"/>
+      <c r="L110" s="184"/>
+      <c r="M110" s="184"/>
+      <c r="N110" s="184"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -8263,24 +9309,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="98"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
-      <c r="D111" s="93"/>
-      <c r="E111" s="93"/>
+      <c r="A111" s="190"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="185"/>
+      <c r="D111" s="185"/>
+      <c r="E111" s="185"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="93"/>
-      <c r="I111" s="93"/>
-      <c r="J111" s="93"/>
-      <c r="K111" s="93"/>
-      <c r="L111" s="93"/>
-      <c r="M111" s="93"/>
-      <c r="N111" s="93"/>
+      <c r="H111" s="185"/>
+      <c r="I111" s="185"/>
+      <c r="J111" s="185"/>
+      <c r="K111" s="185"/>
+      <c r="L111" s="185"/>
+      <c r="M111" s="185"/>
+      <c r="N111" s="185"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -8288,7 +9334,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="18.75">
-      <c r="A112" s="98"/>
+      <c r="A112" s="190"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -8333,7 +9379,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="18.75">
-      <c r="A113" s="98"/>
+      <c r="A113" s="190"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -8378,7 +9424,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="18.75">
-      <c r="A114" s="99"/>
+      <c r="A114" s="191"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -8423,40 +9469,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="97" t="s">
+      <c r="A115" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="91"/>
-      <c r="D115" s="76" t="s">
+      <c r="B115" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="183"/>
+      <c r="D115" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="91"/>
+      <c r="E115" s="183"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="91">
-        <v>1</v>
-      </c>
-      <c r="I115" s="76">
-        <v>1</v>
-      </c>
-      <c r="J115" s="76">
+      <c r="H115" s="183">
+        <v>1</v>
+      </c>
+      <c r="I115" s="168">
+        <v>1</v>
+      </c>
+      <c r="J115" s="168">
         <v>4</v>
       </c>
-      <c r="K115" s="91" t="s">
+      <c r="K115" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="91"/>
-      <c r="M115" s="76" t="s">
+      <c r="L115" s="183"/>
+      <c r="M115" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="91"/>
+      <c r="N115" s="183"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -8474,24 +9520,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="92"/>
+      <c r="A116" s="184"/>
+      <c r="B116" s="184"/>
+      <c r="C116" s="184"/>
+      <c r="D116" s="169"/>
+      <c r="E116" s="184"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="92"/>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="92"/>
-      <c r="L116" s="92"/>
-      <c r="M116" s="77"/>
-      <c r="N116" s="92"/>
+      <c r="H116" s="184"/>
+      <c r="I116" s="169"/>
+      <c r="J116" s="169"/>
+      <c r="K116" s="184"/>
+      <c r="L116" s="184"/>
+      <c r="M116" s="169"/>
+      <c r="N116" s="184"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -8499,24 +9545,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="92"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="92"/>
+      <c r="A117" s="184"/>
+      <c r="B117" s="184"/>
+      <c r="C117" s="184"/>
+      <c r="D117" s="169"/>
+      <c r="E117" s="184"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="92"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="92"/>
-      <c r="L117" s="92"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="92"/>
+      <c r="H117" s="184"/>
+      <c r="I117" s="169"/>
+      <c r="J117" s="169"/>
+      <c r="K117" s="184"/>
+      <c r="L117" s="184"/>
+      <c r="M117" s="169"/>
+      <c r="N117" s="184"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -8528,24 +9574,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="92"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="93"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="93"/>
+      <c r="A118" s="184"/>
+      <c r="B118" s="185"/>
+      <c r="C118" s="185"/>
+      <c r="D118" s="170"/>
+      <c r="E118" s="185"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="93"/>
-      <c r="I118" s="78"/>
-      <c r="J118" s="78"/>
-      <c r="K118" s="93"/>
-      <c r="L118" s="93"/>
-      <c r="M118" s="78"/>
-      <c r="N118" s="93"/>
+      <c r="H118" s="185"/>
+      <c r="I118" s="170"/>
+      <c r="J118" s="170"/>
+      <c r="K118" s="185"/>
+      <c r="L118" s="185"/>
+      <c r="M118" s="170"/>
+      <c r="N118" s="185"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -8553,15 +9599,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="92"/>
-      <c r="B119" s="91"/>
-      <c r="C119" s="91" t="s">
+      <c r="A119" s="184"/>
+      <c r="B119" s="183"/>
+      <c r="C119" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="76" t="s">
+      <c r="D119" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="76" t="s">
+      <c r="E119" s="168" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -8570,23 +9616,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="91">
-        <v>1</v>
-      </c>
-      <c r="I119" s="76">
-        <v>1</v>
-      </c>
-      <c r="J119" s="76">
+      <c r="H119" s="183">
+        <v>1</v>
+      </c>
+      <c r="I119" s="168">
+        <v>1</v>
+      </c>
+      <c r="J119" s="168">
         <v>4</v>
       </c>
-      <c r="K119" s="91" t="s">
+      <c r="K119" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="91"/>
-      <c r="M119" s="76" t="s">
+      <c r="L119" s="183"/>
+      <c r="M119" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="91"/>
+      <c r="N119" s="183"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -8604,24 +9650,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="92"/>
-      <c r="B120" s="92"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
+      <c r="A120" s="184"/>
+      <c r="B120" s="184"/>
+      <c r="C120" s="184"/>
+      <c r="D120" s="169"/>
+      <c r="E120" s="169"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="92"/>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="92"/>
-      <c r="L120" s="92"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="92"/>
+      <c r="H120" s="184"/>
+      <c r="I120" s="169"/>
+      <c r="J120" s="169"/>
+      <c r="K120" s="184"/>
+      <c r="L120" s="184"/>
+      <c r="M120" s="169"/>
+      <c r="N120" s="184"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -8629,24 +9675,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="92"/>
-      <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
+      <c r="A121" s="184"/>
+      <c r="B121" s="184"/>
+      <c r="C121" s="184"/>
+      <c r="D121" s="169"/>
+      <c r="E121" s="169"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="92"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="92"/>
-      <c r="L121" s="92"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="92"/>
+      <c r="H121" s="184"/>
+      <c r="I121" s="169"/>
+      <c r="J121" s="169"/>
+      <c r="K121" s="184"/>
+      <c r="L121" s="184"/>
+      <c r="M121" s="169"/>
+      <c r="N121" s="184"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -8654,24 +9700,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="92"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="93"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
+      <c r="A122" s="184"/>
+      <c r="B122" s="185"/>
+      <c r="C122" s="185"/>
+      <c r="D122" s="170"/>
+      <c r="E122" s="170"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="93"/>
-      <c r="I122" s="78"/>
-      <c r="J122" s="78"/>
-      <c r="K122" s="93"/>
-      <c r="L122" s="93"/>
-      <c r="M122" s="78"/>
-      <c r="N122" s="93"/>
+      <c r="H122" s="185"/>
+      <c r="I122" s="170"/>
+      <c r="J122" s="170"/>
+      <c r="K122" s="185"/>
+      <c r="L122" s="185"/>
+      <c r="M122" s="170"/>
+      <c r="N122" s="185"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -8679,38 +9725,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="92"/>
-      <c r="B123" s="91" t="s">
+      <c r="A123" s="184"/>
+      <c r="B123" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="91"/>
-      <c r="D123" s="91" t="s">
+      <c r="C123" s="183"/>
+      <c r="D123" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="91"/>
+      <c r="E123" s="183"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="91">
-        <v>1</v>
-      </c>
-      <c r="I123" s="91">
-        <v>1</v>
-      </c>
-      <c r="J123" s="91">
+      <c r="H123" s="183">
+        <v>1</v>
+      </c>
+      <c r="I123" s="183">
+        <v>1</v>
+      </c>
+      <c r="J123" s="183">
         <v>2</v>
       </c>
-      <c r="K123" s="91" t="s">
+      <c r="K123" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="91"/>
-      <c r="M123" s="91" t="s">
+      <c r="L123" s="183"/>
+      <c r="M123" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="91"/>
+      <c r="N123" s="183"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -8728,24 +9774,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="92"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="93"/>
-      <c r="D124" s="93"/>
-      <c r="E124" s="93"/>
+      <c r="A124" s="184"/>
+      <c r="B124" s="185"/>
+      <c r="C124" s="185"/>
+      <c r="D124" s="185"/>
+      <c r="E124" s="185"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="93"/>
-      <c r="I124" s="93"/>
-      <c r="J124" s="93"/>
-      <c r="K124" s="93"/>
-      <c r="L124" s="93"/>
-      <c r="M124" s="93"/>
-      <c r="N124" s="93"/>
+      <c r="H124" s="185"/>
+      <c r="I124" s="185"/>
+      <c r="J124" s="185"/>
+      <c r="K124" s="185"/>
+      <c r="L124" s="185"/>
+      <c r="M124" s="185"/>
+      <c r="N124" s="185"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -8753,12 +9799,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="92"/>
-      <c r="B125" s="85" t="s">
+      <c r="A125" s="184"/>
+      <c r="B125" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="82" t="s">
+      <c r="D125" s="174" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -8768,20 +9814,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="76">
-        <v>1</v>
-      </c>
-      <c r="I125" s="76">
-        <v>1</v>
-      </c>
-      <c r="J125" s="76">
+      <c r="H125" s="168">
+        <v>1</v>
+      </c>
+      <c r="I125" s="168">
+        <v>1</v>
+      </c>
+      <c r="J125" s="168">
         <v>2</v>
       </c>
-      <c r="K125" s="76" t="s">
+      <c r="K125" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="91"/>
-      <c r="M125" s="91" t="s">
+      <c r="L125" s="183"/>
+      <c r="M125" s="183" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -8806,10 +9852,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="92"/>
-      <c r="B126" s="87"/>
+      <c r="A126" s="184"/>
+      <c r="B126" s="179"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="84"/>
+      <c r="D126" s="176"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -8817,12 +9863,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="78"/>
-      <c r="I126" s="78"/>
-      <c r="J126" s="78"/>
-      <c r="K126" s="78"/>
-      <c r="L126" s="93"/>
-      <c r="M126" s="93"/>
+      <c r="H126" s="170"/>
+      <c r="I126" s="170"/>
+      <c r="J126" s="170"/>
+      <c r="K126" s="170"/>
+      <c r="L126" s="185"/>
+      <c r="M126" s="185"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -8835,15 +9881,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="92"/>
-      <c r="B127" s="91" t="s">
+      <c r="A127" s="184"/>
+      <c r="B127" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="91"/>
-      <c r="D127" s="101" t="s">
+      <c r="C127" s="183"/>
+      <c r="D127" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="100" t="s">
+      <c r="E127" s="192" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -8852,20 +9898,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="91">
+      <c r="H127" s="183">
         <v>2</v>
       </c>
-      <c r="I127" s="91">
-        <v>1</v>
-      </c>
-      <c r="J127" s="76">
+      <c r="I127" s="183">
+        <v>1</v>
+      </c>
+      <c r="J127" s="168">
         <v>15</v>
       </c>
-      <c r="K127" s="91" t="s">
+      <c r="K127" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="91"/>
-      <c r="M127" s="91" t="s">
+      <c r="L127" s="183"/>
+      <c r="M127" s="183" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -8888,23 +9934,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="101"/>
-      <c r="E128" s="100"/>
+      <c r="A128" s="184"/>
+      <c r="B128" s="184"/>
+      <c r="C128" s="184"/>
+      <c r="D128" s="193"/>
+      <c r="E128" s="192"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="92"/>
-      <c r="I128" s="92"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="92"/>
-      <c r="L128" s="92"/>
-      <c r="M128" s="92"/>
+      <c r="H128" s="184"/>
+      <c r="I128" s="184"/>
+      <c r="J128" s="169"/>
+      <c r="K128" s="184"/>
+      <c r="L128" s="184"/>
+      <c r="M128" s="184"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -8925,23 +9971,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="92"/>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="101"/>
-      <c r="E129" s="100"/>
+      <c r="A129" s="184"/>
+      <c r="B129" s="184"/>
+      <c r="C129" s="184"/>
+      <c r="D129" s="193"/>
+      <c r="E129" s="192"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="92"/>
-      <c r="I129" s="92"/>
-      <c r="J129" s="77"/>
-      <c r="K129" s="92"/>
-      <c r="L129" s="92"/>
-      <c r="M129" s="92"/>
+      <c r="H129" s="184"/>
+      <c r="I129" s="184"/>
+      <c r="J129" s="169"/>
+      <c r="K129" s="184"/>
+      <c r="L129" s="184"/>
+      <c r="M129" s="184"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -8962,23 +10008,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="92"/>
-      <c r="B130" s="92"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="100"/>
+      <c r="A130" s="184"/>
+      <c r="B130" s="184"/>
+      <c r="C130" s="184"/>
+      <c r="D130" s="193"/>
+      <c r="E130" s="192"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="92"/>
-      <c r="I130" s="92"/>
-      <c r="J130" s="77"/>
-      <c r="K130" s="92"/>
-      <c r="L130" s="92"/>
-      <c r="M130" s="92"/>
+      <c r="H130" s="184"/>
+      <c r="I130" s="184"/>
+      <c r="J130" s="169"/>
+      <c r="K130" s="184"/>
+      <c r="L130" s="184"/>
+      <c r="M130" s="184"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -8999,23 +10045,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="92"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="101"/>
-      <c r="E131" s="100"/>
+      <c r="A131" s="184"/>
+      <c r="B131" s="184"/>
+      <c r="C131" s="184"/>
+      <c r="D131" s="193"/>
+      <c r="E131" s="192"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="92"/>
-      <c r="I131" s="92"/>
-      <c r="J131" s="77"/>
-      <c r="K131" s="92"/>
-      <c r="L131" s="92"/>
-      <c r="M131" s="92"/>
+      <c r="H131" s="184"/>
+      <c r="I131" s="184"/>
+      <c r="J131" s="169"/>
+      <c r="K131" s="184"/>
+      <c r="L131" s="184"/>
+      <c r="M131" s="184"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -9036,23 +10082,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="92"/>
-      <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="101"/>
-      <c r="E132" s="100"/>
+      <c r="A132" s="184"/>
+      <c r="B132" s="184"/>
+      <c r="C132" s="184"/>
+      <c r="D132" s="193"/>
+      <c r="E132" s="192"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="92"/>
-      <c r="I132" s="92"/>
-      <c r="J132" s="77"/>
-      <c r="K132" s="92"/>
-      <c r="L132" s="92"/>
-      <c r="M132" s="92"/>
+      <c r="H132" s="184"/>
+      <c r="I132" s="184"/>
+      <c r="J132" s="169"/>
+      <c r="K132" s="184"/>
+      <c r="L132" s="184"/>
+      <c r="M132" s="184"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -9073,23 +10119,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="92"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="100"/>
+      <c r="A133" s="184"/>
+      <c r="B133" s="184"/>
+      <c r="C133" s="184"/>
+      <c r="D133" s="193"/>
+      <c r="E133" s="192"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="92"/>
-      <c r="I133" s="92"/>
-      <c r="J133" s="77"/>
-      <c r="K133" s="92"/>
-      <c r="L133" s="92"/>
-      <c r="M133" s="92"/>
+      <c r="H133" s="184"/>
+      <c r="I133" s="184"/>
+      <c r="J133" s="169"/>
+      <c r="K133" s="184"/>
+      <c r="L133" s="184"/>
+      <c r="M133" s="184"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -9110,23 +10156,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="92"/>
-      <c r="B134" s="92"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="101"/>
-      <c r="E134" s="100"/>
+      <c r="A134" s="184"/>
+      <c r="B134" s="184"/>
+      <c r="C134" s="184"/>
+      <c r="D134" s="193"/>
+      <c r="E134" s="192"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="92"/>
-      <c r="I134" s="92"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="92"/>
-      <c r="L134" s="92"/>
-      <c r="M134" s="92"/>
+      <c r="H134" s="184"/>
+      <c r="I134" s="184"/>
+      <c r="J134" s="169"/>
+      <c r="K134" s="184"/>
+      <c r="L134" s="184"/>
+      <c r="M134" s="184"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -9147,23 +10193,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="92"/>
-      <c r="B135" s="92"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="101"/>
-      <c r="E135" s="100"/>
+      <c r="A135" s="184"/>
+      <c r="B135" s="184"/>
+      <c r="C135" s="184"/>
+      <c r="D135" s="193"/>
+      <c r="E135" s="192"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="92"/>
-      <c r="I135" s="92"/>
-      <c r="J135" s="77"/>
-      <c r="K135" s="92"/>
-      <c r="L135" s="92"/>
-      <c r="M135" s="92"/>
+      <c r="H135" s="184"/>
+      <c r="I135" s="184"/>
+      <c r="J135" s="169"/>
+      <c r="K135" s="184"/>
+      <c r="L135" s="184"/>
+      <c r="M135" s="184"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -9184,23 +10230,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="92"/>
-      <c r="B136" s="92"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="101"/>
-      <c r="E136" s="100"/>
+      <c r="A136" s="184"/>
+      <c r="B136" s="184"/>
+      <c r="C136" s="184"/>
+      <c r="D136" s="193"/>
+      <c r="E136" s="192"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="92"/>
-      <c r="I136" s="92"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="92"/>
-      <c r="L136" s="92"/>
-      <c r="M136" s="92"/>
+      <c r="H136" s="184"/>
+      <c r="I136" s="184"/>
+      <c r="J136" s="169"/>
+      <c r="K136" s="184"/>
+      <c r="L136" s="184"/>
+      <c r="M136" s="184"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -9221,23 +10267,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="101"/>
-      <c r="E137" s="100"/>
+      <c r="A137" s="184"/>
+      <c r="B137" s="184"/>
+      <c r="C137" s="184"/>
+      <c r="D137" s="193"/>
+      <c r="E137" s="192"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="92"/>
-      <c r="I137" s="92"/>
-      <c r="J137" s="77"/>
-      <c r="K137" s="92"/>
-      <c r="L137" s="92"/>
-      <c r="M137" s="92"/>
+      <c r="H137" s="184"/>
+      <c r="I137" s="184"/>
+      <c r="J137" s="169"/>
+      <c r="K137" s="184"/>
+      <c r="L137" s="184"/>
+      <c r="M137" s="184"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -9262,23 +10308,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="92"/>
-      <c r="B138" s="92"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="101"/>
-      <c r="E138" s="100"/>
+      <c r="A138" s="184"/>
+      <c r="B138" s="184"/>
+      <c r="C138" s="184"/>
+      <c r="D138" s="193"/>
+      <c r="E138" s="192"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="92"/>
-      <c r="I138" s="92"/>
-      <c r="J138" s="77"/>
-      <c r="K138" s="92"/>
-      <c r="L138" s="92"/>
-      <c r="M138" s="92"/>
+      <c r="H138" s="184"/>
+      <c r="I138" s="184"/>
+      <c r="J138" s="169"/>
+      <c r="K138" s="184"/>
+      <c r="L138" s="184"/>
+      <c r="M138" s="184"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -9303,23 +10349,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="92"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="100"/>
+      <c r="A139" s="184"/>
+      <c r="B139" s="184"/>
+      <c r="C139" s="184"/>
+      <c r="D139" s="193"/>
+      <c r="E139" s="192"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="92"/>
-      <c r="I139" s="92"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="92"/>
-      <c r="L139" s="92"/>
-      <c r="M139" s="92"/>
+      <c r="H139" s="184"/>
+      <c r="I139" s="184"/>
+      <c r="J139" s="169"/>
+      <c r="K139" s="184"/>
+      <c r="L139" s="184"/>
+      <c r="M139" s="184"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -9344,23 +10390,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="92"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="101"/>
-      <c r="E140" s="100"/>
+      <c r="A140" s="184"/>
+      <c r="B140" s="184"/>
+      <c r="C140" s="184"/>
+      <c r="D140" s="193"/>
+      <c r="E140" s="192"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="92"/>
-      <c r="I140" s="92"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="92"/>
-      <c r="L140" s="92"/>
-      <c r="M140" s="92"/>
+      <c r="H140" s="184"/>
+      <c r="I140" s="184"/>
+      <c r="J140" s="169"/>
+      <c r="K140" s="184"/>
+      <c r="L140" s="184"/>
+      <c r="M140" s="184"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -9381,23 +10427,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="92"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="101"/>
-      <c r="E141" s="100"/>
+      <c r="A141" s="184"/>
+      <c r="B141" s="184"/>
+      <c r="C141" s="184"/>
+      <c r="D141" s="193"/>
+      <c r="E141" s="192"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="92"/>
-      <c r="I141" s="92"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="92"/>
-      <c r="L141" s="92"/>
-      <c r="M141" s="92"/>
+      <c r="H141" s="184"/>
+      <c r="I141" s="184"/>
+      <c r="J141" s="169"/>
+      <c r="K141" s="184"/>
+      <c r="L141" s="184"/>
+      <c r="M141" s="184"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -9420,15 +10466,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="92"/>
-      <c r="B142" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="91"/>
-      <c r="D142" s="101" t="s">
+      <c r="A142" s="184"/>
+      <c r="B142" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="183"/>
+      <c r="D142" s="193" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="100" t="s">
+      <c r="E142" s="192" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -9437,20 +10483,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="102">
-        <v>1</v>
-      </c>
-      <c r="I142" s="102">
-        <v>1</v>
-      </c>
-      <c r="J142" s="100">
+      <c r="H142" s="194">
+        <v>1</v>
+      </c>
+      <c r="I142" s="194">
+        <v>1</v>
+      </c>
+      <c r="J142" s="192">
         <v>4</v>
       </c>
-      <c r="K142" s="91" t="s">
+      <c r="K142" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="91"/>
-      <c r="M142" s="91" t="s">
+      <c r="L142" s="183"/>
+      <c r="M142" s="183" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -9471,23 +10517,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="92"/>
-      <c r="B143" s="92"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="101"/>
-      <c r="E143" s="100"/>
+      <c r="A143" s="184"/>
+      <c r="B143" s="184"/>
+      <c r="C143" s="184"/>
+      <c r="D143" s="193"/>
+      <c r="E143" s="192"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="102"/>
-      <c r="I143" s="102"/>
-      <c r="J143" s="100"/>
-      <c r="K143" s="92"/>
-      <c r="L143" s="92"/>
-      <c r="M143" s="92"/>
+      <c r="H143" s="194"/>
+      <c r="I143" s="194"/>
+      <c r="J143" s="192"/>
+      <c r="K143" s="184"/>
+      <c r="L143" s="184"/>
+      <c r="M143" s="184"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -9506,23 +10552,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="92"/>
-      <c r="B144" s="92"/>
-      <c r="C144" s="92"/>
-      <c r="D144" s="101"/>
-      <c r="E144" s="100"/>
+      <c r="A144" s="184"/>
+      <c r="B144" s="184"/>
+      <c r="C144" s="184"/>
+      <c r="D144" s="193"/>
+      <c r="E144" s="192"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="102"/>
-      <c r="I144" s="102"/>
-      <c r="J144" s="100"/>
-      <c r="K144" s="92"/>
-      <c r="L144" s="92"/>
-      <c r="M144" s="92"/>
+      <c r="H144" s="194"/>
+      <c r="I144" s="194"/>
+      <c r="J144" s="192"/>
+      <c r="K144" s="184"/>
+      <c r="L144" s="184"/>
+      <c r="M144" s="184"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -9545,23 +10591,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="92"/>
-      <c r="B145" s="93"/>
-      <c r="C145" s="93"/>
-      <c r="D145" s="101"/>
-      <c r="E145" s="100"/>
+      <c r="A145" s="184"/>
+      <c r="B145" s="185"/>
+      <c r="C145" s="185"/>
+      <c r="D145" s="193"/>
+      <c r="E145" s="192"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="102"/>
-      <c r="I145" s="102"/>
-      <c r="J145" s="100"/>
-      <c r="K145" s="93"/>
-      <c r="L145" s="93"/>
-      <c r="M145" s="93"/>
+      <c r="H145" s="194"/>
+      <c r="I145" s="194"/>
+      <c r="J145" s="192"/>
+      <c r="K145" s="185"/>
+      <c r="L145" s="185"/>
+      <c r="M145" s="185"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -9580,15 +10626,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="92"/>
-      <c r="B146" s="91"/>
-      <c r="C146" s="91" t="s">
+      <c r="A146" s="184"/>
+      <c r="B146" s="183"/>
+      <c r="C146" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="76" t="s">
+      <c r="D146" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="76" t="s">
+      <c r="E146" s="168" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -9597,23 +10643,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="91">
-        <v>1</v>
-      </c>
-      <c r="I146" s="91">
-        <v>1</v>
-      </c>
-      <c r="J146" s="91">
+      <c r="H146" s="183">
+        <v>1</v>
+      </c>
+      <c r="I146" s="183">
+        <v>1</v>
+      </c>
+      <c r="J146" s="183">
         <v>4</v>
       </c>
-      <c r="K146" s="91" t="s">
+      <c r="K146" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="91"/>
-      <c r="M146" s="91" t="s">
+      <c r="L146" s="183"/>
+      <c r="M146" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="91"/>
+      <c r="N146" s="183"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -9631,24 +10677,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="92"/>
-      <c r="B147" s="92"/>
-      <c r="C147" s="92"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
+      <c r="A147" s="184"/>
+      <c r="B147" s="184"/>
+      <c r="C147" s="184"/>
+      <c r="D147" s="169"/>
+      <c r="E147" s="169"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="92"/>
-      <c r="I147" s="92"/>
-      <c r="J147" s="92"/>
-      <c r="K147" s="92"/>
-      <c r="L147" s="92"/>
-      <c r="M147" s="92"/>
-      <c r="N147" s="92"/>
+      <c r="H147" s="184"/>
+      <c r="I147" s="184"/>
+      <c r="J147" s="184"/>
+      <c r="K147" s="184"/>
+      <c r="L147" s="184"/>
+      <c r="M147" s="184"/>
+      <c r="N147" s="184"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -9666,24 +10712,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="92"/>
-      <c r="B148" s="92"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
+      <c r="A148" s="184"/>
+      <c r="B148" s="184"/>
+      <c r="C148" s="184"/>
+      <c r="D148" s="169"/>
+      <c r="E148" s="169"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="92"/>
-      <c r="I148" s="92"/>
-      <c r="J148" s="92"/>
-      <c r="K148" s="92"/>
-      <c r="L148" s="92"/>
-      <c r="M148" s="92"/>
-      <c r="N148" s="92"/>
+      <c r="H148" s="184"/>
+      <c r="I148" s="184"/>
+      <c r="J148" s="184"/>
+      <c r="K148" s="184"/>
+      <c r="L148" s="184"/>
+      <c r="M148" s="184"/>
+      <c r="N148" s="184"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -9701,24 +10747,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="92"/>
-      <c r="B149" s="93"/>
-      <c r="C149" s="93"/>
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
+      <c r="A149" s="184"/>
+      <c r="B149" s="185"/>
+      <c r="C149" s="185"/>
+      <c r="D149" s="170"/>
+      <c r="E149" s="170"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="93"/>
-      <c r="I149" s="93"/>
-      <c r="J149" s="93"/>
-      <c r="K149" s="93"/>
-      <c r="L149" s="93"/>
-      <c r="M149" s="93"/>
-      <c r="N149" s="93"/>
+      <c r="H149" s="185"/>
+      <c r="I149" s="185"/>
+      <c r="J149" s="185"/>
+      <c r="K149" s="185"/>
+      <c r="L149" s="185"/>
+      <c r="M149" s="185"/>
+      <c r="N149" s="185"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -9736,38 +10782,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="92"/>
-      <c r="B150" s="91" t="s">
+      <c r="A150" s="184"/>
+      <c r="B150" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="91"/>
-      <c r="D150" s="91" t="s">
+      <c r="C150" s="183"/>
+      <c r="D150" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="91"/>
+      <c r="E150" s="183"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="91">
-        <v>1</v>
-      </c>
-      <c r="I150" s="91">
-        <v>1</v>
-      </c>
-      <c r="J150" s="91">
+      <c r="H150" s="183">
+        <v>1</v>
+      </c>
+      <c r="I150" s="183">
+        <v>1</v>
+      </c>
+      <c r="J150" s="183">
         <v>2</v>
       </c>
-      <c r="K150" s="91" t="s">
+      <c r="K150" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="91"/>
-      <c r="M150" s="91" t="s">
+      <c r="L150" s="183"/>
+      <c r="M150" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="91"/>
+      <c r="N150" s="183"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -9785,24 +10831,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="92"/>
-      <c r="B151" s="93"/>
-      <c r="C151" s="93"/>
-      <c r="D151" s="93"/>
-      <c r="E151" s="93"/>
+      <c r="A151" s="184"/>
+      <c r="B151" s="185"/>
+      <c r="C151" s="185"/>
+      <c r="D151" s="185"/>
+      <c r="E151" s="185"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="93"/>
-      <c r="I151" s="93"/>
-      <c r="J151" s="93"/>
-      <c r="K151" s="93"/>
-      <c r="L151" s="93"/>
-      <c r="M151" s="93"/>
-      <c r="N151" s="93"/>
+      <c r="H151" s="185"/>
+      <c r="I151" s="185"/>
+      <c r="J151" s="185"/>
+      <c r="K151" s="185"/>
+      <c r="L151" s="185"/>
+      <c r="M151" s="185"/>
+      <c r="N151" s="185"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -9810,7 +10856,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="92"/>
+      <c r="A152" s="184"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -9847,7 +10893,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="18.75">
-      <c r="A153" s="92"/>
+      <c r="A153" s="184"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -9894,7 +10940,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="92"/>
+      <c r="A154" s="184"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -9931,7 +10977,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="92"/>
+      <c r="A155" s="184"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -9980,7 +11026,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="93"/>
+      <c r="A156" s="185"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -10027,17 +11073,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="82" t="s">
+      <c r="A157" s="174" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="76"/>
-      <c r="D157" s="76" t="s">
+      <c r="B157" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="168"/>
+      <c r="D157" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="76" t="s">
+      <c r="E157" s="168" t="s">
         <v>265</v>
       </c>
       <c r="F157" s="69">
@@ -10046,21 +11092,21 @@
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="H157" s="76"/>
-      <c r="I157" s="76">
-        <v>1</v>
-      </c>
-      <c r="J157" s="76">
+      <c r="H157" s="168"/>
+      <c r="I157" s="168">
+        <v>1</v>
+      </c>
+      <c r="J157" s="168">
         <v>2</v>
       </c>
-      <c r="K157" s="76" t="s">
+      <c r="K157" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="79"/>
-      <c r="M157" s="76" t="s">
+      <c r="L157" s="171"/>
+      <c r="M157" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="76"/>
+      <c r="N157" s="168"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -10078,24 +11124,24 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="83"/>
-      <c r="B158" s="78"/>
-      <c r="C158" s="78"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="78"/>
+      <c r="A158" s="175"/>
+      <c r="B158" s="170"/>
+      <c r="C158" s="170"/>
+      <c r="D158" s="170"/>
+      <c r="E158" s="170"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="78"/>
-      <c r="I158" s="78"/>
-      <c r="J158" s="78"/>
-      <c r="K158" s="78"/>
-      <c r="L158" s="81"/>
-      <c r="M158" s="78"/>
-      <c r="N158" s="78"/>
+      <c r="H158" s="170"/>
+      <c r="I158" s="170"/>
+      <c r="J158" s="170"/>
+      <c r="K158" s="170"/>
+      <c r="L158" s="173"/>
+      <c r="M158" s="170"/>
+      <c r="N158" s="170"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
@@ -10103,7 +11149,7 @@
       <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="18.75">
-      <c r="A159" s="83"/>
+      <c r="A159" s="175"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -10150,7 +11196,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="18.75">
-      <c r="A160" s="83"/>
+      <c r="A160" s="175"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -10197,7 +11243,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="18.75">
-      <c r="A161" s="83"/>
+      <c r="A161" s="175"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -10244,7 +11290,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="18.75">
-      <c r="A162" s="83"/>
+      <c r="A162" s="175"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -10291,7 +11337,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="18.75">
-      <c r="A163" s="83"/>
+      <c r="A163" s="175"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -10338,7 +11384,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="83"/>
+      <c r="A164" s="175"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -10387,7 +11433,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="83"/>
+      <c r="A165" s="175"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -10436,15 +11482,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="83"/>
-      <c r="B166" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="76"/>
-      <c r="D166" s="76" t="s">
+      <c r="A166" s="175"/>
+      <c r="B166" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="168"/>
+      <c r="D166" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="76" t="s">
+      <c r="E166" s="168" t="s">
         <v>265</v>
       </c>
       <c r="F166" s="69">
@@ -10453,21 +11499,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="76"/>
-      <c r="I166" s="76">
-        <v>1</v>
-      </c>
-      <c r="J166" s="76">
+      <c r="H166" s="168"/>
+      <c r="I166" s="168">
+        <v>1</v>
+      </c>
+      <c r="J166" s="168">
         <v>2</v>
       </c>
-      <c r="K166" s="76" t="s">
+      <c r="K166" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="79"/>
-      <c r="M166" s="76" t="s">
+      <c r="L166" s="171"/>
+      <c r="M166" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="76"/>
+      <c r="N166" s="168"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -10485,24 +11531,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="83"/>
-      <c r="B167" s="78"/>
-      <c r="C167" s="78"/>
-      <c r="D167" s="78"/>
-      <c r="E167" s="78"/>
+      <c r="A167" s="175"/>
+      <c r="B167" s="170"/>
+      <c r="C167" s="170"/>
+      <c r="D167" s="170"/>
+      <c r="E167" s="170"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="78"/>
-      <c r="I167" s="78"/>
-      <c r="J167" s="78"/>
-      <c r="K167" s="78"/>
-      <c r="L167" s="81"/>
-      <c r="M167" s="78"/>
-      <c r="N167" s="78"/>
+      <c r="H167" s="170"/>
+      <c r="I167" s="170"/>
+      <c r="J167" s="170"/>
+      <c r="K167" s="170"/>
+      <c r="L167" s="173"/>
+      <c r="M167" s="170"/>
+      <c r="N167" s="170"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -10510,7 +11556,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="83"/>
+      <c r="A168" s="175"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -10559,7 +11605,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="83"/>
+      <c r="A169" s="175"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -10608,15 +11654,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="83"/>
-      <c r="B170" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="76"/>
-      <c r="D170" s="76" t="s">
+      <c r="A170" s="175"/>
+      <c r="B170" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="168"/>
+      <c r="D170" s="168" t="s">
         <v>260</v>
       </c>
-      <c r="E170" s="76" t="s">
+      <c r="E170" s="168" t="s">
         <v>265</v>
       </c>
       <c r="F170" s="69">
@@ -10625,21 +11671,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="76"/>
-      <c r="I170" s="76">
-        <v>1</v>
-      </c>
-      <c r="J170" s="76">
+      <c r="H170" s="168"/>
+      <c r="I170" s="168">
+        <v>1</v>
+      </c>
+      <c r="J170" s="168">
         <v>2</v>
       </c>
-      <c r="K170" s="76" t="s">
+      <c r="K170" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="79"/>
-      <c r="M170" s="76" t="s">
+      <c r="L170" s="171"/>
+      <c r="M170" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="76"/>
+      <c r="N170" s="168"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -10657,24 +11703,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="83"/>
-      <c r="B171" s="78"/>
-      <c r="C171" s="78"/>
-      <c r="D171" s="78"/>
-      <c r="E171" s="78"/>
+      <c r="A171" s="175"/>
+      <c r="B171" s="170"/>
+      <c r="C171" s="170"/>
+      <c r="D171" s="170"/>
+      <c r="E171" s="170"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="78"/>
-      <c r="I171" s="78"/>
-      <c r="J171" s="78"/>
-      <c r="K171" s="78"/>
-      <c r="L171" s="81"/>
-      <c r="M171" s="78"/>
-      <c r="N171" s="78"/>
+      <c r="H171" s="170"/>
+      <c r="I171" s="170"/>
+      <c r="J171" s="170"/>
+      <c r="K171" s="170"/>
+      <c r="L171" s="173"/>
+      <c r="M171" s="170"/>
+      <c r="N171" s="170"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -10682,7 +11728,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="83"/>
+      <c r="A172" s="175"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -10729,7 +11775,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="84"/>
+      <c r="A173" s="176"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -15872,7 +16918,7 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -16533,21 +17579,2827 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C8982-F335-44CC-BB78-6085A75A070B}">
+  <dimension ref="A1:V93"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="21.6875" style="58" customWidth="1"/>
+    <col min="2" max="3" width="5.875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="50.8125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="58" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5625" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.9375" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.0625" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5625" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18" thickBot="1"/>
+    <row r="2" spans="1:16" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A2" s="163" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="166"/>
+      <c r="F2" s="197" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="164" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="164" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18" thickTop="1">
+      <c r="A3" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="159"/>
+      <c r="F3" s="117" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="114"/>
+      <c r="H3" s="118">
+        <v>1</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="114">
+        <v>6</v>
+      </c>
+      <c r="K3" s="114">
+        <v>1</v>
+      </c>
+      <c r="L3" s="114">
+        <v>8</v>
+      </c>
+      <c r="M3" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="149"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="121"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="81">
+        <v>2</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="157"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="121"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="81">
+        <v>3</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="157"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="121"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="81">
+        <v>4</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="157"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="121"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="81">
+        <v>5</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="157"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="121"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="81">
+        <v>6</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="157"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="121"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="81">
+        <v>7</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="157"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="121"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81">
+        <v>8</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="139"/>
+    </row>
+    <row r="11" spans="1:16" s="19" customFormat="1">
+      <c r="A11" s="160"/>
+      <c r="B11" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="101"/>
+      <c r="F11" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="35">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>2</v>
+      </c>
+      <c r="K11" s="36">
+        <v>1</v>
+      </c>
+      <c r="L11" s="36">
+        <v>2</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="123"/>
+    </row>
+    <row r="12" spans="1:16" s="19" customFormat="1">
+      <c r="A12" s="160"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="35">
+        <v>2</v>
+      </c>
+      <c r="I12" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="122"/>
+    </row>
+    <row r="13" spans="1:16" s="19" customFormat="1" ht="18.75">
+      <c r="A13" s="121"/>
+      <c r="B13" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="81">
+        <v>0</v>
+      </c>
+      <c r="L13" s="81">
+        <v>999.99</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="123"/>
+    </row>
+    <row r="14" spans="1:16" s="19" customFormat="1" ht="18.75">
+      <c r="A14" s="121"/>
+      <c r="B14" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="104" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="105"/>
+      <c r="F14" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="81">
+        <v>0</v>
+      </c>
+      <c r="L14" s="81">
+        <v>999.99</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5">
+        <v>2</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="123"/>
+    </row>
+    <row r="15" spans="1:16" s="19" customFormat="1" ht="19.149999999999999" thickBot="1">
+      <c r="A15" s="125"/>
+      <c r="B15" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="161" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="161"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="126">
+        <v>0</v>
+      </c>
+      <c r="L15" s="126">
+        <v>999.99</v>
+      </c>
+      <c r="M15" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="162">
+        <v>2</v>
+      </c>
+      <c r="O15" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="131"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" thickTop="1">
+      <c r="A16" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="118"/>
+      <c r="D16" s="155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="156"/>
+      <c r="F16" s="133" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="118"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="136"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="140"/>
+      <c r="B17" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="81">
+        <v>1</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78">
+        <v>1</v>
+      </c>
+      <c r="L17" s="78">
+        <v>6</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="78"/>
+      <c r="O17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="138"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="140"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="81">
+        <v>2</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="157"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="140"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="81">
+        <v>3</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="157"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="140"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81">
+        <v>4</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="157"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="140"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="81">
+        <v>5</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="157"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="140"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81">
+        <v>6</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="139"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="140"/>
+      <c r="B23" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" s="81"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="142"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="140"/>
+      <c r="B24" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81">
+        <v>0</v>
+      </c>
+      <c r="L24" s="81">
+        <v>9999</v>
+      </c>
+      <c r="M24" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2</v>
+      </c>
+      <c r="O24" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="142"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="140"/>
+      <c r="B25" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="81"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81">
+        <v>0.02</v>
+      </c>
+      <c r="L25" s="81">
+        <v>370</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3</v>
+      </c>
+      <c r="O25" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="142"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="140"/>
+      <c r="B26" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81">
+        <v>0</v>
+      </c>
+      <c r="L26" s="81">
+        <v>4000</v>
+      </c>
+      <c r="M26" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="142"/>
+    </row>
+    <row r="27" spans="1:22" ht="18.75">
+      <c r="A27" s="137"/>
+      <c r="B27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35">
+        <v>0</v>
+      </c>
+      <c r="L27" s="35">
+        <v>10</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="37">
+        <v>2</v>
+      </c>
+      <c r="O27" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="124"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.75">
+      <c r="A28" s="137"/>
+      <c r="B28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="93"/>
+      <c r="F28" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35">
+        <v>0</v>
+      </c>
+      <c r="L28" s="35">
+        <v>10</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="37">
+        <v>2</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="124"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="137"/>
+      <c r="B29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="96"/>
+      <c r="F29" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="35">
+        <v>1</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J29" s="36">
+        <v>1</v>
+      </c>
+      <c r="K29" s="36">
+        <v>1</v>
+      </c>
+      <c r="L29" s="36">
+        <v>3</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="42"/>
+      <c r="O29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" s="123"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="137"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="35">
+        <v>2</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="141"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="137"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="35">
+        <v>3</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="141"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="137"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="35">
+        <v>4</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="122"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="137"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="35">
+        <v>1</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" s="36">
+        <v>1</v>
+      </c>
+      <c r="K33" s="36">
+        <v>1</v>
+      </c>
+      <c r="L33" s="36">
+        <v>3</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="42"/>
+      <c r="O33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" s="123"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="137"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="35">
+        <v>2</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="141"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="137"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="35">
+        <v>3</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="122"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="137"/>
+      <c r="B36" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="93"/>
+      <c r="F36" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40">
+        <v>0</v>
+      </c>
+      <c r="L36" s="40">
+        <v>1</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="106">
+        <v>3</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="122"/>
+    </row>
+    <row r="37" spans="1:16" ht="18.75">
+      <c r="A37" s="137"/>
+      <c r="B37" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="98"/>
+      <c r="F37" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35">
+        <v>0</v>
+      </c>
+      <c r="L37" s="35">
+        <v>10</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="37">
+        <v>2</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="124"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="137"/>
+      <c r="B38" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="93"/>
+      <c r="F38" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="92"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38" s="37">
+        <v>3</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="P38" s="124"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="137"/>
+      <c r="B39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="92"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35">
+        <v>0</v>
+      </c>
+      <c r="L39" s="35">
+        <v>10</v>
+      </c>
+      <c r="M39" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="37">
+        <v>2</v>
+      </c>
+      <c r="O39" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="P39" s="124"/>
+    </row>
+    <row r="40" spans="1:16" ht="19.149999999999999" thickBot="1">
+      <c r="A40" s="151"/>
+      <c r="B40" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="129"/>
+      <c r="D40" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="153"/>
+      <c r="F40" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" s="129" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="152"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129">
+        <v>0</v>
+      </c>
+      <c r="L40" s="129">
+        <v>10</v>
+      </c>
+      <c r="M40" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="130">
+        <v>2</v>
+      </c>
+      <c r="O40" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" s="131"/>
+    </row>
+    <row r="41" spans="1:16" ht="18" thickTop="1">
+      <c r="A41" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="135"/>
+      <c r="F41" s="133" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" s="133"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="133"/>
+      <c r="O41" s="133"/>
+      <c r="P41" s="150"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="140"/>
+      <c r="B42" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="93"/>
+      <c r="F42" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="92"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K42" s="35">
+        <v>0</v>
+      </c>
+      <c r="L42" s="35">
+        <v>1</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="37">
+        <v>3</v>
+      </c>
+      <c r="O42" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="122"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="140"/>
+      <c r="B43" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="93"/>
+      <c r="F43" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" s="92"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K43" s="35">
+        <v>0</v>
+      </c>
+      <c r="L43" s="35">
+        <v>1</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="37">
+        <v>3</v>
+      </c>
+      <c r="O43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="140"/>
+      <c r="B44" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="93"/>
+      <c r="F44" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K44" s="35">
+        <v>0</v>
+      </c>
+      <c r="L44" s="35">
+        <v>1</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="37">
+        <v>3</v>
+      </c>
+      <c r="O44" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" s="122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="19.149999999999999" thickBot="1">
+      <c r="A45" s="143"/>
+      <c r="B45" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="129"/>
+      <c r="D45" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="153"/>
+      <c r="F45" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" s="129"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="129">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K45" s="129">
+        <v>0</v>
+      </c>
+      <c r="L45" s="129">
+        <v>10</v>
+      </c>
+      <c r="M45" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="130">
+        <v>2</v>
+      </c>
+      <c r="O45" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" s="131"/>
+    </row>
+    <row r="46" spans="1:16" s="19" customFormat="1" ht="18" thickTop="1">
+      <c r="A46" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="133"/>
+      <c r="D46" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="135"/>
+      <c r="F46" s="133" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="133"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="133"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="150"/>
+    </row>
+    <row r="47" spans="1:16" s="19" customFormat="1">
+      <c r="A47" s="137"/>
+      <c r="B47" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="93"/>
+      <c r="F47" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="92"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35">
+        <v>0</v>
+      </c>
+      <c r="L47" s="35">
+        <v>15</v>
+      </c>
+      <c r="M47" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" s="37">
+        <v>3</v>
+      </c>
+      <c r="O47" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P47" s="124"/>
+    </row>
+    <row r="48" spans="1:16" s="19" customFormat="1">
+      <c r="A48" s="137"/>
+      <c r="B48" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="92"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35">
+        <v>0</v>
+      </c>
+      <c r="L48" s="35">
+        <v>2</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="37">
+        <v>3</v>
+      </c>
+      <c r="O48" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" s="124"/>
+    </row>
+    <row r="49" spans="1:16" s="19" customFormat="1">
+      <c r="A49" s="137"/>
+      <c r="B49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="92"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35">
+        <v>0</v>
+      </c>
+      <c r="L49" s="35">
+        <v>2</v>
+      </c>
+      <c r="M49" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" s="37">
+        <v>3</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" s="124"/>
+    </row>
+    <row r="50" spans="1:16" s="19" customFormat="1">
+      <c r="A50" s="137"/>
+      <c r="B50" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H50" s="92"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35">
+        <v>0</v>
+      </c>
+      <c r="L50" s="35">
+        <v>1</v>
+      </c>
+      <c r="M50" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" s="37">
+        <v>3</v>
+      </c>
+      <c r="O50" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" s="124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A51" s="151"/>
+      <c r="B51" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="129"/>
+      <c r="D51" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="153"/>
+      <c r="F51" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="129" t="s">
+        <v>265</v>
+      </c>
+      <c r="H51" s="152"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129">
+        <v>0</v>
+      </c>
+      <c r="L51" s="129">
+        <v>1</v>
+      </c>
+      <c r="M51" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="130">
+        <v>3</v>
+      </c>
+      <c r="O51" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18" thickTop="1">
+      <c r="A52" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="117"/>
+      <c r="D52" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="148"/>
+      <c r="F52" s="117" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" s="117"/>
+      <c r="H52" s="133">
+        <v>1</v>
+      </c>
+      <c r="I52" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="117">
+        <v>1</v>
+      </c>
+      <c r="K52" s="117">
+        <v>1</v>
+      </c>
+      <c r="L52" s="117">
+        <v>2</v>
+      </c>
+      <c r="M52" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" s="149"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="137"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="35">
+        <v>2</v>
+      </c>
+      <c r="I53" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="139"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="137"/>
+      <c r="B54" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="101"/>
+      <c r="F54" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" s="36"/>
+      <c r="H54" s="35">
+        <v>1</v>
+      </c>
+      <c r="I54" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="36">
+        <v>1</v>
+      </c>
+      <c r="K54" s="36">
+        <v>1</v>
+      </c>
+      <c r="L54" s="36">
+        <v>2</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="138"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="137"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="35">
+        <v>2</v>
+      </c>
+      <c r="I55" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="91"/>
+      <c r="P55" s="139"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="140"/>
+      <c r="B56" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="96"/>
+      <c r="F56" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="35">
+        <v>1</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="J56" s="36">
+        <v>2</v>
+      </c>
+      <c r="K56" s="36">
+        <v>1</v>
+      </c>
+      <c r="L56" s="36">
+        <v>14</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56" s="123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="140"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="35">
+        <v>2</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="141"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="140"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="35">
+        <v>3</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="141"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="140"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="35">
+        <v>4</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="141"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="140"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="35">
+        <v>5</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="141"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="140"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="35">
+        <v>6</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="141"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="140"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="35">
+        <v>7</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="141"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="140"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="35">
+        <v>8</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="141"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="140"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="35">
+        <v>9</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="141"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="140"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="35">
+        <v>10</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="141"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="140"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="35">
+        <v>11</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="141"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="140"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="35">
+        <v>12</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="141"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="140"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="35">
+        <v>13</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="90"/>
+      <c r="O68" s="90"/>
+      <c r="P68" s="141"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="140"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="35">
+        <v>14</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="141"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="140"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="35">
+        <v>15</v>
+      </c>
+      <c r="I70" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="122"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="140"/>
+      <c r="B71" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="78"/>
+      <c r="D71" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="85"/>
+      <c r="F71" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="G71" s="78"/>
+      <c r="H71" s="35">
+        <v>1</v>
+      </c>
+      <c r="I71" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="78">
+        <v>1</v>
+      </c>
+      <c r="K71" s="78">
+        <v>1</v>
+      </c>
+      <c r="L71" s="78">
+        <v>2</v>
+      </c>
+      <c r="M71" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="P71" s="138"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="140"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="35">
+        <v>2</v>
+      </c>
+      <c r="I72" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="139"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="140"/>
+      <c r="B73" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="81"/>
+      <c r="D73" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="95"/>
+      <c r="F73" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="G73" s="81"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" s="81"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="142"/>
+    </row>
+    <row r="74" spans="1:16" ht="18.75">
+      <c r="A74" s="140"/>
+      <c r="B74" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="81"/>
+      <c r="D74" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="95"/>
+      <c r="F74" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="G74" s="81"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81">
+        <v>0</v>
+      </c>
+      <c r="L74" s="81">
+        <v>99</v>
+      </c>
+      <c r="M74" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" s="5">
+        <v>2</v>
+      </c>
+      <c r="O74" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="142"/>
+    </row>
+    <row r="75" spans="1:16" ht="18" thickBot="1">
+      <c r="A75" s="143"/>
+      <c r="B75" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="126"/>
+      <c r="D75" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="145"/>
+      <c r="F75" s="129" t="s">
+        <v>346</v>
+      </c>
+      <c r="G75" s="126"/>
+      <c r="H75" s="144"/>
+      <c r="I75" s="145"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="126"/>
+      <c r="O75" s="126"/>
+      <c r="P75" s="146"/>
+    </row>
+    <row r="76" spans="1:16" ht="18" thickTop="1">
+      <c r="A76" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="114"/>
+      <c r="D76" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="116"/>
+      <c r="F76" s="198" t="s">
+        <v>348</v>
+      </c>
+      <c r="G76" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="H76" s="118">
+        <v>1</v>
+      </c>
+      <c r="I76" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="J76" s="117"/>
+      <c r="K76" s="114">
+        <v>1</v>
+      </c>
+      <c r="L76" s="114">
+        <v>2</v>
+      </c>
+      <c r="M76" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76" s="119"/>
+      <c r="O76" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="P76" s="120"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="121"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="81">
+        <v>2</v>
+      </c>
+      <c r="I77" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="91"/>
+      <c r="P77" s="122"/>
+    </row>
+    <row r="78" spans="1:16" ht="18.75">
+      <c r="A78" s="121"/>
+      <c r="B78" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="81"/>
+      <c r="D78" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="101"/>
+      <c r="F78" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H78" s="92"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35">
+        <v>0</v>
+      </c>
+      <c r="L78" s="35">
+        <v>10</v>
+      </c>
+      <c r="M78" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" s="37">
+        <v>2</v>
+      </c>
+      <c r="O78" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" s="123"/>
+    </row>
+    <row r="79" spans="1:16" ht="18.75">
+      <c r="A79" s="121"/>
+      <c r="B79" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="81"/>
+      <c r="D79" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="101"/>
+      <c r="F79" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H79" s="92"/>
+      <c r="I79" s="93"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35">
+        <v>0</v>
+      </c>
+      <c r="L79" s="35">
+        <v>10</v>
+      </c>
+      <c r="M79" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="37">
+        <v>2</v>
+      </c>
+      <c r="O79" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" s="123"/>
+    </row>
+    <row r="80" spans="1:16" ht="18.75">
+      <c r="A80" s="121"/>
+      <c r="B80" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="81"/>
+      <c r="D80" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="101"/>
+      <c r="F80" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H80" s="92"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35">
+        <v>0</v>
+      </c>
+      <c r="L80" s="35">
+        <v>10</v>
+      </c>
+      <c r="M80" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="37">
+        <v>2</v>
+      </c>
+      <c r="O80" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" s="123"/>
+    </row>
+    <row r="81" spans="1:16" ht="18.75">
+      <c r="A81" s="121"/>
+      <c r="B81" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="81"/>
+      <c r="D81" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="101"/>
+      <c r="F81" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" s="92"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35">
+        <v>0</v>
+      </c>
+      <c r="L81" s="35">
+        <v>10</v>
+      </c>
+      <c r="M81" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="37">
+        <v>2</v>
+      </c>
+      <c r="O81" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P81" s="123"/>
+    </row>
+    <row r="82" spans="1:16" ht="18.75">
+      <c r="A82" s="121"/>
+      <c r="B82" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="81"/>
+      <c r="D82" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="101"/>
+      <c r="F82" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H82" s="92"/>
+      <c r="I82" s="93"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35">
+        <v>0</v>
+      </c>
+      <c r="L82" s="35">
+        <v>10</v>
+      </c>
+      <c r="M82" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" s="37">
+        <v>2</v>
+      </c>
+      <c r="O82" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" s="123"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="121"/>
+      <c r="B83" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="81"/>
+      <c r="D83" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="101"/>
+      <c r="F83" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H83" s="92"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35">
+        <v>0</v>
+      </c>
+      <c r="L83" s="35">
+        <v>1</v>
+      </c>
+      <c r="M83" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="37">
+        <v>3</v>
+      </c>
+      <c r="O83" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P83" s="124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="121"/>
+      <c r="B84" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="81"/>
+      <c r="D84" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="101"/>
+      <c r="F84" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="G84" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H84" s="92"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35">
+        <v>0</v>
+      </c>
+      <c r="L84" s="35">
+        <v>1</v>
+      </c>
+      <c r="M84" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" s="37">
+        <v>3</v>
+      </c>
+      <c r="O84" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P84" s="124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="121"/>
+      <c r="B85" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="78"/>
+      <c r="D85" s="100" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" s="101"/>
+      <c r="F85" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H85" s="35">
+        <v>1</v>
+      </c>
+      <c r="I85" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="36"/>
+      <c r="K85" s="78">
+        <v>1</v>
+      </c>
+      <c r="L85" s="78">
+        <v>2</v>
+      </c>
+      <c r="M85" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N85" s="109"/>
+      <c r="O85" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P85" s="123"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="121"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="35">
+        <v>2</v>
+      </c>
+      <c r="I86" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="91"/>
+      <c r="M86" s="91"/>
+      <c r="N86" s="108"/>
+      <c r="O86" s="91"/>
+      <c r="P86" s="122"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="121"/>
+      <c r="B87" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="81"/>
+      <c r="D87" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" s="101"/>
+      <c r="F87" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H87" s="92"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35">
+        <v>0</v>
+      </c>
+      <c r="L87" s="35">
+        <v>1</v>
+      </c>
+      <c r="M87" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N87" s="37">
+        <v>3</v>
+      </c>
+      <c r="O87" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P87" s="124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="121"/>
+      <c r="B88" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="81"/>
+      <c r="D88" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E88" s="101"/>
+      <c r="F88" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H88" s="92"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35">
+        <v>0</v>
+      </c>
+      <c r="L88" s="35">
+        <v>1</v>
+      </c>
+      <c r="M88" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N88" s="37">
+        <v>3</v>
+      </c>
+      <c r="O88" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P88" s="124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="121"/>
+      <c r="B89" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="78"/>
+      <c r="D89" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" s="101"/>
+      <c r="F89" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" s="35">
+        <v>1</v>
+      </c>
+      <c r="I89" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" s="36"/>
+      <c r="K89" s="78">
+        <v>1</v>
+      </c>
+      <c r="L89" s="78">
+        <v>2</v>
+      </c>
+      <c r="M89" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N89" s="109"/>
+      <c r="O89" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P89" s="123"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="121"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="35">
+        <v>2</v>
+      </c>
+      <c r="I90" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="91"/>
+      <c r="N90" s="108"/>
+      <c r="O90" s="91"/>
+      <c r="P90" s="122"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="121"/>
+      <c r="B91" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="81"/>
+      <c r="D91" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="101"/>
+      <c r="F91" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H91" s="92"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35">
+        <v>0</v>
+      </c>
+      <c r="L91" s="35">
+        <v>10</v>
+      </c>
+      <c r="M91" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N91" s="37">
+        <v>2</v>
+      </c>
+      <c r="O91" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="P91" s="123"/>
+    </row>
+    <row r="92" spans="1:16" ht="18" thickBot="1">
+      <c r="A92" s="125"/>
+      <c r="B92" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="126"/>
+      <c r="D92" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="128"/>
+      <c r="F92" s="161" t="s">
+        <v>361</v>
+      </c>
+      <c r="G92" s="129" t="s">
+        <v>264</v>
+      </c>
+      <c r="H92" s="152"/>
+      <c r="I92" s="153"/>
+      <c r="J92" s="129"/>
+      <c r="K92" s="129">
+        <v>0</v>
+      </c>
+      <c r="L92" s="129">
+        <v>10</v>
+      </c>
+      <c r="M92" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" s="130">
+        <v>2</v>
+      </c>
+      <c r="O92" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="P92" s="131"/>
+    </row>
+    <row r="93" spans="1:16" ht="18" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:S54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.875" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.625" style="27" bestFit="1" customWidth="1"/>
@@ -18275,13 +22127,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AEBD5-B255-4B86-ABCF-F48DF2A77A1E}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:S57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
@@ -20116,13 +23968,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F56698-F8EF-4645-AB02-3EFE3EAC86DB}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:S56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
@@ -21934,7 +25786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E55B5-C14D-4A54-A05B-9AE529D52A27}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:S71"/>

--- a/外皮計算テストケース表_180309.xlsx
+++ b/外皮計算テストケース表_180309.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A2269-360A-4523-83E7-499D784450A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424B309-A983-4922-ABC8-0C40859D8BC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="481">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3087,9 +3087,6 @@
     <t>[一般部位構造種別]=2 or [一般部位構造種別]=3の場合に表示。</t>
   </si>
   <si>
-    <t>[簡易外皮入力フラグ]=２の場合に表示。</t>
-  </si>
-  <si>
     <t>[簡易外皮入力フラグ]=１の場合に表示。付属部材（和障子・外付けブラインド）の影響含む。</t>
   </si>
   <si>
@@ -3304,14 +3301,6 @@
     <rPh sb="19" eb="21">
       <t>テンキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]IsPerimeter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]IsSolarRadiation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3387,13 +3376,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>[外皮フラグ]=1の場合に表示。
-1～10:温度差係数1 
-11～12:温度差係数0.7 
-13～14:温度差係数1～3地域0.05、4～8地域0.15。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>window[i]name</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3406,10 +3388,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>window[i]U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>window[i]eta</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3431,14 +3409,6 @@
   </si>
   <si>
     <t>window[i]fHeating</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]IsPerimeter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]IsSolarRadiation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3527,14 +3497,6 @@
   </si>
   <si>
     <t>door[i]y1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]IsPerimeter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]IsSolarRadiation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3758,10 +3720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シート「熱負荷計算LV1csv」</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3791,14 +3749,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>door[i]fCooling</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]fHeating</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シート「熱負荷計算LV1csv_old」</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3918,10 +3868,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>wall[i]parts_part[1]AreaRatio</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>wall[i]parts_part[1]layers_layer[k]matrial</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3938,46 +3884,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>wall[i]parts_part[2]AreaRatio</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[2]layers_layer[k]matrial</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[2]layers_layer[k]d</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[2]layers_layer[k]lambda</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[2]layers_layer[k]Crho</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>wall[i]parts_part[1]Ur</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一般部分/面積比率</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>リツ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4021,62 +3928,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>熱橋部分/面積比率</t>
-    <rPh sb="0" eb="2">
-      <t>ネッキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>熱橋部分/層構成/部材名称</t>
-    <rPh sb="5" eb="8">
-      <t>ソウコウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブザイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>熱橋部分/層構成/厚さ</t>
-    <rPh sb="9" eb="10">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>熱橋部分/層構成/熱伝導率</t>
-    <rPh sb="9" eb="10">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>デンドウリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>熱橋部分/層構成/容積比熱</t>
-    <rPh sb="9" eb="11">
-      <t>ヨウセキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一般部分/補正熱貫流率</t>
     <rPh sb="5" eb="7">
       <t>ホセイ</t>
@@ -4091,77 +3942,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>外部日除け入力フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヨ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]IsInputSunshade</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[簡易外皮入力フラグ]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[外部日除け入力フラグ]=１の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]IsInputSunshade</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[外部日除け入力フラグ]=２ or [簡易外皮入力フラグ]=１の場合に表示。値は1とする。</t>
-    <rPh sb="38" eb="39">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[木造熱橋部計算方法]=１の場合。部位（part[j]）の最大数は4とする。</t>
-    <rPh sb="1" eb="3">
-      <t>モクゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネッキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[木造熱橋部計算方法]=２の場合。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[木造熱橋部計算方法]=３ or [一般部位構造種別]=３の場合。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4298,22 +4078,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開口部上部の日よけ設置フラグ</t>
-    <rPh sb="0" eb="3">
-      <t>カイコウブ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「開口部の不透明部位」の項目「日射熱取得率」「日射熱取得率（夏期）」「日射熱取得率（冬期）」を削除。</t>
     <rPh sb="47" eb="49">
       <t>サクジョ</t>
@@ -4321,38 +4085,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[外部日除け入力フラグ]=１の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]IsSunshadeExist</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[開口部上部の日よけ設置フラグ]=１の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[外部日除け入力フラグ]=２ or [簡易外皮入力フラグ]=１の場合に表示。[外部日除け入力フラグ]=２の場合、値は0.93とする。[簡易外皮入力フラグ]=１の場合で値の入力がない場合はガラス区分を１とし開口部の上部に日除けが設置されていない場合として地域の区分に応じて南西・北西・北東及び南東の値を第 3章第 4 節「外皮の日射熱取得」に定める方法により計算した値とする。 日除け・入射角特性の影響含む。</t>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[外部日除け入力フラグ]=２ or [簡易外皮入力フラグ]=１の場合に表示。[外部日除け入力フラグ]=２の場合、値は0.51とする。[簡易外皮入力フラグ]=１の場合で入力がない場合はガラス区分を７としl1=0としl2=1/0.3として地域の区分に応じて南西・北西・北東及び南東の値を第 3章第 4 節「外皮の日射熱取得」に定める方法により計算した値とする。日除け・入射角特性の影響含む。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「開口部の透明部位」に項目「外部日除け入力フラグ」を追加。</t>
     <rPh sb="11" eb="13">
       <t>コウモク</t>
@@ -4437,6 +4169,630 @@
     <rPh sb="71" eb="73">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」について、「部位（part）」の最大数を6とする。</t>
+    <rPh sb="29" eb="31">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[木造熱橋部計算方法]=１ or [木造熱橋部計算方法]=２の場合。部位（part[j]）の最大数は6とする。[木造熱橋部計算方法]=２の場合は、部位[1]を一般部、部位[2]を熱橋部として扱う。</t>
+    <rPh sb="1" eb="3">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」について、[木造熱橋部計算方法]=１の場合と[木造熱橋部計算方法]=２の場合の入力項目を統合。[木造熱橋部計算方法]=２の場合は、部位[1]を一般部、部位[2]を熱橋部として扱う。</t>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」の「外皮フラグ」、「日射フラグ」を削除。「方位」の備考に日射の有無の判断方法について追記。</t>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「10:下面」～「15:土間床等」が選択された場合は日射なし、それ以外は日射ありとして扱う。
+1～10:温度差係数1 
+11～12:温度差係数0.7 
+13～14:温度差係数1～3地域0.05、4～8地域0.15。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[木造熱橋部計算方法]=１の場合。部位（part[j]）の最大数は6とする。[木造熱橋部計算方法]=２の場合は、部位[1]を一般部、部位[2]を熱橋部として扱う。</t>
+    <rPh sb="1" eb="3">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>床の工法種類</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁の工法種類</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]FloorConstructionMethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]WallConstructionMethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=３でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=２でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井の工法種類</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>屋根の工法種類</t>
+    <rPh sb="0" eb="2">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]CeilingConstructionMethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]RoofConstructionMethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:桁・梁間に断熱する場合 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=１でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」に「床の工法種類」「壁の工法種類」「天井の工法種類」「屋根の工法種類」を追加。</t>
+    <rPh sb="49" eb="51">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」の「外皮フラグ」、「日射フラグ」を削除。「方位」の備考に日射の有無の判断方法について追記。</t>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日射熱取得率の入力方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[簡易外皮入力フラグ]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[日射熱取得率の入力方法]=１の場合に表示。</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓枠種類</t>
+    <rPh sb="0" eb="2">
+      <t>マドワク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガラス種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]frame</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]glass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[日射熱取得率の入力方法]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日除けの入力方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]IsfFixedValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]IsSunshadeExist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]Sunshade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:.使用する 
+2:使用しない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開口部の上部の日除けの設置</t>
+    <rPh sb="11" eb="13">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]Uw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓の熱貫流率</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネツカンリュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」の「熱貫流率（window[i]U）」を「窓の熱貫流率（window[i]Uw）」に名称変更。</t>
+    <rPh sb="12" eb="13">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」の「外部日除け入力フラグ」、「開口部上部の日除け設置フラグ」を削除。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」に「取得日射熱補正係数に固定値を使用する」「開口部の上部の日除けの設置」「日除けの入力方法」を追加。</t>
+    <rPh sb="57" eb="59">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:設置あり 
+2:設置なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:詳細法 
+2:簡易法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:木製建具又は樹脂製建具 
+2:木と金属の複合材料製建具又は樹脂と金属の複合材料製建具、金属製熱遮断構造建具又は金属製建具</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:数値入力 2:窓仕様を選択</t>
+    <rPh sb="9" eb="10">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:たるき間に断熱する場合 
+2:たるき間に断熱し付加断熱（横下地）する場合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:軸組構法・柱、間柱間に断熱する場合 
+2:軸組構法・柱、間柱間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「横下地」） 
+3:軸組構法・柱、間柱間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「縦下地」） 
+4:枠組壁工法・たて枠間に断熱する場合 
+5:枠組壁工法・たて枠間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「横下地」） 
+6:枠組壁工法・たて枠間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「縦下地」）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:軸組構法・床梁工法（根太間に断熱する場合） 
+2:軸組構法・束立大引工法（根太間に断熱する場合） 
+3:軸組構法・束立大引工法（大引間に断熱する場合） 
+4:軸組構法・束立大引工法（根太間及び大引間に断熱する場合） 
+5:軸組構法・剛床工法 
+6:軸組構法・床梁土台同面工法（根太間に断熱する場合） 
+7:軸組構法・枠組壁工法（根太間に断熱する場合）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[日除けの入力方法]=１の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[開口部の上部の日除けの設置]=１の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得日射熱補正係数に固定値を使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[取得日射熱補正係数に固定値を使用]=２の場合に表示。</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[取得日射熱補正係数に固定値を使用]=１ or [簡易外皮入力フラグ]=１の場合に表示。[取得日射熱補正係数に固定値を使用]=１の場合、値は0.93とする。[簡易外皮入力フラグ]=１の場合で値の入力がない場合はガラス区分を１とし開口部の上部に日除けが設置されていない場合として地域の区分に応じて南西・北西・北東及び南東の値を第 3章第 4 節「外皮の日射熱取得」に定める方法により計算した値とする。 日除け・入射角特性の影響含む。</t>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[取得日射熱補正係数に固定値を使用]=１ or [簡易外皮入力フラグ]=１の場合に表示。[取得日射熱補正係数に固定値を使用]=１の場合、値は0.51とする。[簡易外皮入力フラグ]=１の場合で入力がない場合はガラス区分を７としl1=0としl2=1/0.3として地域の区分に応じて南西・北西・北東及び南東の値を第 3章第 4 節「外皮の日射熱取得」に定める方法により計算した値とする。日除け・入射角特性の影響含む。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:三層複層 Low-E三層複層ガラス（Low-Eガラス2枚）日射取得型 
+2:三層複層 Low-E三層複層ガラス（Low-Eガラス2枚）日射遮蔽型 
+3:三層複層 Low-E三層複層ガラス（Low-Eガラス1枚）日射取得型 
+4:三層複層 Low-E三層複層ガラス（Low-Eガラス1枚）日射遮蔽型 
+5:二層複層 Low-E複層ガラス日射取得型 
+6:二層複層 Low-E複層ガラス日射遮蔽型 
+7:二層複層 遮熱複層ガラス熱線反射ガラス1種 
+8:二層複層 遮熱複層ガラス熱線反射ガラス2種 
+9:二層複層 遮熱複層ガラス熱線反射ガラス3種 
+10:二層複層 遮熱複層ガラス熱線吸収板ガラス2種 
+11:二層複層 複層ガラス 
+12:二層複層 単板ガラス2枚 
+13:単層 単板ガラス熱線反射ガラス1種 
+14:単層 単板ガラス熱線反射ガラス2種 
+15:単層 単板ガラス熱線反射ガラス3種 
+16:単層 単板ガラス熱線吸収板ガラス2種 
+17:単層 単板ガラスその他 
+18:二重窓 単板ガラス＋単板ガラス
+19:二重窓 単板ガラス＋複層ガラス
+20:二重窓 単板ガラス＋Low-E複層ガラス日射取得型 
+21:二重窓 単板ガラス＋Low-E複層ガラス日射遮蔽型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[日射熱取得率の入力方法]=２ or [開口部の上部の日除けの設置]=２ or [日除けの入力方法]=１の場合に表示。ただし18～21は [開口部の上部の日除けの設置]=２ or [日除けの入力方法]=１の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓付属部材の種類</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]shade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:付属部材なし 
+2:和障子 
+3:外付けブラインド</t>
+    <rPh sb="2" eb="4">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」に「日射熱取得率の入力方法」「窓枠種類」「ガラス種類」「窓付属部材の種類」を追加。</t>
+    <rPh sb="48" eb="50">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の不透明部位」の「外皮フラグ」、「日射フラグ」を削除。「方位」の備考に日射の有無の判断方法について追記。</t>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の不透明部位」の「外部日除け入力フラグ」を削除。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[取得日射熱補正係数に固定値を使用]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[取得日射熱補正係数に固定値を使用]=１ or [簡易外皮入力フラグ]=１の場合に表示。値は1とする。</t>
+    <rPh sb="44" eb="45">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日除け効果係数に固定値を使用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>door[i]IsGammaFixedValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の不透明部位」に「日除け効果係数に固定値を使用」を追加。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日除け効果係数（夏期）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日除け効果係数（冬期）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の不透明部位」の「取得日射熱補正係数（夏期）」「取得日射熱補正係数（冬期）」をそれぞれ「日除け効果係数（夏期）」「日除け効果係数（冬期）」に名称変更。</t>
+    <rPh sb="74" eb="76">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>door[i]GammaCooling</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>door[i]GammaHeating</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4596,7 +4952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4864,6 +5220,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4954,6 +5313,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5239,11 +5605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5305,7 +5671,7 @@
         <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5316,7 +5682,7 @@
         <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5327,7 +5693,7 @@
         <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5338,7 +5704,7 @@
         <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5349,7 +5715,7 @@
         <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5360,7 +5726,7 @@
         <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5371,7 +5737,7 @@
         <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5382,7 +5748,7 @@
         <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5393,7 +5759,7 @@
         <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5401,10 +5767,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5412,10 +5778,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5423,10 +5789,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5434,10 +5800,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5448,7 +5814,7 @@
         <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5459,7 +5825,7 @@
         <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5470,7 +5836,7 @@
         <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5481,7 +5847,7 @@
         <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5492,7 +5858,7 @@
         <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5503,7 +5869,7 @@
         <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5514,7 +5880,7 @@
         <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5525,7 +5891,7 @@
         <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5536,7 +5902,7 @@
         <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5547,7 +5913,7 @@
         <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5558,7 +5924,7 @@
         <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5569,7 +5935,150 @@
         <v>276</v>
       </c>
       <c r="C29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="123" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="81">
+        <v>43196</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -9871,7 +10380,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9918,36 +10427,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="103"/>
-      <c r="B4" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="94" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="105">
+      <c r="H4" s="106">
         <v>6</v>
       </c>
-      <c r="I4" s="105">
-        <v>1</v>
-      </c>
-      <c r="J4" s="105">
+      <c r="I4" s="106">
+        <v>1</v>
+      </c>
+      <c r="J4" s="106">
         <v>8</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -9965,24 +10474,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="103"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="111"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -9990,24 +10499,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="103"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="111"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -10015,24 +10524,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="103"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="111"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -10040,24 +10549,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="103"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="111"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -10065,24 +10574,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="103"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="111"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -10090,24 +10599,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="103"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -10115,24 +10624,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="103"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="106"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -10140,7 +10649,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="103"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -10187,7 +10696,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="103"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -10234,7 +10743,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="103"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -10281,38 +10790,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="99" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="102"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="95">
         <v>2</v>
       </c>
-      <c r="I15" s="94">
-        <v>1</v>
-      </c>
-      <c r="J15" s="94">
+      <c r="I15" s="95">
+        <v>1</v>
+      </c>
+      <c r="J15" s="95">
         <v>2</v>
       </c>
-      <c r="K15" s="94" t="s">
+      <c r="K15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="94" t="s">
+      <c r="L15" s="106"/>
+      <c r="M15" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="105"/>
+      <c r="N15" s="106"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -10330,24 +10839,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="110"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="106"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -10355,7 +10864,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -10400,7 +10909,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="103"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -10449,7 +10958,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="103"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -10494,15 +11003,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="99" t="s">
+      <c r="A20" s="104"/>
+      <c r="B20" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="100" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -10511,64 +11020,64 @@
       <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94">
-        <v>1</v>
-      </c>
-      <c r="J20" s="94">
+      <c r="H20" s="95"/>
+      <c r="I20" s="95">
+        <v>1</v>
+      </c>
+      <c r="J20" s="95">
         <v>2</v>
       </c>
-      <c r="K20" s="94" t="s">
+      <c r="K20" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94" t="s">
+      <c r="L20" s="93"/>
+      <c r="M20" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="94"/>
-      <c r="O20" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="97" t="s">
+      <c r="N20" s="95"/>
+      <c r="O20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="98" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -10607,36 +11116,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="99" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="94">
-        <v>1</v>
-      </c>
-      <c r="J23" s="94">
+      <c r="H23" s="108"/>
+      <c r="I23" s="95">
+        <v>1</v>
+      </c>
+      <c r="J23" s="95">
         <v>6</v>
       </c>
-      <c r="K23" s="99" t="s">
+      <c r="K23" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="99" t="s">
+      <c r="L23" s="108"/>
+      <c r="M23" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="102"/>
+      <c r="N23" s="103"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -10655,24 +11164,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="119"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="103"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="104"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -10681,24 +11190,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="111"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="119"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="108"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="103"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="104"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -10707,24 +11216,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="111"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="119"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="108"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="103"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -10735,24 +11244,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="111"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="119"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="108"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="103"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -10763,24 +11272,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="111"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="120"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="111"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -10791,7 +11300,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="111"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -10831,7 +11340,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="111"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -10879,7 +11388,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="111"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -10927,7 +11436,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="111"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -10973,7 +11482,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="111"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -11023,7 +11532,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="111"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -11073,7 +11582,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="111"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -11122,7 +11631,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A36" s="111"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -11170,7 +11679,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A37" s="111"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -11216,7 +11725,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A38" s="111"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -11262,38 +11771,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="111"/>
-      <c r="B39" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94" t="s">
+      <c r="A39" s="112"/>
+      <c r="B39" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="94"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="94">
-        <v>1</v>
-      </c>
-      <c r="I39" s="94">
-        <v>1</v>
-      </c>
-      <c r="J39" s="94">
+      <c r="H39" s="95">
+        <v>1</v>
+      </c>
+      <c r="I39" s="95">
+        <v>1</v>
+      </c>
+      <c r="J39" s="95">
         <v>3</v>
       </c>
-      <c r="K39" s="94" t="s">
+      <c r="K39" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="92"/>
-      <c r="M39" s="94" t="s">
+      <c r="L39" s="93"/>
+      <c r="M39" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="94"/>
+      <c r="N39" s="95"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -11311,24 +11820,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="111"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -11336,24 +11845,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="111"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -11361,24 +11870,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="111"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -11386,15 +11895,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="111"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="94" t="s">
+      <c r="A43" s="112"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="95" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -11403,23 +11912,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="94">
-        <v>1</v>
-      </c>
-      <c r="I43" s="94">
-        <v>1</v>
-      </c>
-      <c r="J43" s="94">
+      <c r="H43" s="95">
+        <v>1</v>
+      </c>
+      <c r="I43" s="95">
+        <v>1</v>
+      </c>
+      <c r="J43" s="95">
         <v>3</v>
       </c>
-      <c r="K43" s="94" t="s">
+      <c r="K43" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="92"/>
-      <c r="M43" s="94" t="s">
+      <c r="L43" s="93"/>
+      <c r="M43" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="94"/>
+      <c r="N43" s="95"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -11437,24 +11946,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="111"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -11462,24 +11971,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="111"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -11487,7 +11996,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="111"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -11534,7 +12043,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A47" s="111"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -11581,7 +12090,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="111"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -11628,7 +12137,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="111"/>
+      <c r="A49" s="112"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -11675,7 +12184,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
-      <c r="A50" s="111"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -11722,7 +12231,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="106" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -11761,7 +12270,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="111"/>
+      <c r="A52" s="112"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -11814,7 +12323,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="111"/>
+      <c r="A53" s="112"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -11869,7 +12378,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="111"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -11924,7 +12433,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="111"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -11973,7 +12482,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="111"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -12028,7 +12537,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="111"/>
+      <c r="A57" s="112"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -12083,7 +12592,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="111"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -12132,7 +12641,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="111"/>
+      <c r="A59" s="112"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -12187,7 +12696,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="111"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -12242,7 +12751,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="19.5">
-      <c r="A61" s="111"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -12289,7 +12798,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="111"/>
+      <c r="A62" s="112"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -12336,7 +12845,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="111"/>
+      <c r="A63" s="112"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -12383,7 +12892,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="19.5">
-      <c r="A64" s="106"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -12430,7 +12939,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="106" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -12469,7 +12978,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="111"/>
+      <c r="A66" s="112"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -12509,7 +13018,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="111"/>
+      <c r="A67" s="112"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -12558,7 +13067,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="111"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -12607,7 +13116,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="111"/>
+      <c r="A69" s="112"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -12656,7 +13165,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="111"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -12709,7 +13218,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="111"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -12762,7 +13271,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="111"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -12802,7 +13311,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="106"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -12842,40 +13351,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="94" t="s">
+      <c r="B74" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="106"/>
+      <c r="D74" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="105"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="105">
-        <v>1</v>
-      </c>
-      <c r="I74" s="94">
-        <v>1</v>
-      </c>
-      <c r="J74" s="94">
+      <c r="H74" s="106">
+        <v>1</v>
+      </c>
+      <c r="I74" s="95">
+        <v>1</v>
+      </c>
+      <c r="J74" s="95">
         <v>4</v>
       </c>
-      <c r="K74" s="105" t="s">
+      <c r="K74" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="105"/>
-      <c r="M74" s="94" t="s">
+      <c r="L74" s="106"/>
+      <c r="M74" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="105"/>
+      <c r="N74" s="106"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -12893,24 +13402,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="111"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="111"/>
+      <c r="A75" s="112"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="112"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="111"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="111"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="111"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="112"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -12918,24 +13427,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="111"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="111"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="112"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="111"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="111"/>
-      <c r="L76" s="111"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="111"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="112"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -12947,24 +13456,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="111"/>
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="95"/>
-      <c r="E77" s="106"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="107"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="106"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="95"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="106"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="107"/>
+      <c r="L77" s="107"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="107"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -12972,15 +13481,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="111"/>
-      <c r="B78" s="105"/>
-      <c r="C78" s="105" t="s">
+      <c r="A78" s="112"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="94" t="s">
+      <c r="D78" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="95" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -12989,23 +13498,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="105">
-        <v>1</v>
-      </c>
-      <c r="I78" s="94">
-        <v>1</v>
-      </c>
-      <c r="J78" s="94">
+      <c r="H78" s="106">
+        <v>1</v>
+      </c>
+      <c r="I78" s="95">
+        <v>1</v>
+      </c>
+      <c r="J78" s="95">
         <v>4</v>
       </c>
-      <c r="K78" s="105" t="s">
+      <c r="K78" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="105"/>
-      <c r="M78" s="94" t="s">
+      <c r="L78" s="106"/>
+      <c r="M78" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="105"/>
+      <c r="N78" s="106"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -13023,24 +13532,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="111"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="111"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="111"/>
-      <c r="L79" s="111"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="111"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="112"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -13048,24 +13557,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="111"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="111"/>
-      <c r="D80" s="96"/>
-      <c r="E80" s="96"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="111"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="111"/>
-      <c r="L80" s="111"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="111"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="112"/>
+      <c r="M80" s="97"/>
+      <c r="N80" s="112"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -13073,24 +13582,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="111"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="106"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="106"/>
-      <c r="L81" s="106"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="106"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="107"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -13098,7 +13607,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="111"/>
+      <c r="A82" s="112"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -13143,7 +13652,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="111"/>
+      <c r="A83" s="112"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -13188,7 +13697,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="111"/>
+      <c r="A84" s="112"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -13233,7 +13742,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="19.5">
-      <c r="A85" s="111"/>
+      <c r="A85" s="112"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -13280,7 +13789,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="19.5">
-      <c r="A86" s="111"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -13327,7 +13836,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="19.5">
-      <c r="A87" s="111"/>
+      <c r="A87" s="112"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -13372,7 +13881,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="19.5">
-      <c r="A88" s="111"/>
+      <c r="A88" s="112"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -13417,7 +13926,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="19.5">
-      <c r="A89" s="111"/>
+      <c r="A89" s="112"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -13462,7 +13971,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="19.5">
-      <c r="A90" s="111"/>
+      <c r="A90" s="112"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -13507,7 +14016,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="19.5">
-      <c r="A91" s="111"/>
+      <c r="A91" s="112"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -13552,7 +14061,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="19.5">
-      <c r="A92" s="111"/>
+      <c r="A92" s="112"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -13597,38 +14106,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="111"/>
-      <c r="B93" s="105" t="s">
+      <c r="A93" s="112"/>
+      <c r="B93" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105" t="s">
+      <c r="C93" s="106"/>
+      <c r="D93" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="105"/>
+      <c r="E93" s="106"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="105">
-        <v>1</v>
-      </c>
-      <c r="I93" s="105">
-        <v>1</v>
-      </c>
-      <c r="J93" s="105">
+      <c r="H93" s="106">
+        <v>1</v>
+      </c>
+      <c r="I93" s="106">
+        <v>1</v>
+      </c>
+      <c r="J93" s="106">
         <v>2</v>
       </c>
-      <c r="K93" s="105" t="s">
+      <c r="K93" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105" t="s">
+      <c r="L93" s="106"/>
+      <c r="M93" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="105"/>
+      <c r="N93" s="106"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -13638,24 +14147,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="111"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
+      <c r="A94" s="112"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="106"/>
-      <c r="I94" s="106"/>
-      <c r="J94" s="106"/>
-      <c r="K94" s="106"/>
-      <c r="L94" s="106"/>
-      <c r="M94" s="106"/>
-      <c r="N94" s="106"/>
+      <c r="H94" s="107"/>
+      <c r="I94" s="107"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="107"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -13663,38 +14172,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="111"/>
-      <c r="B95" s="105" t="s">
+      <c r="A95" s="112"/>
+      <c r="B95" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="105"/>
-      <c r="D95" s="105" t="s">
+      <c r="C95" s="106"/>
+      <c r="D95" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="105"/>
+      <c r="E95" s="106"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="105">
+      <c r="H95" s="106">
         <v>2</v>
       </c>
-      <c r="I95" s="105">
-        <v>1</v>
-      </c>
-      <c r="J95" s="105">
+      <c r="I95" s="106">
+        <v>1</v>
+      </c>
+      <c r="J95" s="106">
         <v>2</v>
       </c>
-      <c r="K95" s="105" t="s">
+      <c r="K95" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="105"/>
-      <c r="M95" s="105" t="s">
+      <c r="L95" s="106"/>
+      <c r="M95" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="105"/>
+      <c r="N95" s="106"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -13704,24 +14213,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="111"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="106"/>
-      <c r="I96" s="106"/>
-      <c r="J96" s="106"/>
-      <c r="K96" s="106"/>
-      <c r="L96" s="106"/>
-      <c r="M96" s="106"/>
-      <c r="N96" s="106"/>
+      <c r="H96" s="107"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="107"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="107"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -13729,7 +14238,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="106"/>
+      <c r="A97" s="107"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -13778,40 +14287,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="115" t="s">
+      <c r="A98" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="105" t="s">
+      <c r="B98" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105" t="s">
+      <c r="C98" s="106"/>
+      <c r="D98" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="105"/>
+      <c r="E98" s="106"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="105">
-        <v>1</v>
-      </c>
-      <c r="I98" s="105">
-        <v>1</v>
-      </c>
-      <c r="J98" s="105">
+      <c r="H98" s="106">
+        <v>1</v>
+      </c>
+      <c r="I98" s="106">
+        <v>1</v>
+      </c>
+      <c r="J98" s="106">
         <v>3</v>
       </c>
-      <c r="K98" s="105" t="s">
+      <c r="K98" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="105"/>
-      <c r="M98" s="105" t="s">
+      <c r="L98" s="106"/>
+      <c r="M98" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="105"/>
+      <c r="N98" s="106"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -13829,24 +14338,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="116"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
+      <c r="A99" s="117"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -13854,24 +14363,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="116"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
+      <c r="A100" s="117"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="106"/>
-      <c r="I100" s="106"/>
-      <c r="J100" s="106"/>
-      <c r="K100" s="106"/>
-      <c r="L100" s="106"/>
-      <c r="M100" s="106"/>
-      <c r="N100" s="106"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
+      <c r="L100" s="107"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="107"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -13879,15 +14388,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="116"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="105" t="s">
+      <c r="A101" s="117"/>
+      <c r="B101" s="106"/>
+      <c r="C101" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="105" t="s">
+      <c r="D101" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="105" t="s">
+      <c r="E101" s="106" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -13896,21 +14405,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105">
-        <v>1</v>
-      </c>
-      <c r="J101" s="105">
+      <c r="H101" s="106"/>
+      <c r="I101" s="106">
+        <v>1</v>
+      </c>
+      <c r="J101" s="106">
         <v>4</v>
       </c>
-      <c r="K101" s="105" t="s">
+      <c r="K101" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="105"/>
-      <c r="M101" s="105" t="s">
+      <c r="L101" s="106"/>
+      <c r="M101" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="105"/>
+      <c r="N101" s="106"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -13928,24 +14437,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="116"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="111"/>
-      <c r="D102" s="111"/>
-      <c r="E102" s="111"/>
+      <c r="A102" s="117"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="112"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="111"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="111"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="111"/>
-      <c r="M102" s="111"/>
-      <c r="N102" s="111"/>
+      <c r="H102" s="112"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="112"/>
+      <c r="K102" s="112"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="112"/>
+      <c r="N102" s="112"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -13953,24 +14462,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="116"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
+      <c r="A103" s="117"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="111"/>
-      <c r="M103" s="111"/>
-      <c r="N103" s="111"/>
+      <c r="H103" s="112"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="112"/>
+      <c r="K103" s="112"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="112"/>
+      <c r="N103" s="112"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -13978,24 +14487,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="116"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
+      <c r="A104" s="117"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="106"/>
-      <c r="I104" s="106"/>
-      <c r="J104" s="106"/>
-      <c r="K104" s="106"/>
-      <c r="L104" s="106"/>
-      <c r="M104" s="106"/>
-      <c r="N104" s="106"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="107"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -14003,38 +14512,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="116"/>
-      <c r="B105" s="105" t="s">
+      <c r="A105" s="117"/>
+      <c r="B105" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105" t="s">
+      <c r="C105" s="106"/>
+      <c r="D105" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="105"/>
+      <c r="E105" s="106"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="105">
+      <c r="H105" s="106">
         <v>3</v>
       </c>
-      <c r="I105" s="105">
-        <v>1</v>
-      </c>
-      <c r="J105" s="105">
+      <c r="I105" s="106">
+        <v>1</v>
+      </c>
+      <c r="J105" s="106">
         <v>3</v>
       </c>
-      <c r="K105" s="105" t="s">
+      <c r="K105" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="105"/>
-      <c r="M105" s="105" t="s">
+      <c r="L105" s="106"/>
+      <c r="M105" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="105"/>
+      <c r="N105" s="106"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -14052,24 +14561,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="116"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
+      <c r="A106" s="117"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="111"/>
-      <c r="I106" s="111"/>
-      <c r="J106" s="111"/>
-      <c r="K106" s="111"/>
-      <c r="L106" s="111"/>
-      <c r="M106" s="111"/>
-      <c r="N106" s="111"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="112"/>
+      <c r="L106" s="112"/>
+      <c r="M106" s="112"/>
+      <c r="N106" s="112"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -14077,24 +14586,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="116"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="106"/>
-      <c r="D107" s="106"/>
-      <c r="E107" s="106"/>
+      <c r="A107" s="117"/>
+      <c r="B107" s="107"/>
+      <c r="C107" s="107"/>
+      <c r="D107" s="107"/>
+      <c r="E107" s="107"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="106"/>
-      <c r="I107" s="106"/>
-      <c r="J107" s="106"/>
-      <c r="K107" s="106"/>
-      <c r="L107" s="106"/>
-      <c r="M107" s="106"/>
-      <c r="N107" s="106"/>
+      <c r="H107" s="107"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="107"/>
+      <c r="K107" s="107"/>
+      <c r="L107" s="107"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="107"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -14102,15 +14611,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="116"/>
-      <c r="B108" s="105"/>
-      <c r="C108" s="105" t="s">
+      <c r="A108" s="117"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="105" t="s">
+      <c r="D108" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="105" t="s">
+      <c r="E108" s="106" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -14119,21 +14628,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105">
-        <v>1</v>
-      </c>
-      <c r="J108" s="105">
+      <c r="H108" s="106"/>
+      <c r="I108" s="106">
+        <v>1</v>
+      </c>
+      <c r="J108" s="106">
         <v>4</v>
       </c>
-      <c r="K108" s="105" t="s">
+      <c r="K108" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="105"/>
-      <c r="M108" s="105" t="s">
+      <c r="L108" s="106"/>
+      <c r="M108" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="105"/>
+      <c r="N108" s="106"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -14151,24 +14660,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="116"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
+      <c r="A109" s="117"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="111"/>
+      <c r="H109" s="112"/>
+      <c r="I109" s="112"/>
+      <c r="J109" s="112"/>
+      <c r="K109" s="112"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="112"/>
+      <c r="N109" s="112"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -14176,24 +14685,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="116"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
+      <c r="A110" s="117"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="112"/>
+      <c r="E110" s="112"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
+      <c r="H110" s="112"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="112"/>
+      <c r="L110" s="112"/>
+      <c r="M110" s="112"/>
+      <c r="N110" s="112"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -14201,24 +14710,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="116"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
+      <c r="A111" s="117"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="106"/>
-      <c r="I111" s="106"/>
-      <c r="J111" s="106"/>
-      <c r="K111" s="106"/>
-      <c r="L111" s="106"/>
-      <c r="M111" s="106"/>
-      <c r="N111" s="106"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
+      <c r="L111" s="107"/>
+      <c r="M111" s="107"/>
+      <c r="N111" s="107"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -14226,7 +14735,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="19.5">
-      <c r="A112" s="116"/>
+      <c r="A112" s="117"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -14271,7 +14780,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="19.5">
-      <c r="A113" s="116"/>
+      <c r="A113" s="117"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -14316,7 +14825,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="19.5">
-      <c r="A114" s="117"/>
+      <c r="A114" s="118"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -14361,40 +14870,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="115" t="s">
+      <c r="A115" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="105"/>
-      <c r="D115" s="94" t="s">
+      <c r="B115" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="106"/>
+      <c r="D115" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="105"/>
+      <c r="E115" s="106"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="105">
-        <v>1</v>
-      </c>
-      <c r="I115" s="94">
-        <v>1</v>
-      </c>
-      <c r="J115" s="94">
+      <c r="H115" s="106">
+        <v>1</v>
+      </c>
+      <c r="I115" s="95">
+        <v>1</v>
+      </c>
+      <c r="J115" s="95">
         <v>4</v>
       </c>
-      <c r="K115" s="105" t="s">
+      <c r="K115" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="105"/>
-      <c r="M115" s="94" t="s">
+      <c r="L115" s="106"/>
+      <c r="M115" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="105"/>
+      <c r="N115" s="106"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -14412,24 +14921,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="111"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="111"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="111"/>
+      <c r="A116" s="112"/>
+      <c r="B116" s="112"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="112"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="111"/>
-      <c r="I116" s="96"/>
-      <c r="J116" s="96"/>
-      <c r="K116" s="111"/>
-      <c r="L116" s="111"/>
-      <c r="M116" s="96"/>
-      <c r="N116" s="111"/>
+      <c r="H116" s="112"/>
+      <c r="I116" s="97"/>
+      <c r="J116" s="97"/>
+      <c r="K116" s="112"/>
+      <c r="L116" s="112"/>
+      <c r="M116" s="97"/>
+      <c r="N116" s="112"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -14437,24 +14946,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="111"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="111"/>
+      <c r="A117" s="112"/>
+      <c r="B117" s="112"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="112"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="111"/>
-      <c r="I117" s="96"/>
-      <c r="J117" s="96"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="96"/>
-      <c r="N117" s="111"/>
+      <c r="H117" s="112"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="112"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="112"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -14466,24 +14975,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="111"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="106"/>
-      <c r="D118" s="95"/>
-      <c r="E118" s="106"/>
+      <c r="A118" s="112"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="107"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="106"/>
-      <c r="I118" s="95"/>
-      <c r="J118" s="95"/>
-      <c r="K118" s="106"/>
-      <c r="L118" s="106"/>
-      <c r="M118" s="95"/>
-      <c r="N118" s="106"/>
+      <c r="H118" s="107"/>
+      <c r="I118" s="96"/>
+      <c r="J118" s="96"/>
+      <c r="K118" s="107"/>
+      <c r="L118" s="107"/>
+      <c r="M118" s="96"/>
+      <c r="N118" s="107"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -14491,15 +15000,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="111"/>
-      <c r="B119" s="105"/>
-      <c r="C119" s="105" t="s">
+      <c r="A119" s="112"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="94" t="s">
+      <c r="D119" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="94" t="s">
+      <c r="E119" s="95" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -14508,23 +15017,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="105">
-        <v>1</v>
-      </c>
-      <c r="I119" s="94">
-        <v>1</v>
-      </c>
-      <c r="J119" s="94">
+      <c r="H119" s="106">
+        <v>1</v>
+      </c>
+      <c r="I119" s="95">
+        <v>1</v>
+      </c>
+      <c r="J119" s="95">
         <v>4</v>
       </c>
-      <c r="K119" s="105" t="s">
+      <c r="K119" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="105"/>
-      <c r="M119" s="94" t="s">
+      <c r="L119" s="106"/>
+      <c r="M119" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="105"/>
+      <c r="N119" s="106"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -14542,24 +15051,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="111"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="111"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
+      <c r="A120" s="112"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="111"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="111"/>
-      <c r="L120" s="111"/>
-      <c r="M120" s="96"/>
-      <c r="N120" s="111"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="97"/>
+      <c r="J120" s="97"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="97"/>
+      <c r="N120" s="112"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -14567,24 +15076,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="111"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="111"/>
-      <c r="D121" s="96"/>
-      <c r="E121" s="96"/>
+      <c r="A121" s="112"/>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="111"/>
-      <c r="I121" s="96"/>
-      <c r="J121" s="96"/>
-      <c r="K121" s="111"/>
-      <c r="L121" s="111"/>
-      <c r="M121" s="96"/>
-      <c r="N121" s="111"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="112"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -14592,24 +15101,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="111"/>
-      <c r="B122" s="106"/>
-      <c r="C122" s="106"/>
-      <c r="D122" s="95"/>
-      <c r="E122" s="95"/>
+      <c r="A122" s="112"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="106"/>
-      <c r="I122" s="95"/>
-      <c r="J122" s="95"/>
-      <c r="K122" s="106"/>
-      <c r="L122" s="106"/>
-      <c r="M122" s="95"/>
-      <c r="N122" s="106"/>
+      <c r="H122" s="107"/>
+      <c r="I122" s="96"/>
+      <c r="J122" s="96"/>
+      <c r="K122" s="107"/>
+      <c r="L122" s="107"/>
+      <c r="M122" s="96"/>
+      <c r="N122" s="107"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -14617,38 +15126,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="111"/>
-      <c r="B123" s="105" t="s">
+      <c r="A123" s="112"/>
+      <c r="B123" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="105"/>
-      <c r="D123" s="105" t="s">
+      <c r="C123" s="106"/>
+      <c r="D123" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="105"/>
+      <c r="E123" s="106"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="105">
-        <v>1</v>
-      </c>
-      <c r="I123" s="105">
-        <v>1</v>
-      </c>
-      <c r="J123" s="105">
+      <c r="H123" s="106">
+        <v>1</v>
+      </c>
+      <c r="I123" s="106">
+        <v>1</v>
+      </c>
+      <c r="J123" s="106">
         <v>2</v>
       </c>
-      <c r="K123" s="105" t="s">
+      <c r="K123" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="105"/>
-      <c r="M123" s="105" t="s">
+      <c r="L123" s="106"/>
+      <c r="M123" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="105"/>
+      <c r="N123" s="106"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -14666,24 +15175,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="111"/>
-      <c r="B124" s="106"/>
-      <c r="C124" s="106"/>
-      <c r="D124" s="106"/>
-      <c r="E124" s="106"/>
+      <c r="A124" s="112"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="106"/>
-      <c r="I124" s="106"/>
-      <c r="J124" s="106"/>
-      <c r="K124" s="106"/>
-      <c r="L124" s="106"/>
-      <c r="M124" s="106"/>
-      <c r="N124" s="106"/>
+      <c r="H124" s="107"/>
+      <c r="I124" s="107"/>
+      <c r="J124" s="107"/>
+      <c r="K124" s="107"/>
+      <c r="L124" s="107"/>
+      <c r="M124" s="107"/>
+      <c r="N124" s="107"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -14691,12 +15200,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="111"/>
-      <c r="B125" s="102" t="s">
+      <c r="A125" s="112"/>
+      <c r="B125" s="103" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="99" t="s">
+      <c r="D125" s="100" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -14706,20 +15215,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="94">
-        <v>1</v>
-      </c>
-      <c r="I125" s="94">
-        <v>1</v>
-      </c>
-      <c r="J125" s="94">
+      <c r="H125" s="95">
+        <v>1</v>
+      </c>
+      <c r="I125" s="95">
+        <v>1</v>
+      </c>
+      <c r="J125" s="95">
         <v>2</v>
       </c>
-      <c r="K125" s="94" t="s">
+      <c r="K125" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="105"/>
-      <c r="M125" s="105" t="s">
+      <c r="L125" s="106"/>
+      <c r="M125" s="106" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -14744,10 +15253,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="111"/>
-      <c r="B126" s="110"/>
+      <c r="A126" s="112"/>
+      <c r="B126" s="111"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="101"/>
+      <c r="D126" s="102"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -14755,12 +15264,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="95"/>
-      <c r="I126" s="95"/>
-      <c r="J126" s="95"/>
-      <c r="K126" s="95"/>
-      <c r="L126" s="106"/>
-      <c r="M126" s="106"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="107"/>
+      <c r="M126" s="107"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -14773,15 +15282,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="111"/>
-      <c r="B127" s="105" t="s">
+      <c r="A127" s="112"/>
+      <c r="B127" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="105"/>
-      <c r="D127" s="113" t="s">
+      <c r="C127" s="106"/>
+      <c r="D127" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="112" t="s">
+      <c r="E127" s="113" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -14790,20 +15299,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="105">
+      <c r="H127" s="106">
         <v>2</v>
       </c>
-      <c r="I127" s="105">
-        <v>1</v>
-      </c>
-      <c r="J127" s="94">
+      <c r="I127" s="106">
+        <v>1</v>
+      </c>
+      <c r="J127" s="95">
         <v>15</v>
       </c>
-      <c r="K127" s="105" t="s">
+      <c r="K127" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="105"/>
-      <c r="M127" s="105" t="s">
+      <c r="L127" s="106"/>
+      <c r="M127" s="106" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -14826,23 +15335,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="111"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="111"/>
-      <c r="D128" s="113"/>
-      <c r="E128" s="112"/>
+      <c r="A128" s="112"/>
+      <c r="B128" s="112"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="113"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="111"/>
-      <c r="I128" s="111"/>
-      <c r="J128" s="96"/>
-      <c r="K128" s="111"/>
-      <c r="L128" s="111"/>
-      <c r="M128" s="111"/>
+      <c r="H128" s="112"/>
+      <c r="I128" s="112"/>
+      <c r="J128" s="97"/>
+      <c r="K128" s="112"/>
+      <c r="L128" s="112"/>
+      <c r="M128" s="112"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -14863,23 +15372,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="111"/>
-      <c r="B129" s="111"/>
-      <c r="C129" s="111"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="112"/>
+      <c r="A129" s="112"/>
+      <c r="B129" s="112"/>
+      <c r="C129" s="112"/>
+      <c r="D129" s="114"/>
+      <c r="E129" s="113"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="111"/>
-      <c r="I129" s="111"/>
-      <c r="J129" s="96"/>
-      <c r="K129" s="111"/>
-      <c r="L129" s="111"/>
-      <c r="M129" s="111"/>
+      <c r="H129" s="112"/>
+      <c r="I129" s="112"/>
+      <c r="J129" s="97"/>
+      <c r="K129" s="112"/>
+      <c r="L129" s="112"/>
+      <c r="M129" s="112"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -14900,23 +15409,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="111"/>
-      <c r="B130" s="111"/>
-      <c r="C130" s="111"/>
-      <c r="D130" s="113"/>
-      <c r="E130" s="112"/>
+      <c r="A130" s="112"/>
+      <c r="B130" s="112"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="113"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="111"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="96"/>
-      <c r="K130" s="111"/>
-      <c r="L130" s="111"/>
-      <c r="M130" s="111"/>
+      <c r="H130" s="112"/>
+      <c r="I130" s="112"/>
+      <c r="J130" s="97"/>
+      <c r="K130" s="112"/>
+      <c r="L130" s="112"/>
+      <c r="M130" s="112"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -14937,23 +15446,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="111"/>
-      <c r="B131" s="111"/>
-      <c r="C131" s="111"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="112"/>
+      <c r="A131" s="112"/>
+      <c r="B131" s="112"/>
+      <c r="C131" s="112"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="113"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="111"/>
-      <c r="I131" s="111"/>
-      <c r="J131" s="96"/>
-      <c r="K131" s="111"/>
-      <c r="L131" s="111"/>
-      <c r="M131" s="111"/>
+      <c r="H131" s="112"/>
+      <c r="I131" s="112"/>
+      <c r="J131" s="97"/>
+      <c r="K131" s="112"/>
+      <c r="L131" s="112"/>
+      <c r="M131" s="112"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -14974,23 +15483,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="111"/>
-      <c r="B132" s="111"/>
-      <c r="C132" s="111"/>
-      <c r="D132" s="113"/>
-      <c r="E132" s="112"/>
+      <c r="A132" s="112"/>
+      <c r="B132" s="112"/>
+      <c r="C132" s="112"/>
+      <c r="D132" s="114"/>
+      <c r="E132" s="113"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="111"/>
-      <c r="I132" s="111"/>
-      <c r="J132" s="96"/>
-      <c r="K132" s="111"/>
-      <c r="L132" s="111"/>
-      <c r="M132" s="111"/>
+      <c r="H132" s="112"/>
+      <c r="I132" s="112"/>
+      <c r="J132" s="97"/>
+      <c r="K132" s="112"/>
+      <c r="L132" s="112"/>
+      <c r="M132" s="112"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -15011,23 +15520,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="111"/>
-      <c r="B133" s="111"/>
-      <c r="C133" s="111"/>
-      <c r="D133" s="113"/>
-      <c r="E133" s="112"/>
+      <c r="A133" s="112"/>
+      <c r="B133" s="112"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="114"/>
+      <c r="E133" s="113"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="111"/>
-      <c r="I133" s="111"/>
-      <c r="J133" s="96"/>
-      <c r="K133" s="111"/>
-      <c r="L133" s="111"/>
-      <c r="M133" s="111"/>
+      <c r="H133" s="112"/>
+      <c r="I133" s="112"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="112"/>
+      <c r="L133" s="112"/>
+      <c r="M133" s="112"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -15048,23 +15557,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="111"/>
-      <c r="B134" s="111"/>
-      <c r="C134" s="111"/>
-      <c r="D134" s="113"/>
-      <c r="E134" s="112"/>
+      <c r="A134" s="112"/>
+      <c r="B134" s="112"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="114"/>
+      <c r="E134" s="113"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="111"/>
-      <c r="I134" s="111"/>
-      <c r="J134" s="96"/>
-      <c r="K134" s="111"/>
-      <c r="L134" s="111"/>
-      <c r="M134" s="111"/>
+      <c r="H134" s="112"/>
+      <c r="I134" s="112"/>
+      <c r="J134" s="97"/>
+      <c r="K134" s="112"/>
+      <c r="L134" s="112"/>
+      <c r="M134" s="112"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -15085,23 +15594,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="111"/>
-      <c r="B135" s="111"/>
-      <c r="C135" s="111"/>
-      <c r="D135" s="113"/>
-      <c r="E135" s="112"/>
+      <c r="A135" s="112"/>
+      <c r="B135" s="112"/>
+      <c r="C135" s="112"/>
+      <c r="D135" s="114"/>
+      <c r="E135" s="113"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="111"/>
-      <c r="I135" s="111"/>
-      <c r="J135" s="96"/>
-      <c r="K135" s="111"/>
-      <c r="L135" s="111"/>
-      <c r="M135" s="111"/>
+      <c r="H135" s="112"/>
+      <c r="I135" s="112"/>
+      <c r="J135" s="97"/>
+      <c r="K135" s="112"/>
+      <c r="L135" s="112"/>
+      <c r="M135" s="112"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -15122,23 +15631,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="111"/>
-      <c r="B136" s="111"/>
-      <c r="C136" s="111"/>
-      <c r="D136" s="113"/>
-      <c r="E136" s="112"/>
+      <c r="A136" s="112"/>
+      <c r="B136" s="112"/>
+      <c r="C136" s="112"/>
+      <c r="D136" s="114"/>
+      <c r="E136" s="113"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="111"/>
-      <c r="I136" s="111"/>
-      <c r="J136" s="96"/>
-      <c r="K136" s="111"/>
-      <c r="L136" s="111"/>
-      <c r="M136" s="111"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="112"/>
+      <c r="J136" s="97"/>
+      <c r="K136" s="112"/>
+      <c r="L136" s="112"/>
+      <c r="M136" s="112"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -15159,23 +15668,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="111"/>
-      <c r="B137" s="111"/>
-      <c r="C137" s="111"/>
-      <c r="D137" s="113"/>
-      <c r="E137" s="112"/>
+      <c r="A137" s="112"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="114"/>
+      <c r="E137" s="113"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="111"/>
-      <c r="I137" s="111"/>
-      <c r="J137" s="96"/>
-      <c r="K137" s="111"/>
-      <c r="L137" s="111"/>
-      <c r="M137" s="111"/>
+      <c r="H137" s="112"/>
+      <c r="I137" s="112"/>
+      <c r="J137" s="97"/>
+      <c r="K137" s="112"/>
+      <c r="L137" s="112"/>
+      <c r="M137" s="112"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -15200,23 +15709,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="111"/>
-      <c r="B138" s="111"/>
-      <c r="C138" s="111"/>
-      <c r="D138" s="113"/>
-      <c r="E138" s="112"/>
+      <c r="A138" s="112"/>
+      <c r="B138" s="112"/>
+      <c r="C138" s="112"/>
+      <c r="D138" s="114"/>
+      <c r="E138" s="113"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="111"/>
-      <c r="I138" s="111"/>
-      <c r="J138" s="96"/>
-      <c r="K138" s="111"/>
-      <c r="L138" s="111"/>
-      <c r="M138" s="111"/>
+      <c r="H138" s="112"/>
+      <c r="I138" s="112"/>
+      <c r="J138" s="97"/>
+      <c r="K138" s="112"/>
+      <c r="L138" s="112"/>
+      <c r="M138" s="112"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -15241,23 +15750,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="111"/>
-      <c r="B139" s="111"/>
-      <c r="C139" s="111"/>
-      <c r="D139" s="113"/>
-      <c r="E139" s="112"/>
+      <c r="A139" s="112"/>
+      <c r="B139" s="112"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="114"/>
+      <c r="E139" s="113"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="111"/>
-      <c r="I139" s="111"/>
-      <c r="J139" s="96"/>
-      <c r="K139" s="111"/>
-      <c r="L139" s="111"/>
-      <c r="M139" s="111"/>
+      <c r="H139" s="112"/>
+      <c r="I139" s="112"/>
+      <c r="J139" s="97"/>
+      <c r="K139" s="112"/>
+      <c r="L139" s="112"/>
+      <c r="M139" s="112"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -15282,23 +15791,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="111"/>
-      <c r="B140" s="111"/>
-      <c r="C140" s="111"/>
-      <c r="D140" s="113"/>
-      <c r="E140" s="112"/>
+      <c r="A140" s="112"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="114"/>
+      <c r="E140" s="113"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="111"/>
-      <c r="I140" s="111"/>
-      <c r="J140" s="96"/>
-      <c r="K140" s="111"/>
-      <c r="L140" s="111"/>
-      <c r="M140" s="111"/>
+      <c r="H140" s="112"/>
+      <c r="I140" s="112"/>
+      <c r="J140" s="97"/>
+      <c r="K140" s="112"/>
+      <c r="L140" s="112"/>
+      <c r="M140" s="112"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -15319,23 +15828,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="111"/>
-      <c r="B141" s="111"/>
-      <c r="C141" s="111"/>
-      <c r="D141" s="113"/>
-      <c r="E141" s="112"/>
+      <c r="A141" s="112"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="113"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="111"/>
-      <c r="I141" s="111"/>
-      <c r="J141" s="96"/>
-      <c r="K141" s="111"/>
-      <c r="L141" s="111"/>
-      <c r="M141" s="111"/>
+      <c r="H141" s="112"/>
+      <c r="I141" s="112"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="112"/>
+      <c r="L141" s="112"/>
+      <c r="M141" s="112"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -15358,15 +15867,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="111"/>
-      <c r="B142" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="105"/>
-      <c r="D142" s="113" t="s">
+      <c r="A142" s="112"/>
+      <c r="B142" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="106"/>
+      <c r="D142" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="112" t="s">
+      <c r="E142" s="113" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -15375,20 +15884,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="114">
-        <v>1</v>
-      </c>
-      <c r="I142" s="114">
-        <v>1</v>
-      </c>
-      <c r="J142" s="112">
+      <c r="H142" s="115">
+        <v>1</v>
+      </c>
+      <c r="I142" s="115">
+        <v>1</v>
+      </c>
+      <c r="J142" s="113">
         <v>4</v>
       </c>
-      <c r="K142" s="105" t="s">
+      <c r="K142" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="105"/>
-      <c r="M142" s="105" t="s">
+      <c r="L142" s="106"/>
+      <c r="M142" s="106" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -15409,23 +15918,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="111"/>
-      <c r="B143" s="111"/>
-      <c r="C143" s="111"/>
-      <c r="D143" s="113"/>
-      <c r="E143" s="112"/>
+      <c r="A143" s="112"/>
+      <c r="B143" s="112"/>
+      <c r="C143" s="112"/>
+      <c r="D143" s="114"/>
+      <c r="E143" s="113"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="114"/>
-      <c r="I143" s="114"/>
-      <c r="J143" s="112"/>
-      <c r="K143" s="111"/>
-      <c r="L143" s="111"/>
-      <c r="M143" s="111"/>
+      <c r="H143" s="115"/>
+      <c r="I143" s="115"/>
+      <c r="J143" s="113"/>
+      <c r="K143" s="112"/>
+      <c r="L143" s="112"/>
+      <c r="M143" s="112"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -15444,23 +15953,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="111"/>
-      <c r="B144" s="111"/>
-      <c r="C144" s="111"/>
-      <c r="D144" s="113"/>
-      <c r="E144" s="112"/>
+      <c r="A144" s="112"/>
+      <c r="B144" s="112"/>
+      <c r="C144" s="112"/>
+      <c r="D144" s="114"/>
+      <c r="E144" s="113"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="114"/>
-      <c r="I144" s="114"/>
-      <c r="J144" s="112"/>
-      <c r="K144" s="111"/>
-      <c r="L144" s="111"/>
-      <c r="M144" s="111"/>
+      <c r="H144" s="115"/>
+      <c r="I144" s="115"/>
+      <c r="J144" s="113"/>
+      <c r="K144" s="112"/>
+      <c r="L144" s="112"/>
+      <c r="M144" s="112"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -15483,23 +15992,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="111"/>
-      <c r="B145" s="106"/>
-      <c r="C145" s="106"/>
-      <c r="D145" s="113"/>
-      <c r="E145" s="112"/>
+      <c r="A145" s="112"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="114"/>
+      <c r="E145" s="113"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="114"/>
-      <c r="I145" s="114"/>
-      <c r="J145" s="112"/>
-      <c r="K145" s="106"/>
-      <c r="L145" s="106"/>
-      <c r="M145" s="106"/>
+      <c r="H145" s="115"/>
+      <c r="I145" s="115"/>
+      <c r="J145" s="113"/>
+      <c r="K145" s="107"/>
+      <c r="L145" s="107"/>
+      <c r="M145" s="107"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -15518,15 +16027,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="111"/>
-      <c r="B146" s="105"/>
-      <c r="C146" s="105" t="s">
+      <c r="A146" s="112"/>
+      <c r="B146" s="106"/>
+      <c r="C146" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="94" t="s">
+      <c r="D146" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="94" t="s">
+      <c r="E146" s="95" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -15535,23 +16044,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="105">
-        <v>1</v>
-      </c>
-      <c r="I146" s="105">
-        <v>1</v>
-      </c>
-      <c r="J146" s="105">
+      <c r="H146" s="106">
+        <v>1</v>
+      </c>
+      <c r="I146" s="106">
+        <v>1</v>
+      </c>
+      <c r="J146" s="106">
         <v>4</v>
       </c>
-      <c r="K146" s="105" t="s">
+      <c r="K146" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="105"/>
-      <c r="M146" s="105" t="s">
+      <c r="L146" s="106"/>
+      <c r="M146" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="105"/>
+      <c r="N146" s="106"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -15569,24 +16078,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="111"/>
-      <c r="B147" s="111"/>
-      <c r="C147" s="111"/>
-      <c r="D147" s="96"/>
-      <c r="E147" s="96"/>
+      <c r="A147" s="112"/>
+      <c r="B147" s="112"/>
+      <c r="C147" s="112"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="111"/>
-      <c r="I147" s="111"/>
-      <c r="J147" s="111"/>
-      <c r="K147" s="111"/>
-      <c r="L147" s="111"/>
-      <c r="M147" s="111"/>
-      <c r="N147" s="111"/>
+      <c r="H147" s="112"/>
+      <c r="I147" s="112"/>
+      <c r="J147" s="112"/>
+      <c r="K147" s="112"/>
+      <c r="L147" s="112"/>
+      <c r="M147" s="112"/>
+      <c r="N147" s="112"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -15604,24 +16113,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="111"/>
-      <c r="B148" s="111"/>
-      <c r="C148" s="111"/>
-      <c r="D148" s="96"/>
-      <c r="E148" s="96"/>
+      <c r="A148" s="112"/>
+      <c r="B148" s="112"/>
+      <c r="C148" s="112"/>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="111"/>
-      <c r="I148" s="111"/>
-      <c r="J148" s="111"/>
-      <c r="K148" s="111"/>
-      <c r="L148" s="111"/>
-      <c r="M148" s="111"/>
-      <c r="N148" s="111"/>
+      <c r="H148" s="112"/>
+      <c r="I148" s="112"/>
+      <c r="J148" s="112"/>
+      <c r="K148" s="112"/>
+      <c r="L148" s="112"/>
+      <c r="M148" s="112"/>
+      <c r="N148" s="112"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -15639,24 +16148,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="111"/>
-      <c r="B149" s="106"/>
-      <c r="C149" s="106"/>
-      <c r="D149" s="95"/>
-      <c r="E149" s="95"/>
+      <c r="A149" s="112"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="96"/>
+      <c r="E149" s="96"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="106"/>
-      <c r="I149" s="106"/>
-      <c r="J149" s="106"/>
-      <c r="K149" s="106"/>
-      <c r="L149" s="106"/>
-      <c r="M149" s="106"/>
-      <c r="N149" s="106"/>
+      <c r="H149" s="107"/>
+      <c r="I149" s="107"/>
+      <c r="J149" s="107"/>
+      <c r="K149" s="107"/>
+      <c r="L149" s="107"/>
+      <c r="M149" s="107"/>
+      <c r="N149" s="107"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -15674,38 +16183,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="111"/>
-      <c r="B150" s="105" t="s">
+      <c r="A150" s="112"/>
+      <c r="B150" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="105"/>
-      <c r="D150" s="105" t="s">
+      <c r="C150" s="106"/>
+      <c r="D150" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="105"/>
+      <c r="E150" s="106"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="105">
-        <v>1</v>
-      </c>
-      <c r="I150" s="105">
-        <v>1</v>
-      </c>
-      <c r="J150" s="105">
+      <c r="H150" s="106">
+        <v>1</v>
+      </c>
+      <c r="I150" s="106">
+        <v>1</v>
+      </c>
+      <c r="J150" s="106">
         <v>2</v>
       </c>
-      <c r="K150" s="105" t="s">
+      <c r="K150" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="105"/>
-      <c r="M150" s="105" t="s">
+      <c r="L150" s="106"/>
+      <c r="M150" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="105"/>
+      <c r="N150" s="106"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -15723,24 +16232,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="111"/>
-      <c r="B151" s="106"/>
-      <c r="C151" s="106"/>
-      <c r="D151" s="106"/>
-      <c r="E151" s="106"/>
+      <c r="A151" s="112"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="107"/>
+      <c r="D151" s="107"/>
+      <c r="E151" s="107"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="106"/>
-      <c r="I151" s="106"/>
-      <c r="J151" s="106"/>
-      <c r="K151" s="106"/>
-      <c r="L151" s="106"/>
-      <c r="M151" s="106"/>
-      <c r="N151" s="106"/>
+      <c r="H151" s="107"/>
+      <c r="I151" s="107"/>
+      <c r="J151" s="107"/>
+      <c r="K151" s="107"/>
+      <c r="L151" s="107"/>
+      <c r="M151" s="107"/>
+      <c r="N151" s="107"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -15748,7 +16257,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="111"/>
+      <c r="A152" s="112"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -15785,7 +16294,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="19.5">
-      <c r="A153" s="111"/>
+      <c r="A153" s="112"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -15832,7 +16341,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="111"/>
+      <c r="A154" s="112"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -15869,7 +16378,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="111"/>
+      <c r="A155" s="112"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -15918,7 +16427,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="106"/>
+      <c r="A156" s="107"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -15965,17 +16474,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="99" t="s">
+      <c r="A157" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="94"/>
-      <c r="D157" s="94" t="s">
+      <c r="B157" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="95"/>
+      <c r="D157" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="95" t="s">
         <v>265</v>
       </c>
       <c r="F157" s="69">
@@ -15984,21 +16493,21 @@
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="H157" s="94"/>
-      <c r="I157" s="94">
-        <v>1</v>
-      </c>
-      <c r="J157" s="94">
+      <c r="H157" s="95"/>
+      <c r="I157" s="95">
+        <v>1</v>
+      </c>
+      <c r="J157" s="95">
         <v>2</v>
       </c>
-      <c r="K157" s="94" t="s">
+      <c r="K157" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="92"/>
-      <c r="M157" s="94" t="s">
+      <c r="L157" s="93"/>
+      <c r="M157" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="94"/>
+      <c r="N157" s="95"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -16016,24 +16525,24 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="100"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="95"/>
-      <c r="D158" s="95"/>
-      <c r="E158" s="95"/>
+      <c r="A158" s="101"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="95"/>
-      <c r="I158" s="95"/>
-      <c r="J158" s="95"/>
-      <c r="K158" s="95"/>
-      <c r="L158" s="93"/>
-      <c r="M158" s="95"/>
-      <c r="N158" s="95"/>
+      <c r="H158" s="96"/>
+      <c r="I158" s="96"/>
+      <c r="J158" s="96"/>
+      <c r="K158" s="96"/>
+      <c r="L158" s="94"/>
+      <c r="M158" s="96"/>
+      <c r="N158" s="96"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
@@ -16041,7 +16550,7 @@
       <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="19.5">
-      <c r="A159" s="100"/>
+      <c r="A159" s="101"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -16088,7 +16597,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="19.5">
-      <c r="A160" s="100"/>
+      <c r="A160" s="101"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -16135,7 +16644,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="19.5">
-      <c r="A161" s="100"/>
+      <c r="A161" s="101"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -16182,7 +16691,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="19.5">
-      <c r="A162" s="100"/>
+      <c r="A162" s="101"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -16229,7 +16738,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="19.5">
-      <c r="A163" s="100"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -16276,7 +16785,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="100"/>
+      <c r="A164" s="101"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -16325,7 +16834,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="100"/>
+      <c r="A165" s="101"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -16374,15 +16883,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="100"/>
-      <c r="B166" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="94"/>
-      <c r="D166" s="94" t="s">
+      <c r="A166" s="101"/>
+      <c r="B166" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="94" t="s">
+      <c r="E166" s="95" t="s">
         <v>265</v>
       </c>
       <c r="F166" s="69">
@@ -16391,21 +16900,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="94"/>
-      <c r="I166" s="94">
-        <v>1</v>
-      </c>
-      <c r="J166" s="94">
+      <c r="H166" s="95"/>
+      <c r="I166" s="95">
+        <v>1</v>
+      </c>
+      <c r="J166" s="95">
         <v>2</v>
       </c>
-      <c r="K166" s="94" t="s">
+      <c r="K166" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="92"/>
-      <c r="M166" s="94" t="s">
+      <c r="L166" s="93"/>
+      <c r="M166" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="94"/>
+      <c r="N166" s="95"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -16423,24 +16932,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="100"/>
-      <c r="B167" s="95"/>
-      <c r="C167" s="95"/>
-      <c r="D167" s="95"/>
-      <c r="E167" s="95"/>
+      <c r="A167" s="101"/>
+      <c r="B167" s="96"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="96"/>
+      <c r="E167" s="96"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="95"/>
-      <c r="I167" s="95"/>
-      <c r="J167" s="95"/>
-      <c r="K167" s="95"/>
-      <c r="L167" s="93"/>
-      <c r="M167" s="95"/>
-      <c r="N167" s="95"/>
+      <c r="H167" s="96"/>
+      <c r="I167" s="96"/>
+      <c r="J167" s="96"/>
+      <c r="K167" s="96"/>
+      <c r="L167" s="94"/>
+      <c r="M167" s="96"/>
+      <c r="N167" s="96"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -16448,7 +16957,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="100"/>
+      <c r="A168" s="101"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -16497,7 +17006,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="100"/>
+      <c r="A169" s="101"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -16546,15 +17055,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="100"/>
-      <c r="B170" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="94"/>
-      <c r="D170" s="94" t="s">
+      <c r="A170" s="101"/>
+      <c r="B170" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="95"/>
+      <c r="D170" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="E170" s="94" t="s">
+      <c r="E170" s="95" t="s">
         <v>265</v>
       </c>
       <c r="F170" s="69">
@@ -16563,21 +17072,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="94"/>
-      <c r="I170" s="94">
-        <v>1</v>
-      </c>
-      <c r="J170" s="94">
+      <c r="H170" s="95"/>
+      <c r="I170" s="95">
+        <v>1</v>
+      </c>
+      <c r="J170" s="95">
         <v>2</v>
       </c>
-      <c r="K170" s="94" t="s">
+      <c r="K170" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="92"/>
-      <c r="M170" s="94" t="s">
+      <c r="L170" s="93"/>
+      <c r="M170" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="94"/>
+      <c r="N170" s="95"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -16595,24 +17104,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="100"/>
-      <c r="B171" s="95"/>
-      <c r="C171" s="95"/>
-      <c r="D171" s="95"/>
-      <c r="E171" s="95"/>
+      <c r="A171" s="101"/>
+      <c r="B171" s="96"/>
+      <c r="C171" s="96"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="96"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="95"/>
-      <c r="I171" s="95"/>
-      <c r="J171" s="95"/>
-      <c r="K171" s="95"/>
-      <c r="L171" s="93"/>
-      <c r="M171" s="95"/>
-      <c r="N171" s="95"/>
+      <c r="H171" s="96"/>
+      <c r="I171" s="96"/>
+      <c r="J171" s="96"/>
+      <c r="K171" s="96"/>
+      <c r="L171" s="94"/>
+      <c r="M171" s="96"/>
+      <c r="N171" s="96"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -16620,7 +17129,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="100"/>
+      <c r="A172" s="101"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -16667,7 +17176,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="101"/>
+      <c r="A173" s="102"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -21810,7 +22319,7 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -21837,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -21872,10 +22381,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="29">
         <v>6</v>
@@ -21902,7 +22411,7 @@
         <v>223</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -21932,7 +22441,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -21962,7 +22471,7 @@
         <v>237</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -21992,10 +22501,10 @@
         <v>241</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="62">
@@ -22022,7 +22531,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -22052,7 +22561,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -22082,7 +22591,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -22112,7 +22621,7 @@
         <v>253</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -22142,7 +22651,7 @@
         <v>257</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -22172,7 +22681,7 @@
         <v>258</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -22192,7 +22701,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M13" s="38"/>
     </row>
@@ -22204,7 +22713,7 @@
         <v>259</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -22224,7 +22733,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M14" s="38"/>
     </row>
@@ -22236,10 +22745,10 @@
         <v>254</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="62">
@@ -22266,7 +22775,7 @@
         <v>255</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -22286,7 +22795,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M16" s="38"/>
     </row>
@@ -22298,7 +22807,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -22318,7 +22827,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M17" s="38"/>
     </row>
@@ -22330,10 +22839,10 @@
         <v>260</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="62">
@@ -22360,7 +22869,7 @@
         <v>261</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -22380,7 +22889,7 @@
         <v>203</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M19" s="38"/>
     </row>
@@ -22392,7 +22901,7 @@
         <v>262</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -22412,7 +22921,7 @@
         <v>203</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M20" s="38"/>
     </row>
@@ -23016,14 +23525,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q75"/>
+  <dimension ref="A2:Q68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -23050,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>166</v>
@@ -23085,10 +23594,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>284</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>285</v>
       </c>
       <c r="E3" s="77">
         <v>6</v>
@@ -23116,10 +23625,10 @@
         <v>235</v>
       </c>
       <c r="C4" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>286</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>287</v>
       </c>
       <c r="E4" s="36">
         <v>2</v>
@@ -23149,7 +23658,7 @@
         <v>223</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -23180,7 +23689,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -23211,7 +23720,7 @@
         <v>237</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -23236,13 +23745,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -23259,16 +23768,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>227</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>294</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="78">
@@ -23295,16 +23804,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>299</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>300</v>
       </c>
       <c r="E10" s="36">
         <v>1</v>
@@ -23328,16 +23837,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -23356,63 +23865,63 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>306</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="35">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35">
+        <v>286</v>
+      </c>
+      <c r="E12" s="78">
+        <v>1</v>
+      </c>
+      <c r="F12" s="78">
+        <v>1</v>
+      </c>
+      <c r="G12" s="78">
         <v>2</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="78"/>
+      <c r="J12" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="77" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>307</v>
+        <v>290</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="E13" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="35">
         <v>1</v>
       </c>
       <c r="G13" s="35">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>11</v>
@@ -23421,261 +23930,257 @@
       <c r="J13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.5">
+      <c r="A14" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78">
+        <v>0</v>
+      </c>
+      <c r="G14" s="78">
+        <v>99</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="78" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="78">
-        <v>1</v>
-      </c>
-      <c r="F14" s="78">
-        <v>1</v>
-      </c>
-      <c r="G14" s="78">
+    <row r="15" spans="1:17" ht="19.5">
+      <c r="A15" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>10</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="37">
         <v>2</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="J15" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="92">
+        <v>1</v>
+      </c>
+      <c r="G16" s="92">
+        <v>7</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="77" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="K16" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="92">
+        <v>1</v>
+      </c>
+      <c r="G17" s="92">
+        <v>6</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="92">
+        <v>1</v>
+      </c>
+      <c r="G18" s="92">
+        <v>1</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="92">
+        <v>1</v>
+      </c>
+      <c r="G19" s="92">
         <v>2</v>
       </c>
-      <c r="F15" s="35">
-        <v>1</v>
-      </c>
-      <c r="G15" s="35">
-        <v>14</v>
-      </c>
-      <c r="H15" s="35" t="s">
+      <c r="H19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35" t="s">
+      <c r="I19" s="37"/>
+      <c r="J19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="35" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.5">
-      <c r="A16" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78">
-        <v>0</v>
-      </c>
-      <c r="G16" s="78">
-        <v>99</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="5">
-        <v>2</v>
-      </c>
-      <c r="J16" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5">
-      <c r="A17" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35">
-        <v>10</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="37">
-        <v>2</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
-        <v>1</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="37">
-        <v>3</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
       <c r="K19" s="35" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89">
-        <v>0</v>
-      </c>
-      <c r="G20" s="89">
-        <v>9999</v>
-      </c>
-      <c r="H20" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="5">
-        <v>2</v>
-      </c>
-      <c r="J20" s="89" t="s">
-        <v>70</v>
+      <c r="I20" s="37">
+        <v>3</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
-      <c r="F21" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="G21" s="89">
-        <v>370</v>
-      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="5">
-        <v>3</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
       <c r="K21" s="35" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C22" s="89" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -23683,806 +24188,822 @@
         <v>0</v>
       </c>
       <c r="G22" s="89">
-        <v>4000</v>
+        <v>9999</v>
       </c>
       <c r="H22" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="89"/>
+        <v>22</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
       <c r="J22" s="89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
-        <v>1</v>
-      </c>
-      <c r="H23" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89">
+        <v>0.02</v>
+      </c>
+      <c r="G23" s="89">
+        <v>370</v>
+      </c>
+      <c r="H23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="5">
         <v>3</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>38</v>
+      <c r="J23" s="89" t="s">
+        <v>66</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="C24" s="89" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="F24" s="89">
+        <v>0</v>
+      </c>
+      <c r="G24" s="89">
+        <v>4000</v>
+      </c>
       <c r="H24" s="89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
+      <c r="J24" s="89" t="s">
+        <v>68</v>
+      </c>
       <c r="K24" s="35" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="89" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C25" s="89" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D25" s="89"/>
       <c r="E25" s="89"/>
-      <c r="F25" s="89">
-        <v>0</v>
-      </c>
-      <c r="G25" s="89">
-        <v>9999</v>
-      </c>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="5">
-        <v>2</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>70</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
       <c r="K25" s="35" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C26" s="89" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D26" s="89"/>
       <c r="E26" s="89"/>
       <c r="F26" s="89">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G26" s="89">
-        <v>370</v>
+        <v>9999</v>
       </c>
       <c r="H26" s="89" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="89" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D27" s="89"/>
       <c r="E27" s="89"/>
       <c r="F27" s="89">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G27" s="89">
-        <v>4000</v>
+        <v>370</v>
       </c>
       <c r="H27" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="89"/>
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3</v>
+      </c>
       <c r="J27" s="89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="35">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35">
-        <v>1</v>
-      </c>
-      <c r="H28" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89">
+        <v>0</v>
+      </c>
+      <c r="G28" s="89">
+        <v>4000</v>
+      </c>
+      <c r="H28" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.5">
+      <c r="A29" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <v>10</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="37">
-        <v>3</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" s="89" t="s">
-        <v>398</v>
-      </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
+      <c r="I29" s="37">
+        <v>2</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="K29" s="35" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" s="89" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D30" s="89"/>
       <c r="E30" s="89"/>
-      <c r="F30" s="89">
-        <v>0</v>
-      </c>
-      <c r="G30" s="89">
-        <v>9999</v>
-      </c>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="89" t="s">
-        <v>70</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
       <c r="K30" s="35" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="89" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D31" s="89"/>
       <c r="E31" s="89"/>
       <c r="F31" s="89">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G31" s="89">
-        <v>370</v>
+        <v>9999</v>
       </c>
       <c r="H31" s="89" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="89" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C32" s="89" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D32" s="89"/>
       <c r="E32" s="89"/>
       <c r="F32" s="89">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G32" s="89">
-        <v>4000</v>
+        <v>370</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="89"/>
+        <v>22</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3</v>
+      </c>
       <c r="J32" s="89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C33" s="89" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D33" s="89"/>
       <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="89">
+        <v>0</v>
+      </c>
+      <c r="G33" s="89">
+        <v>4000</v>
+      </c>
       <c r="H33" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34" s="89" t="s">
-        <v>394</v>
-      </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89">
-        <v>0</v>
-      </c>
-      <c r="G34" s="89">
-        <v>9999</v>
-      </c>
-      <c r="H34" s="89" t="s">
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="78">
+        <v>1</v>
+      </c>
+      <c r="F35" s="78">
+        <v>1</v>
+      </c>
+      <c r="G35" s="78">
+        <v>2</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="78"/>
+      <c r="J35" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" s="35">
+        <v>2</v>
+      </c>
+      <c r="F36" s="35">
+        <v>1</v>
+      </c>
+      <c r="G36" s="35">
+        <v>14</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.5">
+      <c r="A37" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78">
+        <v>0</v>
+      </c>
+      <c r="G37" s="78">
+        <v>99</v>
+      </c>
+      <c r="H37" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I37" s="5">
         <v>2</v>
       </c>
-      <c r="J34" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34" s="35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>406</v>
-      </c>
-      <c r="C35" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="G35" s="89">
-        <v>370</v>
-      </c>
-      <c r="H35" s="89" t="s">
+      <c r="J37" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="92" t="s">
+        <v>431</v>
+      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="122" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92">
+        <v>1</v>
+      </c>
+      <c r="G38" s="92">
+        <v>2</v>
+      </c>
+      <c r="H38" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="92"/>
+      <c r="J38" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <v>1</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I39" s="37">
         <v>3</v>
       </c>
-      <c r="J35" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B36" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="C36" s="89" t="s">
-        <v>396</v>
-      </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89">
-        <v>0</v>
-      </c>
-      <c r="G36" s="89">
-        <v>4000</v>
-      </c>
-      <c r="H36" s="89" t="s">
+      <c r="J39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0</v>
+      </c>
+      <c r="G40" s="35">
+        <v>1</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="37">
+        <v>3</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
+        <v>1</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="37">
+        <v>3</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>452</v>
+      </c>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92">
+        <v>1</v>
+      </c>
+      <c r="G42" s="92">
+        <v>2</v>
+      </c>
+      <c r="H42" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19.5">
-      <c r="A37" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35">
+      <c r="I42" s="92"/>
+      <c r="J42" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92">
+        <v>1</v>
+      </c>
+      <c r="G43" s="92">
+        <v>21</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="92"/>
+      <c r="J43" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="91" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92">
+        <v>1</v>
+      </c>
+      <c r="G44" s="92">
+        <v>3</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="92"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="19.5">
+      <c r="A45" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
         <v>10</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H45" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I45" s="37">
         <v>2</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J45" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="K37" s="35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B38" s="89" t="s">
-        <v>404</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="35" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>405</v>
-      </c>
-      <c r="C39" s="89" t="s">
-        <v>394</v>
-      </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89">
-        <v>0</v>
-      </c>
-      <c r="G39" s="89">
-        <v>9999</v>
-      </c>
-      <c r="H39" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="K45" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92">
+        <v>1</v>
+      </c>
+      <c r="G46" s="92">
         <v>2</v>
       </c>
-      <c r="J39" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" s="89" t="s">
-        <v>406</v>
-      </c>
-      <c r="C40" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="G40" s="89">
-        <v>370</v>
-      </c>
-      <c r="H40" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="5">
-        <v>3</v>
-      </c>
-      <c r="J40" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="C41" s="89" t="s">
-        <v>396</v>
-      </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89">
-        <v>0</v>
-      </c>
-      <c r="G41" s="89">
-        <v>4000</v>
-      </c>
-      <c r="H41" s="89" t="s">
+      <c r="H46" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="35">
-        <v>1</v>
-      </c>
-      <c r="F43" s="35">
-        <v>1</v>
-      </c>
-      <c r="G43" s="35">
+      <c r="I46" s="92"/>
+      <c r="J46" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92">
+        <v>1</v>
+      </c>
+      <c r="G47" s="92">
         <v>2</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H47" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35" t="s">
+      <c r="I47" s="92"/>
+      <c r="J47" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" s="35">
-        <v>1</v>
-      </c>
-      <c r="F44" s="35">
-        <v>1</v>
-      </c>
-      <c r="G44" s="35">
+      <c r="K47" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92">
+        <v>1</v>
+      </c>
+      <c r="G48" s="92">
         <v>2</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H48" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35" t="s">
+      <c r="I48" s="92"/>
+      <c r="J48" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" s="78">
-        <v>1</v>
-      </c>
-      <c r="F45" s="78">
-        <v>1</v>
-      </c>
-      <c r="G45" s="78">
-        <v>2</v>
-      </c>
-      <c r="H45" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="78"/>
-      <c r="J45" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="E46" s="35">
-        <v>2</v>
-      </c>
-      <c r="F46" s="35">
-        <v>1</v>
-      </c>
-      <c r="G46" s="35">
-        <v>14</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="19.5">
-      <c r="A47" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B47" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78">
-        <v>0</v>
-      </c>
-      <c r="G47" s="78">
-        <v>99</v>
-      </c>
-      <c r="H47" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="5">
-        <v>2</v>
-      </c>
-      <c r="J47" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F48" s="35">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35">
-        <v>1</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="37">
-        <v>3</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="K48" s="35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="19" customFormat="1">
       <c r="A49" s="77" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>314</v>
       </c>
       <c r="D49" s="35"/>
-      <c r="E49" s="35">
-        <v>0.73799999999999999</v>
-      </c>
+      <c r="E49" s="35"/>
       <c r="F49" s="35">
         <v>0</v>
       </c>
       <c r="G49" s="35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>22</v>
@@ -24491,31 +25012,29 @@
         <v>3</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" s="40" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="19" customFormat="1">
       <c r="A50" s="77" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>315</v>
       </c>
       <c r="D50" s="35"/>
-      <c r="E50" s="35">
-        <v>0.73799999999999999</v>
-      </c>
+      <c r="E50" s="35"/>
       <c r="F50" s="35">
         <v>0</v>
       </c>
       <c r="G50" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>22</v>
@@ -24524,802 +25043,573 @@
         <v>3</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="19.5">
+        <v>45</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="19" customFormat="1">
       <c r="A51" s="77" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D51" s="35"/>
-      <c r="E51" s="35">
-        <v>4.6500000000000004</v>
-      </c>
+      <c r="E51" s="35"/>
       <c r="F51" s="35">
         <v>0</v>
       </c>
       <c r="G51" s="35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I51" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="88" t="s">
-        <v>414</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="19" customFormat="1">
+      <c r="A52" s="77" t="s">
+        <v>321</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>415</v>
+        <v>157</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E52" s="89">
-        <v>1</v>
-      </c>
-      <c r="F52" s="89">
-        <v>1</v>
-      </c>
-      <c r="G52" s="89">
-        <v>2</v>
-      </c>
-      <c r="H52" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="89"/>
-      <c r="J52" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35">
+        <v>1</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="37">
+        <v>3</v>
+      </c>
+      <c r="J52" s="35" t="s">
         <v>38</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="90" t="s">
-        <v>414</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="19" customFormat="1">
+      <c r="A53" s="77" t="s">
+        <v>321</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>436</v>
+        <v>158</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E53" s="91">
-        <v>1</v>
-      </c>
-      <c r="F53" s="91">
-        <v>1</v>
-      </c>
-      <c r="G53" s="91">
-        <v>2</v>
-      </c>
-      <c r="H53" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="91"/>
-      <c r="J53" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35">
+        <v>1</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="37">
+        <v>3</v>
+      </c>
+      <c r="J53" s="35" t="s">
         <v>38</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="19" customFormat="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="77" t="s">
         <v>328</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
-      <c r="F54" s="35">
-        <v>0</v>
-      </c>
-      <c r="G54" s="35">
-        <v>15</v>
-      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
       <c r="H54" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="37">
-        <v>3</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>45</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="35" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="19" customFormat="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35">
-        <v>0</v>
-      </c>
-      <c r="G55" s="35">
+      <c r="B55" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="78">
         <v>2</v>
       </c>
-      <c r="H55" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="37">
-        <v>3</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55" s="35" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="19" customFormat="1">
+      <c r="F55" s="78">
+        <v>1</v>
+      </c>
+      <c r="G55" s="78">
+        <v>2</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="78"/>
+      <c r="J55" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="77" t="s">
         <v>328</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+        <v>334</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" s="35">
+        <v>2</v>
+      </c>
       <c r="F56" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="35">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="37">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I56" s="35"/>
       <c r="J56" s="35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="19" customFormat="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="19.5">
       <c r="A57" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35">
-        <v>0</v>
-      </c>
-      <c r="G57" s="35">
-        <v>1</v>
-      </c>
-      <c r="H57" s="35" t="s">
+      <c r="B57" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78">
+        <v>0</v>
+      </c>
+      <c r="G57" s="78">
+        <v>99</v>
+      </c>
+      <c r="H57" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="37">
-        <v>3</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="19" customFormat="1">
+      <c r="I57" s="5">
+        <v>2</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="19.5">
       <c r="A58" s="77" t="s">
         <v>328</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="E58" s="35">
+        <v>2.33</v>
+      </c>
       <c r="F58" s="35">
         <v>0</v>
       </c>
       <c r="G58" s="35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H58" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I58" s="37">
+        <v>2</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="90" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92">
+        <v>1</v>
+      </c>
+      <c r="G59" s="92">
+        <v>2</v>
+      </c>
+      <c r="H59" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="92"/>
+      <c r="J59" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="19" customFormat="1">
+      <c r="A60" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35">
+        <v>0</v>
+      </c>
+      <c r="G60" s="35">
+        <v>15</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="37">
         <v>3</v>
       </c>
-      <c r="J58" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E60" s="35">
-        <v>1</v>
-      </c>
-      <c r="F60" s="35">
-        <v>1</v>
-      </c>
-      <c r="G60" s="35">
-        <v>2</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="35"/>
       <c r="J60" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="19" customFormat="1">
       <c r="A61" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E61" s="35">
-        <v>1</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
       <c r="F61" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="35">
         <v>2</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="I61" s="37">
+        <v>3</v>
+      </c>
       <c r="J61" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="19" customFormat="1">
       <c r="A62" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B62" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E62" s="78">
+        <v>328</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35">
+        <v>0</v>
+      </c>
+      <c r="G62" s="35">
         <v>2</v>
       </c>
-      <c r="F62" s="78">
-        <v>1</v>
-      </c>
-      <c r="G62" s="78">
-        <v>2</v>
-      </c>
-      <c r="H62" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="78"/>
-      <c r="J62" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="77" t="s">
-        <v>335</v>
+      <c r="H62" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="37">
+        <v>3</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="19" customFormat="1">
+      <c r="A63" s="87" t="s">
+        <v>328</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>186</v>
+        <v>476</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>311</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D63" s="35"/>
       <c r="E63" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="35">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="I63" s="37">
+        <v>3</v>
+      </c>
       <c r="J63" s="35" t="s">
         <v>38</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="19.5">
-      <c r="A64" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B64" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78">
-        <v>0</v>
-      </c>
-      <c r="G64" s="78">
-        <v>99</v>
-      </c>
-      <c r="H64" s="78" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="19" customFormat="1">
+      <c r="A64" s="87" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35">
+        <v>1</v>
+      </c>
+      <c r="F64" s="35">
+        <v>0</v>
+      </c>
+      <c r="G64" s="35">
+        <v>1</v>
+      </c>
+      <c r="H64" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="37">
+        <v>3</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="37">
+        <v>3</v>
+      </c>
+      <c r="J65" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35">
+        <v>0</v>
+      </c>
+      <c r="G66" s="35">
+        <v>10</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="37">
         <v>2</v>
       </c>
-      <c r="J64" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K64" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="19.5">
-      <c r="A65" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35">
-        <v>2.33</v>
-      </c>
-      <c r="F65" s="35">
-        <v>0</v>
-      </c>
-      <c r="G65" s="35">
-        <v>10</v>
-      </c>
-      <c r="H65" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="37">
+      <c r="J66" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" s="35">
         <v>2</v>
       </c>
-      <c r="J65" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K65" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E66" s="89">
-        <v>1</v>
-      </c>
-      <c r="F66" s="89">
-        <v>1</v>
-      </c>
-      <c r="G66" s="89">
+      <c r="F67" s="35">
+        <v>1</v>
+      </c>
+      <c r="G67" s="35">
+        <v>14</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E68" s="35">
         <v>2</v>
       </c>
-      <c r="H66" s="89" t="s">
+      <c r="F68" s="35">
+        <v>1</v>
+      </c>
+      <c r="G68" s="35">
+        <v>14</v>
+      </c>
+      <c r="H68" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="89"/>
-      <c r="J66" s="88" t="s">
+      <c r="I68" s="35"/>
+      <c r="J68" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K66" s="35" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="19" customFormat="1">
-      <c r="A67" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35">
-        <v>0</v>
-      </c>
-      <c r="G67" s="35">
-        <v>15</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="37">
-        <v>3</v>
-      </c>
-      <c r="J67" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K67" s="35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="19" customFormat="1">
-      <c r="A68" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35">
-        <v>0</v>
-      </c>
-      <c r="G68" s="35">
-        <v>2</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="37">
-        <v>3</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>45</v>
-      </c>
       <c r="K68" s="35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="19" customFormat="1">
-      <c r="A69" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35">
-        <v>0</v>
-      </c>
-      <c r="G69" s="35">
-        <v>2</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="37">
-        <v>3</v>
-      </c>
-      <c r="J69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K69" s="35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="19" customFormat="1">
-      <c r="A70" s="87" t="s">
-        <v>335</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35">
-        <v>1</v>
-      </c>
-      <c r="F70" s="35">
-        <v>0</v>
-      </c>
-      <c r="G70" s="35">
-        <v>1</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I70" s="37">
-        <v>3</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K70" s="35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="19" customFormat="1">
-      <c r="A71" s="87" t="s">
-        <v>335</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35">
-        <v>1</v>
-      </c>
-      <c r="F71" s="35">
-        <v>0</v>
-      </c>
-      <c r="G71" s="35">
-        <v>1</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="37">
-        <v>3</v>
-      </c>
-      <c r="J71" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K71" s="35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I72" s="37">
-        <v>3</v>
-      </c>
-      <c r="J72" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K72" s="35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35">
-        <v>0</v>
-      </c>
-      <c r="G73" s="35">
-        <v>10</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="37">
-        <v>2</v>
-      </c>
-      <c r="J73" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="K73" s="35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="E74" s="35">
-        <v>2</v>
-      </c>
-      <c r="F74" s="35">
-        <v>1</v>
-      </c>
-      <c r="G74" s="35">
-        <v>14</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" s="35" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="E75" s="35">
-        <v>2</v>
-      </c>
-      <c r="F75" s="35">
-        <v>1</v>
-      </c>
-      <c r="G75" s="35">
-        <v>14</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K75" s="35" t="s">
         <v>281</v>
       </c>
     </row>
@@ -27081,7 +27371,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>

--- a/外皮計算テストケース表_180309.xlsx
+++ b/外皮計算テストケース表_180309.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424B309-A983-4922-ABC8-0C40859D8BC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB416E06-6BF7-4DC0-8FE6-FF331D2AAB71}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="503">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3308,10 +3308,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>wall[i]IsUnsteady</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>wall[i]A</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3416,10 +3412,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>window[i]IsUnsteady</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>window[i]A</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3501,10 +3493,6 @@
   </si>
   <si>
     <t>door[i]direction</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]IsUnsteady</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3868,81 +3856,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>wall[i]parts_part[1]layers_layer[k]matrial</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[1]layers_layer[k]d</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[1]layers_layer[k]lambda</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[1]layers_layer[k]Crho</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wall[i]parts_part[1]Ur</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一般部分/層構成/部材名称</t>
-    <rPh sb="5" eb="8">
-      <t>ソウコウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブザイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一般部分/層構成/厚さ</t>
-    <rPh sb="9" eb="10">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一般部分/層構成/熱伝導率</t>
-    <rPh sb="9" eb="10">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>デンドウリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一般部分/層構成/容積比熱</t>
-    <rPh sb="9" eb="11">
-      <t>ヨウセキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一般部分/補正熱貫流率</t>
-    <rPh sb="5" eb="7">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ネツカンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>開口部の透明部位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[木造熱橋部計算方法]=３ or [一般部位構造種別]=３の場合。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4074,10 +3988,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[簡易外皮入力フラグ]=１ or [一般部位構造種別]=２ の場合。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「開口部の不透明部位」の項目「日射熱取得率」「日射熱取得率（夏期）」「日射熱取得率（冬期）」を削除。</t>
     <rPh sb="47" eb="49">
       <t>サクジョ</t>
@@ -4177,37 +4087,6 @@
       <t>サイダイ</t>
     </rPh>
     <rPh sb="31" eb="32">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[木造熱橋部計算方法]=１ or [木造熱橋部計算方法]=２の場合。部位（part[j]）の最大数は6とする。[木造熱橋部計算方法]=２の場合は、部位[1]を一般部、部位[2]を熱橋部として扱う。</t>
-    <rPh sb="1" eb="3">
-      <t>モクゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネッキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
       <t>スウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4261,37 +4140,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[木造熱橋部計算方法]=１の場合。部位（part[j]）の最大数は6とする。[木造熱橋部計算方法]=２の場合は、部位[1]を一般部、部位[2]を熱橋部として扱う。</t>
-    <rPh sb="1" eb="3">
-      <t>モクゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネッキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>床の工法種類</t>
     <rPh sb="0" eb="1">
       <t>ユカ</t>
@@ -4323,14 +4171,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[部位種別]=３でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[部位種別]=２でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>天井の工法種類</t>
     <rPh sb="0" eb="2">
       <t>テンジョウ</t>
@@ -4359,14 +4199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1:桁・梁間に断熱する場合 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[部位種別]=１でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「開口部以外の不透明部位」に「床の工法種類」「壁の工法種類」「天井の工法種類」「屋根の工法種類」を追加。</t>
     <rPh sb="49" eb="51">
       <t>ツイカ</t>
@@ -4407,16 +4239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[日射熱取得率の入力方法]=１の場合に表示。</t>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>窓枠種類</t>
     <rPh sb="0" eb="2">
       <t>マドワク</t>
@@ -4442,10 +4264,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[日射熱取得率の入力方法]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日除けの入力方法</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4540,30 +4358,6 @@
     <rPh sb="9" eb="10">
       <t>マド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:たるき間に断熱する場合 
-2:たるき間に断熱し付加断熱（横下地）する場合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:軸組構法・柱、間柱間に断熱する場合 
-2:軸組構法・柱、間柱間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「横下地」） 
-3:軸組構法・柱、間柱間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「縦下地」） 
-4:枠組壁工法・たて枠間に断熱する場合 
-5:枠組壁工法・たて枠間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「横下地」） 
-6:枠組壁工法・たて枠間に断熱し付加断熱する場合（付加断熱層内熱橋部分が「縦下地」）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:軸組構法・床梁工法（根太間に断熱する場合） 
-2:軸組構法・束立大引工法（根太間に断熱する場合） 
-3:軸組構法・束立大引工法（大引間に断熱する場合） 
-4:軸組構法・束立大引工法（根太間及び大引間に断熱する場合） 
-5:軸組構法・剛床工法 
-6:軸組構法・床梁土台同面工法（根太間に断熱する場合） 
-7:軸組構法・枠組壁工法（根太間に断熱する場合）</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4633,10 +4427,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[日射熱取得率の入力方法]=２ or [開口部の上部の日除けの設置]=２ or [日除けの入力方法]=１の場合に表示。ただし18～21は [開口部の上部の日除けの設置]=２ or [日除けの入力方法]=１の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>窓付属部材の種類</t>
     <rPh sb="0" eb="1">
       <t>マド</t>
@@ -4793,6 +4583,561 @@
   </si>
   <si>
     <t>door[i]GammaHeating</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」、「開口部の透明部位」、「開口部の不透明部位」の「外部日除け入力フラグ」を削除。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部位/種別</t>
+    <rPh sb="0" eb="2">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]parts_part[j]type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:断熱部分
+2:熱橋部分
+3:断熱部分（根太間断熱材＋大引間断熱材）
+4:断熱部分＋熱橋部分（根太間断熱材＋大引材等）
+5:断熱部分＋熱橋部分（根太材＋大引間断熱材）
+6:熱橋部分（根太材＋大引材等）
+7:断熱部分（柱・間柱間断熱材＋付加断熱材）
+8:断熱部分＋熱橋部分（柱・間柱間断熱材＋付加断熱層内熱橋部分）
+9:断熱部分＋熱橋部分（構造部材等＋付加断熱材）
+10:熱橋部分（構造部材等＋付加断熱層内熱橋部分）
+11:断熱部分（充填断熱材＋付加断熱材）
+12:断熱部分＋熱橋部（充填断熱材＋付加断熱層内熱橋部）
+13:断熱部分＋熱橋部（構造部材等＋付加断熱材）
+14:断熱部分＋熱橋部（まぐさ＋付加断熱材）
+15:熱橋部分（構造部材等＋付加断熱層内熱橋部）
+16:熱橋部分（まぐさ＋付加断熱層内熱橋部）
+17:断熱部分（たる木間断熱材＋付加断熱材）
+18:断熱部分＋熱橋部分（たる木間断熱材＋付加断熱層内熱橋部（下地たる木））
+19:断熱部分＋熱橋部分（構造部材＋付加断熱材）
+20:熱橋部分（構造部材＋付加断熱層内熱橋部（下地たる木））</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」に「部位/種別」を追加。</t>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[木造熱橋部計算方法]=２の場合に表示。各選択肢の表示条件は以下の通り。
+3～6：[床の工法種類]=4の場合に表示
+7～10：[壁の工法種類]=2 or 3 の場合に表示
+11～16：[壁の工法種類]=5 or 6 の場合に表示
+17～20：[屋根の工法種類]=2の場合に表示</t>
+    <rPh sb="20" eb="24">
+      <t>カクセンタクシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[木造熱橋部計算方法]=１の場合に表示。部位（part[j]）の最大数は6とする（以下同様）。</t>
+    <rPh sb="1" eb="3">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=２でかつ[木造熱橋部計算方法]=２ or ３の場合に表示。
+ただし選択肢1～7は[木造熱橋部計算方法]=２の場合、選択肢8,9は[木造熱橋部計算方法]=３の場合に表示。</t>
+    <rPh sb="40" eb="43">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:軸組構法・床梁工法（根太間に断熱） 
+2:軸組構法・束立大引工法（根太間に断熱） 
+3:軸組構法・束立大引工法（大引間に断熱） 
+4:軸組構法・束立大引工法（根太間及び大引間に断熱） 
+5:軸組構法・剛床工法 
+6:軸組構法・床梁土台同面工法（根太間に断熱） 
+7:枠組壁工法（根太間に断熱）
+8:軸組構法
+9:枠組壁工法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:桁・梁間に断熱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:軸組構法・柱、間柱間に断熱 
+2:軸組構法・柱、間柱間に断熱し付加断熱（付加断熱層内熱橋部分が「横下地」） 
+3:軸組構法・柱、間柱間に断熱し付加断熱（付加断熱層内熱橋部分が「縦下地」） 
+4:枠組壁工法・たて枠間に断熱
+5:枠組壁工法・たて枠間に断熱＋付加断熱（付加断熱層内熱橋部分が「横下地」） 
+6:枠組壁工法・たて枠間に断熱＋付加断熱（付加断熱層内熱橋部分が「縦下地」）
+7:軸組構法・充填断熱または充填断熱＋付加断熱
+8:軸組構法・土壁で外張断熱
+9:軸組構法・土壁以外で外張断熱
+10:枠組壁工法・充填断熱または充填断熱＋付加断熱
+11:枠組壁工法・土壁で外張断熱
+12:枠組壁工法・土壁以外で外張断熱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=２でかつ[木造熱橋部計算方法]=２ or ３の場合に表示。
+ただし選択肢1～6は[木造熱橋部計算方法]=２の場合、選択肢7～12は[木造熱橋部計算方法]=３の場合に表示。</t>
+    <rPh sb="40" eb="43">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=２でかつ[木造熱橋部計算方法]=２ or ３の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:たるき間に断熱 
+2:たるき間に断熱＋付加断熱（横下地）
+3:充填断熱（たるき間に断熱）
+4:充填断熱（たるき間に断熱）＋付加断熱 
+5:外張断熱工法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=２でかつ[木造熱橋部計算方法]=２ or ３の場合に表示。
+ただし選択肢1,2は[木造熱橋部計算方法]=２の場合、選択肢3～5は[木造熱橋部計算方法]=３の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」の「床の工法種類」「壁の工法種類」「天井の工法種類」「屋根の工法種類」に[木造熱橋部計算方法]＝３のときの選択肢を追加。合わせて備考に記載した表示条件も修正。</t>
+    <rPh sb="66" eb="69">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外装材＋断熱補強材の熱抵抗</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]ThermalResistance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:1.7以上
+2:1.7未満1.5以上
+3:1.5未満1.3以上
+4:1.3未満1.1以上
+5:1.1未満0.9以上
+6:0.9未満0.7以上
+7:0.7未満0.5以上
+8:0.5未満0.3以上
+9:0.3未満0.1以上
+10:0.1未満</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [一般部位構造種別]=３の場合に表示。</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」に「外装材＋断熱補強材の熱抵抗」を追加。</t>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部以外の不透明部位」において重複する項目を削除。</t>
+    <rPh sb="17" eb="19">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓の種類</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]IsInputEtaValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:一重窓
+2:二重窓</t>
+    <rPh sb="2" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」に項目「窓の種類」（選択肢：一重窓／二重窓）を追加。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[窓の種類]＝１かつ[日射熱取得率の入力方法]=１の場合に表示。</t>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[窓の種類]＝１かつ[日射熱取得率の入力方法]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[窓の種類]＝１かつ[日射熱取得率の入力方法]=２ or [開口部の上部の日除けの設置]=２ or [日除けの入力方法]=１の場合に表示。ただし18～21は [開口部の上部の日除けの設置]=２ or [日除けの入力方法]=１の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日射熱取得率（室内側）</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュトクリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓枠種類（室内側）</t>
+    <rPh sb="0" eb="2">
+      <t>マドワク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガラス種類（室内側）</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓付属部材の種類（室内側）</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]eta_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]frame_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]glass_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]shade_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日射熱取得率（室外側）</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュトクリツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓枠種類（室外側）</t>
+    <rPh sb="0" eb="2">
+      <t>マドワク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガラス種類（室外側）</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓付属部材の種類（室外側）</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]eta_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]frame_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]glass_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window[i]shade_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[窓の種類]＝２かつ[日射熱取得率の入力方法]=１の場合に表示。</t>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[窓の種類]＝２かつ[日射熱取得率の入力方法]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「開口部の透明部位」で[窓の種類]=2（二重窓）を選択した場合、「日射熱取得率」「窓枠種類」「ガラス種類」「窓付属部材の種類」は室内側、室外側でそれぞれ入力できるように項目を追加。</t>
+    <rPh sb="12" eb="13">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4952,7 +5297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5208,14 +5553,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5313,13 +5659,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5605,16 +5944,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="131.08203125" customWidth="1"/>
   </cols>
@@ -5682,7 +6021,7 @@
         <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5715,7 +6054,7 @@
         <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5726,7 +6065,7 @@
         <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5737,7 +6076,7 @@
         <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5748,7 +6087,7 @@
         <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5759,7 +6098,7 @@
         <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5767,10 +6106,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5778,10 +6117,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5789,10 +6128,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5800,10 +6139,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5814,7 +6153,7 @@
         <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5825,7 +6164,7 @@
         <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5836,7 +6175,7 @@
         <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5847,7 +6186,7 @@
         <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5858,7 +6197,7 @@
         <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5869,7 +6208,7 @@
         <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5880,7 +6219,7 @@
         <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5891,7 +6230,7 @@
         <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5902,7 +6241,7 @@
         <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5913,7 +6252,7 @@
         <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5924,7 +6263,7 @@
         <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5935,7 +6274,7 @@
         <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5946,7 +6285,7 @@
         <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5957,7 +6296,7 @@
         <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5968,7 +6307,7 @@
         <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5979,7 +6318,7 @@
         <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5990,7 +6329,7 @@
         <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6000,8 +6339,8 @@
       <c r="B35" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="123" t="s">
-        <v>468</v>
+      <c r="C35" s="87" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6012,7 +6351,7 @@
         <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6023,7 +6362,7 @@
         <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6033,8 +6372,8 @@
       <c r="B38" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="C38" s="123" t="s">
-        <v>449</v>
+      <c r="C38" s="87" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6045,7 +6384,7 @@
         <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6056,7 +6395,7 @@
         <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6067,7 +6406,7 @@
         <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6077,8 +6416,85 @@
       <c r="B42" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="124" t="s">
-        <v>478</v>
+      <c r="C42" s="88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B48" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="81">
+        <v>43202</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -10380,7 +10796,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="104" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10427,36 +10843,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="104"/>
-      <c r="B4" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="95" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="107"/>
+      <c r="D4" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="106"/>
+      <c r="E4" s="107"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="107">
         <v>6</v>
       </c>
-      <c r="I4" s="106">
-        <v>1</v>
-      </c>
-      <c r="J4" s="106">
+      <c r="I4" s="107">
+        <v>1</v>
+      </c>
+      <c r="J4" s="107">
         <v>8</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -10474,24 +10890,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="104"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="112"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -10499,24 +10915,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="104"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="112"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -10524,24 +10940,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="104"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="112"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -10549,24 +10965,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="104"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="112"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -10574,24 +10990,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="104"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="112"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -10599,24 +11015,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="104"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="112"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -10624,24 +11040,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="104"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="107"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -10649,7 +11065,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="104"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -10696,7 +11112,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="104"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -10743,7 +11159,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="104"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -10790,38 +11206,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="100" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="96">
         <v>2</v>
       </c>
-      <c r="I15" s="95">
-        <v>1</v>
-      </c>
-      <c r="J15" s="95">
+      <c r="I15" s="96">
+        <v>1</v>
+      </c>
+      <c r="J15" s="96">
         <v>2</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="106"/>
-      <c r="M15" s="95" t="s">
+      <c r="L15" s="107"/>
+      <c r="M15" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="106"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -10839,24 +11255,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="111"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="107"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="108"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -10864,7 +11280,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="104"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -10909,7 +11325,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="104"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -10958,7 +11374,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="104"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -11003,15 +11419,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="100" t="s">
+      <c r="A20" s="105"/>
+      <c r="B20" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="101" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -11020,64 +11436,64 @@
       <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95">
-        <v>1</v>
-      </c>
-      <c r="J20" s="95">
+      <c r="H20" s="96"/>
+      <c r="I20" s="96">
+        <v>1</v>
+      </c>
+      <c r="J20" s="96">
         <v>2</v>
       </c>
-      <c r="K20" s="95" t="s">
+      <c r="K20" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="93"/>
-      <c r="M20" s="95" t="s">
+      <c r="L20" s="94"/>
+      <c r="M20" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="98" t="s">
+      <c r="N20" s="96"/>
+      <c r="O20" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="99" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="107" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -11116,36 +11532,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="100" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="95">
-        <v>1</v>
-      </c>
-      <c r="J23" s="95">
+      <c r="H23" s="109"/>
+      <c r="I23" s="96">
+        <v>1</v>
+      </c>
+      <c r="J23" s="96">
         <v>6</v>
       </c>
-      <c r="K23" s="100" t="s">
+      <c r="K23" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="108"/>
-      <c r="M23" s="100" t="s">
+      <c r="L23" s="109"/>
+      <c r="M23" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="103"/>
+      <c r="N23" s="104"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -11164,24 +11580,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="120"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="104"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="105"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -11190,24 +11606,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="112"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="120"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="109"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="104"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="105"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -11216,24 +11632,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="120"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="104"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="105"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -11244,24 +11660,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="112"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="120"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="104"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="105"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -11272,24 +11688,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="121"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="110"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="112"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -11300,7 +11716,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="112"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -11340,7 +11756,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="112"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -11388,7 +11804,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="112"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -11436,7 +11852,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="112"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -11482,7 +11898,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="112"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -11532,7 +11948,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="112"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -11582,7 +11998,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="112"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -11631,7 +12047,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A36" s="112"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -11679,7 +12095,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A37" s="112"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -11725,7 +12141,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A38" s="112"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -11771,38 +12187,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="112"/>
-      <c r="B39" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95" t="s">
+      <c r="A39" s="113"/>
+      <c r="B39" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="95"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="95">
-        <v>1</v>
-      </c>
-      <c r="I39" s="95">
-        <v>1</v>
-      </c>
-      <c r="J39" s="95">
+      <c r="H39" s="96">
+        <v>1</v>
+      </c>
+      <c r="I39" s="96">
+        <v>1</v>
+      </c>
+      <c r="J39" s="96">
         <v>3</v>
       </c>
-      <c r="K39" s="95" t="s">
+      <c r="K39" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="95" t="s">
+      <c r="L39" s="94"/>
+      <c r="M39" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="95"/>
+      <c r="N39" s="96"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -11820,24 +12236,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="112"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -11845,24 +12261,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="112"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -11870,24 +12286,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="112"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -11895,15 +12311,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="112"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="95" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="95" t="s">
+      <c r="E43" s="96" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -11912,23 +12328,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="95">
-        <v>1</v>
-      </c>
-      <c r="I43" s="95">
-        <v>1</v>
-      </c>
-      <c r="J43" s="95">
+      <c r="H43" s="96">
+        <v>1</v>
+      </c>
+      <c r="I43" s="96">
+        <v>1</v>
+      </c>
+      <c r="J43" s="96">
         <v>3</v>
       </c>
-      <c r="K43" s="95" t="s">
+      <c r="K43" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="93"/>
-      <c r="M43" s="95" t="s">
+      <c r="L43" s="94"/>
+      <c r="M43" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="95"/>
+      <c r="N43" s="96"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -11946,24 +12362,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="112"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -11971,24 +12387,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -11996,7 +12412,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="112"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -12043,7 +12459,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A47" s="112"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -12090,7 +12506,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="112"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -12137,7 +12553,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="112"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -12184,7 +12600,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
-      <c r="A50" s="112"/>
+      <c r="A50" s="113"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -12231,7 +12647,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="107" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -12270,7 +12686,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="112"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -12323,7 +12739,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="112"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -12378,7 +12794,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="112"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -12433,7 +12849,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="112"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -12482,7 +12898,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="112"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -12537,7 +12953,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="112"/>
+      <c r="A57" s="113"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -12592,7 +13008,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="112"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -12641,7 +13057,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="112"/>
+      <c r="A59" s="113"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -12696,7 +13112,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="112"/>
+      <c r="A60" s="113"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -12751,7 +13167,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="19.5">
-      <c r="A61" s="112"/>
+      <c r="A61" s="113"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -12798,7 +13214,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="112"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -12845,7 +13261,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="112"/>
+      <c r="A63" s="113"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -12892,7 +13308,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="19.5">
-      <c r="A64" s="107"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -12939,7 +13355,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="107" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -12978,7 +13394,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="112"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -13018,7 +13434,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="112"/>
+      <c r="A67" s="113"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -13067,7 +13483,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="112"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -13116,7 +13532,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="112"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -13165,7 +13581,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="112"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -13218,7 +13634,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="112"/>
+      <c r="A71" s="113"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -13271,7 +13687,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="112"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -13311,7 +13727,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="107"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -13351,40 +13767,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="116" t="s">
+      <c r="A74" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="106"/>
-      <c r="D74" s="95" t="s">
+      <c r="B74" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="107"/>
+      <c r="D74" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="106"/>
+      <c r="E74" s="107"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="106">
-        <v>1</v>
-      </c>
-      <c r="I74" s="95">
-        <v>1</v>
-      </c>
-      <c r="J74" s="95">
+      <c r="H74" s="107">
+        <v>1</v>
+      </c>
+      <c r="I74" s="96">
+        <v>1</v>
+      </c>
+      <c r="J74" s="96">
         <v>4</v>
       </c>
-      <c r="K74" s="106" t="s">
+      <c r="K74" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="106"/>
-      <c r="M74" s="95" t="s">
+      <c r="L74" s="107"/>
+      <c r="M74" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="106"/>
+      <c r="N74" s="107"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -13402,24 +13818,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="112"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="112"/>
+      <c r="A75" s="113"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="113"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="112"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="112"/>
-      <c r="L75" s="112"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="112"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="98"/>
+      <c r="J75" s="98"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="98"/>
+      <c r="N75" s="113"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -13427,24 +13843,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="112"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="112"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="113"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="112"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="112"/>
-      <c r="L76" s="112"/>
-      <c r="M76" s="97"/>
-      <c r="N76" s="112"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="113"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -13456,24 +13872,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="112"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="107"/>
+      <c r="A77" s="113"/>
+      <c r="B77" s="108"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="108"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="107"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="107"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
+      <c r="M77" s="97"/>
+      <c r="N77" s="108"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -13481,15 +13897,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="112"/>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106" t="s">
+      <c r="A78" s="113"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="95" t="s">
+      <c r="D78" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="95" t="s">
+      <c r="E78" s="96" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -13498,23 +13914,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="106">
-        <v>1</v>
-      </c>
-      <c r="I78" s="95">
-        <v>1</v>
-      </c>
-      <c r="J78" s="95">
+      <c r="H78" s="107">
+        <v>1</v>
+      </c>
+      <c r="I78" s="96">
+        <v>1</v>
+      </c>
+      <c r="J78" s="96">
         <v>4</v>
       </c>
-      <c r="K78" s="106" t="s">
+      <c r="K78" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="106"/>
-      <c r="M78" s="95" t="s">
+      <c r="L78" s="107"/>
+      <c r="M78" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="106"/>
+      <c r="N78" s="107"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -13532,24 +13948,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="112"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="112"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="112"/>
-      <c r="L79" s="112"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="112"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="98"/>
+      <c r="N79" s="113"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -13557,24 +13973,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="112"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="98"/>
+      <c r="E80" s="98"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="112"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="112"/>
-      <c r="L80" s="112"/>
-      <c r="M80" s="97"/>
-      <c r="N80" s="112"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="98"/>
+      <c r="J80" s="98"/>
+      <c r="K80" s="113"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="98"/>
+      <c r="N80" s="113"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -13582,24 +13998,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="112"/>
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
+      <c r="A81" s="113"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="107"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="107"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="97"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="97"/>
+      <c r="N81" s="108"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -13607,7 +14023,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="112"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -13652,7 +14068,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="112"/>
+      <c r="A83" s="113"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -13697,7 +14113,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="112"/>
+      <c r="A84" s="113"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -13742,7 +14158,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="19.5">
-      <c r="A85" s="112"/>
+      <c r="A85" s="113"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -13789,7 +14205,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="19.5">
-      <c r="A86" s="112"/>
+      <c r="A86" s="113"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -13836,7 +14252,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="19.5">
-      <c r="A87" s="112"/>
+      <c r="A87" s="113"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -13881,7 +14297,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="19.5">
-      <c r="A88" s="112"/>
+      <c r="A88" s="113"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -13926,7 +14342,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="19.5">
-      <c r="A89" s="112"/>
+      <c r="A89" s="113"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -13971,7 +14387,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="19.5">
-      <c r="A90" s="112"/>
+      <c r="A90" s="113"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -14016,7 +14432,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="19.5">
-      <c r="A91" s="112"/>
+      <c r="A91" s="113"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -14061,7 +14477,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="19.5">
-      <c r="A92" s="112"/>
+      <c r="A92" s="113"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -14106,38 +14522,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="112"/>
-      <c r="B93" s="106" t="s">
+      <c r="A93" s="113"/>
+      <c r="B93" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="106" t="s">
+      <c r="C93" s="107"/>
+      <c r="D93" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="106"/>
+      <c r="E93" s="107"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="106">
-        <v>1</v>
-      </c>
-      <c r="I93" s="106">
-        <v>1</v>
-      </c>
-      <c r="J93" s="106">
+      <c r="H93" s="107">
+        <v>1</v>
+      </c>
+      <c r="I93" s="107">
+        <v>1</v>
+      </c>
+      <c r="J93" s="107">
         <v>2</v>
       </c>
-      <c r="K93" s="106" t="s">
+      <c r="K93" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="106"/>
-      <c r="M93" s="106" t="s">
+      <c r="L93" s="107"/>
+      <c r="M93" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="106"/>
+      <c r="N93" s="107"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -14147,24 +14563,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="112"/>
-      <c r="B94" s="107"/>
-      <c r="C94" s="107"/>
-      <c r="D94" s="107"/>
-      <c r="E94" s="107"/>
+      <c r="A94" s="113"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="108"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="107"/>
-      <c r="I94" s="107"/>
-      <c r="J94" s="107"/>
-      <c r="K94" s="107"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="107"/>
-      <c r="N94" s="107"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="108"/>
+      <c r="K94" s="108"/>
+      <c r="L94" s="108"/>
+      <c r="M94" s="108"/>
+      <c r="N94" s="108"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -14172,38 +14588,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="112"/>
-      <c r="B95" s="106" t="s">
+      <c r="A95" s="113"/>
+      <c r="B95" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="106"/>
-      <c r="D95" s="106" t="s">
+      <c r="C95" s="107"/>
+      <c r="D95" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="106"/>
+      <c r="E95" s="107"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="106">
+      <c r="H95" s="107">
         <v>2</v>
       </c>
-      <c r="I95" s="106">
-        <v>1</v>
-      </c>
-      <c r="J95" s="106">
+      <c r="I95" s="107">
+        <v>1</v>
+      </c>
+      <c r="J95" s="107">
         <v>2</v>
       </c>
-      <c r="K95" s="106" t="s">
+      <c r="K95" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="106"/>
-      <c r="M95" s="106" t="s">
+      <c r="L95" s="107"/>
+      <c r="M95" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="106"/>
+      <c r="N95" s="107"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -14213,24 +14629,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="112"/>
-      <c r="B96" s="107"/>
-      <c r="C96" s="107"/>
-      <c r="D96" s="107"/>
-      <c r="E96" s="107"/>
+      <c r="A96" s="113"/>
+      <c r="B96" s="108"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="108"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="107"/>
-      <c r="I96" s="107"/>
-      <c r="J96" s="107"/>
-      <c r="K96" s="107"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="107"/>
-      <c r="N96" s="107"/>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="108"/>
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="108"/>
+      <c r="N96" s="108"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -14238,7 +14654,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="107"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -14287,40 +14703,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="106"/>
-      <c r="D98" s="106" t="s">
+      <c r="C98" s="107"/>
+      <c r="D98" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="106"/>
+      <c r="E98" s="107"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="106">
-        <v>1</v>
-      </c>
-      <c r="I98" s="106">
-        <v>1</v>
-      </c>
-      <c r="J98" s="106">
+      <c r="H98" s="107">
+        <v>1</v>
+      </c>
+      <c r="I98" s="107">
+        <v>1</v>
+      </c>
+      <c r="J98" s="107">
         <v>3</v>
       </c>
-      <c r="K98" s="106" t="s">
+      <c r="K98" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="106"/>
-      <c r="M98" s="106" t="s">
+      <c r="L98" s="107"/>
+      <c r="M98" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="106"/>
+      <c r="N98" s="107"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -14338,24 +14754,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="117"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
+      <c r="A99" s="118"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="113"/>
+      <c r="K99" s="113"/>
+      <c r="L99" s="113"/>
+      <c r="M99" s="113"/>
+      <c r="N99" s="113"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -14363,24 +14779,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="117"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
+      <c r="A100" s="118"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="107"/>
-      <c r="I100" s="107"/>
-      <c r="J100" s="107"/>
-      <c r="K100" s="107"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="107"/>
-      <c r="N100" s="107"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="108"/>
+      <c r="K100" s="108"/>
+      <c r="L100" s="108"/>
+      <c r="M100" s="108"/>
+      <c r="N100" s="108"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -14388,15 +14804,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="117"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="106" t="s">
+      <c r="A101" s="118"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="106" t="s">
+      <c r="D101" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="106" t="s">
+      <c r="E101" s="107" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -14405,21 +14821,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="106"/>
-      <c r="I101" s="106">
-        <v>1</v>
-      </c>
-      <c r="J101" s="106">
+      <c r="H101" s="107"/>
+      <c r="I101" s="107">
+        <v>1</v>
+      </c>
+      <c r="J101" s="107">
         <v>4</v>
       </c>
-      <c r="K101" s="106" t="s">
+      <c r="K101" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="106"/>
-      <c r="M101" s="106" t="s">
+      <c r="L101" s="107"/>
+      <c r="M101" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="106"/>
+      <c r="N101" s="107"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -14437,24 +14853,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="117"/>
-      <c r="B102" s="112"/>
-      <c r="C102" s="112"/>
-      <c r="D102" s="112"/>
-      <c r="E102" s="112"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="112"/>
-      <c r="I102" s="112"/>
-      <c r="J102" s="112"/>
-      <c r="K102" s="112"/>
-      <c r="L102" s="112"/>
-      <c r="M102" s="112"/>
-      <c r="N102" s="112"/>
+      <c r="H102" s="113"/>
+      <c r="I102" s="113"/>
+      <c r="J102" s="113"/>
+      <c r="K102" s="113"/>
+      <c r="L102" s="113"/>
+      <c r="M102" s="113"/>
+      <c r="N102" s="113"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -14462,24 +14878,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="117"/>
-      <c r="B103" s="112"/>
-      <c r="C103" s="112"/>
-      <c r="D103" s="112"/>
-      <c r="E103" s="112"/>
+      <c r="A103" s="118"/>
+      <c r="B103" s="113"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="112"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="112"/>
-      <c r="K103" s="112"/>
-      <c r="L103" s="112"/>
-      <c r="M103" s="112"/>
-      <c r="N103" s="112"/>
+      <c r="H103" s="113"/>
+      <c r="I103" s="113"/>
+      <c r="J103" s="113"/>
+      <c r="K103" s="113"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="113"/>
+      <c r="N103" s="113"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -14487,24 +14903,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="117"/>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
+      <c r="A104" s="118"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
-      <c r="J104" s="107"/>
-      <c r="K104" s="107"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="107"/>
-      <c r="N104" s="107"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -14512,38 +14928,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="117"/>
-      <c r="B105" s="106" t="s">
+      <c r="A105" s="118"/>
+      <c r="B105" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="106"/>
-      <c r="D105" s="106" t="s">
+      <c r="C105" s="107"/>
+      <c r="D105" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="106"/>
+      <c r="E105" s="107"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="106">
+      <c r="H105" s="107">
         <v>3</v>
       </c>
-      <c r="I105" s="106">
-        <v>1</v>
-      </c>
-      <c r="J105" s="106">
+      <c r="I105" s="107">
+        <v>1</v>
+      </c>
+      <c r="J105" s="107">
         <v>3</v>
       </c>
-      <c r="K105" s="106" t="s">
+      <c r="K105" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="106"/>
-      <c r="M105" s="106" t="s">
+      <c r="L105" s="107"/>
+      <c r="M105" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="106"/>
+      <c r="N105" s="107"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -14561,24 +14977,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="117"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="112"/>
+      <c r="A106" s="118"/>
+      <c r="B106" s="113"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="113"/>
+      <c r="E106" s="113"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="112"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="112"/>
-      <c r="L106" s="112"/>
-      <c r="M106" s="112"/>
-      <c r="N106" s="112"/>
+      <c r="H106" s="113"/>
+      <c r="I106" s="113"/>
+      <c r="J106" s="113"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="113"/>
+      <c r="M106" s="113"/>
+      <c r="N106" s="113"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -14586,24 +15002,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="117"/>
-      <c r="B107" s="107"/>
-      <c r="C107" s="107"/>
-      <c r="D107" s="107"/>
-      <c r="E107" s="107"/>
+      <c r="A107" s="118"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="107"/>
-      <c r="I107" s="107"/>
-      <c r="J107" s="107"/>
-      <c r="K107" s="107"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="107"/>
-      <c r="N107" s="107"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="108"/>
+      <c r="L107" s="108"/>
+      <c r="M107" s="108"/>
+      <c r="N107" s="108"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -14611,15 +15027,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="117"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="106" t="s">
+      <c r="A108" s="118"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="106" t="s">
+      <c r="D108" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="106" t="s">
+      <c r="E108" s="107" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -14628,21 +15044,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="106"/>
-      <c r="I108" s="106">
-        <v>1</v>
-      </c>
-      <c r="J108" s="106">
+      <c r="H108" s="107"/>
+      <c r="I108" s="107">
+        <v>1</v>
+      </c>
+      <c r="J108" s="107">
         <v>4</v>
       </c>
-      <c r="K108" s="106" t="s">
+      <c r="K108" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="106"/>
-      <c r="M108" s="106" t="s">
+      <c r="L108" s="107"/>
+      <c r="M108" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="106"/>
+      <c r="N108" s="107"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -14660,24 +15076,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="117"/>
-      <c r="B109" s="112"/>
-      <c r="C109" s="112"/>
-      <c r="D109" s="112"/>
-      <c r="E109" s="112"/>
+      <c r="A109" s="118"/>
+      <c r="B109" s="113"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="113"/>
+      <c r="E109" s="113"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="112"/>
-      <c r="I109" s="112"/>
-      <c r="J109" s="112"/>
-      <c r="K109" s="112"/>
-      <c r="L109" s="112"/>
-      <c r="M109" s="112"/>
-      <c r="N109" s="112"/>
+      <c r="H109" s="113"/>
+      <c r="I109" s="113"/>
+      <c r="J109" s="113"/>
+      <c r="K109" s="113"/>
+      <c r="L109" s="113"/>
+      <c r="M109" s="113"/>
+      <c r="N109" s="113"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -14685,24 +15101,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="117"/>
-      <c r="B110" s="112"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="112"/>
-      <c r="E110" s="112"/>
+      <c r="A110" s="118"/>
+      <c r="B110" s="113"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="113"/>
+      <c r="E110" s="113"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="112"/>
-      <c r="I110" s="112"/>
-      <c r="J110" s="112"/>
-      <c r="K110" s="112"/>
-      <c r="L110" s="112"/>
-      <c r="M110" s="112"/>
-      <c r="N110" s="112"/>
+      <c r="H110" s="113"/>
+      <c r="I110" s="113"/>
+      <c r="J110" s="113"/>
+      <c r="K110" s="113"/>
+      <c r="L110" s="113"/>
+      <c r="M110" s="113"/>
+      <c r="N110" s="113"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -14710,24 +15126,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="117"/>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
+      <c r="A111" s="118"/>
+      <c r="B111" s="108"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="107"/>
-      <c r="I111" s="107"/>
-      <c r="J111" s="107"/>
-      <c r="K111" s="107"/>
-      <c r="L111" s="107"/>
-      <c r="M111" s="107"/>
-      <c r="N111" s="107"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -14735,7 +15151,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="19.5">
-      <c r="A112" s="117"/>
+      <c r="A112" s="118"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -14780,7 +15196,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="19.5">
-      <c r="A113" s="117"/>
+      <c r="A113" s="118"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -14825,7 +15241,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="19.5">
-      <c r="A114" s="118"/>
+      <c r="A114" s="119"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -14870,40 +15286,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="116" t="s">
+      <c r="A115" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="106"/>
-      <c r="D115" s="95" t="s">
+      <c r="B115" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="107"/>
+      <c r="D115" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="106"/>
+      <c r="E115" s="107"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="106">
-        <v>1</v>
-      </c>
-      <c r="I115" s="95">
-        <v>1</v>
-      </c>
-      <c r="J115" s="95">
+      <c r="H115" s="107">
+        <v>1</v>
+      </c>
+      <c r="I115" s="96">
+        <v>1</v>
+      </c>
+      <c r="J115" s="96">
         <v>4</v>
       </c>
-      <c r="K115" s="106" t="s">
+      <c r="K115" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="106"/>
-      <c r="M115" s="95" t="s">
+      <c r="L115" s="107"/>
+      <c r="M115" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="106"/>
+      <c r="N115" s="107"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -14921,24 +15337,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="112"/>
-      <c r="B116" s="112"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="112"/>
+      <c r="A116" s="113"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="113"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="112"/>
-      <c r="I116" s="97"/>
-      <c r="J116" s="97"/>
-      <c r="K116" s="112"/>
-      <c r="L116" s="112"/>
-      <c r="M116" s="97"/>
-      <c r="N116" s="112"/>
+      <c r="H116" s="113"/>
+      <c r="I116" s="98"/>
+      <c r="J116" s="98"/>
+      <c r="K116" s="113"/>
+      <c r="L116" s="113"/>
+      <c r="M116" s="98"/>
+      <c r="N116" s="113"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -14946,24 +15362,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="112"/>
-      <c r="B117" s="112"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="112"/>
+      <c r="A117" s="113"/>
+      <c r="B117" s="113"/>
+      <c r="C117" s="113"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="113"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="112"/>
-      <c r="I117" s="97"/>
-      <c r="J117" s="97"/>
-      <c r="K117" s="112"/>
-      <c r="L117" s="112"/>
-      <c r="M117" s="97"/>
-      <c r="N117" s="112"/>
+      <c r="H117" s="113"/>
+      <c r="I117" s="98"/>
+      <c r="J117" s="98"/>
+      <c r="K117" s="113"/>
+      <c r="L117" s="113"/>
+      <c r="M117" s="98"/>
+      <c r="N117" s="113"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -14975,24 +15391,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="112"/>
-      <c r="B118" s="107"/>
-      <c r="C118" s="107"/>
-      <c r="D118" s="96"/>
-      <c r="E118" s="107"/>
+      <c r="A118" s="113"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="108"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="107"/>
-      <c r="I118" s="96"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="107"/>
-      <c r="L118" s="107"/>
-      <c r="M118" s="96"/>
-      <c r="N118" s="107"/>
+      <c r="H118" s="108"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="97"/>
+      <c r="K118" s="108"/>
+      <c r="L118" s="108"/>
+      <c r="M118" s="97"/>
+      <c r="N118" s="108"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -15000,15 +15416,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="112"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="106" t="s">
+      <c r="A119" s="113"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="95" t="s">
+      <c r="D119" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="95" t="s">
+      <c r="E119" s="96" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -15017,23 +15433,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="106">
-        <v>1</v>
-      </c>
-      <c r="I119" s="95">
-        <v>1</v>
-      </c>
-      <c r="J119" s="95">
+      <c r="H119" s="107">
+        <v>1</v>
+      </c>
+      <c r="I119" s="96">
+        <v>1</v>
+      </c>
+      <c r="J119" s="96">
         <v>4</v>
       </c>
-      <c r="K119" s="106" t="s">
+      <c r="K119" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="106"/>
-      <c r="M119" s="95" t="s">
+      <c r="L119" s="107"/>
+      <c r="M119" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="106"/>
+      <c r="N119" s="107"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -15051,24 +15467,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="112"/>
-      <c r="B120" s="112"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
+      <c r="A120" s="113"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="112"/>
-      <c r="I120" s="97"/>
-      <c r="J120" s="97"/>
-      <c r="K120" s="112"/>
-      <c r="L120" s="112"/>
-      <c r="M120" s="97"/>
-      <c r="N120" s="112"/>
+      <c r="H120" s="113"/>
+      <c r="I120" s="98"/>
+      <c r="J120" s="98"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
+      <c r="M120" s="98"/>
+      <c r="N120" s="113"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -15076,24 +15492,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="112"/>
-      <c r="B121" s="112"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="97"/>
+      <c r="A121" s="113"/>
+      <c r="B121" s="113"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="98"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="112"/>
-      <c r="I121" s="97"/>
-      <c r="J121" s="97"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="112"/>
-      <c r="M121" s="97"/>
-      <c r="N121" s="112"/>
+      <c r="H121" s="113"/>
+      <c r="I121" s="98"/>
+      <c r="J121" s="98"/>
+      <c r="K121" s="113"/>
+      <c r="L121" s="113"/>
+      <c r="M121" s="98"/>
+      <c r="N121" s="113"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -15101,24 +15517,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="112"/>
-      <c r="B122" s="107"/>
-      <c r="C122" s="107"/>
-      <c r="D122" s="96"/>
-      <c r="E122" s="96"/>
+      <c r="A122" s="113"/>
+      <c r="B122" s="108"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="97"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="107"/>
-      <c r="I122" s="96"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="107"/>
-      <c r="L122" s="107"/>
-      <c r="M122" s="96"/>
-      <c r="N122" s="107"/>
+      <c r="H122" s="108"/>
+      <c r="I122" s="97"/>
+      <c r="J122" s="97"/>
+      <c r="K122" s="108"/>
+      <c r="L122" s="108"/>
+      <c r="M122" s="97"/>
+      <c r="N122" s="108"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -15126,38 +15542,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="112"/>
-      <c r="B123" s="106" t="s">
+      <c r="A123" s="113"/>
+      <c r="B123" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="106"/>
-      <c r="D123" s="106" t="s">
+      <c r="C123" s="107"/>
+      <c r="D123" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="106"/>
+      <c r="E123" s="107"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="106">
-        <v>1</v>
-      </c>
-      <c r="I123" s="106">
-        <v>1</v>
-      </c>
-      <c r="J123" s="106">
+      <c r="H123" s="107">
+        <v>1</v>
+      </c>
+      <c r="I123" s="107">
+        <v>1</v>
+      </c>
+      <c r="J123" s="107">
         <v>2</v>
       </c>
-      <c r="K123" s="106" t="s">
+      <c r="K123" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="106"/>
-      <c r="M123" s="106" t="s">
+      <c r="L123" s="107"/>
+      <c r="M123" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="106"/>
+      <c r="N123" s="107"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -15175,24 +15591,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="112"/>
-      <c r="B124" s="107"/>
-      <c r="C124" s="107"/>
-      <c r="D124" s="107"/>
-      <c r="E124" s="107"/>
+      <c r="A124" s="113"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="108"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="107"/>
-      <c r="I124" s="107"/>
-      <c r="J124" s="107"/>
-      <c r="K124" s="107"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="107"/>
-      <c r="N124" s="107"/>
+      <c r="H124" s="108"/>
+      <c r="I124" s="108"/>
+      <c r="J124" s="108"/>
+      <c r="K124" s="108"/>
+      <c r="L124" s="108"/>
+      <c r="M124" s="108"/>
+      <c r="N124" s="108"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -15200,12 +15616,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="112"/>
-      <c r="B125" s="103" t="s">
+      <c r="A125" s="113"/>
+      <c r="B125" s="104" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="100" t="s">
+      <c r="D125" s="101" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -15215,20 +15631,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="95">
-        <v>1</v>
-      </c>
-      <c r="I125" s="95">
-        <v>1</v>
-      </c>
-      <c r="J125" s="95">
+      <c r="H125" s="96">
+        <v>1</v>
+      </c>
+      <c r="I125" s="96">
+        <v>1</v>
+      </c>
+      <c r="J125" s="96">
         <v>2</v>
       </c>
-      <c r="K125" s="95" t="s">
+      <c r="K125" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="106"/>
-      <c r="M125" s="106" t="s">
+      <c r="L125" s="107"/>
+      <c r="M125" s="107" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -15253,10 +15669,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="112"/>
-      <c r="B126" s="111"/>
+      <c r="A126" s="113"/>
+      <c r="B126" s="112"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="102"/>
+      <c r="D126" s="103"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -15264,12 +15680,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="107"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="97"/>
+      <c r="J126" s="97"/>
+      <c r="K126" s="97"/>
+      <c r="L126" s="108"/>
+      <c r="M126" s="108"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -15282,15 +15698,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="112"/>
-      <c r="B127" s="106" t="s">
+      <c r="A127" s="113"/>
+      <c r="B127" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="114" t="s">
+      <c r="C127" s="107"/>
+      <c r="D127" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="113" t="s">
+      <c r="E127" s="114" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -15299,20 +15715,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="106">
+      <c r="H127" s="107">
         <v>2</v>
       </c>
-      <c r="I127" s="106">
-        <v>1</v>
-      </c>
-      <c r="J127" s="95">
+      <c r="I127" s="107">
+        <v>1</v>
+      </c>
+      <c r="J127" s="96">
         <v>15</v>
       </c>
-      <c r="K127" s="106" t="s">
+      <c r="K127" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="106"/>
-      <c r="M127" s="106" t="s">
+      <c r="L127" s="107"/>
+      <c r="M127" s="107" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -15335,23 +15751,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="112"/>
-      <c r="B128" s="112"/>
-      <c r="C128" s="112"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="113"/>
+      <c r="A128" s="113"/>
+      <c r="B128" s="113"/>
+      <c r="C128" s="113"/>
+      <c r="D128" s="115"/>
+      <c r="E128" s="114"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="112"/>
-      <c r="I128" s="112"/>
-      <c r="J128" s="97"/>
-      <c r="K128" s="112"/>
-      <c r="L128" s="112"/>
-      <c r="M128" s="112"/>
+      <c r="H128" s="113"/>
+      <c r="I128" s="113"/>
+      <c r="J128" s="98"/>
+      <c r="K128" s="113"/>
+      <c r="L128" s="113"/>
+      <c r="M128" s="113"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -15372,23 +15788,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="112"/>
-      <c r="B129" s="112"/>
-      <c r="C129" s="112"/>
-      <c r="D129" s="114"/>
-      <c r="E129" s="113"/>
+      <c r="A129" s="113"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="113"/>
+      <c r="D129" s="115"/>
+      <c r="E129" s="114"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="112"/>
-      <c r="I129" s="112"/>
-      <c r="J129" s="97"/>
-      <c r="K129" s="112"/>
-      <c r="L129" s="112"/>
-      <c r="M129" s="112"/>
+      <c r="H129" s="113"/>
+      <c r="I129" s="113"/>
+      <c r="J129" s="98"/>
+      <c r="K129" s="113"/>
+      <c r="L129" s="113"/>
+      <c r="M129" s="113"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -15409,23 +15825,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="112"/>
-      <c r="B130" s="112"/>
-      <c r="C130" s="112"/>
-      <c r="D130" s="114"/>
-      <c r="E130" s="113"/>
+      <c r="A130" s="113"/>
+      <c r="B130" s="113"/>
+      <c r="C130" s="113"/>
+      <c r="D130" s="115"/>
+      <c r="E130" s="114"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="112"/>
-      <c r="I130" s="112"/>
-      <c r="J130" s="97"/>
-      <c r="K130" s="112"/>
-      <c r="L130" s="112"/>
-      <c r="M130" s="112"/>
+      <c r="H130" s="113"/>
+      <c r="I130" s="113"/>
+      <c r="J130" s="98"/>
+      <c r="K130" s="113"/>
+      <c r="L130" s="113"/>
+      <c r="M130" s="113"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -15446,23 +15862,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="112"/>
-      <c r="B131" s="112"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="114"/>
-      <c r="E131" s="113"/>
+      <c r="A131" s="113"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="115"/>
+      <c r="E131" s="114"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="112"/>
-      <c r="I131" s="112"/>
-      <c r="J131" s="97"/>
-      <c r="K131" s="112"/>
-      <c r="L131" s="112"/>
-      <c r="M131" s="112"/>
+      <c r="H131" s="113"/>
+      <c r="I131" s="113"/>
+      <c r="J131" s="98"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="113"/>
+      <c r="M131" s="113"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -15483,23 +15899,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="112"/>
-      <c r="B132" s="112"/>
-      <c r="C132" s="112"/>
-      <c r="D132" s="114"/>
-      <c r="E132" s="113"/>
+      <c r="A132" s="113"/>
+      <c r="B132" s="113"/>
+      <c r="C132" s="113"/>
+      <c r="D132" s="115"/>
+      <c r="E132" s="114"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="112"/>
-      <c r="I132" s="112"/>
-      <c r="J132" s="97"/>
-      <c r="K132" s="112"/>
-      <c r="L132" s="112"/>
-      <c r="M132" s="112"/>
+      <c r="H132" s="113"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="98"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
+      <c r="M132" s="113"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -15520,23 +15936,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="112"/>
-      <c r="B133" s="112"/>
-      <c r="C133" s="112"/>
-      <c r="D133" s="114"/>
-      <c r="E133" s="113"/>
+      <c r="A133" s="113"/>
+      <c r="B133" s="113"/>
+      <c r="C133" s="113"/>
+      <c r="D133" s="115"/>
+      <c r="E133" s="114"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="112"/>
-      <c r="I133" s="112"/>
-      <c r="J133" s="97"/>
-      <c r="K133" s="112"/>
-      <c r="L133" s="112"/>
-      <c r="M133" s="112"/>
+      <c r="H133" s="113"/>
+      <c r="I133" s="113"/>
+      <c r="J133" s="98"/>
+      <c r="K133" s="113"/>
+      <c r="L133" s="113"/>
+      <c r="M133" s="113"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -15557,23 +15973,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="112"/>
-      <c r="B134" s="112"/>
-      <c r="C134" s="112"/>
-      <c r="D134" s="114"/>
-      <c r="E134" s="113"/>
+      <c r="A134" s="113"/>
+      <c r="B134" s="113"/>
+      <c r="C134" s="113"/>
+      <c r="D134" s="115"/>
+      <c r="E134" s="114"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="112"/>
-      <c r="I134" s="112"/>
-      <c r="J134" s="97"/>
-      <c r="K134" s="112"/>
-      <c r="L134" s="112"/>
-      <c r="M134" s="112"/>
+      <c r="H134" s="113"/>
+      <c r="I134" s="113"/>
+      <c r="J134" s="98"/>
+      <c r="K134" s="113"/>
+      <c r="L134" s="113"/>
+      <c r="M134" s="113"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -15594,23 +16010,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="112"/>
-      <c r="B135" s="112"/>
-      <c r="C135" s="112"/>
-      <c r="D135" s="114"/>
-      <c r="E135" s="113"/>
+      <c r="A135" s="113"/>
+      <c r="B135" s="113"/>
+      <c r="C135" s="113"/>
+      <c r="D135" s="115"/>
+      <c r="E135" s="114"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="112"/>
-      <c r="I135" s="112"/>
-      <c r="J135" s="97"/>
-      <c r="K135" s="112"/>
-      <c r="L135" s="112"/>
-      <c r="M135" s="112"/>
+      <c r="H135" s="113"/>
+      <c r="I135" s="113"/>
+      <c r="J135" s="98"/>
+      <c r="K135" s="113"/>
+      <c r="L135" s="113"/>
+      <c r="M135" s="113"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -15631,23 +16047,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="112"/>
-      <c r="B136" s="112"/>
-      <c r="C136" s="112"/>
-      <c r="D136" s="114"/>
-      <c r="E136" s="113"/>
+      <c r="A136" s="113"/>
+      <c r="B136" s="113"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="114"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="112"/>
-      <c r="I136" s="112"/>
-      <c r="J136" s="97"/>
-      <c r="K136" s="112"/>
-      <c r="L136" s="112"/>
-      <c r="M136" s="112"/>
+      <c r="H136" s="113"/>
+      <c r="I136" s="113"/>
+      <c r="J136" s="98"/>
+      <c r="K136" s="113"/>
+      <c r="L136" s="113"/>
+      <c r="M136" s="113"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -15668,23 +16084,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="112"/>
-      <c r="B137" s="112"/>
-      <c r="C137" s="112"/>
-      <c r="D137" s="114"/>
-      <c r="E137" s="113"/>
+      <c r="A137" s="113"/>
+      <c r="B137" s="113"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="115"/>
+      <c r="E137" s="114"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="112"/>
-      <c r="I137" s="112"/>
-      <c r="J137" s="97"/>
-      <c r="K137" s="112"/>
-      <c r="L137" s="112"/>
-      <c r="M137" s="112"/>
+      <c r="H137" s="113"/>
+      <c r="I137" s="113"/>
+      <c r="J137" s="98"/>
+      <c r="K137" s="113"/>
+      <c r="L137" s="113"/>
+      <c r="M137" s="113"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -15709,23 +16125,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="112"/>
-      <c r="B138" s="112"/>
-      <c r="C138" s="112"/>
-      <c r="D138" s="114"/>
-      <c r="E138" s="113"/>
+      <c r="A138" s="113"/>
+      <c r="B138" s="113"/>
+      <c r="C138" s="113"/>
+      <c r="D138" s="115"/>
+      <c r="E138" s="114"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="112"/>
-      <c r="I138" s="112"/>
-      <c r="J138" s="97"/>
-      <c r="K138" s="112"/>
-      <c r="L138" s="112"/>
-      <c r="M138" s="112"/>
+      <c r="H138" s="113"/>
+      <c r="I138" s="113"/>
+      <c r="J138" s="98"/>
+      <c r="K138" s="113"/>
+      <c r="L138" s="113"/>
+      <c r="M138" s="113"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -15750,23 +16166,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="112"/>
-      <c r="B139" s="112"/>
-      <c r="C139" s="112"/>
-      <c r="D139" s="114"/>
-      <c r="E139" s="113"/>
+      <c r="A139" s="113"/>
+      <c r="B139" s="113"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="115"/>
+      <c r="E139" s="114"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="112"/>
-      <c r="I139" s="112"/>
-      <c r="J139" s="97"/>
-      <c r="K139" s="112"/>
-      <c r="L139" s="112"/>
-      <c r="M139" s="112"/>
+      <c r="H139" s="113"/>
+      <c r="I139" s="113"/>
+      <c r="J139" s="98"/>
+      <c r="K139" s="113"/>
+      <c r="L139" s="113"/>
+      <c r="M139" s="113"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -15791,23 +16207,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="112"/>
-      <c r="B140" s="112"/>
-      <c r="C140" s="112"/>
-      <c r="D140" s="114"/>
-      <c r="E140" s="113"/>
+      <c r="A140" s="113"/>
+      <c r="B140" s="113"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="115"/>
+      <c r="E140" s="114"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="112"/>
-      <c r="I140" s="112"/>
-      <c r="J140" s="97"/>
-      <c r="K140" s="112"/>
-      <c r="L140" s="112"/>
-      <c r="M140" s="112"/>
+      <c r="H140" s="113"/>
+      <c r="I140" s="113"/>
+      <c r="J140" s="98"/>
+      <c r="K140" s="113"/>
+      <c r="L140" s="113"/>
+      <c r="M140" s="113"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -15828,23 +16244,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="112"/>
-      <c r="B141" s="112"/>
-      <c r="C141" s="112"/>
-      <c r="D141" s="114"/>
-      <c r="E141" s="113"/>
+      <c r="A141" s="113"/>
+      <c r="B141" s="113"/>
+      <c r="C141" s="113"/>
+      <c r="D141" s="115"/>
+      <c r="E141" s="114"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="112"/>
-      <c r="I141" s="112"/>
-      <c r="J141" s="97"/>
-      <c r="K141" s="112"/>
-      <c r="L141" s="112"/>
-      <c r="M141" s="112"/>
+      <c r="H141" s="113"/>
+      <c r="I141" s="113"/>
+      <c r="J141" s="98"/>
+      <c r="K141" s="113"/>
+      <c r="L141" s="113"/>
+      <c r="M141" s="113"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -15867,15 +16283,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="112"/>
-      <c r="B142" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="106"/>
-      <c r="D142" s="114" t="s">
+      <c r="A142" s="113"/>
+      <c r="B142" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="107"/>
+      <c r="D142" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="113" t="s">
+      <c r="E142" s="114" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -15884,20 +16300,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="115">
-        <v>1</v>
-      </c>
-      <c r="I142" s="115">
-        <v>1</v>
-      </c>
-      <c r="J142" s="113">
+      <c r="H142" s="116">
+        <v>1</v>
+      </c>
+      <c r="I142" s="116">
+        <v>1</v>
+      </c>
+      <c r="J142" s="114">
         <v>4</v>
       </c>
-      <c r="K142" s="106" t="s">
+      <c r="K142" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="106"/>
-      <c r="M142" s="106" t="s">
+      <c r="L142" s="107"/>
+      <c r="M142" s="107" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -15918,23 +16334,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="112"/>
-      <c r="B143" s="112"/>
-      <c r="C143" s="112"/>
-      <c r="D143" s="114"/>
-      <c r="E143" s="113"/>
+      <c r="A143" s="113"/>
+      <c r="B143" s="113"/>
+      <c r="C143" s="113"/>
+      <c r="D143" s="115"/>
+      <c r="E143" s="114"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="115"/>
-      <c r="I143" s="115"/>
-      <c r="J143" s="113"/>
-      <c r="K143" s="112"/>
-      <c r="L143" s="112"/>
-      <c r="M143" s="112"/>
+      <c r="H143" s="116"/>
+      <c r="I143" s="116"/>
+      <c r="J143" s="114"/>
+      <c r="K143" s="113"/>
+      <c r="L143" s="113"/>
+      <c r="M143" s="113"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -15953,23 +16369,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="112"/>
-      <c r="B144" s="112"/>
-      <c r="C144" s="112"/>
-      <c r="D144" s="114"/>
-      <c r="E144" s="113"/>
+      <c r="A144" s="113"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="115"/>
+      <c r="E144" s="114"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="115"/>
-      <c r="I144" s="115"/>
-      <c r="J144" s="113"/>
-      <c r="K144" s="112"/>
-      <c r="L144" s="112"/>
-      <c r="M144" s="112"/>
+      <c r="H144" s="116"/>
+      <c r="I144" s="116"/>
+      <c r="J144" s="114"/>
+      <c r="K144" s="113"/>
+      <c r="L144" s="113"/>
+      <c r="M144" s="113"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -15992,23 +16408,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="112"/>
-      <c r="B145" s="107"/>
-      <c r="C145" s="107"/>
-      <c r="D145" s="114"/>
-      <c r="E145" s="113"/>
+      <c r="A145" s="113"/>
+      <c r="B145" s="108"/>
+      <c r="C145" s="108"/>
+      <c r="D145" s="115"/>
+      <c r="E145" s="114"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="115"/>
-      <c r="I145" s="115"/>
-      <c r="J145" s="113"/>
-      <c r="K145" s="107"/>
-      <c r="L145" s="107"/>
-      <c r="M145" s="107"/>
+      <c r="H145" s="116"/>
+      <c r="I145" s="116"/>
+      <c r="J145" s="114"/>
+      <c r="K145" s="108"/>
+      <c r="L145" s="108"/>
+      <c r="M145" s="108"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -16027,15 +16443,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="112"/>
-      <c r="B146" s="106"/>
-      <c r="C146" s="106" t="s">
+      <c r="A146" s="113"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="95" t="s">
+      <c r="D146" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="95" t="s">
+      <c r="E146" s="96" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -16044,23 +16460,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="106">
-        <v>1</v>
-      </c>
-      <c r="I146" s="106">
-        <v>1</v>
-      </c>
-      <c r="J146" s="106">
+      <c r="H146" s="107">
+        <v>1</v>
+      </c>
+      <c r="I146" s="107">
+        <v>1</v>
+      </c>
+      <c r="J146" s="107">
         <v>4</v>
       </c>
-      <c r="K146" s="106" t="s">
+      <c r="K146" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="106"/>
-      <c r="M146" s="106" t="s">
+      <c r="L146" s="107"/>
+      <c r="M146" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="106"/>
+      <c r="N146" s="107"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -16078,24 +16494,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="112"/>
-      <c r="B147" s="112"/>
-      <c r="C147" s="112"/>
-      <c r="D147" s="97"/>
-      <c r="E147" s="97"/>
+      <c r="A147" s="113"/>
+      <c r="B147" s="113"/>
+      <c r="C147" s="113"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="112"/>
-      <c r="I147" s="112"/>
-      <c r="J147" s="112"/>
-      <c r="K147" s="112"/>
-      <c r="L147" s="112"/>
-      <c r="M147" s="112"/>
-      <c r="N147" s="112"/>
+      <c r="H147" s="113"/>
+      <c r="I147" s="113"/>
+      <c r="J147" s="113"/>
+      <c r="K147" s="113"/>
+      <c r="L147" s="113"/>
+      <c r="M147" s="113"/>
+      <c r="N147" s="113"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -16113,24 +16529,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="112"/>
-      <c r="B148" s="112"/>
-      <c r="C148" s="112"/>
-      <c r="D148" s="97"/>
-      <c r="E148" s="97"/>
+      <c r="A148" s="113"/>
+      <c r="B148" s="113"/>
+      <c r="C148" s="113"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="112"/>
-      <c r="I148" s="112"/>
-      <c r="J148" s="112"/>
-      <c r="K148" s="112"/>
-      <c r="L148" s="112"/>
-      <c r="M148" s="112"/>
-      <c r="N148" s="112"/>
+      <c r="H148" s="113"/>
+      <c r="I148" s="113"/>
+      <c r="J148" s="113"/>
+      <c r="K148" s="113"/>
+      <c r="L148" s="113"/>
+      <c r="M148" s="113"/>
+      <c r="N148" s="113"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -16148,24 +16564,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="112"/>
-      <c r="B149" s="107"/>
-      <c r="C149" s="107"/>
-      <c r="D149" s="96"/>
-      <c r="E149" s="96"/>
+      <c r="A149" s="113"/>
+      <c r="B149" s="108"/>
+      <c r="C149" s="108"/>
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="107"/>
-      <c r="I149" s="107"/>
-      <c r="J149" s="107"/>
-      <c r="K149" s="107"/>
-      <c r="L149" s="107"/>
-      <c r="M149" s="107"/>
-      <c r="N149" s="107"/>
+      <c r="H149" s="108"/>
+      <c r="I149" s="108"/>
+      <c r="J149" s="108"/>
+      <c r="K149" s="108"/>
+      <c r="L149" s="108"/>
+      <c r="M149" s="108"/>
+      <c r="N149" s="108"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -16183,38 +16599,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="112"/>
-      <c r="B150" s="106" t="s">
+      <c r="A150" s="113"/>
+      <c r="B150" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="106"/>
-      <c r="D150" s="106" t="s">
+      <c r="C150" s="107"/>
+      <c r="D150" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="106"/>
+      <c r="E150" s="107"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="106">
-        <v>1</v>
-      </c>
-      <c r="I150" s="106">
-        <v>1</v>
-      </c>
-      <c r="J150" s="106">
+      <c r="H150" s="107">
+        <v>1</v>
+      </c>
+      <c r="I150" s="107">
+        <v>1</v>
+      </c>
+      <c r="J150" s="107">
         <v>2</v>
       </c>
-      <c r="K150" s="106" t="s">
+      <c r="K150" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="106"/>
-      <c r="M150" s="106" t="s">
+      <c r="L150" s="107"/>
+      <c r="M150" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="106"/>
+      <c r="N150" s="107"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -16232,24 +16648,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="112"/>
-      <c r="B151" s="107"/>
-      <c r="C151" s="107"/>
-      <c r="D151" s="107"/>
-      <c r="E151" s="107"/>
+      <c r="A151" s="113"/>
+      <c r="B151" s="108"/>
+      <c r="C151" s="108"/>
+      <c r="D151" s="108"/>
+      <c r="E151" s="108"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="107"/>
-      <c r="I151" s="107"/>
-      <c r="J151" s="107"/>
-      <c r="K151" s="107"/>
-      <c r="L151" s="107"/>
-      <c r="M151" s="107"/>
-      <c r="N151" s="107"/>
+      <c r="H151" s="108"/>
+      <c r="I151" s="108"/>
+      <c r="J151" s="108"/>
+      <c r="K151" s="108"/>
+      <c r="L151" s="108"/>
+      <c r="M151" s="108"/>
+      <c r="N151" s="108"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -16257,7 +16673,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="112"/>
+      <c r="A152" s="113"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -16294,7 +16710,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="19.5">
-      <c r="A153" s="112"/>
+      <c r="A153" s="113"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -16341,7 +16757,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="112"/>
+      <c r="A154" s="113"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -16378,7 +16794,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="112"/>
+      <c r="A155" s="113"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -16427,7 +16843,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="107"/>
+      <c r="A156" s="108"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -16474,17 +16890,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="100" t="s">
+      <c r="A157" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="95"/>
-      <c r="D157" s="95" t="s">
+      <c r="B157" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="96"/>
+      <c r="D157" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="95" t="s">
+      <c r="E157" s="96" t="s">
         <v>265</v>
       </c>
       <c r="F157" s="69">
@@ -16493,21 +16909,21 @@
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="H157" s="95"/>
-      <c r="I157" s="95">
-        <v>1</v>
-      </c>
-      <c r="J157" s="95">
+      <c r="H157" s="96"/>
+      <c r="I157" s="96">
+        <v>1</v>
+      </c>
+      <c r="J157" s="96">
         <v>2</v>
       </c>
-      <c r="K157" s="95" t="s">
+      <c r="K157" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="93"/>
-      <c r="M157" s="95" t="s">
+      <c r="L157" s="94"/>
+      <c r="M157" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="95"/>
+      <c r="N157" s="96"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -16525,24 +16941,24 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="101"/>
-      <c r="B158" s="96"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
+      <c r="A158" s="102"/>
+      <c r="B158" s="97"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="97"/>
+      <c r="E158" s="97"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="96"/>
-      <c r="K158" s="96"/>
-      <c r="L158" s="94"/>
-      <c r="M158" s="96"/>
-      <c r="N158" s="96"/>
+      <c r="H158" s="97"/>
+      <c r="I158" s="97"/>
+      <c r="J158" s="97"/>
+      <c r="K158" s="97"/>
+      <c r="L158" s="95"/>
+      <c r="M158" s="97"/>
+      <c r="N158" s="97"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
@@ -16550,7 +16966,7 @@
       <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="19.5">
-      <c r="A159" s="101"/>
+      <c r="A159" s="102"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -16597,7 +17013,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="19.5">
-      <c r="A160" s="101"/>
+      <c r="A160" s="102"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -16644,7 +17060,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="19.5">
-      <c r="A161" s="101"/>
+      <c r="A161" s="102"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -16691,7 +17107,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="19.5">
-      <c r="A162" s="101"/>
+      <c r="A162" s="102"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -16738,7 +17154,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="19.5">
-      <c r="A163" s="101"/>
+      <c r="A163" s="102"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -16785,7 +17201,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="101"/>
+      <c r="A164" s="102"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -16834,7 +17250,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="101"/>
+      <c r="A165" s="102"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -16883,15 +17299,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="101"/>
-      <c r="B166" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95" t="s">
+      <c r="A166" s="102"/>
+      <c r="B166" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="96"/>
+      <c r="D166" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="95" t="s">
+      <c r="E166" s="96" t="s">
         <v>265</v>
       </c>
       <c r="F166" s="69">
@@ -16900,21 +17316,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="95"/>
-      <c r="I166" s="95">
-        <v>1</v>
-      </c>
-      <c r="J166" s="95">
+      <c r="H166" s="96"/>
+      <c r="I166" s="96">
+        <v>1</v>
+      </c>
+      <c r="J166" s="96">
         <v>2</v>
       </c>
-      <c r="K166" s="95" t="s">
+      <c r="K166" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="93"/>
-      <c r="M166" s="95" t="s">
+      <c r="L166" s="94"/>
+      <c r="M166" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="95"/>
+      <c r="N166" s="96"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -16932,24 +17348,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="101"/>
-      <c r="B167" s="96"/>
-      <c r="C167" s="96"/>
-      <c r="D167" s="96"/>
-      <c r="E167" s="96"/>
+      <c r="A167" s="102"/>
+      <c r="B167" s="97"/>
+      <c r="C167" s="97"/>
+      <c r="D167" s="97"/>
+      <c r="E167" s="97"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="96"/>
-      <c r="I167" s="96"/>
-      <c r="J167" s="96"/>
-      <c r="K167" s="96"/>
-      <c r="L167" s="94"/>
-      <c r="M167" s="96"/>
-      <c r="N167" s="96"/>
+      <c r="H167" s="97"/>
+      <c r="I167" s="97"/>
+      <c r="J167" s="97"/>
+      <c r="K167" s="97"/>
+      <c r="L167" s="95"/>
+      <c r="M167" s="97"/>
+      <c r="N167" s="97"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -16957,7 +17373,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="101"/>
+      <c r="A168" s="102"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -17006,7 +17422,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="101"/>
+      <c r="A169" s="102"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -17055,15 +17471,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="101"/>
-      <c r="B170" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="95"/>
-      <c r="D170" s="95" t="s">
+      <c r="A170" s="102"/>
+      <c r="B170" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="96"/>
+      <c r="D170" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="E170" s="95" t="s">
+      <c r="E170" s="96" t="s">
         <v>265</v>
       </c>
       <c r="F170" s="69">
@@ -17072,21 +17488,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="95"/>
-      <c r="I170" s="95">
-        <v>1</v>
-      </c>
-      <c r="J170" s="95">
+      <c r="H170" s="96"/>
+      <c r="I170" s="96">
+        <v>1</v>
+      </c>
+      <c r="J170" s="96">
         <v>2</v>
       </c>
-      <c r="K170" s="95" t="s">
+      <c r="K170" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="93"/>
-      <c r="M170" s="95" t="s">
+      <c r="L170" s="94"/>
+      <c r="M170" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="95"/>
+      <c r="N170" s="96"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -17104,24 +17520,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="101"/>
-      <c r="B171" s="96"/>
-      <c r="C171" s="96"/>
-      <c r="D171" s="96"/>
-      <c r="E171" s="96"/>
+      <c r="A171" s="102"/>
+      <c r="B171" s="97"/>
+      <c r="C171" s="97"/>
+      <c r="D171" s="97"/>
+      <c r="E171" s="97"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="96"/>
-      <c r="I171" s="96"/>
-      <c r="J171" s="96"/>
-      <c r="K171" s="96"/>
-      <c r="L171" s="94"/>
-      <c r="M171" s="96"/>
-      <c r="N171" s="96"/>
+      <c r="H171" s="97"/>
+      <c r="I171" s="97"/>
+      <c r="J171" s="97"/>
+      <c r="K171" s="97"/>
+      <c r="L171" s="95"/>
+      <c r="M171" s="97"/>
+      <c r="N171" s="97"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -17129,7 +17545,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="101"/>
+      <c r="A172" s="102"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -17176,7 +17592,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="102"/>
+      <c r="A173" s="103"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -22346,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -22381,7 +22797,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="86" t="s">
         <v>284</v>
@@ -22411,7 +22827,7 @@
         <v>223</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -22441,7 +22857,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -22471,7 +22887,7 @@
         <v>237</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -22501,10 +22917,10 @@
         <v>241</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="62">
@@ -22531,7 +22947,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -22561,7 +22977,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -22591,7 +23007,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -22621,7 +23037,7 @@
         <v>253</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -22651,7 +23067,7 @@
         <v>257</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -22681,7 +23097,7 @@
         <v>258</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -22701,7 +23117,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M13" s="38"/>
     </row>
@@ -22713,7 +23129,7 @@
         <v>259</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -22733,7 +23149,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M14" s="38"/>
     </row>
@@ -22745,7 +23161,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>286</v>
@@ -22775,7 +23191,7 @@
         <v>255</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -22795,7 +23211,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M16" s="38"/>
     </row>
@@ -22807,7 +23223,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -22827,7 +23243,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M17" s="38"/>
     </row>
@@ -22839,7 +23255,7 @@
         <v>260</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>286</v>
@@ -22869,7 +23285,7 @@
         <v>261</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -22889,7 +23305,7 @@
         <v>203</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M19" s="38"/>
     </row>
@@ -22901,7 +23317,7 @@
         <v>262</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -22921,7 +23337,7 @@
         <v>203</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M20" s="38"/>
     </row>
@@ -23525,14 +23941,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q68"/>
+  <dimension ref="A2:Q67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -23552,79 +23968,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="93" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="91">
         <v>6</v>
       </c>
-      <c r="F3" s="77">
-        <v>1</v>
-      </c>
-      <c r="G3" s="77">
+      <c r="F3" s="91">
+        <v>1</v>
+      </c>
+      <c r="G3" s="91">
         <v>8</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77" t="s">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="90" t="s">
         <v>285</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -23651,30 +24067,30 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="90" t="s">
         <v>287</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="78">
-        <v>0</v>
-      </c>
-      <c r="G5" s="78">
+      <c r="F5" s="93">
+        <v>0</v>
+      </c>
+      <c r="G5" s="93">
         <v>999.99</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="93" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="93" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="36" t="s">
@@ -23682,30 +24098,30 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="90" t="s">
         <v>288</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
-      <c r="F6" s="78">
-        <v>0</v>
-      </c>
-      <c r="G6" s="78">
+      <c r="F6" s="93">
+        <v>0</v>
+      </c>
+      <c r="G6" s="93">
         <v>999.99</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="93" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="93" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="36" t="s">
@@ -23713,30 +24129,30 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="90" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="78">
-        <v>0</v>
-      </c>
-      <c r="G7" s="78">
+      <c r="F7" s="93">
+        <v>0</v>
+      </c>
+      <c r="G7" s="93">
         <v>999.99</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="93" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="93" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="36" t="s">
@@ -23744,56 +24160,56 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78" t="s">
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78">
-        <v>1</v>
-      </c>
-      <c r="G9" s="78">
+      <c r="E9" s="93"/>
+      <c r="F9" s="93">
+        <v>1</v>
+      </c>
+      <c r="G9" s="93">
         <v>6</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="93" t="s">
         <v>280</v>
       </c>
       <c r="M9" s="38"/>
@@ -23803,7 +24219,7 @@
       <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="91" t="s">
         <v>290</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -23836,7 +24252,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="91" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -23865,154 +24281,152 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2</v>
+      </c>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35">
+        <v>14</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5">
+      <c r="A13" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93">
+        <v>0</v>
+      </c>
+      <c r="G13" s="93">
+        <v>99</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.5">
+      <c r="A14" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>10</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="37">
+        <v>2</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="77" t="s">
+      <c r="D15" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="93">
+        <v>1</v>
+      </c>
+      <c r="G15" s="93">
+        <v>9</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="78">
-        <v>1</v>
-      </c>
-      <c r="F12" s="78">
-        <v>1</v>
-      </c>
-      <c r="G12" s="78">
-        <v>2</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="35">
-        <v>2</v>
-      </c>
-      <c r="F13" s="35">
-        <v>1</v>
-      </c>
-      <c r="G13" s="35">
-        <v>14</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.5">
-      <c r="A14" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78">
-        <v>0</v>
-      </c>
-      <c r="G14" s="78">
-        <v>99</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2</v>
-      </c>
-      <c r="J14" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.5">
-      <c r="A15" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
-        <v>10</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="37">
-        <v>2</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="90" t="s">
-        <v>290</v>
-      </c>
       <c r="B16" s="35" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>456</v>
+        <v>403</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>464</v>
       </c>
       <c r="E16" s="40"/>
-      <c r="F16" s="92">
-        <v>1</v>
-      </c>
-      <c r="G16" s="92">
-        <v>7</v>
+      <c r="F16" s="93">
+        <v>1</v>
+      </c>
+      <c r="G16" s="93">
+        <v>12</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>11</v>
@@ -24022,28 +24436,28 @@
         <v>38</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="91" t="s">
         <v>290</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E17" s="40"/>
-      <c r="F17" s="92">
-        <v>1</v>
-      </c>
-      <c r="G17" s="92">
-        <v>6</v>
+      <c r="F17" s="93">
+        <v>1</v>
+      </c>
+      <c r="G17" s="93">
+        <v>1</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>11</v>
@@ -24053,28 +24467,28 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="91" t="s">
         <v>290</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="E18" s="40"/>
-      <c r="F18" s="92">
-        <v>1</v>
-      </c>
-      <c r="G18" s="92">
-        <v>1</v>
+      <c r="F18" s="93">
+        <v>1</v>
+      </c>
+      <c r="G18" s="93">
+        <v>5</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>11</v>
@@ -24084,49 +24498,47 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="91" t="s">
         <v>290</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="E19" s="40"/>
-      <c r="F19" s="92">
-        <v>1</v>
-      </c>
-      <c r="G19" s="92">
-        <v>2</v>
+      <c r="F19" s="93">
+        <v>1</v>
+      </c>
+      <c r="G19" s="93">
+        <v>10</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="37"/>
-      <c r="J19" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="J19" s="36"/>
       <c r="K19" s="35" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="88" t="s">
-        <v>369</v>
+      <c r="A20" s="91" t="s">
+        <v>366</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="40"/>
@@ -24146,606 +24558,612 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="93">
+        <v>1</v>
+      </c>
+      <c r="G21" s="93">
+        <v>20</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B22" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93">
+        <v>0</v>
+      </c>
+      <c r="G23" s="93">
+        <v>9999</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="93">
+        <v>370</v>
+      </c>
+      <c r="H24" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89" t="s">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93">
+        <v>0</v>
+      </c>
+      <c r="G25" s="93">
+        <v>4000</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="35" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="G27" s="35">
+        <v>14</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.5">
+      <c r="A28" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93">
+        <v>0</v>
+      </c>
+      <c r="G28" s="93">
+        <v>99</v>
+      </c>
+      <c r="H28" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
+      <c r="J28" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>477</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>479</v>
+      </c>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93">
+        <v>1</v>
+      </c>
+      <c r="G29" s="93">
+        <v>2</v>
+      </c>
+      <c r="H29" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>478</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93">
+        <v>1</v>
+      </c>
+      <c r="G30" s="93">
+        <v>2</v>
+      </c>
+      <c r="H30" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="93"/>
+      <c r="J30" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0</v>
+      </c>
+      <c r="G31" s="35">
+        <v>1</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="37">
+        <v>3</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>1</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="37">
+        <v>3</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35">
+        <v>1</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="37">
+        <v>3</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="93" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="89" t="s">
-        <v>372</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>377</v>
-      </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89">
-        <v>0</v>
-      </c>
-      <c r="G22" s="89">
-        <v>9999</v>
-      </c>
-      <c r="H22" s="89" t="s">
+      <c r="C34" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93">
+        <v>1</v>
+      </c>
+      <c r="G34" s="93">
+        <v>2</v>
+      </c>
+      <c r="H34" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="93"/>
+      <c r="J34" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="92" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93">
+        <v>1</v>
+      </c>
+      <c r="G35" s="93">
+        <v>21</v>
+      </c>
+      <c r="H35" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="93"/>
+      <c r="J35" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="92" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93">
+        <v>1</v>
+      </c>
+      <c r="G36" s="93">
+        <v>3</v>
+      </c>
+      <c r="H36" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="93"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>1</v>
+      </c>
+      <c r="H37" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I37" s="37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>489</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93">
+        <v>1</v>
+      </c>
+      <c r="G38" s="93">
         <v>2</v>
       </c>
-      <c r="J22" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>378</v>
-      </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="G23" s="89">
-        <v>370</v>
-      </c>
-      <c r="H23" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="H38" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="93"/>
+      <c r="J38" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>490</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93">
+        <v>1</v>
+      </c>
+      <c r="G39" s="93">
+        <v>21</v>
+      </c>
+      <c r="H39" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="93"/>
+      <c r="J39" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93">
+        <v>1</v>
+      </c>
+      <c r="G40" s="93">
         <v>3</v>
       </c>
-      <c r="J23" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89">
-        <v>0</v>
-      </c>
-      <c r="G24" s="89">
-        <v>4000</v>
-      </c>
-      <c r="H24" s="89" t="s">
+      <c r="H40" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>380</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89">
-        <v>0</v>
-      </c>
-      <c r="G26" s="89">
-        <v>9999</v>
-      </c>
-      <c r="H26" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5">
-        <v>2</v>
-      </c>
-      <c r="J26" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B27" s="89" t="s">
-        <v>387</v>
-      </c>
-      <c r="C27" s="89" t="s">
-        <v>382</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="G27" s="89">
-        <v>370</v>
-      </c>
-      <c r="H27" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3</v>
-      </c>
-      <c r="J27" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B28" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="C28" s="89" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89">
-        <v>0</v>
-      </c>
-      <c r="G28" s="89">
-        <v>4000</v>
-      </c>
-      <c r="H28" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="19.5">
-      <c r="A29" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
-        <v>10</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="37">
-        <v>2</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>380</v>
-      </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="35" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="C31" s="89" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89">
-        <v>0</v>
-      </c>
-      <c r="G31" s="89">
-        <v>9999</v>
-      </c>
-      <c r="H31" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="5">
-        <v>2</v>
-      </c>
-      <c r="J31" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="89" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="89" t="s">
-        <v>382</v>
-      </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89">
-        <v>0.02</v>
-      </c>
-      <c r="G32" s="89">
-        <v>370</v>
-      </c>
-      <c r="H32" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3</v>
-      </c>
-      <c r="J32" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="C33" s="89" t="s">
-        <v>383</v>
-      </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89">
-        <v>0</v>
-      </c>
-      <c r="G33" s="89">
-        <v>4000</v>
-      </c>
-      <c r="H33" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="78" t="s">
+      <c r="I40" s="93"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E35" s="78">
-        <v>1</v>
-      </c>
-      <c r="F35" s="78">
-        <v>1</v>
-      </c>
-      <c r="G35" s="78">
-        <v>2</v>
-      </c>
-      <c r="H35" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="78"/>
-      <c r="J35" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" s="35">
-        <v>2</v>
-      </c>
-      <c r="F36" s="35">
-        <v>1</v>
-      </c>
-      <c r="G36" s="35">
-        <v>14</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19.5">
-      <c r="A37" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B37" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78">
-        <v>0</v>
-      </c>
-      <c r="G37" s="78">
-        <v>99</v>
-      </c>
-      <c r="H37" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="5">
-        <v>2</v>
-      </c>
-      <c r="J37" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="B38" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="122" t="s">
-        <v>453</v>
-      </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92">
-        <v>1</v>
-      </c>
-      <c r="G38" s="92">
-        <v>2</v>
-      </c>
-      <c r="H38" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="91" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F39" s="35">
-        <v>0</v>
-      </c>
-      <c r="G39" s="35">
-        <v>1</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="37">
-        <v>3</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F40" s="35">
-        <v>0</v>
-      </c>
-      <c r="G40" s="35">
-        <v>1</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="37">
-        <v>3</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="77" t="s">
-        <v>321</v>
-      </c>
       <c r="B41" s="35" t="s">
-        <v>156</v>
+        <v>492</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>311</v>
+        <v>496</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35">
@@ -24766,110 +25184,110 @@
       <c r="J41" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="40" t="s">
-        <v>282</v>
+      <c r="K41" s="92" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="B42" s="92" t="s">
-        <v>434</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>436</v>
-      </c>
-      <c r="D42" s="92" t="s">
-        <v>452</v>
-      </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92">
-        <v>1</v>
-      </c>
-      <c r="G42" s="92">
+      <c r="A42" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93">
+        <v>1</v>
+      </c>
+      <c r="G42" s="93">
         <v>2</v>
       </c>
-      <c r="H42" s="92" t="s">
+      <c r="H42" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="92"/>
-      <c r="J42" s="90" t="s">
+      <c r="I42" s="93"/>
+      <c r="J42" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K42" s="91" t="s">
-        <v>438</v>
+      <c r="K42" s="92" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="B43" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" s="92" t="s">
+      <c r="A43" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>498</v>
+      </c>
+      <c r="D43" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="D43" s="92" t="s">
-        <v>463</v>
-      </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92">
-        <v>1</v>
-      </c>
-      <c r="G43" s="92">
+      <c r="E43" s="93"/>
+      <c r="F43" s="93">
+        <v>1</v>
+      </c>
+      <c r="G43" s="93">
         <v>21</v>
       </c>
-      <c r="H43" s="92" t="s">
+      <c r="H43" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="92"/>
-      <c r="J43" s="90" t="s">
+      <c r="I43" s="93"/>
+      <c r="J43" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="91" t="s">
-        <v>464</v>
+      <c r="K43" s="92" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>466</v>
-      </c>
-      <c r="D44" s="92" t="s">
-        <v>467</v>
-      </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92">
-        <v>1</v>
-      </c>
-      <c r="G44" s="92">
+      <c r="A44" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="93" t="s">
+        <v>495</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93">
+        <v>1</v>
+      </c>
+      <c r="G44" s="93">
         <v>3</v>
       </c>
-      <c r="H44" s="92" t="s">
+      <c r="H44" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="91" t="s">
-        <v>438</v>
+      <c r="I44" s="93"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="92" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="19.5">
-      <c r="A45" s="77" t="s">
-        <v>321</v>
+      <c r="A45" s="91" t="s">
+        <v>319</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35">
@@ -24895,107 +25313,107 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="90" t="s">
-        <v>390</v>
+      <c r="A46" s="91" t="s">
+        <v>377</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92">
-        <v>1</v>
-      </c>
-      <c r="G46" s="92">
+        <v>420</v>
+      </c>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93">
+        <v>1</v>
+      </c>
+      <c r="G46" s="93">
         <v>2</v>
       </c>
-      <c r="H46" s="92" t="s">
+      <c r="H46" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="92"/>
-      <c r="J46" s="90" t="s">
+      <c r="I46" s="93"/>
+      <c r="J46" s="91" t="s">
         <v>38</v>
       </c>
       <c r="K46" s="35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="91" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93">
+        <v>1</v>
+      </c>
+      <c r="G47" s="93">
+        <v>2</v>
+      </c>
+      <c r="H47" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="93"/>
+      <c r="J47" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="91" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93">
+        <v>1</v>
+      </c>
+      <c r="G48" s="93">
+        <v>2</v>
+      </c>
+      <c r="H48" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="93"/>
+      <c r="J48" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="35" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="90" t="s">
-        <v>390</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92">
-        <v>1</v>
-      </c>
-      <c r="G47" s="92">
-        <v>2</v>
-      </c>
-      <c r="H47" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="92"/>
-      <c r="J47" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="90" t="s">
-        <v>390</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92">
-        <v>1</v>
-      </c>
-      <c r="G48" s="92">
-        <v>2</v>
-      </c>
-      <c r="H48" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="92"/>
-      <c r="J48" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="35" t="s">
-        <v>458</v>
-      </c>
-    </row>
     <row r="49" spans="1:11" s="19" customFormat="1">
-      <c r="A49" s="77" t="s">
-        <v>321</v>
+      <c r="A49" s="91" t="s">
+        <v>319</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -25015,18 +25433,18 @@
         <v>45</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="19" customFormat="1">
-      <c r="A50" s="77" t="s">
-        <v>321</v>
+      <c r="A50" s="91" t="s">
+        <v>319</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -25046,18 +25464,18 @@
         <v>45</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="19" customFormat="1">
-      <c r="A51" s="77" t="s">
-        <v>321</v>
+      <c r="A51" s="91" t="s">
+        <v>319</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -25077,18 +25495,18 @@
         <v>45</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="19" customFormat="1">
-      <c r="A52" s="77" t="s">
-        <v>321</v>
+      <c r="A52" s="91" t="s">
+        <v>319</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>157</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -25108,18 +25526,18 @@
         <v>38</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="19" customFormat="1">
-      <c r="A53" s="77" t="s">
-        <v>321</v>
+      <c r="A53" s="91" t="s">
+        <v>319</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>158</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -25139,18 +25557,18 @@
         <v>38</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="77" t="s">
-        <v>328</v>
+      <c r="A54" s="91" t="s">
+        <v>326</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -25166,175 +25584,173 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="77" t="s">
+      <c r="A55" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E55" s="35">
+        <v>2</v>
+      </c>
+      <c r="F55" s="35">
+        <v>1</v>
+      </c>
+      <c r="G55" s="35">
+        <v>14</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="19.5">
+      <c r="A56" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93">
+        <v>0</v>
+      </c>
+      <c r="G56" s="93">
+        <v>99</v>
+      </c>
+      <c r="H56" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="19.5">
+      <c r="A57" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="B55" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E55" s="78">
+      <c r="D57" s="35"/>
+      <c r="E57" s="35">
+        <v>2.33</v>
+      </c>
+      <c r="F57" s="35">
+        <v>0</v>
+      </c>
+      <c r="G57" s="35">
+        <v>10</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="37">
         <v>2</v>
       </c>
-      <c r="F55" s="78">
-        <v>1</v>
-      </c>
-      <c r="G55" s="78">
+      <c r="J57" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93">
+        <v>1</v>
+      </c>
+      <c r="G58" s="93">
         <v>2</v>
       </c>
-      <c r="H55" s="78" t="s">
+      <c r="H58" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="78"/>
-      <c r="J55" s="77" t="s">
+      <c r="I58" s="93"/>
+      <c r="J58" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E56" s="35">
-        <v>2</v>
-      </c>
-      <c r="F56" s="35">
-        <v>1</v>
-      </c>
-      <c r="G56" s="35">
-        <v>14</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="19.5">
-      <c r="A57" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78">
-        <v>0</v>
-      </c>
-      <c r="G57" s="78">
-        <v>99</v>
-      </c>
-      <c r="H57" s="78" t="s">
+      <c r="K58" s="35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="19" customFormat="1">
+      <c r="A59" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35">
+        <v>0</v>
+      </c>
+      <c r="G59" s="35">
+        <v>15</v>
+      </c>
+      <c r="H59" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="5">
-        <v>2</v>
-      </c>
-      <c r="J57" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="19.5">
-      <c r="A58" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="35" t="s">
+      <c r="I59" s="37">
+        <v>3</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="19" customFormat="1">
+      <c r="A60" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>330</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35">
-        <v>2.33</v>
-      </c>
-      <c r="F58" s="35">
-        <v>0</v>
-      </c>
-      <c r="G58" s="35">
-        <v>10</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="37">
-        <v>2</v>
-      </c>
-      <c r="J58" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92">
-        <v>1</v>
-      </c>
-      <c r="G59" s="92">
-        <v>2</v>
-      </c>
-      <c r="H59" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="92"/>
-      <c r="J59" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="35" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="19" customFormat="1">
-      <c r="A60" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>331</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -25342,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="35">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>22</v>
@@ -25354,18 +25770,18 @@
         <v>45</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="19" customFormat="1">
-      <c r="A61" s="77" t="s">
-        <v>328</v>
+      <c r="A61" s="91" t="s">
+        <v>326</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -25385,26 +25801,28 @@
         <v>45</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="19" customFormat="1">
-      <c r="A62" s="77" t="s">
-        <v>328</v>
+      <c r="A62" s="91" t="s">
+        <v>326</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>87</v>
+        <v>449</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="E62" s="35">
+        <v>1</v>
+      </c>
       <c r="F62" s="35">
         <v>0</v>
       </c>
       <c r="G62" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="35" t="s">
         <v>22</v>
@@ -25413,21 +25831,21 @@
         <v>3</v>
       </c>
       <c r="J62" s="35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="19" customFormat="1">
-      <c r="A63" s="87" t="s">
-        <v>328</v>
+      <c r="A63" s="91" t="s">
+        <v>326</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35">
@@ -25449,116 +25867,116 @@
         <v>38</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="19" customFormat="1">
-      <c r="A64" s="87" t="s">
-        <v>328</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="91" t="s">
+        <v>291</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>477</v>
+        <v>198</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="D64" s="35"/>
-      <c r="E64" s="35">
-        <v>1</v>
-      </c>
-      <c r="F64" s="35">
-        <v>0</v>
-      </c>
-      <c r="G64" s="35">
-        <v>1</v>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I64" s="37">
         <v>3</v>
       </c>
       <c r="J64" s="35" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>472</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="91" t="s">
         <v>291</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
-      <c r="F65" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>200</v>
+      <c r="F65" s="35">
+        <v>0</v>
+      </c>
+      <c r="G65" s="35">
+        <v>10</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I65" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K65" s="35" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="91" t="s">
         <v>291</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="C66" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" s="35">
+        <v>2</v>
+      </c>
+      <c r="F66" s="35">
+        <v>1</v>
+      </c>
+      <c r="G66" s="35">
+        <v>14</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35">
-        <v>0</v>
-      </c>
-      <c r="G66" s="35">
-        <v>10</v>
-      </c>
-      <c r="H66" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="37">
-        <v>2</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="K66" s="35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>324</v>
-      </c>
       <c r="D67" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E67" s="35">
         <v>2</v>
@@ -25577,39 +25995,6 @@
         <v>38</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E68" s="35">
-        <v>2</v>
-      </c>
-      <c r="F68" s="35">
-        <v>1</v>
-      </c>
-      <c r="G68" s="35">
-        <v>14</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K68" s="35" t="s">
         <v>281</v>
       </c>
     </row>

--- a/外皮計算テストケース表_180309.xlsx
+++ b/外皮計算テストケース表_180309.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE05F4-ECED-43A4-8C78-5848E707B7AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0574E2E6-B2B9-4868-8BFC-874DB8862442}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="527">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3214,22 +3214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1:詳細計算方法 
-2:面積比率法 
-3:熱貫流率補正法</t>
-    <rPh sb="2" eb="6">
-      <t>ショウサイケイサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>wall[i]HeatBridge</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>分類「壁体構成」を「開口部以外の不透明部位」に名称変更</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
@@ -3967,10 +3951,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[簡易外皮入力フラグ]=２でかつ[一般部位構造種別]=1の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「開口部の不透明部位」の項目「日射熱取得率」「日射熱取得率（夏期）」「日射熱取得率（冬期）」を削除。</t>
     <rPh sb="47" eb="49">
       <t>サクジョ</t>
@@ -4971,17 +4951,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[木造熱橋部計算方法]=3の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[一般部位構造種別]=３の場合に表示。</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>分類「開口部以外の不透明部位」の項目「床/壁/天井/屋根の工法」の選択肢からから[木造熱橋部計算方法]=３の場合の選択肢を削除</t>
     <rPh sb="6" eb="8">
       <t>イガイ</t>
@@ -5078,22 +5047,6 @@
 4:断熱部分＋熱橋部分（根太間断熱材＋大引材等）
 5:断熱部分＋熱橋部分（根太材＋大引間断熱材）
 6:熱橋部分（根太材＋大引材等）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[部位種別]=３ or ５でかつ[木造熱橋部計算方法]=２場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[部位種別]=２ or ４でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[部位種別]=６でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[部位種別]=１でかつ[木造熱橋部計算方法]=２の場合に表示。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -5131,6 +5084,265 @@
   </si>
   <si>
     <t>EarthPerimeterHeatbridge_psi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁体仕様入力方法（木造）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部以外の不透明部位」の項目「木造熱橋部計算方法」を「壁体仕様入力方法（木造）」に変更、選択肢の内容も変更</t>
+    <rPh sb="40" eb="42">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]InputMethod_wood</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[壁体仕様入力方法（木造）]=４の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[部位種別]=２ or ４でかつ[壁体仕様入力方法（木造）]=３の場合に表示。</t>
+  </si>
+  <si>
+    <t>[部位種別]=６でかつ[壁体仕様入力方法（木造）]=３の場合に表示。</t>
+  </si>
+  <si>
+    <t>[部位種別]=１でかつ[壁体仕様入力方法（木造）]=３の場合に表示。</t>
+  </si>
+  <si>
+    <t>[部位種別]=３ or ５でかつ[壁体仕様入力方法（木造）]=３場合に表示。</t>
+  </si>
+  <si>
+    <t>[部位種別]=３ or ５でかつ[壁体仕様入力方法（木造）]=３の場合に表示。</t>
+  </si>
+  <si>
+    <t>[簡易外皮入力フラグ]=２でかつ[一般部位構造種別]=２の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[簡易外皮入力フラグ]=２でかつ[一般部位構造種別]=１の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁体仕様入力方法（鉄筋コンクリート造）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テッキン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヅクリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]InputMethod_rc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:Ua値を入力
+2:層構成を入力</t>
+    <rPh sb="11" eb="14">
+      <t>ソウコウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダンソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1:Ua値を入力
+2:断熱部分および熱橋部分の層構成と面積比率を詳細に入力
+3:断熱部分および熱橋部分の層構成のみ入力（面積比率は入力しない）
+4:断熱部分の層構成と補正熱貫流率を入力</t>
+    <rPh sb="11" eb="13">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ソウコウセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ソウコウセイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>壁体仕様入力方法（鉄骨造）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テッコツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヅクリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wall[i]InputMethod_steel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:Ua値を入力
+2:断熱部分の層構成と補正熱貫流率を入力</t>
+    <rPh sb="11" eb="13">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウコウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[簡易外皮入力フラグ]=２でかつ[一般部位構造種別]=３の場合に表示。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[壁体仕様入力方法（鉄骨造）]=２の場合に表示。</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[壁体仕様入力方法（木造）]＝１ or [壁体仕様入力方法（鉄筋コンクリート造）]＝１ or [壁体仕様入力方法（鉄骨造）]=１の場合に表示。</t>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部以外の不透明部位」に項目「壁体仕様入力方法（鉄筋コンクリート造）」、「壁体仕様入力方法（鉄骨造）」を追加</t>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5290,7 +5502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5559,23 +5771,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5592,22 +5810,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5622,14 +5828,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5640,11 +5843,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5931,11 +6146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5997,7 +6212,7 @@
         <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6008,7 +6223,7 @@
         <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6019,7 +6234,7 @@
         <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6030,7 +6245,7 @@
         <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6041,7 +6256,7 @@
         <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6052,7 +6267,7 @@
         <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6063,7 +6278,7 @@
         <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6074,7 +6289,7 @@
         <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6085,7 +6300,7 @@
         <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6093,10 +6308,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6104,10 +6319,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6115,10 +6330,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6126,10 +6341,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6140,7 +6355,7 @@
         <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6151,7 +6366,7 @@
         <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6162,7 +6377,7 @@
         <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6173,7 +6388,7 @@
         <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6184,7 +6399,7 @@
         <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6195,7 +6410,7 @@
         <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6206,7 +6421,7 @@
         <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6217,7 +6432,7 @@
         <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6228,7 +6443,7 @@
         <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6239,7 +6454,7 @@
         <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6250,7 +6465,7 @@
         <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6261,7 +6476,7 @@
         <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6272,7 +6487,7 @@
         <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6283,7 +6498,7 @@
         <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6294,7 +6509,7 @@
         <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6305,7 +6520,7 @@
         <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6316,7 +6531,7 @@
         <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6327,7 +6542,7 @@
         <v>276</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6338,7 +6553,7 @@
         <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6349,7 +6564,7 @@
         <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6360,7 +6575,7 @@
         <v>276</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6371,7 +6586,7 @@
         <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6382,7 +6597,7 @@
         <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6393,7 +6608,7 @@
         <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6404,7 +6619,7 @@
         <v>276</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6415,7 +6630,7 @@
         <v>276</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6426,7 +6641,7 @@
         <v>276</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6437,7 +6652,7 @@
         <v>276</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6448,7 +6663,7 @@
         <v>276</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6459,7 +6674,7 @@
         <v>276</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6470,7 +6685,7 @@
         <v>276</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6481,7 +6696,7 @@
         <v>276</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6489,7 +6704,7 @@
         <v>43203</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C50" s="82" t="s">
         <v>277</v>
@@ -6514,7 +6729,7 @@
         <v>276</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6525,7 +6740,7 @@
         <v>276</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6536,7 +6751,7 @@
         <v>276</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6547,7 +6762,7 @@
         <v>276</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6558,7 +6773,7 @@
         <v>276</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6569,7 +6784,7 @@
         <v>276</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6580,7 +6795,7 @@
         <v>276</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6591,7 +6806,7 @@
         <v>276</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6602,7 +6817,7 @@
         <v>276</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6613,7 +6828,7 @@
         <v>276</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6624,7 +6839,29 @@
         <v>276</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>471</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="76">
+        <v>43207</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" s="82" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="76">
+        <v>43207</v>
+      </c>
+      <c r="B64" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6799,7 +7036,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6846,36 +7083,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="102"/>
-      <c r="B4" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="92" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="107"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="107">
+      <c r="H4" s="106">
         <v>6</v>
       </c>
-      <c r="I4" s="107">
-        <v>1</v>
-      </c>
-      <c r="J4" s="107">
+      <c r="I4" s="106">
+        <v>1</v>
+      </c>
+      <c r="J4" s="106">
         <v>8</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -6893,24 +7130,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="102"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="108"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -6918,24 +7155,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="102"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -6943,24 +7180,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="102"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -6968,24 +7205,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="102"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="108"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -6993,24 +7230,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="102"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="108"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -7018,24 +7255,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="102"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="108"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -7043,24 +7280,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="102"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="109"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -7068,7 +7305,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="102"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -7115,7 +7352,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="102"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -7162,7 +7399,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="102"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -7209,38 +7446,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="98" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="95">
         <v>2</v>
       </c>
-      <c r="I15" s="92">
-        <v>1</v>
-      </c>
-      <c r="J15" s="92">
+      <c r="I15" s="95">
+        <v>1</v>
+      </c>
+      <c r="J15" s="95">
         <v>2</v>
       </c>
-      <c r="K15" s="92" t="s">
+      <c r="K15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="107"/>
-      <c r="M15" s="92" t="s">
+      <c r="L15" s="106"/>
+      <c r="M15" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="107"/>
+      <c r="N15" s="106"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -7258,24 +7495,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="103"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="109"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -7283,7 +7520,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="102"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -7328,7 +7565,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="102"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -7377,7 +7614,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="102"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -7422,15 +7659,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="98" t="s">
+      <c r="A20" s="104"/>
+      <c r="B20" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="100" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -7439,64 +7676,64 @@
       <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92">
-        <v>1</v>
-      </c>
-      <c r="J20" s="92">
+      <c r="H20" s="95"/>
+      <c r="I20" s="95">
+        <v>1</v>
+      </c>
+      <c r="J20" s="95">
         <v>2</v>
       </c>
-      <c r="K20" s="92" t="s">
+      <c r="K20" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="95"/>
-      <c r="M20" s="92" t="s">
+      <c r="L20" s="93"/>
+      <c r="M20" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="92"/>
-      <c r="O20" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="119" t="s">
+      <c r="N20" s="95"/>
+      <c r="O20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="98" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -7535,36 +7772,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="108"/>
-      <c r="B23" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="98" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="104"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="92">
-        <v>1</v>
-      </c>
-      <c r="J23" s="92">
+      <c r="H23" s="108"/>
+      <c r="I23" s="95">
+        <v>1</v>
+      </c>
+      <c r="J23" s="95">
         <v>6</v>
       </c>
-      <c r="K23" s="98" t="s">
+      <c r="K23" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="110"/>
-      <c r="M23" s="98" t="s">
+      <c r="L23" s="108"/>
+      <c r="M23" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="101"/>
+      <c r="N23" s="103"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -7583,24 +7820,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="105"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="120"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="111"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="102"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="104"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -7609,24 +7846,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="105"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="111"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="102"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="104"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -7635,24 +7872,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="108"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="105"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="111"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="102"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -7663,24 +7900,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="108"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="105"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="111"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="102"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -7691,24 +7928,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="108"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="106"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="103"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="111"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -7719,7 +7956,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="108"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -7759,7 +7996,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="108"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -7807,7 +8044,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="108"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -7855,7 +8092,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="108"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -7901,7 +8138,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="108"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -7951,7 +8188,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="108"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -8001,7 +8238,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="108"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -8050,7 +8287,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A36" s="108"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -8098,7 +8335,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A37" s="108"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -8144,7 +8381,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A38" s="108"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -8190,38 +8427,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="108"/>
-      <c r="B39" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92" t="s">
+      <c r="A39" s="112"/>
+      <c r="B39" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="92"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="92">
-        <v>1</v>
-      </c>
-      <c r="I39" s="92">
-        <v>1</v>
-      </c>
-      <c r="J39" s="92">
+      <c r="H39" s="95">
+        <v>1</v>
+      </c>
+      <c r="I39" s="95">
+        <v>1</v>
+      </c>
+      <c r="J39" s="95">
         <v>3</v>
       </c>
-      <c r="K39" s="92" t="s">
+      <c r="K39" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="95"/>
-      <c r="M39" s="92" t="s">
+      <c r="L39" s="93"/>
+      <c r="M39" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="92"/>
+      <c r="N39" s="95"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -8239,24 +8476,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="108"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -8264,24 +8501,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="108"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -8289,24 +8526,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="108"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -8314,15 +8551,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="108"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="92" t="s">
+      <c r="A43" s="112"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="92" t="s">
+      <c r="E43" s="95" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -8331,23 +8568,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="92">
-        <v>1</v>
-      </c>
-      <c r="I43" s="92">
-        <v>1</v>
-      </c>
-      <c r="J43" s="92">
+      <c r="H43" s="95">
+        <v>1</v>
+      </c>
+      <c r="I43" s="95">
+        <v>1</v>
+      </c>
+      <c r="J43" s="95">
         <v>3</v>
       </c>
-      <c r="K43" s="92" t="s">
+      <c r="K43" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="95"/>
-      <c r="M43" s="92" t="s">
+      <c r="L43" s="93"/>
+      <c r="M43" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="92"/>
+      <c r="N43" s="95"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -8365,24 +8602,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="108"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -8390,24 +8627,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="108"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -8415,7 +8652,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="108"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -8462,7 +8699,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A47" s="108"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -8509,7 +8746,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="108"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -8556,7 +8793,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="108"/>
+      <c r="A49" s="112"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -8603,7 +8840,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
-      <c r="A50" s="108"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -8650,7 +8887,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="106" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -8689,7 +8926,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="108"/>
+      <c r="A52" s="112"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -8742,7 +8979,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="108"/>
+      <c r="A53" s="112"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -8797,7 +9034,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="108"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -8852,7 +9089,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="108"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -8901,7 +9138,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="108"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -8956,7 +9193,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="108"/>
+      <c r="A57" s="112"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -9011,7 +9248,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="108"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -9060,7 +9297,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="108"/>
+      <c r="A59" s="112"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -9115,7 +9352,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="108"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -9170,7 +9407,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="19.5">
-      <c r="A61" s="108"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -9217,7 +9454,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="108"/>
+      <c r="A62" s="112"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -9264,7 +9501,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="108"/>
+      <c r="A63" s="112"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -9311,7 +9548,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="19.5">
-      <c r="A64" s="109"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -9358,7 +9595,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="107" t="s">
+      <c r="A65" s="106" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -9397,7 +9634,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="108"/>
+      <c r="A66" s="112"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -9437,7 +9674,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="108"/>
+      <c r="A67" s="112"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -9486,7 +9723,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="108"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -9535,7 +9772,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="108"/>
+      <c r="A69" s="112"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -9584,7 +9821,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="108"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -9637,7 +9874,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="108"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -9690,7 +9927,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="108"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -9730,7 +9967,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="109"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -9770,40 +10007,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="107"/>
-      <c r="D74" s="92" t="s">
+      <c r="B74" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="106"/>
+      <c r="D74" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="107"/>
+      <c r="E74" s="106"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="107">
-        <v>1</v>
-      </c>
-      <c r="I74" s="92">
-        <v>1</v>
-      </c>
-      <c r="J74" s="92">
+      <c r="H74" s="106">
+        <v>1</v>
+      </c>
+      <c r="I74" s="95">
+        <v>1</v>
+      </c>
+      <c r="J74" s="95">
         <v>4</v>
       </c>
-      <c r="K74" s="107" t="s">
+      <c r="K74" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="107"/>
-      <c r="M74" s="92" t="s">
+      <c r="L74" s="106"/>
+      <c r="M74" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="107"/>
+      <c r="N74" s="106"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -9821,24 +10058,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="108"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="108"/>
+      <c r="A75" s="112"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="112"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="108"/>
-      <c r="I75" s="93"/>
-      <c r="J75" s="93"/>
-      <c r="K75" s="108"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="93"/>
-      <c r="N75" s="108"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="112"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -9846,24 +10083,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="108"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="108"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="112"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="108"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="108"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="108"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="112"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -9875,24 +10112,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="108"/>
-      <c r="B77" s="109"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="109"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="107"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="109"/>
-      <c r="I77" s="94"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="109"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="107"/>
+      <c r="L77" s="107"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="107"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -9900,15 +10137,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="108"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107" t="s">
+      <c r="A78" s="112"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="92" t="s">
+      <c r="D78" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="92" t="s">
+      <c r="E78" s="95" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -9917,23 +10154,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="107">
-        <v>1</v>
-      </c>
-      <c r="I78" s="92">
-        <v>1</v>
-      </c>
-      <c r="J78" s="92">
+      <c r="H78" s="106">
+        <v>1</v>
+      </c>
+      <c r="I78" s="95">
+        <v>1</v>
+      </c>
+      <c r="J78" s="95">
         <v>4</v>
       </c>
-      <c r="K78" s="107" t="s">
+      <c r="K78" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="107"/>
-      <c r="M78" s="92" t="s">
+      <c r="L78" s="106"/>
+      <c r="M78" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="107"/>
+      <c r="N78" s="106"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -9951,24 +10188,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="108"/>
-      <c r="B79" s="108"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="93"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="108"/>
-      <c r="I79" s="93"/>
-      <c r="J79" s="93"/>
-      <c r="K79" s="108"/>
-      <c r="L79" s="108"/>
-      <c r="M79" s="93"/>
-      <c r="N79" s="108"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="112"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="112"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -9976,24 +10213,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="108"/>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="108"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="108"/>
-      <c r="L80" s="108"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="108"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="112"/>
+      <c r="M80" s="97"/>
+      <c r="N80" s="112"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -10001,24 +10238,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="108"/>
-      <c r="B81" s="109"/>
-      <c r="C81" s="109"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="109"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="94"/>
-      <c r="K81" s="109"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="109"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="107"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -10026,7 +10263,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="108"/>
+      <c r="A82" s="112"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -10071,7 +10308,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="108"/>
+      <c r="A83" s="112"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -10116,7 +10353,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="108"/>
+      <c r="A84" s="112"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -10161,7 +10398,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="19.5">
-      <c r="A85" s="108"/>
+      <c r="A85" s="112"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -10208,7 +10445,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="19.5">
-      <c r="A86" s="108"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -10255,7 +10492,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="19.5">
-      <c r="A87" s="108"/>
+      <c r="A87" s="112"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -10300,7 +10537,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="19.5">
-      <c r="A88" s="108"/>
+      <c r="A88" s="112"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -10345,7 +10582,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="19.5">
-      <c r="A89" s="108"/>
+      <c r="A89" s="112"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -10390,7 +10627,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="19.5">
-      <c r="A90" s="108"/>
+      <c r="A90" s="112"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -10435,7 +10672,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="19.5">
-      <c r="A91" s="108"/>
+      <c r="A91" s="112"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -10480,7 +10717,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="19.5">
-      <c r="A92" s="108"/>
+      <c r="A92" s="112"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -10525,38 +10762,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="108"/>
-      <c r="B93" s="107" t="s">
+      <c r="A93" s="112"/>
+      <c r="B93" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="107"/>
-      <c r="D93" s="107" t="s">
+      <c r="C93" s="106"/>
+      <c r="D93" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="107"/>
+      <c r="E93" s="106"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="107">
-        <v>1</v>
-      </c>
-      <c r="I93" s="107">
-        <v>1</v>
-      </c>
-      <c r="J93" s="107">
+      <c r="H93" s="106">
+        <v>1</v>
+      </c>
+      <c r="I93" s="106">
+        <v>1</v>
+      </c>
+      <c r="J93" s="106">
         <v>2</v>
       </c>
-      <c r="K93" s="107" t="s">
+      <c r="K93" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="107"/>
-      <c r="M93" s="107" t="s">
+      <c r="L93" s="106"/>
+      <c r="M93" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="107"/>
+      <c r="N93" s="106"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -10566,24 +10803,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="108"/>
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
+      <c r="A94" s="112"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="109"/>
-      <c r="I94" s="109"/>
-      <c r="J94" s="109"/>
-      <c r="K94" s="109"/>
-      <c r="L94" s="109"/>
-      <c r="M94" s="109"/>
-      <c r="N94" s="109"/>
+      <c r="H94" s="107"/>
+      <c r="I94" s="107"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="107"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -10591,38 +10828,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="108"/>
-      <c r="B95" s="107" t="s">
+      <c r="A95" s="112"/>
+      <c r="B95" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="107"/>
-      <c r="D95" s="107" t="s">
+      <c r="C95" s="106"/>
+      <c r="D95" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="107"/>
+      <c r="E95" s="106"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="107">
+      <c r="H95" s="106">
         <v>2</v>
       </c>
-      <c r="I95" s="107">
-        <v>1</v>
-      </c>
-      <c r="J95" s="107">
+      <c r="I95" s="106">
+        <v>1</v>
+      </c>
+      <c r="J95" s="106">
         <v>2</v>
       </c>
-      <c r="K95" s="107" t="s">
+      <c r="K95" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="107"/>
-      <c r="M95" s="107" t="s">
+      <c r="L95" s="106"/>
+      <c r="M95" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="107"/>
+      <c r="N95" s="106"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -10632,24 +10869,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="108"/>
-      <c r="B96" s="109"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="109"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="109"/>
-      <c r="I96" s="109"/>
-      <c r="J96" s="109"/>
-      <c r="K96" s="109"/>
-      <c r="L96" s="109"/>
-      <c r="M96" s="109"/>
-      <c r="N96" s="109"/>
+      <c r="H96" s="107"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="107"/>
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="107"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -10657,7 +10894,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="109"/>
+      <c r="A97" s="107"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -10706,40 +10943,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="113" t="s">
+      <c r="A98" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="107"/>
-      <c r="D98" s="107" t="s">
+      <c r="C98" s="106"/>
+      <c r="D98" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="107"/>
+      <c r="E98" s="106"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="107">
-        <v>1</v>
-      </c>
-      <c r="I98" s="107">
-        <v>1</v>
-      </c>
-      <c r="J98" s="107">
+      <c r="H98" s="106">
+        <v>1</v>
+      </c>
+      <c r="I98" s="106">
+        <v>1</v>
+      </c>
+      <c r="J98" s="106">
         <v>3</v>
       </c>
-      <c r="K98" s="107" t="s">
+      <c r="K98" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="107"/>
-      <c r="M98" s="107" t="s">
+      <c r="L98" s="106"/>
+      <c r="M98" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="107"/>
+      <c r="N98" s="106"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -10757,24 +10994,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="114"/>
-      <c r="B99" s="108"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
+      <c r="A99" s="117"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="108"/>
-      <c r="I99" s="108"/>
-      <c r="J99" s="108"/>
-      <c r="K99" s="108"/>
-      <c r="L99" s="108"/>
-      <c r="M99" s="108"/>
-      <c r="N99" s="108"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -10782,24 +11019,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="114"/>
-      <c r="B100" s="109"/>
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="109"/>
+      <c r="A100" s="117"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="109"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="109"/>
-      <c r="K100" s="109"/>
-      <c r="L100" s="109"/>
-      <c r="M100" s="109"/>
-      <c r="N100" s="109"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
+      <c r="L100" s="107"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="107"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -10807,15 +11044,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="114"/>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107" t="s">
+      <c r="A101" s="117"/>
+      <c r="B101" s="106"/>
+      <c r="C101" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="107" t="s">
+      <c r="D101" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="107" t="s">
+      <c r="E101" s="106" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -10824,21 +11061,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="107"/>
-      <c r="I101" s="107">
-        <v>1</v>
-      </c>
-      <c r="J101" s="107">
+      <c r="H101" s="106"/>
+      <c r="I101" s="106">
+        <v>1</v>
+      </c>
+      <c r="J101" s="106">
         <v>4</v>
       </c>
-      <c r="K101" s="107" t="s">
+      <c r="K101" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="107"/>
-      <c r="M101" s="107" t="s">
+      <c r="L101" s="106"/>
+      <c r="M101" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="107"/>
+      <c r="N101" s="106"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -10856,24 +11093,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="114"/>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
+      <c r="A102" s="117"/>
+      <c r="B102" s="112"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="112"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="108"/>
-      <c r="I102" s="108"/>
-      <c r="J102" s="108"/>
-      <c r="K102" s="108"/>
-      <c r="L102" s="108"/>
-      <c r="M102" s="108"/>
-      <c r="N102" s="108"/>
+      <c r="H102" s="112"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="112"/>
+      <c r="K102" s="112"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="112"/>
+      <c r="N102" s="112"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -10881,24 +11118,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="114"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
+      <c r="A103" s="117"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="108"/>
-      <c r="I103" s="108"/>
-      <c r="J103" s="108"/>
-      <c r="K103" s="108"/>
-      <c r="L103" s="108"/>
-      <c r="M103" s="108"/>
-      <c r="N103" s="108"/>
+      <c r="H103" s="112"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="112"/>
+      <c r="K103" s="112"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="112"/>
+      <c r="N103" s="112"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -10906,24 +11143,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="114"/>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
+      <c r="A104" s="117"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="109"/>
-      <c r="I104" s="109"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="109"/>
-      <c r="L104" s="109"/>
-      <c r="M104" s="109"/>
-      <c r="N104" s="109"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="107"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -10931,38 +11168,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="114"/>
-      <c r="B105" s="107" t="s">
+      <c r="A105" s="117"/>
+      <c r="B105" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="107"/>
-      <c r="D105" s="107" t="s">
+      <c r="C105" s="106"/>
+      <c r="D105" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="107"/>
+      <c r="E105" s="106"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="107">
+      <c r="H105" s="106">
         <v>3</v>
       </c>
-      <c r="I105" s="107">
-        <v>1</v>
-      </c>
-      <c r="J105" s="107">
+      <c r="I105" s="106">
+        <v>1</v>
+      </c>
+      <c r="J105" s="106">
         <v>3</v>
       </c>
-      <c r="K105" s="107" t="s">
+      <c r="K105" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="107"/>
-      <c r="M105" s="107" t="s">
+      <c r="L105" s="106"/>
+      <c r="M105" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="107"/>
+      <c r="N105" s="106"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -10980,24 +11217,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="114"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
+      <c r="A106" s="117"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="108"/>
-      <c r="K106" s="108"/>
-      <c r="L106" s="108"/>
-      <c r="M106" s="108"/>
-      <c r="N106" s="108"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="112"/>
+      <c r="L106" s="112"/>
+      <c r="M106" s="112"/>
+      <c r="N106" s="112"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -11005,24 +11242,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="114"/>
-      <c r="B107" s="109"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="109"/>
-      <c r="E107" s="109"/>
+      <c r="A107" s="117"/>
+      <c r="B107" s="107"/>
+      <c r="C107" s="107"/>
+      <c r="D107" s="107"/>
+      <c r="E107" s="107"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="109"/>
-      <c r="I107" s="109"/>
-      <c r="J107" s="109"/>
-      <c r="K107" s="109"/>
-      <c r="L107" s="109"/>
-      <c r="M107" s="109"/>
-      <c r="N107" s="109"/>
+      <c r="H107" s="107"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="107"/>
+      <c r="K107" s="107"/>
+      <c r="L107" s="107"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="107"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -11030,15 +11267,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="114"/>
-      <c r="B108" s="107"/>
-      <c r="C108" s="107" t="s">
+      <c r="A108" s="117"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="107" t="s">
+      <c r="D108" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="107" t="s">
+      <c r="E108" s="106" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -11047,21 +11284,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="107"/>
-      <c r="I108" s="107">
-        <v>1</v>
-      </c>
-      <c r="J108" s="107">
+      <c r="H108" s="106"/>
+      <c r="I108" s="106">
+        <v>1</v>
+      </c>
+      <c r="J108" s="106">
         <v>4</v>
       </c>
-      <c r="K108" s="107" t="s">
+      <c r="K108" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="107"/>
-      <c r="M108" s="107" t="s">
+      <c r="L108" s="106"/>
+      <c r="M108" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="107"/>
+      <c r="N108" s="106"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -11079,24 +11316,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="114"/>
-      <c r="B109" s="108"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="108"/>
+      <c r="A109" s="117"/>
+      <c r="B109" s="112"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="108"/>
-      <c r="I109" s="108"/>
-      <c r="J109" s="108"/>
-      <c r="K109" s="108"/>
-      <c r="L109" s="108"/>
-      <c r="M109" s="108"/>
-      <c r="N109" s="108"/>
+      <c r="H109" s="112"/>
+      <c r="I109" s="112"/>
+      <c r="J109" s="112"/>
+      <c r="K109" s="112"/>
+      <c r="L109" s="112"/>
+      <c r="M109" s="112"/>
+      <c r="N109" s="112"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -11104,24 +11341,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="114"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
+      <c r="A110" s="117"/>
+      <c r="B110" s="112"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="112"/>
+      <c r="E110" s="112"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="108"/>
-      <c r="L110" s="108"/>
-      <c r="M110" s="108"/>
-      <c r="N110" s="108"/>
+      <c r="H110" s="112"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="112"/>
+      <c r="L110" s="112"/>
+      <c r="M110" s="112"/>
+      <c r="N110" s="112"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -11129,24 +11366,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="114"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
+      <c r="A111" s="117"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109"/>
-      <c r="K111" s="109"/>
-      <c r="L111" s="109"/>
-      <c r="M111" s="109"/>
-      <c r="N111" s="109"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
+      <c r="L111" s="107"/>
+      <c r="M111" s="107"/>
+      <c r="N111" s="107"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -11154,7 +11391,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="19.5">
-      <c r="A112" s="114"/>
+      <c r="A112" s="117"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -11199,7 +11436,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="19.5">
-      <c r="A113" s="114"/>
+      <c r="A113" s="117"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -11244,7 +11481,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="19.5">
-      <c r="A114" s="115"/>
+      <c r="A114" s="118"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -11289,40 +11526,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="113" t="s">
+      <c r="A115" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="107"/>
-      <c r="D115" s="92" t="s">
+      <c r="B115" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="106"/>
+      <c r="D115" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="107"/>
+      <c r="E115" s="106"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="107">
-        <v>1</v>
-      </c>
-      <c r="I115" s="92">
-        <v>1</v>
-      </c>
-      <c r="J115" s="92">
+      <c r="H115" s="106">
+        <v>1</v>
+      </c>
+      <c r="I115" s="95">
+        <v>1</v>
+      </c>
+      <c r="J115" s="95">
         <v>4</v>
       </c>
-      <c r="K115" s="107" t="s">
+      <c r="K115" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="107"/>
-      <c r="M115" s="92" t="s">
+      <c r="L115" s="106"/>
+      <c r="M115" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="107"/>
+      <c r="N115" s="106"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -11340,24 +11577,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="108"/>
-      <c r="B116" s="108"/>
-      <c r="C116" s="108"/>
-      <c r="D116" s="93"/>
-      <c r="E116" s="108"/>
+      <c r="A116" s="112"/>
+      <c r="B116" s="112"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="112"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="108"/>
-      <c r="I116" s="93"/>
-      <c r="J116" s="93"/>
-      <c r="K116" s="108"/>
-      <c r="L116" s="108"/>
-      <c r="M116" s="93"/>
-      <c r="N116" s="108"/>
+      <c r="H116" s="112"/>
+      <c r="I116" s="97"/>
+      <c r="J116" s="97"/>
+      <c r="K116" s="112"/>
+      <c r="L116" s="112"/>
+      <c r="M116" s="97"/>
+      <c r="N116" s="112"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -11365,24 +11602,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="108"/>
-      <c r="B117" s="108"/>
-      <c r="C117" s="108"/>
-      <c r="D117" s="93"/>
-      <c r="E117" s="108"/>
+      <c r="A117" s="112"/>
+      <c r="B117" s="112"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="112"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="108"/>
-      <c r="I117" s="93"/>
-      <c r="J117" s="93"/>
-      <c r="K117" s="108"/>
-      <c r="L117" s="108"/>
-      <c r="M117" s="93"/>
-      <c r="N117" s="108"/>
+      <c r="H117" s="112"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="112"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="112"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -11394,24 +11631,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="108"/>
-      <c r="B118" s="109"/>
-      <c r="C118" s="109"/>
-      <c r="D118" s="94"/>
-      <c r="E118" s="109"/>
+      <c r="A118" s="112"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="107"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="109"/>
-      <c r="I118" s="94"/>
-      <c r="J118" s="94"/>
-      <c r="K118" s="109"/>
-      <c r="L118" s="109"/>
-      <c r="M118" s="94"/>
-      <c r="N118" s="109"/>
+      <c r="H118" s="107"/>
+      <c r="I118" s="96"/>
+      <c r="J118" s="96"/>
+      <c r="K118" s="107"/>
+      <c r="L118" s="107"/>
+      <c r="M118" s="96"/>
+      <c r="N118" s="107"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -11419,15 +11656,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="108"/>
-      <c r="B119" s="107"/>
-      <c r="C119" s="107" t="s">
+      <c r="A119" s="112"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="92" t="s">
+      <c r="D119" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="92" t="s">
+      <c r="E119" s="95" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -11436,23 +11673,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="107">
-        <v>1</v>
-      </c>
-      <c r="I119" s="92">
-        <v>1</v>
-      </c>
-      <c r="J119" s="92">
+      <c r="H119" s="106">
+        <v>1</v>
+      </c>
+      <c r="I119" s="95">
+        <v>1</v>
+      </c>
+      <c r="J119" s="95">
         <v>4</v>
       </c>
-      <c r="K119" s="107" t="s">
+      <c r="K119" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="107"/>
-      <c r="M119" s="92" t="s">
+      <c r="L119" s="106"/>
+      <c r="M119" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="107"/>
+      <c r="N119" s="106"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -11470,24 +11707,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="108"/>
-      <c r="B120" s="108"/>
-      <c r="C120" s="108"/>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
+      <c r="A120" s="112"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="108"/>
-      <c r="I120" s="93"/>
-      <c r="J120" s="93"/>
-      <c r="K120" s="108"/>
-      <c r="L120" s="108"/>
-      <c r="M120" s="93"/>
-      <c r="N120" s="108"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="97"/>
+      <c r="J120" s="97"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="97"/>
+      <c r="N120" s="112"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -11495,24 +11732,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="108"/>
-      <c r="B121" s="108"/>
-      <c r="C121" s="108"/>
-      <c r="D121" s="93"/>
-      <c r="E121" s="93"/>
+      <c r="A121" s="112"/>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="108"/>
-      <c r="I121" s="93"/>
-      <c r="J121" s="93"/>
-      <c r="K121" s="108"/>
-      <c r="L121" s="108"/>
-      <c r="M121" s="93"/>
-      <c r="N121" s="108"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="112"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -11520,24 +11757,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="108"/>
-      <c r="B122" s="109"/>
-      <c r="C122" s="109"/>
-      <c r="D122" s="94"/>
-      <c r="E122" s="94"/>
+      <c r="A122" s="112"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="109"/>
-      <c r="I122" s="94"/>
-      <c r="J122" s="94"/>
-      <c r="K122" s="109"/>
-      <c r="L122" s="109"/>
-      <c r="M122" s="94"/>
-      <c r="N122" s="109"/>
+      <c r="H122" s="107"/>
+      <c r="I122" s="96"/>
+      <c r="J122" s="96"/>
+      <c r="K122" s="107"/>
+      <c r="L122" s="107"/>
+      <c r="M122" s="96"/>
+      <c r="N122" s="107"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -11545,38 +11782,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="108"/>
-      <c r="B123" s="107" t="s">
+      <c r="A123" s="112"/>
+      <c r="B123" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="107"/>
-      <c r="D123" s="107" t="s">
+      <c r="C123" s="106"/>
+      <c r="D123" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="107"/>
+      <c r="E123" s="106"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="107">
-        <v>1</v>
-      </c>
-      <c r="I123" s="107">
-        <v>1</v>
-      </c>
-      <c r="J123" s="107">
+      <c r="H123" s="106">
+        <v>1</v>
+      </c>
+      <c r="I123" s="106">
+        <v>1</v>
+      </c>
+      <c r="J123" s="106">
         <v>2</v>
       </c>
-      <c r="K123" s="107" t="s">
+      <c r="K123" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="107"/>
-      <c r="M123" s="107" t="s">
+      <c r="L123" s="106"/>
+      <c r="M123" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="107"/>
+      <c r="N123" s="106"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -11594,24 +11831,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="108"/>
-      <c r="B124" s="109"/>
-      <c r="C124" s="109"/>
-      <c r="D124" s="109"/>
-      <c r="E124" s="109"/>
+      <c r="A124" s="112"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="109"/>
-      <c r="I124" s="109"/>
-      <c r="J124" s="109"/>
-      <c r="K124" s="109"/>
-      <c r="L124" s="109"/>
-      <c r="M124" s="109"/>
-      <c r="N124" s="109"/>
+      <c r="H124" s="107"/>
+      <c r="I124" s="107"/>
+      <c r="J124" s="107"/>
+      <c r="K124" s="107"/>
+      <c r="L124" s="107"/>
+      <c r="M124" s="107"/>
+      <c r="N124" s="107"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -11619,12 +11856,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="108"/>
-      <c r="B125" s="101" t="s">
+      <c r="A125" s="112"/>
+      <c r="B125" s="103" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="98" t="s">
+      <c r="D125" s="100" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -11634,20 +11871,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="92">
-        <v>1</v>
-      </c>
-      <c r="I125" s="92">
-        <v>1</v>
-      </c>
-      <c r="J125" s="92">
+      <c r="H125" s="95">
+        <v>1</v>
+      </c>
+      <c r="I125" s="95">
+        <v>1</v>
+      </c>
+      <c r="J125" s="95">
         <v>2</v>
       </c>
-      <c r="K125" s="92" t="s">
+      <c r="K125" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="107"/>
-      <c r="M125" s="107" t="s">
+      <c r="L125" s="106"/>
+      <c r="M125" s="106" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -11672,10 +11909,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="108"/>
-      <c r="B126" s="103"/>
+      <c r="A126" s="112"/>
+      <c r="B126" s="111"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="100"/>
+      <c r="D126" s="102"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -11683,12 +11920,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="94"/>
-      <c r="I126" s="94"/>
-      <c r="J126" s="94"/>
-      <c r="K126" s="94"/>
-      <c r="L126" s="109"/>
-      <c r="M126" s="109"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="107"/>
+      <c r="M126" s="107"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -11701,15 +11938,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="108"/>
-      <c r="B127" s="107" t="s">
+      <c r="A127" s="112"/>
+      <c r="B127" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="107"/>
-      <c r="D127" s="117" t="s">
+      <c r="C127" s="106"/>
+      <c r="D127" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="116" t="s">
+      <c r="E127" s="113" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -11718,20 +11955,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="107">
+      <c r="H127" s="106">
         <v>2</v>
       </c>
-      <c r="I127" s="107">
-        <v>1</v>
-      </c>
-      <c r="J127" s="92">
+      <c r="I127" s="106">
+        <v>1</v>
+      </c>
+      <c r="J127" s="95">
         <v>15</v>
       </c>
-      <c r="K127" s="107" t="s">
+      <c r="K127" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="107"/>
-      <c r="M127" s="107" t="s">
+      <c r="L127" s="106"/>
+      <c r="M127" s="106" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -11754,23 +11991,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="108"/>
-      <c r="B128" s="108"/>
-      <c r="C128" s="108"/>
-      <c r="D128" s="117"/>
-      <c r="E128" s="116"/>
+      <c r="A128" s="112"/>
+      <c r="B128" s="112"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="113"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="108"/>
-      <c r="I128" s="108"/>
-      <c r="J128" s="93"/>
-      <c r="K128" s="108"/>
-      <c r="L128" s="108"/>
-      <c r="M128" s="108"/>
+      <c r="H128" s="112"/>
+      <c r="I128" s="112"/>
+      <c r="J128" s="97"/>
+      <c r="K128" s="112"/>
+      <c r="L128" s="112"/>
+      <c r="M128" s="112"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -11791,23 +12028,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="108"/>
-      <c r="B129" s="108"/>
-      <c r="C129" s="108"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="116"/>
+      <c r="A129" s="112"/>
+      <c r="B129" s="112"/>
+      <c r="C129" s="112"/>
+      <c r="D129" s="114"/>
+      <c r="E129" s="113"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="108"/>
-      <c r="I129" s="108"/>
-      <c r="J129" s="93"/>
-      <c r="K129" s="108"/>
-      <c r="L129" s="108"/>
-      <c r="M129" s="108"/>
+      <c r="H129" s="112"/>
+      <c r="I129" s="112"/>
+      <c r="J129" s="97"/>
+      <c r="K129" s="112"/>
+      <c r="L129" s="112"/>
+      <c r="M129" s="112"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -11828,23 +12065,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="108"/>
-      <c r="B130" s="108"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="117"/>
-      <c r="E130" s="116"/>
+      <c r="A130" s="112"/>
+      <c r="B130" s="112"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="114"/>
+      <c r="E130" s="113"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="108"/>
-      <c r="I130" s="108"/>
-      <c r="J130" s="93"/>
-      <c r="K130" s="108"/>
-      <c r="L130" s="108"/>
-      <c r="M130" s="108"/>
+      <c r="H130" s="112"/>
+      <c r="I130" s="112"/>
+      <c r="J130" s="97"/>
+      <c r="K130" s="112"/>
+      <c r="L130" s="112"/>
+      <c r="M130" s="112"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -11865,23 +12102,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="108"/>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="116"/>
+      <c r="A131" s="112"/>
+      <c r="B131" s="112"/>
+      <c r="C131" s="112"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="113"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="108"/>
-      <c r="I131" s="108"/>
-      <c r="J131" s="93"/>
-      <c r="K131" s="108"/>
-      <c r="L131" s="108"/>
-      <c r="M131" s="108"/>
+      <c r="H131" s="112"/>
+      <c r="I131" s="112"/>
+      <c r="J131" s="97"/>
+      <c r="K131" s="112"/>
+      <c r="L131" s="112"/>
+      <c r="M131" s="112"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -11902,23 +12139,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="108"/>
-      <c r="B132" s="108"/>
-      <c r="C132" s="108"/>
-      <c r="D132" s="117"/>
-      <c r="E132" s="116"/>
+      <c r="A132" s="112"/>
+      <c r="B132" s="112"/>
+      <c r="C132" s="112"/>
+      <c r="D132" s="114"/>
+      <c r="E132" s="113"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="108"/>
-      <c r="I132" s="108"/>
-      <c r="J132" s="93"/>
-      <c r="K132" s="108"/>
-      <c r="L132" s="108"/>
-      <c r="M132" s="108"/>
+      <c r="H132" s="112"/>
+      <c r="I132" s="112"/>
+      <c r="J132" s="97"/>
+      <c r="K132" s="112"/>
+      <c r="L132" s="112"/>
+      <c r="M132" s="112"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -11939,23 +12176,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="108"/>
-      <c r="B133" s="108"/>
-      <c r="C133" s="108"/>
-      <c r="D133" s="117"/>
-      <c r="E133" s="116"/>
+      <c r="A133" s="112"/>
+      <c r="B133" s="112"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="114"/>
+      <c r="E133" s="113"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="108"/>
-      <c r="I133" s="108"/>
-      <c r="J133" s="93"/>
-      <c r="K133" s="108"/>
-      <c r="L133" s="108"/>
-      <c r="M133" s="108"/>
+      <c r="H133" s="112"/>
+      <c r="I133" s="112"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="112"/>
+      <c r="L133" s="112"/>
+      <c r="M133" s="112"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -11976,23 +12213,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="108"/>
-      <c r="B134" s="108"/>
-      <c r="C134" s="108"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="116"/>
+      <c r="A134" s="112"/>
+      <c r="B134" s="112"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="114"/>
+      <c r="E134" s="113"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="108"/>
-      <c r="I134" s="108"/>
-      <c r="J134" s="93"/>
-      <c r="K134" s="108"/>
-      <c r="L134" s="108"/>
-      <c r="M134" s="108"/>
+      <c r="H134" s="112"/>
+      <c r="I134" s="112"/>
+      <c r="J134" s="97"/>
+      <c r="K134" s="112"/>
+      <c r="L134" s="112"/>
+      <c r="M134" s="112"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -12013,23 +12250,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="108"/>
-      <c r="B135" s="108"/>
-      <c r="C135" s="108"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="116"/>
+      <c r="A135" s="112"/>
+      <c r="B135" s="112"/>
+      <c r="C135" s="112"/>
+      <c r="D135" s="114"/>
+      <c r="E135" s="113"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="108"/>
-      <c r="I135" s="108"/>
-      <c r="J135" s="93"/>
-      <c r="K135" s="108"/>
-      <c r="L135" s="108"/>
-      <c r="M135" s="108"/>
+      <c r="H135" s="112"/>
+      <c r="I135" s="112"/>
+      <c r="J135" s="97"/>
+      <c r="K135" s="112"/>
+      <c r="L135" s="112"/>
+      <c r="M135" s="112"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -12050,23 +12287,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="108"/>
-      <c r="B136" s="108"/>
-      <c r="C136" s="108"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="116"/>
+      <c r="A136" s="112"/>
+      <c r="B136" s="112"/>
+      <c r="C136" s="112"/>
+      <c r="D136" s="114"/>
+      <c r="E136" s="113"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="108"/>
-      <c r="I136" s="108"/>
-      <c r="J136" s="93"/>
-      <c r="K136" s="108"/>
-      <c r="L136" s="108"/>
-      <c r="M136" s="108"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="112"/>
+      <c r="J136" s="97"/>
+      <c r="K136" s="112"/>
+      <c r="L136" s="112"/>
+      <c r="M136" s="112"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -12087,23 +12324,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="108"/>
-      <c r="B137" s="108"/>
-      <c r="C137" s="108"/>
-      <c r="D137" s="117"/>
-      <c r="E137" s="116"/>
+      <c r="A137" s="112"/>
+      <c r="B137" s="112"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="114"/>
+      <c r="E137" s="113"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="108"/>
-      <c r="I137" s="108"/>
-      <c r="J137" s="93"/>
-      <c r="K137" s="108"/>
-      <c r="L137" s="108"/>
-      <c r="M137" s="108"/>
+      <c r="H137" s="112"/>
+      <c r="I137" s="112"/>
+      <c r="J137" s="97"/>
+      <c r="K137" s="112"/>
+      <c r="L137" s="112"/>
+      <c r="M137" s="112"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -12128,23 +12365,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="108"/>
-      <c r="B138" s="108"/>
-      <c r="C138" s="108"/>
-      <c r="D138" s="117"/>
-      <c r="E138" s="116"/>
+      <c r="A138" s="112"/>
+      <c r="B138" s="112"/>
+      <c r="C138" s="112"/>
+      <c r="D138" s="114"/>
+      <c r="E138" s="113"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="108"/>
-      <c r="I138" s="108"/>
-      <c r="J138" s="93"/>
-      <c r="K138" s="108"/>
-      <c r="L138" s="108"/>
-      <c r="M138" s="108"/>
+      <c r="H138" s="112"/>
+      <c r="I138" s="112"/>
+      <c r="J138" s="97"/>
+      <c r="K138" s="112"/>
+      <c r="L138" s="112"/>
+      <c r="M138" s="112"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -12169,23 +12406,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="108"/>
-      <c r="B139" s="108"/>
-      <c r="C139" s="108"/>
-      <c r="D139" s="117"/>
-      <c r="E139" s="116"/>
+      <c r="A139" s="112"/>
+      <c r="B139" s="112"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="114"/>
+      <c r="E139" s="113"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="108"/>
-      <c r="I139" s="108"/>
-      <c r="J139" s="93"/>
-      <c r="K139" s="108"/>
-      <c r="L139" s="108"/>
-      <c r="M139" s="108"/>
+      <c r="H139" s="112"/>
+      <c r="I139" s="112"/>
+      <c r="J139" s="97"/>
+      <c r="K139" s="112"/>
+      <c r="L139" s="112"/>
+      <c r="M139" s="112"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -12210,23 +12447,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="108"/>
-      <c r="B140" s="108"/>
-      <c r="C140" s="108"/>
-      <c r="D140" s="117"/>
-      <c r="E140" s="116"/>
+      <c r="A140" s="112"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="114"/>
+      <c r="E140" s="113"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="108"/>
-      <c r="I140" s="108"/>
-      <c r="J140" s="93"/>
-      <c r="K140" s="108"/>
-      <c r="L140" s="108"/>
-      <c r="M140" s="108"/>
+      <c r="H140" s="112"/>
+      <c r="I140" s="112"/>
+      <c r="J140" s="97"/>
+      <c r="K140" s="112"/>
+      <c r="L140" s="112"/>
+      <c r="M140" s="112"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -12247,23 +12484,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="108"/>
-      <c r="B141" s="108"/>
-      <c r="C141" s="108"/>
-      <c r="D141" s="117"/>
-      <c r="E141" s="116"/>
+      <c r="A141" s="112"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="113"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="108"/>
-      <c r="I141" s="108"/>
-      <c r="J141" s="93"/>
-      <c r="K141" s="108"/>
-      <c r="L141" s="108"/>
-      <c r="M141" s="108"/>
+      <c r="H141" s="112"/>
+      <c r="I141" s="112"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="112"/>
+      <c r="L141" s="112"/>
+      <c r="M141" s="112"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -12286,15 +12523,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="108"/>
-      <c r="B142" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="107"/>
-      <c r="D142" s="117" t="s">
+      <c r="A142" s="112"/>
+      <c r="B142" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="106"/>
+      <c r="D142" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="116" t="s">
+      <c r="E142" s="113" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -12303,20 +12540,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="118">
-        <v>1</v>
-      </c>
-      <c r="I142" s="118">
-        <v>1</v>
-      </c>
-      <c r="J142" s="116">
+      <c r="H142" s="115">
+        <v>1</v>
+      </c>
+      <c r="I142" s="115">
+        <v>1</v>
+      </c>
+      <c r="J142" s="113">
         <v>4</v>
       </c>
-      <c r="K142" s="107" t="s">
+      <c r="K142" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="107"/>
-      <c r="M142" s="107" t="s">
+      <c r="L142" s="106"/>
+      <c r="M142" s="106" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -12337,23 +12574,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="108"/>
-      <c r="B143" s="108"/>
-      <c r="C143" s="108"/>
-      <c r="D143" s="117"/>
-      <c r="E143" s="116"/>
+      <c r="A143" s="112"/>
+      <c r="B143" s="112"/>
+      <c r="C143" s="112"/>
+      <c r="D143" s="114"/>
+      <c r="E143" s="113"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="118"/>
-      <c r="I143" s="118"/>
-      <c r="J143" s="116"/>
-      <c r="K143" s="108"/>
-      <c r="L143" s="108"/>
-      <c r="M143" s="108"/>
+      <c r="H143" s="115"/>
+      <c r="I143" s="115"/>
+      <c r="J143" s="113"/>
+      <c r="K143" s="112"/>
+      <c r="L143" s="112"/>
+      <c r="M143" s="112"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -12372,23 +12609,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="108"/>
-      <c r="B144" s="108"/>
-      <c r="C144" s="108"/>
-      <c r="D144" s="117"/>
-      <c r="E144" s="116"/>
+      <c r="A144" s="112"/>
+      <c r="B144" s="112"/>
+      <c r="C144" s="112"/>
+      <c r="D144" s="114"/>
+      <c r="E144" s="113"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="118"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="116"/>
-      <c r="K144" s="108"/>
-      <c r="L144" s="108"/>
-      <c r="M144" s="108"/>
+      <c r="H144" s="115"/>
+      <c r="I144" s="115"/>
+      <c r="J144" s="113"/>
+      <c r="K144" s="112"/>
+      <c r="L144" s="112"/>
+      <c r="M144" s="112"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -12411,23 +12648,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="108"/>
-      <c r="B145" s="109"/>
-      <c r="C145" s="109"/>
-      <c r="D145" s="117"/>
-      <c r="E145" s="116"/>
+      <c r="A145" s="112"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="114"/>
+      <c r="E145" s="113"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="118"/>
-      <c r="I145" s="118"/>
-      <c r="J145" s="116"/>
-      <c r="K145" s="109"/>
-      <c r="L145" s="109"/>
-      <c r="M145" s="109"/>
+      <c r="H145" s="115"/>
+      <c r="I145" s="115"/>
+      <c r="J145" s="113"/>
+      <c r="K145" s="107"/>
+      <c r="L145" s="107"/>
+      <c r="M145" s="107"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -12446,15 +12683,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="108"/>
-      <c r="B146" s="107"/>
-      <c r="C146" s="107" t="s">
+      <c r="A146" s="112"/>
+      <c r="B146" s="106"/>
+      <c r="C146" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="92" t="s">
+      <c r="D146" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="92" t="s">
+      <c r="E146" s="95" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -12463,23 +12700,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="107">
-        <v>1</v>
-      </c>
-      <c r="I146" s="107">
-        <v>1</v>
-      </c>
-      <c r="J146" s="107">
+      <c r="H146" s="106">
+        <v>1</v>
+      </c>
+      <c r="I146" s="106">
+        <v>1</v>
+      </c>
+      <c r="J146" s="106">
         <v>4</v>
       </c>
-      <c r="K146" s="107" t="s">
+      <c r="K146" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="107"/>
-      <c r="M146" s="107" t="s">
+      <c r="L146" s="106"/>
+      <c r="M146" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="107"/>
+      <c r="N146" s="106"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -12497,24 +12734,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="108"/>
-      <c r="B147" s="108"/>
-      <c r="C147" s="108"/>
-      <c r="D147" s="93"/>
-      <c r="E147" s="93"/>
+      <c r="A147" s="112"/>
+      <c r="B147" s="112"/>
+      <c r="C147" s="112"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="108"/>
-      <c r="I147" s="108"/>
-      <c r="J147" s="108"/>
-      <c r="K147" s="108"/>
-      <c r="L147" s="108"/>
-      <c r="M147" s="108"/>
-      <c r="N147" s="108"/>
+      <c r="H147" s="112"/>
+      <c r="I147" s="112"/>
+      <c r="J147" s="112"/>
+      <c r="K147" s="112"/>
+      <c r="L147" s="112"/>
+      <c r="M147" s="112"/>
+      <c r="N147" s="112"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -12532,24 +12769,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="108"/>
-      <c r="B148" s="108"/>
-      <c r="C148" s="108"/>
-      <c r="D148" s="93"/>
-      <c r="E148" s="93"/>
+      <c r="A148" s="112"/>
+      <c r="B148" s="112"/>
+      <c r="C148" s="112"/>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="108"/>
-      <c r="I148" s="108"/>
-      <c r="J148" s="108"/>
-      <c r="K148" s="108"/>
-      <c r="L148" s="108"/>
-      <c r="M148" s="108"/>
-      <c r="N148" s="108"/>
+      <c r="H148" s="112"/>
+      <c r="I148" s="112"/>
+      <c r="J148" s="112"/>
+      <c r="K148" s="112"/>
+      <c r="L148" s="112"/>
+      <c r="M148" s="112"/>
+      <c r="N148" s="112"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -12567,24 +12804,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="108"/>
-      <c r="B149" s="109"/>
-      <c r="C149" s="109"/>
-      <c r="D149" s="94"/>
-      <c r="E149" s="94"/>
+      <c r="A149" s="112"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="96"/>
+      <c r="E149" s="96"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="109"/>
-      <c r="I149" s="109"/>
-      <c r="J149" s="109"/>
-      <c r="K149" s="109"/>
-      <c r="L149" s="109"/>
-      <c r="M149" s="109"/>
-      <c r="N149" s="109"/>
+      <c r="H149" s="107"/>
+      <c r="I149" s="107"/>
+      <c r="J149" s="107"/>
+      <c r="K149" s="107"/>
+      <c r="L149" s="107"/>
+      <c r="M149" s="107"/>
+      <c r="N149" s="107"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -12602,38 +12839,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="108"/>
-      <c r="B150" s="107" t="s">
+      <c r="A150" s="112"/>
+      <c r="B150" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="107"/>
-      <c r="D150" s="107" t="s">
+      <c r="C150" s="106"/>
+      <c r="D150" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="107"/>
+      <c r="E150" s="106"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="107">
-        <v>1</v>
-      </c>
-      <c r="I150" s="107">
-        <v>1</v>
-      </c>
-      <c r="J150" s="107">
+      <c r="H150" s="106">
+        <v>1</v>
+      </c>
+      <c r="I150" s="106">
+        <v>1</v>
+      </c>
+      <c r="J150" s="106">
         <v>2</v>
       </c>
-      <c r="K150" s="107" t="s">
+      <c r="K150" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="107"/>
-      <c r="M150" s="107" t="s">
+      <c r="L150" s="106"/>
+      <c r="M150" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="107"/>
+      <c r="N150" s="106"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -12651,24 +12888,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="108"/>
-      <c r="B151" s="109"/>
-      <c r="C151" s="109"/>
-      <c r="D151" s="109"/>
-      <c r="E151" s="109"/>
+      <c r="A151" s="112"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="107"/>
+      <c r="D151" s="107"/>
+      <c r="E151" s="107"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="109"/>
-      <c r="I151" s="109"/>
-      <c r="J151" s="109"/>
-      <c r="K151" s="109"/>
-      <c r="L151" s="109"/>
-      <c r="M151" s="109"/>
-      <c r="N151" s="109"/>
+      <c r="H151" s="107"/>
+      <c r="I151" s="107"/>
+      <c r="J151" s="107"/>
+      <c r="K151" s="107"/>
+      <c r="L151" s="107"/>
+      <c r="M151" s="107"/>
+      <c r="N151" s="107"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -12676,7 +12913,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="108"/>
+      <c r="A152" s="112"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -12713,7 +12950,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="19.5">
-      <c r="A153" s="108"/>
+      <c r="A153" s="112"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -12760,7 +12997,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="108"/>
+      <c r="A154" s="112"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -12797,7 +13034,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="108"/>
+      <c r="A155" s="112"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -12846,7 +13083,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="109"/>
+      <c r="A156" s="107"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -12893,17 +13130,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="98" t="s">
+      <c r="A157" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="92"/>
-      <c r="D157" s="92" t="s">
+      <c r="B157" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="95"/>
+      <c r="D157" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="92" t="s">
+      <c r="E157" s="95" t="s">
         <v>265</v>
       </c>
       <c r="F157" s="69">
@@ -12912,21 +13149,21 @@
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="H157" s="92"/>
-      <c r="I157" s="92">
-        <v>1</v>
-      </c>
-      <c r="J157" s="92">
+      <c r="H157" s="95"/>
+      <c r="I157" s="95">
+        <v>1</v>
+      </c>
+      <c r="J157" s="95">
         <v>2</v>
       </c>
-      <c r="K157" s="92" t="s">
+      <c r="K157" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="95"/>
-      <c r="M157" s="92" t="s">
+      <c r="L157" s="93"/>
+      <c r="M157" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="92"/>
+      <c r="N157" s="95"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -12944,24 +13181,24 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="99"/>
-      <c r="B158" s="94"/>
-      <c r="C158" s="94"/>
-      <c r="D158" s="94"/>
-      <c r="E158" s="94"/>
+      <c r="A158" s="101"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="94"/>
-      <c r="I158" s="94"/>
-      <c r="J158" s="94"/>
-      <c r="K158" s="94"/>
-      <c r="L158" s="97"/>
-      <c r="M158" s="94"/>
-      <c r="N158" s="94"/>
+      <c r="H158" s="96"/>
+      <c r="I158" s="96"/>
+      <c r="J158" s="96"/>
+      <c r="K158" s="96"/>
+      <c r="L158" s="94"/>
+      <c r="M158" s="96"/>
+      <c r="N158" s="96"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
@@ -12969,7 +13206,7 @@
       <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="19.5">
-      <c r="A159" s="99"/>
+      <c r="A159" s="101"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -13016,7 +13253,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="19.5">
-      <c r="A160" s="99"/>
+      <c r="A160" s="101"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -13063,7 +13300,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="19.5">
-      <c r="A161" s="99"/>
+      <c r="A161" s="101"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -13110,7 +13347,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="19.5">
-      <c r="A162" s="99"/>
+      <c r="A162" s="101"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -13157,7 +13394,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="19.5">
-      <c r="A163" s="99"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -13204,7 +13441,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="99"/>
+      <c r="A164" s="101"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -13253,7 +13490,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="99"/>
+      <c r="A165" s="101"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -13302,15 +13539,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="99"/>
-      <c r="B166" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="92"/>
-      <c r="D166" s="92" t="s">
+      <c r="A166" s="101"/>
+      <c r="B166" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="92" t="s">
+      <c r="E166" s="95" t="s">
         <v>265</v>
       </c>
       <c r="F166" s="69">
@@ -13319,21 +13556,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="92"/>
-      <c r="I166" s="92">
-        <v>1</v>
-      </c>
-      <c r="J166" s="92">
+      <c r="H166" s="95"/>
+      <c r="I166" s="95">
+        <v>1</v>
+      </c>
+      <c r="J166" s="95">
         <v>2</v>
       </c>
-      <c r="K166" s="92" t="s">
+      <c r="K166" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="95"/>
-      <c r="M166" s="92" t="s">
+      <c r="L166" s="93"/>
+      <c r="M166" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="92"/>
+      <c r="N166" s="95"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -13351,24 +13588,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="99"/>
-      <c r="B167" s="94"/>
-      <c r="C167" s="94"/>
-      <c r="D167" s="94"/>
-      <c r="E167" s="94"/>
+      <c r="A167" s="101"/>
+      <c r="B167" s="96"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="96"/>
+      <c r="E167" s="96"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="94"/>
-      <c r="I167" s="94"/>
-      <c r="J167" s="94"/>
-      <c r="K167" s="94"/>
-      <c r="L167" s="97"/>
-      <c r="M167" s="94"/>
-      <c r="N167" s="94"/>
+      <c r="H167" s="96"/>
+      <c r="I167" s="96"/>
+      <c r="J167" s="96"/>
+      <c r="K167" s="96"/>
+      <c r="L167" s="94"/>
+      <c r="M167" s="96"/>
+      <c r="N167" s="96"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -13376,7 +13613,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="99"/>
+      <c r="A168" s="101"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -13425,7 +13662,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="99"/>
+      <c r="A169" s="101"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -13474,15 +13711,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="99"/>
-      <c r="B170" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="92"/>
-      <c r="D170" s="92" t="s">
+      <c r="A170" s="101"/>
+      <c r="B170" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="95"/>
+      <c r="D170" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="E170" s="92" t="s">
+      <c r="E170" s="95" t="s">
         <v>265</v>
       </c>
       <c r="F170" s="69">
@@ -13491,21 +13728,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="92"/>
-      <c r="I170" s="92">
-        <v>1</v>
-      </c>
-      <c r="J170" s="92">
+      <c r="H170" s="95"/>
+      <c r="I170" s="95">
+        <v>1</v>
+      </c>
+      <c r="J170" s="95">
         <v>2</v>
       </c>
-      <c r="K170" s="92" t="s">
+      <c r="K170" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="95"/>
-      <c r="M170" s="92" t="s">
+      <c r="L170" s="93"/>
+      <c r="M170" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="92"/>
+      <c r="N170" s="95"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -13523,24 +13760,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="99"/>
-      <c r="B171" s="94"/>
-      <c r="C171" s="94"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="94"/>
+      <c r="A171" s="101"/>
+      <c r="B171" s="96"/>
+      <c r="C171" s="96"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="96"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="94"/>
-      <c r="I171" s="94"/>
-      <c r="J171" s="94"/>
-      <c r="K171" s="94"/>
-      <c r="L171" s="97"/>
-      <c r="M171" s="94"/>
-      <c r="N171" s="94"/>
+      <c r="H171" s="96"/>
+      <c r="I171" s="96"/>
+      <c r="J171" s="96"/>
+      <c r="K171" s="96"/>
+      <c r="L171" s="94"/>
+      <c r="M171" s="96"/>
+      <c r="N171" s="96"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -13548,7 +13785,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="99"/>
+      <c r="A172" s="101"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -13595,7 +13832,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="100"/>
+      <c r="A173" s="102"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -13643,23 +13880,248 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="L166:L167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
@@ -13684,248 +14146,23 @@
     <mergeCell ref="C170:C171"/>
     <mergeCell ref="D170:D171"/>
     <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="K127:K141"/>
-    <mergeCell ref="M127:M141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="L127:L141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="J127:J141"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E141"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="D127:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="H127:H141"/>
-    <mergeCell ref="I127:I141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A156"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="I4:I11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18765,7 +19002,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -18800,7 +19037,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" s="80" t="s">
         <v>283</v>
@@ -18830,7 +19067,7 @@
         <v>223</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -18860,7 +19097,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -18890,7 +19127,7 @@
         <v>237</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -18920,10 +19157,10 @@
         <v>241</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="62">
@@ -18950,7 +19187,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -18980,7 +19217,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -19010,7 +19247,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -19040,7 +19277,7 @@
         <v>253</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -19070,7 +19307,7 @@
         <v>257</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -19100,7 +19337,7 @@
         <v>258</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -19120,7 +19357,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M13" s="38"/>
     </row>
@@ -19132,7 +19369,7 @@
         <v>259</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -19152,7 +19389,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M14" s="38"/>
     </row>
@@ -19164,7 +19401,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>285</v>
@@ -19194,7 +19431,7 @@
         <v>255</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -19214,7 +19451,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M16" s="38"/>
     </row>
@@ -19226,7 +19463,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -19246,7 +19483,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M17" s="38"/>
     </row>
@@ -19258,7 +19495,7 @@
         <v>260</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>285</v>
@@ -19288,7 +19525,7 @@
         <v>261</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -19308,7 +19545,7 @@
         <v>203</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M19" s="38"/>
     </row>
@@ -19320,7 +19557,7 @@
         <v>262</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -19340,7 +19577,7 @@
         <v>203</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M20" s="38"/>
     </row>
@@ -19354,14 +19591,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q68"/>
+  <dimension ref="A2:Q70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -19388,7 +19625,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D2" s="87" t="s">
         <v>166</v>
@@ -19669,13 +19906,13 @@
         <v>289</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>214</v>
+        <v>505</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>300</v>
+        <v>507</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>299</v>
+        <v>519</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -19684,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>208</v>
@@ -19694,162 +19931,168 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>384</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="92" t="s">
         <v>289</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>304</v>
+        <v>516</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>517</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>306</v>
+        <v>518</v>
       </c>
       <c r="E12" s="35">
-        <v>2</v>
-      </c>
-      <c r="F12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35">
-        <v>14</v>
-      </c>
-      <c r="H12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36">
+        <v>4</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="36" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5">
-      <c r="A13" s="85" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87">
-        <v>0</v>
-      </c>
-      <c r="G13" s="87">
-        <v>99</v>
-      </c>
-      <c r="H13" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.5">
+      <c r="B13" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <v>4</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="85" t="s">
         <v>289</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+        <v>302</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2</v>
+      </c>
       <c r="F14" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="37">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:17">
+        <v>38</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.5">
       <c r="A15" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>483</v>
-      </c>
-      <c r="E15" s="40"/>
+      <c r="B15" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="87">
-        <v>7</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>99</v>
+      </c>
+      <c r="H15" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.5">
       <c r="A16" s="85" t="s">
         <v>289</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>397</v>
+        <v>202</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="87">
-        <v>1</v>
-      </c>
-      <c r="G16" s="87">
-        <v>6</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="36" t="s">
-        <v>38</v>
+        <v>296</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>10</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="37">
+        <v>2</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -19857,20 +20100,20 @@
         <v>289</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>430</v>
+        <v>395</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>480</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="87">
         <v>1</v>
       </c>
       <c r="G17" s="87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>11</v>
@@ -19880,7 +20123,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -19888,20 +20131,20 @@
         <v>289</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="87">
         <v>1</v>
       </c>
       <c r="G18" s="87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>11</v>
@@ -19911,179 +20154,183 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5">
-      <c r="A19" s="90" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="85" t="s">
         <v>289</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>486</v>
+        <v>397</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35">
-        <v>10</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="37">
-        <v>2</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>76</v>
+        <v>399</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="87">
+        <v>1</v>
+      </c>
+      <c r="G19" s="87">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="85" t="s">
         <v>289</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>487</v>
+        <v>398</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="35">
+        <v>400</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="87">
+        <v>1</v>
+      </c>
+      <c r="G20" s="87">
+        <v>2</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5">
+      <c r="A21" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
         <v>10</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="37">
-        <v>2</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35">
-        <v>1</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="37">
+        <v>2</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5">
+      <c r="A22" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>10</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="37">
+        <v>2</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="37">
         <v>3</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="87">
-        <v>1</v>
-      </c>
-      <c r="G22" s="87">
+      <c r="K23" s="35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="87">
+        <v>1</v>
+      </c>
+      <c r="G24" s="87">
         <v>6</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="35" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="91">
-        <v>1</v>
-      </c>
-      <c r="G23" s="91">
-        <v>12</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="35" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="91">
-        <v>1</v>
-      </c>
-      <c r="G24" s="91">
-        <v>2</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>11</v>
@@ -20091,28 +20338,28 @@
       <c r="I24" s="37"/>
       <c r="J24" s="36"/>
       <c r="K24" s="35" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="90" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B25" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>500</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>511</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="91">
         <v>1</v>
       </c>
       <c r="G25" s="91">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>11</v>
@@ -20120,86 +20367,86 @@
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="35"/>
+      <c r="A26" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="91">
+        <v>1</v>
+      </c>
+      <c r="G26" s="91">
+        <v>2</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="35" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87">
-        <v>0</v>
-      </c>
-      <c r="G27" s="87">
-        <v>9999</v>
-      </c>
-      <c r="H27" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5">
-        <v>2</v>
-      </c>
-      <c r="J27" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="35"/>
+      <c r="A27" s="90" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="91">
+        <v>1</v>
+      </c>
+      <c r="G27" s="91">
+        <v>6</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="35" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="85" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
-      <c r="F28" s="87">
-        <v>0.02</v>
-      </c>
-      <c r="G28" s="87">
-        <v>370</v>
-      </c>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="5">
-        <v>3</v>
-      </c>
-      <c r="J28" s="87" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11">
@@ -20207,10 +20454,10 @@
         <v>289</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -20218,237 +20465,229 @@
         <v>0</v>
       </c>
       <c r="G29" s="87">
-        <v>4000</v>
+        <v>9999</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="87"/>
+        <v>22</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
       <c r="J29" s="87" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35" t="s">
-        <v>280</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87">
+        <v>0.02</v>
+      </c>
+      <c r="G30" s="87">
+        <v>370</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3</v>
+      </c>
+      <c r="J30" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87">
+        <v>0</v>
+      </c>
+      <c r="G31" s="87">
+        <v>4000</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E31" s="35">
-        <v>2</v>
-      </c>
-      <c r="F31" s="35">
-        <v>1</v>
-      </c>
-      <c r="G31" s="35">
-        <v>14</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="19.5">
-      <c r="A32" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87">
-        <v>0</v>
-      </c>
-      <c r="G32" s="87">
-        <v>99</v>
-      </c>
-      <c r="H32" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="5">
-        <v>2</v>
-      </c>
-      <c r="J32" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="87" t="s">
+      <c r="B32" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>434</v>
-      </c>
-      <c r="C33" s="87" t="s">
-        <v>435</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>437</v>
-      </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87">
-        <v>1</v>
-      </c>
-      <c r="G33" s="87">
+        <v>314</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" s="35">
         <v>2</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
+      <c r="G33" s="35">
+        <v>14</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="I33" s="35"/>
+      <c r="J33" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19.5">
       <c r="A34" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>406</v>
+        <v>129</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>436</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>418</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D34" s="87"/>
       <c r="E34" s="87"/>
       <c r="F34" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="87">
+        <v>99</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="5">
         <v>2</v>
       </c>
-      <c r="H34" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>407</v>
+      <c r="J34" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="87" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F35" s="35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="35">
-        <v>1</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="37">
-        <v>3</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="40" t="s">
-        <v>383</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>434</v>
+      </c>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87">
+        <v>1</v>
+      </c>
+      <c r="G35" s="87">
+        <v>2</v>
+      </c>
+      <c r="H35" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F36" s="35">
-        <v>0</v>
-      </c>
-      <c r="G36" s="35">
-        <v>1</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="37">
-        <v>3</v>
-      </c>
-      <c r="J36" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>433</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87">
+        <v>1</v>
+      </c>
+      <c r="G36" s="87">
+        <v>2</v>
+      </c>
+      <c r="H36" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="87"/>
+      <c r="J36" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="40" t="s">
-        <v>281</v>
+      <c r="K36" s="86" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35">
@@ -20470,483 +20709,487 @@
         <v>38</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="D38" s="89" t="s">
-        <v>417</v>
-      </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87">
-        <v>1</v>
-      </c>
-      <c r="G38" s="87">
-        <v>2</v>
-      </c>
-      <c r="H38" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="87"/>
-      <c r="J38" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0</v>
+      </c>
+      <c r="G38" s="35">
+        <v>1</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="37">
+        <v>3</v>
+      </c>
+      <c r="J38" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="86" t="s">
-        <v>440</v>
+      <c r="K38" s="40" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>409</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>411</v>
-      </c>
-      <c r="D39" s="89" t="s">
-        <v>475</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87">
-        <v>1</v>
-      </c>
-      <c r="G39" s="87">
-        <v>17</v>
-      </c>
-      <c r="H39" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <v>1</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="37">
+        <v>3</v>
+      </c>
+      <c r="J39" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="86" t="s">
-        <v>481</v>
+      <c r="K39" s="40" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>420</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>421</v>
+        <v>407</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>414</v>
       </c>
       <c r="E40" s="87"/>
       <c r="F40" s="87">
         <v>1</v>
       </c>
       <c r="G40" s="87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="87" t="s">
         <v>11</v>
       </c>
       <c r="I40" s="87"/>
-      <c r="J40" s="85"/>
+      <c r="J40" s="85" t="s">
+        <v>38</v>
+      </c>
       <c r="K40" s="86" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F41" s="35">
-        <v>0</v>
-      </c>
-      <c r="G41" s="35">
-        <v>1</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="37">
-        <v>3</v>
-      </c>
-      <c r="J41" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87">
+        <v>1</v>
+      </c>
+      <c r="G41" s="87">
+        <v>17</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="87"/>
+      <c r="J41" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="40" t="s">
-        <v>457</v>
+      <c r="K41" s="86" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B42" s="87" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E42" s="87"/>
       <c r="F42" s="87">
         <v>1</v>
       </c>
       <c r="G42" s="87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="87" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="87"/>
-      <c r="J42" s="85" t="s">
-        <v>38</v>
-      </c>
+      <c r="J42" s="85"/>
       <c r="K42" s="86" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="C43" s="87" t="s">
-        <v>447</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>475</v>
-      </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89">
-        <v>1</v>
-      </c>
-      <c r="G43" s="89">
-        <v>17</v>
-      </c>
-      <c r="H43" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="87"/>
-      <c r="J43" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0</v>
+      </c>
+      <c r="G43" s="35">
+        <v>1</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="37">
+        <v>3</v>
+      </c>
+      <c r="J43" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="86" t="s">
-        <v>482</v>
+      <c r="K43" s="40" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B44" s="87" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="87">
         <v>1</v>
       </c>
       <c r="G44" s="87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="87" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="87"/>
-      <c r="J44" s="85"/>
+      <c r="J44" s="85" t="s">
+        <v>38</v>
+      </c>
       <c r="K44" s="86" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35">
-        <v>1</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="37">
-        <v>3</v>
-      </c>
-      <c r="J45" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" s="87" t="s">
+        <v>440</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>444</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89">
+        <v>1</v>
+      </c>
+      <c r="G45" s="89">
+        <v>17</v>
+      </c>
+      <c r="H45" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="87"/>
+      <c r="J45" s="85" t="s">
         <v>38</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="87">
         <v>1</v>
       </c>
       <c r="G46" s="87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="87" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="87"/>
-      <c r="J46" s="85" t="s">
-        <v>38</v>
-      </c>
+      <c r="J46" s="85"/>
       <c r="K46" s="86" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>451</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="D47" s="89" t="s">
-        <v>475</v>
-      </c>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89">
-        <v>1</v>
-      </c>
-      <c r="G47" s="89">
-        <v>17</v>
-      </c>
-      <c r="H47" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="87"/>
-      <c r="J47" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="35">
+        <v>1</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="37">
+        <v>3</v>
+      </c>
+      <c r="J47" s="35" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="86" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E48" s="87"/>
       <c r="F48" s="87">
         <v>1</v>
       </c>
       <c r="G48" s="87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="87" t="s">
         <v>11</v>
       </c>
       <c r="I48" s="87"/>
-      <c r="J48" s="85"/>
+      <c r="J48" s="85" t="s">
+        <v>38</v>
+      </c>
       <c r="K48" s="86" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="19.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F49" s="35">
-        <v>0</v>
-      </c>
-      <c r="G49" s="35">
-        <v>10</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="37">
-        <v>2</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K49" s="35" t="s">
-        <v>280</v>
+        <v>314</v>
+      </c>
+      <c r="B49" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="D49" s="89" t="s">
+        <v>472</v>
+      </c>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89">
+        <v>1</v>
+      </c>
+      <c r="G49" s="89">
+        <v>17</v>
+      </c>
+      <c r="H49" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="87"/>
+      <c r="J49" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="86" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="85" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>463</v>
+        <v>314</v>
+      </c>
+      <c r="B50" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>418</v>
       </c>
       <c r="E50" s="87"/>
       <c r="F50" s="87">
         <v>1</v>
       </c>
       <c r="G50" s="87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" s="87" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="87"/>
-      <c r="J50" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="35" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="19" customFormat="1">
+      <c r="J50" s="85"/>
+      <c r="K50" s="86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="19.5">
       <c r="A51" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="E51" s="35">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="F51" s="35">
         <v>0</v>
       </c>
       <c r="G51" s="35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I51" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="19" customFormat="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="85" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>86</v>
+        <v>469</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35">
+        <v>461</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87">
+        <v>1</v>
+      </c>
+      <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="37">
-        <v>3</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>45</v>
+      <c r="H52" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="87"/>
+      <c r="J52" s="85" t="s">
+        <v>38</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>479</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="19" customFormat="1">
       <c r="A53" s="85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -20954,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>22</v>
@@ -20966,231 +21209,231 @@
         <v>45</v>
       </c>
       <c r="K53" s="35" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="19" customFormat="1">
       <c r="A54" s="85" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
+      <c r="F54" s="35">
+        <v>0</v>
+      </c>
+      <c r="G54" s="35">
+        <v>2</v>
+      </c>
       <c r="H54" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="37">
+        <v>3</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="19" customFormat="1">
+      <c r="A55" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35">
+        <v>0</v>
+      </c>
+      <c r="G55" s="35">
+        <v>2</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="37">
+        <v>3</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35" t="s">
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B55" s="35" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55" s="35">
+      <c r="C57" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E57" s="35">
         <v>2</v>
       </c>
-      <c r="F55" s="35">
-        <v>1</v>
-      </c>
-      <c r="G55" s="35">
+      <c r="F57" s="35">
+        <v>1</v>
+      </c>
+      <c r="G57" s="35">
         <v>14</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H57" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35" t="s">
+      <c r="I57" s="35"/>
+      <c r="J57" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="19.5">
-      <c r="A56" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B56" s="87" t="s">
+      <c r="K57" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="19.5">
+      <c r="A58" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87">
-        <v>0</v>
-      </c>
-      <c r="G56" s="87">
-        <v>99</v>
-      </c>
-      <c r="H56" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2</v>
-      </c>
-      <c r="J56" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K56" s="87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="19.5">
-      <c r="A57" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35">
-        <v>2.33</v>
-      </c>
-      <c r="F57" s="35">
-        <v>0</v>
-      </c>
-      <c r="G57" s="35">
-        <v>10</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="37">
-        <v>2</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>463</v>
-      </c>
+      <c r="C58" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="D58" s="87"/>
       <c r="E58" s="87"/>
       <c r="F58" s="87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="87">
+        <v>99</v>
+      </c>
+      <c r="H58" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="5">
         <v>2</v>
       </c>
-      <c r="H58" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="87"/>
-      <c r="J58" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="19" customFormat="1">
+      <c r="J58" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="19.5">
       <c r="A59" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>325</v>
-      </c>
       <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="E59" s="35">
+        <v>2.33</v>
+      </c>
       <c r="F59" s="35">
         <v>0</v>
       </c>
       <c r="G59" s="35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H59" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I59" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="19" customFormat="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="85" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>86</v>
+        <v>469</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35">
-        <v>0</v>
-      </c>
-      <c r="G60" s="35">
+        <v>462</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87">
+        <v>1</v>
+      </c>
+      <c r="G60" s="87">
         <v>2</v>
       </c>
-      <c r="H60" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="37">
-        <v>3</v>
-      </c>
-      <c r="J60" s="35" t="s">
-        <v>45</v>
+      <c r="H60" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="87"/>
+      <c r="J60" s="85" t="s">
+        <v>38</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>479</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="19" customFormat="1">
       <c r="A61" s="85" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -21198,7 +21441,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>22</v>
@@ -21210,100 +21453,100 @@
         <v>45</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="19" customFormat="1">
-      <c r="A62" s="88" t="s">
-        <v>461</v>
+      <c r="A62" s="85" t="s">
+        <v>320</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>462</v>
+        <v>86</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>467</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="35">
         <v>2</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="37"/>
+        <v>22</v>
+      </c>
+      <c r="I62" s="37">
+        <v>3</v>
+      </c>
       <c r="J62" s="35" t="s">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="19" customFormat="1">
       <c r="A63" s="85" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
-      <c r="F63" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>200</v>
+      <c r="F63" s="35">
+        <v>0</v>
+      </c>
+      <c r="G63" s="35">
+        <v>2</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I63" s="37">
         <v>3</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="85" t="s">
-        <v>290</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="19" customFormat="1">
+      <c r="A64" s="88" t="s">
+        <v>458</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>46</v>
+        <v>459</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" s="35"/>
+        <v>463</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>464</v>
+      </c>
       <c r="E64" s="35"/>
       <c r="F64" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" s="37">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I64" s="37"/>
       <c r="J64" s="35" t="s">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -21311,124 +21554,186 @@
         <v>290</v>
       </c>
       <c r="B65" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="37">
+        <v>3</v>
+      </c>
+      <c r="J65" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35">
+        <v>0</v>
+      </c>
+      <c r="G66" s="35">
+        <v>10</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="37">
+        <v>2</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="35">
+      <c r="C67" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="35">
         <v>2</v>
       </c>
-      <c r="F65" s="35">
-        <v>1</v>
-      </c>
-      <c r="G65" s="35">
+      <c r="F67" s="35">
+        <v>1</v>
+      </c>
+      <c r="G67" s="35">
         <v>14</v>
       </c>
-      <c r="H65" s="35" t="s">
+      <c r="H67" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35" t="s">
+      <c r="I67" s="35"/>
+      <c r="J67" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K65" s="35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="87" t="s">
+      <c r="K67" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B68" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="35">
+      <c r="C68" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" s="35">
         <v>2</v>
       </c>
-      <c r="F66" s="35">
-        <v>1</v>
-      </c>
-      <c r="G66" s="35">
+      <c r="F68" s="35">
+        <v>1</v>
+      </c>
+      <c r="G68" s="35">
         <v>14</v>
       </c>
-      <c r="H66" s="35" t="s">
+      <c r="H68" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35" t="s">
+      <c r="I68" s="35"/>
+      <c r="J68" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K66" s="35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" s="35" t="s">
+      <c r="K68" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="89" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="89" t="s">
-        <v>512</v>
-      </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="35" t="s">
+      <c r="C69" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G69" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="H67" s="35" t="s">
+      <c r="H69" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I69" s="37">
         <v>3</v>
       </c>
-      <c r="J67" s="35" t="s">
+      <c r="J69" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="K67" s="89"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="35" t="s">
+      <c r="K69" s="89"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="89" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="89" t="s">
-        <v>513</v>
-      </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="35">
-        <v>0</v>
-      </c>
-      <c r="G68" s="35">
+      <c r="C70" s="89" t="s">
+        <v>504</v>
+      </c>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="35">
+        <v>0</v>
+      </c>
+      <c r="G70" s="35">
         <v>10</v>
       </c>
-      <c r="H68" s="35" t="s">
+      <c r="H70" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I70" s="37">
         <v>2</v>
       </c>
-      <c r="J68" s="35" t="s">
+      <c r="J70" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="K68" s="89"/>
+      <c r="K70" s="89"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
